--- a/code/content/TOPIC_XLSX/할당문서_1.xlsx
+++ b/code/content/TOPIC_XLSX/할당문서_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="811">
   <si>
     <t>분실물문의 19.03.12일 (금일) 수영장에서 소니 방수이어폰을 잃어 버렸습니다. 이에, 분실물 접수가 되었는지 문의 드립니다.바쁘신데 도움주셔서 감사합니다.</t>
   </si>
@@ -31,9 +31,6 @@
     <t>분실문 문의 안녕하세요혹시 VoC발생일이 정확하게 기억나지 않은데 검은색안경을 잃어버렸습니다.소지하고 계신가해서 문의드립니다</t>
   </si>
   <si>
-    <t>정정미 영양사님을 칭찬합니다 오늘 점심에 기숙사식당에 편의식을 타러갔는데뭐가 뭔지 몰라 가만히 서있었는데 정정미 영양사님이 다가와서설명도 조곤조곤하게 잘 해주시고 친절하게 대해주셔서기분이 너무 좋았고 정말 감사했습니다.</t>
-  </si>
-  <si>
     <t>김반장님 및 기사님들 감사합니다 김반장님 및 기사님들 감사합니다통근버스 주차장 이동 후 사내순환셔틀 편리하게 이용하고 있습니다항상 친절하게 운행하시는 모습에 늘 감사하는 마음은 있었으나 표현하지 못하고 있었습니다.이 자리를 빌어 감사의 마음 전합니다</t>
   </si>
   <si>
@@ -49,30 +46,102 @@
     <t>박태준실장님을 칭찬합니다. 3월 4일 아침 빵코너가 변경되어 어수선하고 복잡한 상황에 무었을 어떻게 선택을해야하나 당황되는 순간 박태준실장님의 친철한 설명으로 맛있는 빵과 간식을즐겁게 먹을 수 있어 그날 하루가 즐거운 하루였습니다.다시한번 친철한 박태준실장님을 칭찬합니다</t>
   </si>
   <si>
-    <t>편의식 카테고리?? 없에주세요 제발 누구 머리에서 나온 생각인지 몰라도 이게 뭐하는 짓인가요?자유롭게 가져가게 해주세요 제발</t>
+    <t>분실물 문의 사당행 10시차에서 휴대폰을 두고 내린것 같습니다...혹시 분실물 들어온거 있나요?</t>
   </si>
   <si>
     <t>체육시설 출입문 타각 문의 기숙사식당 지하 헬스장에  출입증 타각기가 있는데 제 상시출입증으론 타각이 안되네요 같은회사 타직원은 타각이 되구요따로 신청해야 하나요 ?? 회사는  (주)조일이씨에스 이름:김규진 생년월일:92.10.07 입니다</t>
   </si>
   <si>
-    <t>청주 4캠퍼스(M15) 식당 영양사님들을 칭찬합니다. 청주 4캠퍼스(M15)에 온지 그리 오래 되지 않은 하이닉스 직원입니다. 다름이 아니라 4캠퍼스 식당 영양사분들 모두를 칭찬하고 싶네요.다른 식당과 달리 가건물을 사용하고 있어서 상대적으로 열악한 환경에 불편하고 힘드실텐데 항상 웃음 잃지 않으시고 밝게 인사 건내주시는 모습, 직원들의 불평에도 매번 친절하게 답변을 해주시는 모습이 너무 보기 좋습니다.또한 저를 포함한 저희 부서 직원분들은 영양과 선호도를 고려한 메뉴에도 만족하고 있습니다. 간혹 사내 커뮤니티에 안좋은 글이 올라오기도 하던데 만족하는 직원들이 더 많다는 사실 알아주시고 앞으로도 계속 밝은 인사 한마디, 고객을 생각하는 맛있는 메뉴!! 기대하겠습니다^^p.s. 이벤트에 당첨된 적은 없지만 종종 있는 이벤트에 참여하는 재미가 솔솔합니다. 준비 하시느라 다들 고생 많으실거 같아요. 이벤트 당첨되고 싶네요.</t>
-  </si>
-  <si>
-    <t>분실물문의 빨간색 실리콘케이스와 토토로 인형이달린에어팟 케이스를 분실하였는데 혹시 버스에 놓고내린 것 같아서요~ 확인부탁드립니다! ㅠㅠ</t>
-  </si>
-  <si>
     <t>행복5문에서 셔틀버스타러가는길에 행복5문에서 셔틀버스타러가는길에빨간색 실리콘케이스와 토토로 인형이달린에어팟 케이스를 분실하였는데혹시 사내 분실물 접수는 어디에 문의하면되는지요여기서문의가 가능할까요?</t>
   </si>
   <si>
     <t>오늘 M15 정문에 계신 보안분 칭찬합니다 오늘 오후 5시반에서 5시50분 정도사이에 M15 정문 가운데 옆에서 검색하시던 안경쓰고 계셨던분 제가 정말 보안검색을 받고 있어도 너무나 감사하게 감사합니다 수고하셨습니다 라고 해주시고 같은 검색을  받고 있어도 기분좋게 해주시네요 꼭 확인해주셔서 감사하다고 전달부탁 드려요</t>
   </si>
   <si>
-    <t>어제 복지관 석식에 나온 소고기무국 먹고 추억이 되살아났어요~ 소고기무국에 기름(비계)가 너무 많아서 군대에서 먹던 소고기 무국이 생각나던군요..군대에서는 기름국이라고 했는데 이제는 군대에서 조차 나오지 않는걸로 알고 있어요..추억감성 돋게 해주셔서 너무 감사합니다.. 덤으로 살 까지 많이 지게될것 같아요^^앞으로도 좋은재료 국산까지는 바라지도 않치만 재료에 신경써주길 바랍니다.</t>
+    <t>버스 매너 공지 해주세요 아직 날씨가 추워 외투가 두껍게 입고 다녀서 셔틀 타고 다니면 두명이 앉게 되면 자리가 좁게 느껴집니다서로에게 배려가 필요한데혼자서 2인 자리 차지 하고 있고 옆에 앉아도 비켜주지 않는 사람이 다수입니다이전엔 버스 매너라고 하여 홍보를 해서 괜찮았는데 요즘은 사람들이 많아져서 인가요? 매너나 배려가 전혀 없습니다혼자서 2인 자리 차지 하고 비켜 주지 않는사람들이 너무 많습니다홍보를 하여 이런한 기본 버스매너 공지해주시고 탑승자분들은 다른분들을 위한 배려를 생각해주시기 바랍니다</t>
+  </si>
+  <si>
+    <t>출입 및 주차문의 안녕하세요하이닉스 신입사원 청주 정지석 TL입니다.사외기숙사 거주하는데 청주 문화센터 출입을 위한 타각기 등록 절차와 개인자차를 이용한 사원주차장 이용 절차를 알고싶습니다.</t>
+  </si>
+  <si>
+    <t>잘되던 사원증 탈각되지 않습니다. 식당 리모델링후 지금까지 잘되던 사원증 탈각되지 않아 수기로 작성하고 있습니다. 사원증이 탈각되는 기계도 있는데 그쪽은 운영안한다고 사용하지 말라고 하시고요 언제까지 수기로 작성해야하나요예전에 사용하던 기계로 교체를 하던지 아니면 다른 방법으로라도 빠른 조치를 해주세요 내돈 내고 밥먹는 건데 누구는 되고 누구는 안되고 귀찮고 불편합니다.</t>
+  </si>
+  <si>
+    <t>3교대 통근버스 청주 용암동 16번 기사님 관련건 2월 4일 상기건 관련 고객소리에 글을쓴 당사자입니다16번운전하시는 기사님은 평상시 친절한분이었습니다 그날은 피곤하셨는지 못보시고 그런일이 발생하셨는데 누구나 실수는할수있다고 봅니다 이일로 인하여 회사로부터 기사님에게 불이익이 생기지 않기를 바랍니다저는 이런일이 재발되지 않도록하기위해 올린것이지 불이익이나 피해를 받으라고 한것은 아닙니다  항상 출퇴근 하는 근로자를 위해 수고하시는기사님들이기때문입니다</t>
+  </si>
+  <si>
+    <t>향정동 남자기숙사 주차장 이용하기가 아주아주 불편합니다.주차 자리도 없을 뿐더러구성원분들 자꾸 남자기숙사에 주차하시고 출근하시는데그거 엄청 이기적이신거 아시나요 ?기숙인들 주차공간도 협소한데 거기에 구성원분들 주차하고 출근하시고체육시설 이용하는 구성원분들도 기숙인 주차공간에 막무가내로 주차하시고기숙사 주차관리하시는분들은 기타 협력사라서 뭐라고 하지도 못하시던데진짜 불편합니다</t>
   </si>
   <si>
     <t>사원증 분실시 재발급 사원증 분실시 재발급 절차가 어떻게되나요?그리고 연휴에도 재발급이 가능한가요?</t>
   </si>
   <si>
+    <t>M15 정문 금연구역 아닌가요?? 어제 밤 11시30분 12시 사이에 M15 정문을 지나칠일이 있어지나가는데 정문 도로변에 흡연을 하시던데 언뜻봐도 보안근무자 이신것 같더라구요?? 왜 이전에 금연구역을 지정하여 저희에겐 금연을 요구하고 자신들은 그자리에서 흡연을 하고 있는지요 ?? 아니면 저희도 그 구역에서 흡연이 가능하도록 허용해주던지요 그게 아니라면 교육바랍니다</t>
+  </si>
+  <si>
+    <t>봉명기숙사 술좀적당히들드세요 안녕하세요 봉명기숙사사는 사람입니다 다름이아니라 오늘새벽3시30분쯤 오후근무끝나고 자고있었습니다 근대 그시간에 누가 현관비밀번호를누르고 문을걷어차면서 계속문을열려고하는겁니다 30분동안이나요 저는남자여도 그시간 저러면 저도 약간기장됬는데 여자분들사시는곳에가서그러면 얼마나 무서울까요! 그래서 잠에서 깨어서 나가보니 어떤여성분이 술이 많이취하셔서 누구냐고 여기우리집인데 이러는겁니다 저는 당황했지만 잘타일러서 집잘못찻아오신것같다고 여기 몇호라고하고 말하였더니 아 그래요 하면서 사과없이 돌아가버렸습니다 아니 뭐 회사사람들다같이사는데고 해서 아무말안하려했는데 이런일이 한번이아닌데 술좀적당히들드시고 사람이면사람답게행동하고 다녔으면 좋겠습니다이런문제점좀 제발고쳐졌으면하는 바람입니다</t>
+  </si>
+  <si>
+    <t>수도관광 7142 버스 수도관광 7142 버스노후화로 사내셔틀 이용시 멀미가 납니다.뒷자리 바퀴부분은 튀어나와서 의자에 앉기가 불편합니다.좌석도 수가 조금 부족해 보입니다.회사 로고표시 되어있는 사내셔틀을 다 운행하기엔 어렵나요?</t>
+  </si>
+  <si>
+    <t>대전에서 내리는 통상퇴근버스에서 장갑을 분실하였습니다. 안녕하세요.오늘 21시35분경 대전 정부청사터미널에서 내렸는데 모르고 장갑을 두고 내렸습니다.앉아있던 좌석은 맨앞자리였고. 장갑은 검은색장갑이고 영어로R이라고 써있습니다.저에게는 의미있는 장갑이니 꼭좀 찾아주시면 감사하겠습니다.분실물 있으시면 010-8236-8810으로 연락주시면 감사하겠습니다.</t>
+  </si>
+  <si>
+    <t>대전에서 내리는 통상퇴근버스에서 장갑을 분실하였습니다. 안녕하세요.오늘 21시35분경에 대전정부청사터미널에서 내렸는데 장갑을 두고 내렸습니다.앉아있던좌석은 맨앞자리였고 장갑은R이라고 써있는 검은 장갑입니다.꼭좀 찾아주셨으면 좋겠습니다 저에게는 의미있는 장갑입니다.이분실물 있으면 번거로우시겠지만 010-8236-8810으로 연락주시면 감사드리겠습니다.</t>
+  </si>
+  <si>
+    <t>어플 ID 인증 현대엘리베이터 직원입니다. 해피로드 어플을 이용하고자 ID인증을 수차례 시도했으나 되질 않습니다.회사 사번, 사원증 ID, 회사 그룹웨어 ID 등 모든 것을 입력해도 안되는데 어찌해야 인증이 가능한지 알려주시면 감사하겠습니다. 이전 어플에서는 잘 사용되었는데 혹시 금번 어플은 계약사 직원은 접근을 막아 놓은건 아닌지요?</t>
+  </si>
+  <si>
+    <t>기숙사 소음 문의 봉명기숙사 사는 1인입니다봉명기숙사가 노후된건 알고 있어서 바깥의 소음이나 창문 틈새, 가구소음등 이해할수 있었습니다...기숙사 들어오고 공동샤워실 화장실등 공동생활이다 보니 출퇴근시 발생되는 소음, 기숙사 보수관련 소음 또한 이해했었습니다그런데 건너편 방에 거주하시는 두분이 복도 문을 활짝 열여두고 생활하시니 건너편방에 거주하는 제 방 문 밑으로 소음이 다 들어옵니다최근 들어오는 한기를 줄이려 아래 문풍지를 붙여놓는 보수작업으로 인해 한기도 줄고 소음도 줄긴 했는데 날이 풀리면 그 틈으로 소음이 고스란히 들어올까 두려워 이렇게 글을 써 봅니다....제가 너무 사고방식이 타이트한건지 모르겠지만 기숙사가 물론 내집처럼 편하면 좋죠그런데 기숙사건 내집이건 주변 건물이나 위아래옆집에 사는 이웃이 있고 층간소음으로 기사화도 되는 사회인데 이글을 올리기전 직접적으로 스피커 볼륨을 줄여주시면 안되겠냐 부탁드려서 그러겠다 답을 받아 감사하다 했지만 그것도 잠시였을 뿐.....사감님께 말씀드렸더니 서로 말해서 해결보는거 외엔 해줄수있는건 교대근무자를 위한 배려문구 정숙이라는 큰글씨를 A4용지에 출력해 보이는곳에 붙이는 방법뿐이었습니다계약직이라 집을 얻어 살기도 그렇고 근무는 해야겠어서 그 이후로 귀마개를 착용한후 잠에 들고는 있습니다만오늘도 문을 열어두고 1시간째 블루투스 스피커로 음악감상을 하고 계십니다...오전조 출근이라 퇴근해서 망정이지 야간조였다면 잠못이루고 출근했을겁니다....저 음악 소리를 듣고 흥얼거리다 잠못이루고 출근하는 날이 올까 무섭습니다서로 대화로 해결해보세요~라는 답변말고 다른 신선한 답변 기대하고 있겠습니다....또다시 직접적으로 말하면 괜히 얼굴붉히고 기싸움할것같아서 복도에서 발생되는 소음이 방안으로 흘러들어오는걸 방지할수있는 무언가가 보수될 수 없을까요?아니면 계속 이 소음을 안고 가야하는지 알려주세요...</t>
+  </si>
+  <si>
+    <t>사원증 재발급 후 통근버스 타각시 타각시 사용할수 없는 카드라고 뜹니다앱이나 홈페이지에서 등록을 해야하는건지 찾아봐도 없네요어떻게 해야하는지 알려주세요</t>
+  </si>
+  <si>
+    <t>해피버스 로그인 어플이 로그아웃 된후에...로그인이 안되요..비번은 기억이 안나고..1. 비밀번호 찾기를 하면..전화번호 입력하고 전송을 누르면.. 구성원 인증이 되지 않았거나 전화번호가 등록되지 않아서 비밀번호 재발급이  불가합니다. 라고 나오고..2. ID 인증을 하려구 하면..-. 사번 + 이름 기입하고 확인을 누르면.. 이미 가입된 아이디입니다. 라고 나오고.. 다음을 누르면..  ID인증을 해주세요. 라고 나오고..사번-D13444 입니다.해피버스 로그인 하는 방법좀 알려주세요..</t>
+  </si>
+  <si>
+    <t>안녕하세요 안녕하세요청주 하이닉스 남자 기숙사 쪽에 위치한 헬스장 너무 쾌적하게 잘 이용하고 있습니다.다름이 아니라, 헬스장의 기구에 대해 문의드립니다.제가 복근 운동을 좋아하는데, 아쉽게도 헬스장엔 복근운동을 할만한 기구가 구비되있지 않아 아쉬움이 듭니다. 혹시 가능하다면 복근운동 기구를 추가해주시면 정말 감사하겠습니다.</t>
+  </si>
+  <si>
+    <t>id인증 어플이 로그아웃 된후에...로그인이 안되요..비번은 기억이 안나고..1. 비밀번호 찾기를 하면..전화번호 입력하고 전송을 누르면..구성원 인증이 되지 않았거나 전화번호가 등록되지 않아서 비밀번호 재발급이 불가합니다. 라고 나오고..2. ID 인증을 하려구 하면..-. 사번 + 이름 기입하고 확인을 누르면.. 이미 가입된 아이디입니다. 라고 나오고..다음을 누르면..  ID인증을 해주세요. 라고 나오고..해피버스 로그인 하는 방법좀 알려주세요..사번-D13444 신관욱 입니다</t>
+  </si>
+  <si>
+    <t>분실물 문의드립니다 1월9일 22시 퇴근 흥덕광교선에 가방을 놓고 내린것같습니다..(검은색 TUMI 백팩)가방안에 지갑 및 사원증도 있어서요.. 수거된 분실물 있는지 확인 부탁드립니다.</t>
+  </si>
+  <si>
+    <t>해피버스 인증 및 로그인 어플이 로그아웃 된후에...로그인이 안되요..비번은 기억이 안나고..1. 비밀번호 찾기를 하면..전화번호 입력하고 전송을 누르면..구성원 인증이 되지 않았거나 전화번호가 등록되지 않아서 비밀번호 재발급이 불가합니다. 라고 나오고..2. ID 인증을 하려구 하면..-. 사번 + 이름 기입하고 확인을 누르면.. 이미 가입된 아이디입니다. 라고 나오고..다음을 누르면..  ID인증을 해주세요. 라고 나오고..D13444. 신관욱 01090949468임시비번을 핸폰으로 발송해주시거나핸폰을 등록부탁드립니다그럼 수고하세요</t>
+  </si>
+  <si>
+    <t>해피버스 인증 및 비번 예전에 해피버스 ID인증하고 자동로그인으로사용하고 있었습니다한두달 전쯤에 셔틀탈때 인증되지않은 카드라는메세지가 나오다가 얼마지나자 안나옵니다.좀전에 우연히 해피버스 ID인증을 안하면위와같은 메세지가 나온다는 얘길듣고어플에 접속을하니깐로그인이 풀려있고 비번안되고핸폰 번호가 다른걸로 재등록되었는지비밀번호찾기가 안됩니다ID인증도 이미 인증되었다고 진행안됩니다.삼구아이앤씨 D13444 신관욱 01090949468입니다.어플사용을 할수가 없으니확인후 임시비번 발송 또는 핸폰등록 부탁드립니다그럼 수고하세요</t>
+  </si>
+  <si>
+    <t>happyroad 어플 문의 드립니다. 안녕하세요.happyroad 어플 사용중에 로그인이 풀려 다시 로그인이 되지 않아비밀번호 초기화를 시도했는데 아래와 같은 메시지가 나오며 진행이 되지 않습니다.구성원 인증이 되지 않았거나 전화번호가 등록되지 않아서 비밀번호 재발급이  불가합니다.해결방법 문의 드립니다.(사원번호: SHI0031884)감사합니다.</t>
+  </si>
+  <si>
+    <t>해피버스 어플 ID 인증 어플이 로그아웃 된후에...로그인이 안되요..비번은 기억이 안나고..1. 비밀번호 찾기를 하면..   전화번호 입력하고 전송을 누르면..   구성원 인증이 되지 않았거나 전화번호가 등록되지 않아서 비밀번호 재발급이      불가합니다.     라고 나오고..2. ID 인증을 하려구 하면..  -. 사번 + 이름 기입하고      확인을 누르면..   이미 가입된 아이디입니다. 라고 나오고..     다음을 누르면..  ID인증을 해주세요. 라고 나오고..해피버스 로그인 하는 방법좀 알려주세요..</t>
+  </si>
+  <si>
+    <t>어플설치불가 삼성 갤럭시노트4 사용자입니다.해피로드 어플을 깔고자하는데, 지원이안되는 기기라고뜹니다....어플이아니면 통근노선표를 확인 할 수 있는 다른방법이있나요...왜 노트4는 지원이안되는지 알고싶습니다</t>
+  </si>
+  <si>
+    <t>휴대폰 분실 문의건 안녕하세요 임유석입니다.금일 신길선(영등포) 통근버스에 서 휴대폰을 놓고 내렸습니다.분실접수가 되었는지, 되지 않았다면 노선 운행하신 기사님 연락처를 알고 싶습니다.감사합니다.</t>
+  </si>
+  <si>
+    <t>통근 버스 운전을 최고급 승용차처럼 해주신 기사님께 감사드립니다. 통근 버스 운전을 최고급 승용차처럼 해주신 기사님께 감사드립니다.홈페이지까지 찾아와서 글쓰게 만드는 기사님 정말 운전 잘하시네요.불편 건의사항이 올라오는 다른 기사님들의 강사가 되셨으면 하는 생각도 합니다^^원래 이노선은 다른 기사님이 운행 하셨었는데요.잠시 대타로 운행 하신것같네요.계속 못타서 아쉽긴 하지만...안전운행과 신호 위반 전혀 안하시는 기사님께 다시한번 감사드립니다. 덕분에 아침부터 기분좋은 출근길이 였습니다!!</t>
+  </si>
+  <si>
+    <t>주차 관련 문의 주말 , 공휴일에 sk계열사 건물에 주차 가능한것으로 알고 있습니다.서울에 주차 가능한 sk 계열사 건물 주소 알수 있을까요??그리고 sk텔레콤 성수사옥에도 주차 가능 한가요??</t>
+  </si>
+  <si>
+    <t>과격한운전으로인한 불편 급브레이크로인한 서서 이동하는사람들의충격넘어짐 멀미탑승자에게 미안한 마음엄는 과격한운전 다들 불쾌하나 말못함으로 건의글 올립니다 운전좀 조심히 해쥬셧음 하네요 왜그렇게 급하게 하시는지 모르겟네요</t>
+  </si>
+  <si>
+    <t>부속의원 물리치료사 분들을 칭찬합니다. 2018년 올 해도 마지막 달인 12월이 되었네요.저물어 가는 한 해를 가만히 돌이켜 볼 때, 감사한 일이 참 많았는데요.올 한해도 무탈히 잘 지낼 수 있었던 이유 중 하나는바로 하이스텍 물리치료사분들의 치료의 헌신과 도움이라고 당당히 이야기 하고 싶습니다.저는 허리와 목 디스크로 장기간 휴직 및 각종 치료를 받았지만 완치되지 않은 상태로 무거운 마음만 가진 채 저는 올 해 초 회사에 복직을 하였습니다.오랜 시간 쉬었던 터라 익숙지 않은 업무를 하면서 어떻게 치료를 받을지 고민을 많이 했었죠.그런데 하이스텍 물리치료사 분들이 저에겐 너무나 도움이 되었습니다.특히, 김유진 선생님은 아픈 부위를 하나씩 만져가며 어디가 잘못되었는지 친절히 진단을 해 주셨고, 꾸준한 치료 및 적절한 재활운동 방법도 알려주셔서 디스크가 더 이상 악화되지 않고 업무를 수행할 수 있었습니다.또한, 치료사 선생님 본인 스스로 손목 아프시거나 몸이 안 좋은 날에도 싫은 내색하지 않으시고저를 비롯하여 환자들을 꼼꼼히 치료해 주실 때는 저라도 대신 치료해 드리고 싶을 정도로 마음이 짠했습니다. 얼마 전에는 새로운 기기가 들어와서 치료 효과도 더욱 좋아졌지만 그래도 저는 환자를 생각하는 치료사 선생님들의 진정 어린 마음을 따라갈 수 있는 치료기기는 없다는 생각이 들었습니다.그래서 한 가지 바램은 환자를 치료하는 선생님들의 마음이 실제 치료를 할 때 환자에게 미치는 영향이 크다는 걸 알기에의료진 증원, 치료사 분들의 휴식시간 보장 및 근무여건이 좀 더 좋아지면 좋겠다는 생각이 들었습니다.(특히, 요즘 이천캠퍼스에 다양한 건설현장이 추가되어 물리치료 받는 환자들이 증가한 것 같아서요)2018년, 물리치료사 선생님들(특히, 김유진 선생님) 올 한해도 감사했습니다.그리고 하이스텍 부속위원 모든 의료진, 관계자 분들께도 감사의 말씀을 드립니다.</t>
+  </si>
+  <si>
     <t>안내데스크 직원분 칭찬합니다. 안녕하세요. 얼마전에 퇴근 길에 안내데스크 안쪽에 의자에서  통근 버스를 기다리고 있는데 배에 통증이 와서 안내데스크에 비상약이 있는지 여쭈어 봤는데, 구비된 비상약은 없고 마침 본인한테 약이 있다면서  가지고 계시던 약을 주시더라고요. 그래서 너무 감사했습니다~버스 기다리느라 눈에 띄게 이쁘셔서 오며 가며 봤는데 다른 분한테도 친절 하시드라구여.무거운 문서 같은것도 같이 들어주시고~ 얼마전에 안내데스크 가봤는데 안계셔서 다른 캠퍼스로 이동하셨는지..이걸 진작에 썼어야 했는데 어디다가 올리는지 이제 찾는 바람에 늦게 올리게 되었네요 혹시나 다른 캠퍼스에 계시면 이 글을 보여드렸으면 합니다!인상착의는 얼굴이 하얗고 좀 자그마한 키였어요!</t>
   </si>
   <si>
@@ -82,6 +151,9 @@
     <t>안내데스크 직원분 칭찬합니다. 안녕하세요. 얼마전에 퇴근 길에 안내데스크 안쪽에 의자에서 통근 버스를 기다리고 있는데 배에 통증이 와서 안내데스크에 비상약이 있는지여쭈어 봤는데, 구비된 비상약은 없고 마침 본인한테 약이 있다면서 가지고 계시던 약을 주시더라고요. 그래서 너무 감사했습니다~버스 기다리느라 눈에 띄게 이쁘셔서 오며 가며 봤는데 다른 분한테도 친절 하시드라구여.무거운 문서 같은것도 같이 들어주시고~ 얼마전에 안내데스크 가봤는데 안계셔서 다른 캠퍼스로 이동하셨는지..이걸 진작에 썼어야 했는데 어디다가 올리는지 이제 찾는 바람에 늦게 올리게 되었네요혹시나 다른 캠퍼스에 계시면 이 글을 보여드렸으면 합니다!인상착의는 얼굴이 하얗고 좀 자그마한 키였어요!</t>
   </si>
   <si>
+    <t>헬스장 사이클 고장 헬스장 사이클 고장 교체아니면 수리해주세요.</t>
+  </si>
+  <si>
     <t>청주 1캠퍼스 보안 요원관련 청주 1캠 보안요원 여사원 관련 하여 말씀드립니다.정문으로 출근 시 왼쪽에 앉아 계시는 여사원분, (타각기쪽에 더 가깝게 앉으신분.)굉장히 불친절한데, 컨셉인가요????버스에서 사원증을 분실하였는데,오늘 습득하여 1캠 정문 보안실에 보관중이라는 문자를 받고 출근하여서 왼쪽에 앉아 계신 여사원께 문의 중이였는데 오른쪽에 앉아 계신 여사원께서 제 말을 계속 끊고 언성을 높이며아 여기 사원증 없다고요!!! 안쪽에 들어가셔야 있다고요!!! 그래서 일일사원증 신청하실꺼죠?!이러는데 진짜 불쾌했습니다.저도 화가나 언성이 높아지니 뒤쪽에 계신 남자 보안요원이 제 이름을 물으시길래 이름을 말했더니 거기 보관중이더군요ㅋㅋㅋ확인도 안해보고, 찾아보지도 않고 무작정 없다고 언성 높이면 단가요? 결국 사과도 안하셨습니다.사과 대신 뒤에 계셨던 남자 보안분께 짜증 부리시더라구요ㅋㅋ있으면 있다고 얘길했어야지!!!그렇게 얘기하기 전에 본인이 보관 유무를 확인부터 하고 저한테 사과를 해야 정상 아닌가요?출근하자마자 굉장히 기분 나빴습니다.자 회사 사람인 저한테 이럴 정도면타 회사 사람들께는 어떻게 할지 눈에 빤히 보이네요.너무 화가나 부서 사람들한테 이야기했더니, 유명하더군요 그분?엄청난 친절을 바라는게 아니에요.할 일을 해달라는거고, 사람을 대할 때 기분 상하지 않게는 해줄 수 있는거 아닌가요?시정 조치 부탁드립니다.</t>
   </si>
   <si>
@@ -91,10 +163,22 @@
     <t>Supex 피트니스 센터 이용 시 마다 늘 깨끗하게 청소되어있는 샤워시설을 이용할 수 있어서쾌적하고 기분좋게 하루를 마감하고 있습니다.왠만한 사설 피트니스센터 저리가라할 만큼언제나 쾌적하고 위생적으로 샤워시설을 관리해주셔서감사드립니다:)</t>
   </si>
   <si>
-    <t>이천/청주 간편식 포인트 상이 간편식에서 이천은 사과.오렌지1포인트씩인데 왜 청주는 2포인트씩 차감하나요? 청주도 이천처럼 1포인트로 적용해주세요.</t>
-  </si>
-  <si>
-    <t>요거트 건의 요거트종류가 너무 단종류밖에 없는 것 같습니다비요뜨 그레놀라 . 초코링등 이부분에 아쉬워하는 동료들도 많더라구요 저지방 무설탕 요거트 추가 건의드립니다.매일 바이오 저지방 요거트후디스 그릭요거트 풀무원 액티비아 무설탕 요거트 등요즘 모든 유제품회사에서 무설탕 저지방라인으로도 요거트를 출시합니다! 항상 편의식을 위해서 고생해주셔서 감사합니다!^^</t>
+    <t>기숙사 의자 바퀴가 파손되었는데 수리/교체는 어떻게 해야하나요?? 기숙사 의자 바퀴가 파손되었는데 수리/교체는 어떻게 해야하나요??</t>
+  </si>
+  <si>
+    <t>휴대폰에서 Happy Loed 사번 인증에 아직까지 안 되죠?.아직 작업 중인가요? 휴대폰에서 skyhappybus 어풀을 잘 사용하다가 happy Load 2018.10.25 쯤 잘사용하던 skyhappybus를 지우고 happy Load 어풀을 깔고 인증을 받으려고 하는대 인증자체가 들어가지 안 아요</t>
+  </si>
+  <si>
+    <t>헬스장 사이클 고장난지 한참됐어요. 헬스장에서 다리를 예전에 다처서 다리 근력을 키우고 싶어 사이클을 타고 싶은데 기계가 오래되서 소리가 나고 돌아가는게 부드럽지가 않습니다.  관리자분께 얘기했는데 바꿔야 된다고 얘기했는데 고장난지 3달이 넘은거 같습니다. 여자분들도 이용하고 많은 사람들이 다리 근력운동을 할 수 있게 조치 부탁드립니다.</t>
+  </si>
+  <si>
+    <t>실내화인가요 실외화인가요 밥 먹으러 가던 담배를 피우러 가던 슬리퍼로 다니는거 되게 보기 안 좋은데요슬리퍼의 용도가 실외화라면 상관없지만 사무실에서도 신고 다니는 실내화라면 건물 안에서만 신고 다녔으면 합니다 ‘실내’화니까요</t>
+  </si>
+  <si>
+    <t>Happy  road 로그인 셔틀버스 안내 APP(Happy  road) 로그인시ID: 출입증 번호(SHI....) 입력, 비번 입력하면 정보가 틀리다고 나옵니다.비밀번호 찾기를 하려고 핸드폰 번호 입력하면 해당 사용자 확인불가이거나 인증하라고 나와서인증하기 하려고 출입증번호 입력하면 인증된 사용자라고 나옵니다.어떻게 하면 비밀번호 찾고, APP에 로그인 가능할까요.</t>
+  </si>
+  <si>
+    <t>KR 산업 주차장이 SK건설주차장인가요? KR 산업주차장은 방문객 또는 구성원 사용으로 알고 있습니다허나 SK건설 근로자분들 주차로 인해 주차를 못하고 있습니다확실이 정해주시기 바랍니다SK건설 주차장???SKHYNIX 주차장??</t>
   </si>
   <si>
     <t>분실물 문의 드립니다. 안녕하세요 다름이 아니라 분실물이 있어 게시글 올리게 되었습니다.위 노선 버스에서 갈색 카드지갑 ( 손바닥크기, 내용물 : 카카오뱅크 파란색 체크카드, 캐시비카드, 운전면허증 등) 을 분실한 것 같은데 혹시나 분실물센터에서 보관하고 있는가 해서 문의드립니다.바쁘신 와중에 분실물로 문의 드리게 되어 죄송합니다. 답변 기다리겠습니다.</t>
@@ -106,67 +190,148 @@
     <t>통근버스 분실물 문의드립니다. 안녕하세요 하이닉스 협력사에 다니고 있는 사원입니다.다름이 아니라, 통근버스 A,B조 이화/굿모닝아파트 출퇴근 버스에서갈색 카드지갑 (내용물 : 카카오뱅크 체크카드 파란색 , 캐쉬비카드, 운전면허증)을 발견하여 보관하고 계신가 해서 문의드립니다. 바쁘신 와중에 분실물로 문의글 올리게 되어 죄송합니다.답변 기다리겠습니다.</t>
   </si>
   <si>
+    <t>불법 주차 신고합니다 우선 이곳에 이런글 쓰는게 맞는건지 모르겠지만 너무 화가 나서 이곳에 글남깁니다. 다른 곳 찾아봐도 마땅이 글 쓸 곳이 없네요. 우선 장소는 M15 동문 3주차장입니다요즘 기초질서확립으로 캠페인 중인걸로 알고 있는데저는 주차선에 바르게 주차를 해 놓았는데 주앞에 이면주차로 기어도 parking로 해 놓고 연락도 안되어서 두시간째 퇴근을 못하고 있습니다. 여기 가드 분들에게 이야기해도 이곳 아니면 신고할 곳이 없다고 해서 이곳에 신고합니다. 태경하이텍 01049154836 67부5796  이분 찾아서 조치좀 취해주세요. 같이 일하는 입장이라 좋게 기다려 보고있는데. 이건 너무합니다. 꼭 조치 취해주시길 부탁드립니다.</t>
+  </si>
+  <si>
+    <t>웹 홈페이지 및 어플의 문의사항 게시판이 사라진것에 대한 문의 HAPPYROAD 어플이 만들어짐에 따라 웹 홈페이지 접속이 막힌 것 같습니다.하지만 웹 홈페이지에서 정보를 확인할 경우도 있기 때문에, 굳이 웹 홈페이지를 없앤 이유를 모르겠습니다...그리고 어플상에 문의사항 게시판이 없어서 다른 구성원의 문의사항을 확인할 수가 없습니다.</t>
+  </si>
+  <si>
+    <t>감사합니다. 안녕하세요. 부속의원 이용자 입니다.금일 부속의원에서 주말 내내 아프고 미심쩍었던 증상들을회사내에서 20분 정도만에 검사와 결과 확인까지 할 수 있었고이로 인해 증상에 대한 원인을 명확히 알게 되어 일에 집중할 수 있게 되었습니다.이런 좋은 복지가 당연한게 아니라 감사한 부분이라 글 남기고 갑니다.항상 감사합니다.</t>
+  </si>
+  <si>
     <t>셔틀버스 기사님 칭찬합니다. 2000관광 8281 이성호 기사님, 9637이명환 기사님 먼저 휴대폰 찾을 수 있도록 도와주신 두 기사님께 감사 인사 드립니다.11월 8일 17시 45 회사출발  부발역 셔틀버스에 휴대폰을 두고 내려 분실 했는데. 다음날인 오전에 바로 찾게 도와주셨습니다.노심초사하며 핸드폰 못 찾으면 어쩌나 했는데.다음날 바로 찾아주셨네요^^ 두 기사님 너무 친절 하셨고 자기일 처럼 도와주셨습니다. 또 감사드립니다.^^두 기사님 칭찬합니다^^</t>
   </si>
   <si>
+    <t>통근버스 노선도 PC 접속 안됩니다. 기존 Site 막히면서 PC로 접속할 수 있는 방법이 없네요.App도 불편한 점이 많아 PC로 볼 수 있게 해주세요.(App은 뒤로가기하면 처음부터 다시 입력해야되는 등 기존 System 대비 안좋아진 것 같습니다.)</t>
+  </si>
+  <si>
     <t>지갑분실 문의드립니다. 1. 시간 및 버스: 10/30일 죽전행 22:00 버스 2. 분실물 : 지갑 분실 3. 연락처 010-6440-5556</t>
   </si>
   <si>
+    <t>안녕하세요. 고생많으십니다.체육시설문의드리니다. 안녕하세요.현재 협력업체 신입사원 입니다 신입이라 모르는부분이많아 문의드립니다.체육시설복지관련해서(볼링장 헬스장..)협력업체 직원들도 이용 가능한지.. 이용가능하다면이용시간 및 궁금하여 메모남깁니다. 오늘하루도 고생하세요.</t>
+  </si>
+  <si>
+    <t>안녕하세요. 고생많으십니다.체육시설문의드리니다. 안녕하세요.현재 협력업체 신입사원 입니다 신입이라 모르는부분이많아 문의드립니다.체육시설복지관련해서(볼링장 헬스장..)협력업체 직원들도 이용 가능한지.. 이용가능하다면이용방법 궁금하여 메모남깁니다. 오늘하루도 고생하세요.</t>
+  </si>
+  <si>
+    <t>버스 타각 불량 안녕하세요. 협력사 직원으로 있는 글로텍엔지니어링의 박가경 사원이라고 합니다.저희 회사 직원분들의 출퇴근 버스 타각시 이용할수 없는 출입증이라고 하시던데 모든분들이 그런것이 아니라 일부 직원분들만 그러하여서 문의 드립니다.현재 아래 두분의 상시출입증 번호를 남깁니다.확인 요청드립니다.S11389(SHC0007021) 박종구 대리 (현재 이천근무중)S08230(SHC0006750) 조은희 과장 (현재 청주근무중)</t>
+  </si>
+  <si>
+    <t>바닥을  닦는 건 좋습니다만 4공장 남문 쪽 로비에서 있었던 일입니다.바닥 닦으시는 건 좋습니다.그런데 바닥에 물이 홍건해서인지 미끄러져 넘어졌습니다.지금도 무릎이 시큰시큰해서 너무 아픕니다.그렇잖아도 바닥이 타일로 되어 있어서 미끄러울텐데아니 바닥에다가 물 길어서 나르시는 것도 아니고무슨 강을 만드시려는겁니까?바닥 열심히 닦는 거 까지는 좋은데 물은 좀 짜서적당히 닦으시죠.행여나 저가 아닌 임산부나 더 연세 있으신 분이 넘어졌으면, 더 큰 피해로 이어졌을거 같습니다.</t>
+  </si>
+  <si>
     <t>구성원님들 너무 부심 부리지 마세요. 밑에 협력사 직원들도 사람입니다.계급론을 원한다면 어차피 구성원분도 윗분들의 부품일 뿐 아닌가요.금성일렉트론-&gt;LG반도체-&gt;현대전자산업-&gt;하이닉스.... 이리 치이고 저리 치이는 사업부.하이닉스.. 경영을 잘 해서 최대의 흑자를 본다기 보다 다만 업황이 좋아서 잘 나아갔다 라고 생각합니다.</t>
   </si>
   <si>
+    <t>답변 안바라요 하이닉스, 하이스텍 관련없는 내용이라 어차피 답글 안바랐어요근데 글의 요지를 모르시고 한쪽으로 선동하는 글들만 잔뜩이네요제가 언제 협력사들 무시했나요? 사람 대접? 갑?저는 아이파크에 아예 집을 두고 사는 사람이에요만약 이웃이랑 트러블 생기면 어떡하겠어요?똑같은 곳에 몇년 몇십년 얼굴 맞대고 살거면 좋게 풀어 보려고 고민 하지 않겠어요?제가 그 사람 얼굴 보고 욕을 했나요 뭘했나요?경비실로 전달해서 말해 달라고도 하고, 좋게 메모도 남기고 흡연 하지 말라고 프린트 붙인게 잘못된 일인가요?협력사 언급한거는 협력 업체들에서 기숙사용으로 아파트를 이용하고 있는걸 알고 있었고, 기숙사면은 그 해당 직원만 징계처리를 하던지 기숙사 이동을 하면 되는 문제라고 생각해서 글을 올린거에요하이스텍한테 처리를 해달라고 한게 아니라 해당 회사 홈페이지에 글을 올리는 곳이 없어서 보라고 올린거구요원래는 비공개로 올리려고 했는데 잘못눌러서 등록됐고삭제하려고 비밀번호 아무리 입력해도 오류나서 지우지도 못해요회사 명도 몇사람 때문에 의도치 않은 피해가 갈까봐 글 기재하면서도 언급 안했고 회사페이지 먼저 찾아보고 글 올릴 수 있나 알아보고 어쩔수 없이 여기에 적었다고도 이전 글에 말씀드렸어요만약 정말 그 사람이 입주민이였으면 개인과 개인 간의 문제지만 기숙사용으로 이용하는 사람이라면 이게 과연 개인 문제인가요? 해당 업체에 불만을 제기해서도 안되는건가요?그리고 갑ㅇ질이라고 하시는데 협력사 분들 가치는 본인들이 만드는거에요본인들이 쓰레기 잘버리고 층간소음 안 만들고 길에서 담배 피우면서 안 다니고 남들한테 피해 안줬으면입주민들이 눈 여겨봤을까요? 불만이 생겼을까요?그 보안 요원은 유니폼 입고 계단에서 피우는거 못봤어요제가 놓쳤을 수도 있겠죠제가 얼굴이랑 체형만 알아뒀었고 아파트 근처에서 유니폼 입고 있는걸 발견하고 협력사인걸 안거에요제 생각들을 어떻게 아시고 갑이니 뭐니제가 그쪽들을 제 아래에 두고 생각 한다느니 뭐니 어처구니가 없네요 불만이 생겨서 제기를 하는거였는데 말이죠- 보안요원인줄 모르고 이웃끼리 얼굴 붉히는이런 부분은 오해의 소지가 있을수 있겠죠 근데 오해의 여지에서 본인 생각대로 갑질이라고 단정지은거면 그건 자격지심이죠제가 직접적으로 언급한 것도 아니고 딱 저런 부분만 보고 제 생각도 유추 하시고 대단들 하시네요- 보안 옷 입고 당당히 얼굴 들고 다니는거 보고 어이가 없어서이 부분은 고칠 생각 전혀 없습니다 유니폼은 왜 있나요? 물론 회사에 대한 소속감이나 동료에 대한 유대감 같은 것도 있지만 외부인이 바라볼 때 그 옷을 입고 있는 사람의 소속을 명확하게 알수있게 하기위해 유니폼이 있는것 아닌가요?제가 보안 요원인줄 어떻게 알았겠어요?협력업체인거는 어떻게 알았구요?적어도 본인이 회사에 대한 애사심이 있고 본인 하는 일에 대해서 자부심이 있다면 그 옷 입고 곤란할만한 행동은 하면 안되는거 아닌가요?아파트가 회사 멀리에 있는것도 아니고 엎어지면 코닿을 곳에서 그러고 있는데 상대적으로 거리감이 없지 않나요?그래서 일부러 언급한거에요 보안 옷이라고.나쁜 짓은 그 여자가 다했는데 욕은 왜 제가 먹고 열은 왜 제가 받고 있는지는 모르겠네요막말로 담배 아무곳에서나 피우는 개념 없는 행동만 안했어도 이렇게까지 글 안 올렸어요 책임을 못 질거면 담배를 피우지를 말던가 라고 말하고싶네요그리고 여기에 글 올리는게 상관이 없다고 하시는데 하이닉스가 밀고 있는 회사 이미지가지역 사회와 더불어 살아가는 그런 이미지 아닌가요?물론 이천 발전에 큰 도움있는 것도 알고이천 주민들 위해서 많은 일 하고 있는 것도 알아요그 부분만 보자면 존경할만한 회사라고 생각하고 있구요근데 그 회사 안에서 다니고 있는 사람들이 주변 주민들에게 피해를 주는데 참을 이유가 있나요?글 적는 곳 카테고리에 경비보안은 왜 있나요?회사 이미지 망치고 있는게 보안 요원인데 전혀 상관이 없다고 하는것도 말이 안되죠</t>
+  </si>
+  <si>
+    <t>아랫글 개인적인 민원을 여기다 올리는 건가요? 글 내용도 참 불편한 글이지만 개인적인 민원을 왜 여기다가 올리시는 건지요?여기는 하이스텍에서 서비스 하는 내용 중 불만족이나 개선사항을 올리는 곳으로알고 있는데 이곳 고객의 소리 개시판이 개인적인 일을 처리해주는 곳으로 알고 있는지개인적인 일을 처리해 달라고 글을 올리시네요.글 내용도 읽어보니 글쓴이의 평소 생각을 알 수 있겠네요.보안직원분들 뿐만 아니라 협력 업체 분들을 자신의 아래.. 즉, 자신이 갑이란 생각을가지고 계신 듯 느껴집니다. 개인적인 민원은 개인적으로 처리하시길 바랍니다. 협력하는 분들을 보기 민망합니다.</t>
+  </si>
+  <si>
+    <t>아래글쓴분 논리가 좀 어의없네요. 보안요원인줄 모르고 이웃끼리 얼굴 보고 언성 높이기 싫어서 어떻게 해야 되나 생각중이였는데그냥 일반 협력사처럼 사복입고 다니는것도 아니고보안 옷 입고 당당히 얼굴 들고 다니는거보고 어이가 없어서...보안요원은 이웃아닌가요? 보안요원이 뭐 죄지었나요?불편을 느낀건 느낀거고 표현이 참 웃기지않나요?이웃이라 어찌 말해야할지 고민했는데 보안요원이라 어의없었다구요?참 인격 보이시네요.</t>
+  </si>
+  <si>
+    <t>한달넘게 벼르고 있었는데 행복3문 위쪽 아이파크 보안요원들이 사는거 맞지요?109동 1303호에 사는 여자 보안 요원 자꾸 계단에서 담배 피우는데 조치 좀 취하시죠?매번 경비실에서 화장실,베란다,복도,계단 담배 피우지 말라고그렇게 방송을 해대는데 개무시도 정도껏이지담배 냄새나면 튀어나가도 매번 사라졌길래 벼르고 있었어요추워죽겠는데도 문 일부러 열어놓고 담배 냄새나길 기다리고, 겨우 어디사는지 알아내서 경비실에다가 말해 달라고도 요청하고,벽에다도 담배 피우지 말라고도 프린트해서 부착해놨는데 그 여자가 떼는건지 청소하는 분들이 떼는건지 다음날 되면 사라져있고 그렇더라고요현관문에도 곱게 메모 적어서 불쾌하지 않게 적어놨는데 메모는 사라졌는데 계속 담배 피워대고....보안요원인줄 모르고 이웃끼리 얼굴 보고 언성 높이기 싫어서 어떻게 해야 되나 생각중이였는데그냥 일반 협력사처럼 사복입고 다니는것도 아니고보안 옷 입고 당당히 얼굴 들고 다니는거보고 어이가 없어서...안그래도 협력사들이 기숙사처럼 방 계약해서 아파트 주변에 쓰레기 막 버리고 술먹고 고성방가에 쿵쿵거리면서 난리치는것도 맘에 안들었는데 불을 지피네요보안업체 홈페이지 들어가니깐 쓰는게 없어서 여기다가 적습니다주변에 들어보니깐 101동이랑 102동도 보안요원들 때문에 불만 많다던데 직원 관리들 좀 하세요근무유니폼 딱 정해져 있으면 멀리서봐도 아는데 더 신경써야 되는거 아닙니까?1303호 담배피우는거 조치 안될시에는 어떻게든 영상찍어서 경찰 신고하거나 하이닉스 자체 홈페이지에 공개 항의글 올리겠습니다 보안업체 수준 높게 다른 곳으로 바꾸라고요</t>
+  </si>
+  <si>
     <t>청주 남자 기숙사 헬스장 탈의실 청소시간이요.. 저 포함 여러 구성원들이 헬스장내 비치된 하자접수 에도 민원신청도 하고 여기다가도 글 한번쓴거 같은데여..오후 탈의실 청소를 왜 항상 2시에 시작 하십니까?B조 근무자들은 운동하고 2시부터 샤워하고 출근하는데 왜 꼭 2시부터 해서 청소 하시는 분도 불편하고 구성원도 불편하고...왜왜왜??? 항상 2시에 하십니까???????탈의실에는 2시30분 부터 한다고 했으면 지켜주세요....2시 30분 부터 3시 사이에는 탈의실 및 샤워장에 사람 없습니다..관리자 분은 현장 한번 쯤 나와서 확인해 보시면 알꺼 아닙니까??제발...탈의실 및 샤워장 청소 2시30분에 해주세요...간곡히 부탁드립니다.</t>
   </si>
   <si>
     <t>분실물 문의 검은지갑습득하신분 연락부탁드립니다 0103422 2489</t>
   </si>
   <si>
-    <t>분실물 문의 B조 퇴근 이화 굿모닝차량에서 파란색지갑을 분실한거같습니다 확인부탁드립니다</t>
+    <t>보안근무좀 제대로 서게해주세요 현재 보안근무를 하고있는 사람입니다밑에 보안근무자 근무복 문의글을보면 너무 형식적인 대답에 치가 떨려 글을 올립니다현재 자체 기준에 의거하여 자켓(슈트)를 추가 착용하고 있다고 하는데작년부터 현재까지 미리 동계옷을 나눠준적도 없고 미리 받은분들 또한못입게 하는 실상입니다하루하루 지날수록 체감하는 온도는 겨울에 임박하고 있는데 낡은 규칙을 내세우며추위에 지쳐 정상적인 근무를 설수없게 하는게 한스럽네요복지나 혜택을 바라는게 아닙니다 제발 상식에 맞는 선에서 근무환경과 조건을 개선해서정상적인 근무를 설수 있게 도와주세요</t>
   </si>
   <si>
     <t>칭찬합니다! 잠실선 기사님과 차량관리하시는분! 너무 감사드립니다ㅜㅜ 무거운 캐리어 들고 탔는데 차량 관리하시는 분께서 도와주셔서 무사히 탈 수 있었습니다! 그리고 잠실선 기사님 손수 가방 위치도 옮겨주시는 친절한 모습을 칭찬드립니다^^! 늘 안전하고 편안한 운행에 감사드립니다. 수고하세요~</t>
   </si>
   <si>
+    <t>보안요원 근무복 10월5일,6일 태풍을 동반한 엄청난 폭우가 내렸는데 그로인해 기온도 많이 낮아진거같습니다.그런데 보안요원들은 긴팔셔츠만 입고 근무를 스던데, 밖에서 덜덜 떨고있는모습이 안쓰러워보입니다. 무슨 규정이있는건가요?</t>
+  </si>
+  <si>
     <t>IT helpdesk 서비스에 너무 만족합니다. 건물내 접견실 3번 pc에 구성원분들 사원로그인하는 사이트가 접속이 안되서 불편을 겪고 있었던 상황이였는데 2일을 걸쳐서 책임지고 해결해주신 helpdesk 김진옥님에게 감사드리고 싶습니다^^</t>
   </si>
   <si>
-    <t>칭찬합니다~ (동수원행 버스기사님) 안녕하세요.볼 일이 있는 관계로 동수원행 셔틀을 처음 탔습니다.(9월 28일 20시 출발)길게 쓰고 싶으나 결론을 말하자면친절하십니다.  정말로요.맨 앞자리에 앉아 동승자와 같이 목적지에 대한 이야기를 주고 받으며 고민하던 중친절하게 지리 설명을 해주시며 노선 안내까지완벽하게 브리핑? 해주셨네요...익숙치 않은 지역이라 당황할 뻔 했는데친절하게 대해주셔서 감사합니다.기사님의 성함이 제대로 기억나지  않습니다.9월 28일 이천에서 20시 출발 동수원행 버스였습니다아주대삼거리에 가는~</t>
+    <t>명절간 장염에 걸렸는데 죽 배식이 가능한지 문의드립니다 가능하다면 별도로 예약이 필요한건지 따로 말씀 안드려도 준비가 되어있는지도 궁금하네요</t>
+  </si>
+  <si>
+    <t>청주1캠퍼스 보안 청주1캠퍼스 상주회사 근무자인데 왜 통근버스타기전 보안검색대 에서는 하이닉스 직원들은 가방검사나 휴대폰검사 안하고 협력업체 직원들만 잡나요?정말 궁금해서 물어보는겁니다하이닉스 직원들은 그냥 지나가면 암말안하고 협력업체 직원들은 그냥 지나가면 불러세워서 핸드폰달라 가방 넣어달라 같은 협력업체끼리 왜그러는지 참 궁금하네요할거면 다하고 안할거면 같이 하지말던지요</t>
+  </si>
+  <si>
+    <t>출근버스 탑승 하자마자 급출발 주의 바랍니다. - 경기 78 (8222)- 야간출근 버스 사동리 정류장에서 22:24분 탑승함.일부로 다치라고 급 출발 하시는건가요?여기에 몇번이나 올린 글 을 오늘 또 이렇게 올립니다.사람 다치기 전에 주의 해달라고 몇번을 남겼는데 사고가 터져야 주의 해주시는 걸까요?왜 탑승 하자마자 사람들 앉기전에 급출발 해서 부딪치고 넘어지기 직전까지 만듭니까?타박상 (멍) 들었습니다,  병원가서 진단서 받아 오려고 하는데요, 어디에 말씀 드려야 하죠?제가 사람 다치기 전에 주의좀 시켜 달라고 그렇게 몇번을 말씀 드렸는데 결국 다쳤네요저의 글이 아니더라도 급출발 내용 많이 올라와 있네요!아니, 일부로 사람 다치라고 그러시는겁니까?시간이 늦었던것도 아니고 신호가 1시간 동안 안 바뀌는것도 아니고도대체 왜 사람들 자리에 앉기전에 급출발 하여 급하게 가는지 아무리 생각을 해도 이해를 할수가 없습니다. 사람 안전이 우선이지, 사람 안전보다 더 우선인건 없다고 생각 합니다.기사님들이 그렇게 주의를 줘도 동일하게 문제가 생긴다면 처벌을 만들어서 라도 안전에 집중 해주셔야지 뭐하시는겁니까? 주의 주는데도 그런다고 하는 답변은 좀 아니잖아요진짜 타박상이 아니라 사람이 크게 다치면 이부분은 회사에도 큰 타격이 생기지 않나요?그렇게 말로 경고를 줘도 안지키면 처벌을 만들어서 라도 안전에 집중 해주세요큰 처벌이 있으니 음주운전 안하듯이 급 출발 하는것 또한 큰 처벌을 만들어서 안전운전 부탁 드리겠습니다.급출발 하는것 또한 큰 사고의 원인이 됩니다.</t>
+  </si>
+  <si>
+    <t>보안검색에 대해서 올리는분 보세요~ 저 또한 돈을 벌기위해서 하이닉스에 출근을 합니다.매일 출근할때 봉인스티커 부터. 안전허가서 등 각종 서류 공구류 다 일일이 확인하고 입문합니다.퇴근할때도 건물에서 검색받고. 나오고행복5문으로 매일 출퇴근 하는데 나갈때마다 가방검색 받고 있습니다. 가방검색에 의해  적발된건 없으며회사에서 일한지 7년째 보안검색에 대해서 불만은 없습니다. 이에 대해서 글을 읽어보면  본인이 특별하다 왜 검사받냐 이렇식으로 글을 올리시는데  그리 검사를 받기를 싫어하시면 하이닉스에서 일을 하지 마시던가 혹은 검색안받을 권한을 달라고 하이닉스에 정식으로 요청하세요~글을 보면 보안을 무시하는 경향이 잇으신데. 본인이 갑질할려고 글를 올리는 것인지.. 뭘 해달라고 하는지 글을 이해할 수가 없네요 “ 어느 업체인지 모르지만 하이닉스 임직원 처럼 대우를 받고 싶으시면 . 정식으로 하이닉스쪽에 요청하세요”본인이 얼마나 대단한진 모르겠지만 . 다른업체 피해주지 맙시다. 저희는 매일매일  보안교육 시키고 “ 보안관련 혹은 필요업무시 보안담당자한테ㅜ요청해서 처리합니다.</t>
   </si>
   <si>
     <t>궁금합니다. 안녕하세요.궁금한게있어서 여쭤보고싶습니다.무료법률상담소에 상담신청을하고싶은데본인이아니라 본인 직계가족(친아버지)에 관한 상담은 안되는건가요..?</t>
   </si>
   <si>
-    <t>출퇴근길 한결같은 친절함에 감사합니다! 안양비산선 06시50분 출근버스아저씨~이른시간인데 웃는모습으로 항상 맞아주셔서 출근길 덩달아 기분좋게 시작하네요^^ 친절함과 안전한 출퇴근길 책임져 주셔서 정말 감사합니다!~</t>
-  </si>
-  <si>
-    <t>청주 기숙사 식당 청주 기숙사 안의 있는  식당의 몇일전에화장실이 너무 급해서 사용할려고 했는데화장실 이 없어 사용하지를 못했습니다기숙사 안의 있는 화장실 만들어주셨으면 해서 문의 를 해봤습니다 나문희는 아닙니다 ^^*</t>
+    <t>보안관련 질문 보안관련 가방검색에 대한 글에 답변은 하나도 안다는 이유가 뭘까요대답해주기 싫다는건가요 아님 어차피 안할꺼니깐 신경쓰지마란건가요매번 기분이 나쁘네요</t>
+  </si>
+  <si>
+    <t>보안 협력사  남자들만 가방 검사 를 하는지 궁금하네요 보안분 들한태 물어보니 여성 가방 과 하이닉스 직원은 딴방법으로 검사를 한다고 는 하는데 무슨 다런 방법으로 검사 를 하는지? 그리고 한번은 가방 검사가 싫으면 가방 들고다니지 말라고 하더라고요  이게 말인지 방구인지 ....</t>
+  </si>
+  <si>
+    <t>보안요원 야간근무 후에 사내 체육관에서 운동을 하고 사내 셔틀 탑승후에 고담 주차장에서내리면서 검색대에서 가방을 검사합니다.근데 가방을 열어서 보여드리는데 잡아 당기시면서 보시고 빨리 가라는 식으로옆으로 밀으셔서 처음엔 기분이 나빳는데 그냥 지나치고 집에 왔습니다.그후 2일 동안이나 더 고담주차장에서 이러한 일이 똑같은 사람에게서 발생하였습니다. 조치좀 부탁 드립니다.</t>
+  </si>
+  <si>
+    <t>sky해피버스 어플관련 sky해피버스 어플 가시성 너무 떨어집니다 개선이 필요하다 생각됩니다또한 협력사 직원들도 어플을 사용할수 있게 지원해주시면 좋을거 같습니다감사합니다.</t>
+  </si>
+  <si>
+    <t>이천 사내셔틀 너무합니다 이천 사내셔틀 너무합니다오늘 오후 6시 20분경행복5문에서 사내셔틀 타려고 하는데21분쯤에 버스가 오더라고요?사람 문앞에 있는걸 보고도 제 바로 앞 두분만 태우고문을 닫고 바로 출발하네요2000관광 차량번호 9643 이 기사님분명 어제 같은시간에 탔을때도타는분들께  좌석도 많이 비었는데언성을 높이시며 언제까지나 태워줄수 없어요하면서 밑도 끝도 없이 출발하는거제가 봤는데 늘 그러시나 봅니다정말 제대로된 교육이 필요해 보입니다</t>
+  </si>
+  <si>
+    <t>고객의 소리 코너 왜만들었을까요 입맛에 맞는 질문에만 답변을 달아주고나머지 질문에는 무시하면 끝인가요 ?다른걸 질문하는게 아니라 하시는 일에대해 묻는건데언제까지 회피만 하시고 답변을 안달아주실껀지요언제까지 협력업체 남자 직원들만 가방 검사를 할것인가요 무작위로 검사 한다고 하는데 단 한번도 하이닉스 직원을 검사하는 보안요원은 못봤습니다.그리고 여자분들도 같이 검사 안하실꺼면 남자도 하지마세요무슨 죄를 졌길래 같이지나가도 남자만 검사하는지 이해를 할수가 없네요기쁜맘으로 퇴근을 하다가도 매번 맘상해서 나가는데 기분도 기분이고 시간 뺏기는것도 짜증납니다</t>
   </si>
   <si>
     <t>M15 식당 서비스 관련 M15가 카테고리에 없어 3캠퍼스로 체크 하고 작성합니다.2018-09-07 01:00시경 야식 식사를 하는 도중, 많은 양을 달라고 여사님께 말씀 드렸습니다.이 부서는 왜 항상 많이 먹냐고 핀잔을 던지시며 배식을 하시더군요.그리고 오늘 2018-09-08 01:00시경 같은 여사님께서 이 부서 앵앵거리는 직원 어디갔냐고저희 부서 직원한테 여쭤보시더군요. 친절 까지는 바라지 않는데 고객을 상대 해야 하는 서비스인으로서, 기분이 매우 나빴습니다. 얘기를 듣자 하니 이 여사님 전에 3공장 계실때부터직원들이랑 많이 다투고 말이 많은 분 이시더라구요. 어제는 그냥 그려러니 하고 넘어갔는데오늘은 대놓고 그렇게 직원에게 앵앵거린다고 표현을 하셔서 도저히 그냥 넘어갈수 없어서 글 씁니다. 불철주야 고생하시는거는 알겠는데 좀더 명확한 CS교육이 필요한거 같습니다.필요하시다면 여사님 성함도 적겠습니다.</t>
   </si>
   <si>
-    <t>회사셔틀노선 줄인다는 카더라 통신을 접했는데 카드키 타각이 안되네요? 이천시에서 회사 구성원들이 이천거주가 아닌 다른 지역 거주한다고 은근한 압박을 줘서 회사에서도 셔틀 노선 줄일거라는 얘기를 들었습니다.심지어 셔틀이용자들중 하이닉스 직원만 카운트해서 이용하는 사람들이 적으면없앨거라구요.. 회사 입장에서도 셔틀 노선을 없애면 돈도 덜 들어 좋겠네 싶으면서 카더라긴 해도 이런 얘기가 나오는데는 이유가 있을것 같은데..셔틀 노선 없앤다는 이야기가 도는게 사실인가요?그런 얘기를 들었던 차에 오랫만에 성남 친정집에서 출근을 하게 되어카드타각이라도 잘 해야겠단 생각에 타각기에 카드를 댔는데 타각이 안되더라구요. 기사님께서 운행 10분 전부터 켜놓았는데 되지도 않고, 카드타각기 개당 90만원씩 들여서 더 좋아질거라는 기대와는 다르게 켜놓아도 실행도 안된다고 사원들 불만이 많다고 하시네요. 셔틀도 많은데 개당 90만원씩 들여서 제대로 되지도 않고.. 나중에 불합리하게 이용하는 사원들이 없다고 셔틀 노선까지 없애버리지는 않을까 하는 노파심에 글 올립니다.</t>
-  </si>
-  <si>
-    <t>아니 식당 왜 카드 결제가 안되는거야? 아나 밥도 못먹고 카드결제 할수있게 해줘요. 뭔 현금만 하..</t>
+    <t>통근버스에 옷을 놓고 내렸어요.. 청주 m15 에서 17시 50분에 타서 20시 35분 경에 양재역에서 내렸는데 내리면서 좌석에 파란색 흰색 가로줄무늬 티셔츠를 놓고 내렸습니다. 옷을 찾고 싶어요. 01051791280평소 청주 m15에서 교육받고있는 제조기술부분 신입입니다.</t>
+  </si>
+  <si>
+    <t>고담주차장 주차관련입니다. SkyNet 기타공지사항 - 이천캠퍼스 고담주차장 이용안내  2017년1월13일 게시물을 보고주차장 관련 문의를 하이스텍으로 해달라는 내용이 있어 이곳에 올립니다.고담 주차장에 무슨이유인지 주차공간을 막아놓았는데SkyNet에도 공지되지 않았었고 안그래도 협소한데주차하기가 너무 힘드네요.  그리고 주차장이 평평하지 않아N주차를 해도 차가 움직여 할 수 조차 없습니다.언제까지 막아 놓는지 알려주세요.</t>
+  </si>
+  <si>
+    <t>부식 계란 야간에 야식 안먹고 부식을 주로 타는데요~계란이 3알에 2코인이였다가최근 2알에 1코인으로 변경이 되었습니다.야간에는 부식으로 계란을 주로 타는데갈때마다 진열이 되어있지 않아 다 소진된지 알고 매번 다른걸 탔습니다.1차로 부식을 타러 가는데 이번에도 계란이 진열되지 않아혹시나하고 계란없냐고 여쭈어보니 드려요? 하면서 그제서야 박스를 개봉해 하나를 꺼내 주셨습니다.저 말고도 계란을 찾는분들이 많아지자갑자기 뛰어가 영양사?분들께 물어보시더니그제서야 박스를 개봉해 반만 뜯어 진열해 놓으시더라구요.계란이 없어서 진열을 못하는거면 이해가 되는데계란 찾는분들도 많던데 있는데도 굳이 안꺼내 놓는건 무슨 이유에서인지 납득 안갑니다.</t>
+  </si>
+  <si>
+    <t>도대체 답변을 골라다는 이유는 뭔가요 ? 답변을 달기 싫은 문의사항이라 그런건지아니면 곤란한 답변이라 안하는건지이 게시판을 만든 의미가없네요답변하고싶은 글에만 답글을 달면 그냥 통보를 하세요왜 답답하게 글을 올려도 아무런 조치는 커녕 답변조차 다는 성의가 없을까요식당 관련글, 보안요원 가방검색 흡연 등은 답변을 하나도 안하네요 이렇게 할꺼면 게시판 닫고 하고싶은말만 써서 공지를 하세요</t>
   </si>
   <si>
     <t>버스기사님의 불친절 (청주행 통상조  퇴근2번버스) 오늘 정말 황당한 일을 겪었습니다.제가 입사한지 얼마 되지 않아 아무것도 모른 채로 버스를 탔었을때,  기사님이 목적지를 말하고 타라면서 조금 야단치듯이 말씀하셨습니다. 그뒤로 저는 오늘까지 목적지를 말하고 탑승하였는데 오늘 갑자기 저에게 화를 내시면서 다른 곳에 내릴때만 말하세요!! 라고 큰소리로 앞에탄 저를 몰아붙이셨습니다. 다른 승객들이 아무도 없어서 그런지 저는 더 무섭고 당황스러웠습니다. 그 당시에는 너무도 놀라서 그냥 내렸는데 집에와서 생각해보니 저한테만 화풀이를 하시는것같아서 상당히 기분히 나쁘고 억울했습니다. 평상시 구성원 분들에게는 친절하게  먼저 인사하시며 어디가시냐고 말씀하시지만 저에게는 그런 인사도 없이 쳐다보지도 않고 무시하는 듯한 행동에 보이지 않는 차별같은 느낌이 들었습니다. 그리고 혹시라도 제가 과민반응 하는것이 아닐까 다른선배님들에게도 그 기사님에 관해 여쭤봤는데 다들 평판이 안좋다고 하셨습니다.더군다나 버스를 운전하시면서 간간히 욕을 하시는것도 자주 들었습니다. 그럴때마다 즐거운 퇴근길이 기분이 나빠서  짜증이 납니다. 제가 이렇게 글을 쓰는 이유는 단순히 그 분에 대한 악감정이 아닙니다.모든 사람들의 퇴근길이 기뻐야 하는데 구성원분들에게만 친절하고 저같이 협력업체 분들에게는 무시하는 듯한 그 태도가 고쳐져야 한다고 생각합니다. 저에게 진심어린 사과는 바라지 않지만 그분의 불합리한 태도에 대한 하이닉스의 강력한 제재를 가해주시기 바랍니다. 감사합니다.</t>
   </si>
   <si>
+    <t>행복2문 출근버스 안녕하십니까저는 행복2문에서 사내 셔틀버스를타고출근하는데수도광관 빨간색 운전사님께서항상친절함에 기분이좋아서이렇게 글을올려봅니다감사합니다</t>
+  </si>
+  <si>
     <t>아래글중 부속의원 비하 관련 글올립니다. 글내용을 보니 정확한 상황은 파악 안하고 당장 본인이 느낀 감정을 이곳에 쓴거 같은데 잘못된 표현이라고 생각 되내요. 아니 잘못된 표현방식입니다. 저도 부속의원 자주 이용하고 진료를 보고 나올때 마다 친절한 응대에 기분이 좋았습니다. 물론 저또한 반갑게 웃으며 인사를 먼저 하지요. 부속의원을 이용한다고 해서 내가 갑이고 왕은 아닙니다. 제가 볼땐 글을 쓴 분은 갑질에 대한 마인드를 가지고 계신거 같은데 본인부터 그러한 잘못된 마음 가짐을 바꿔야 될 것 같내요. 제가 지금껏 이용한 부속의원은 업무를 보시는 모든 분들이  진료를 보러온 사람들에게 절대 함부로 하지 않는 친절한 분들 이십니다. 개인적으로 감사하게 생각합니다. PS: 그리 억울하면 직접가서 정당하게 잘못된 부분을 말하면 될 것을 여러사람들이 이용하고 보고있는 사이트에 얼굴안보인다고 생각없이 쓰는건 지성인으로서 옳지 않습니다.정말로 고생하시는 분들은 이러한 생각없이 쓴글로 인해 뜻하지 않은 피해를 당하십니다.</t>
   </si>
   <si>
+    <t>행복3문 밖 흡연 음식을 받거나 , 개인업무를 보기 위해 행복3문 게이트를 나가면 늘 담배냄새가 나는데유심히 보면 우리 사원분들이네요.. 다들 빨간목줄~~~예전 택시승강장이나 사원주차장 쪽에 신입사원인지 남자분은 슬리퍼에 담배를줄줄사람들 지나다니는 곳에... 흡연 못하게 개선할 방법이 없나요 ? 흡연자 보면 우리 회사 사람들인데~~ 흡연하실거면 흡연장으로 혹은 멀리 가세요~</t>
+  </si>
+  <si>
     <t>부속 의원 의사, 간호사분들 진심으로 감사합니다. 요즘 사내에 FAB건설로 인한 인원 증가로 많이 바쁜 와중에 친절한 서비스에 진심으로 감사합니다. 너무나 더운 날씨 속에 묵묵히 자기 맡은 일에 충실히 하시는 모습에 진심으로 감사드립니다. 이거 쓰기 전 앞에 어떤 분이 쓴글 보고 화딱지가 났네요.그런 글 무시하고 더욱더 열심히 일해주세요^^</t>
   </si>
   <si>
     <t>항상 이천 인개원 의사 간호사 왜이렇게 싸가지가 없죠? ㅋㅋㅋ 아픈데도 싸가지아오 의사도 개차반좀 바꿔주세요 제발 이렇게 친절하지 않은 병원은 처음이네요</t>
   </si>
   <si>
-    <t>복지관 명함응모 이벤트 관련 생일자 명함응모 이벤트 이제 안하는건가요?지난달부터 월이 안바뀌는거 같아서요</t>
-  </si>
-  <si>
-    <t>Pkg 사원 방진복 임의로 기숙사에서 손빨래 가능합니까(같이쓰는화장실 세면대) 그쪽은 화학물질을 안쓴다 해도방진복을가지고 나오는게 허용되나요그리고 손빨래를 하시는데; 같이쓰는 방내부의 화장실 세면대에서하시고 샤워실에 걸어놓는거 괜찮은건가요?저는 세면대에 치약자국 남아서 뭐라 소리들었는데방진복 빠는건 되나요????????????</t>
+    <t>보안검색 관련 안녕하세요? 보안 검색관련 질문은 무시하는 이유가 뭔가요? 답을 전혀 안 주시는데 저희 협력사 직원들은 사람 아닌가요?외곽 게이트 가방확인은 언제까지 협력사 남성들만 계속 하실건가요?</t>
+  </si>
+  <si>
+    <t>기숙사 상가 흡연 기숙사 상가 옆 정자에서 삼구아이앤씨 분들이금연 문구가 붙어있는데도 몰려서 흡연을 하시네요시정조치부탁드립니다.</t>
+  </si>
+  <si>
+    <t>급합니다. 혹시 휴대전화 2개 반입 가능한가요? 이천 기술지원센터 6층에서 일하는 협력사 직원입니다.핸드폰을 바꾸면서 개통문제로 핸드폰을 2개(기존+새거) 들고 와야 할 것 같은데 핸드폰 2개 전부 보안스티커만 제대로 부착한다면 반입이 가능한가요?건물에서 나갈 시에 핸드폰 두개 다 꺼내면서 나가면 되는건가요?</t>
+  </si>
+  <si>
+    <t>청주 문화센터 헬스장이요... 청소하시는분들 항상 탈의실 청소를 2시~2시30분 사이에 하시던에요...무슨 이유가 있으신가요?B조 출근자들이 거의 다 2시까지 운동하고 2시 30분 안에 샤워하고 출근하는데요..출근 준비로 사람도 많은 시간에 꼭 하셔야 되나 해서요..2시30~3시 사이에는 탈의실에 사람 거의 없습니다..그때 하시는게 더 좋치 않나 해서여..사람도 많은데 청소 하시는 분들도 불편하시고 이용하는 구성원도 불편하고...</t>
+  </si>
+  <si>
+    <t>167번 답변 통상버스 에 대한 질문 협력사도 상시출입증 있으면 탑승가능하다고 안내 하시는데  왜 인터넷 이나  스마트폰 어플에서 버스 정류장 검색시 회원로그인해야하는지요?글구 회원가입할려고 해도 사원번호로 조회하면 사원정보 없다고 뜨기만 하는데 버스 노선 정도는 검색가능하게 풀어줘야하는거 아닌가요?아니면 협력사도 로그인가능하게 해주던가요?일있어서 다른지역 가려고 가까운 버스 찾을려고 하면 찾기도 힘들게 할거면 왜 서비스 하는건지..</t>
   </si>
   <si>
     <t>퇴근버스 분실물 오늘 3시 20분 퇴근버스에서 깜빡하고 검은색 작은 가방을 두고 내렸습니다 안에 지갑도 있는데 분실물 관련은 어떻게해야하죠?</t>
@@ -175,118 +340,280 @@
     <t>분실물 문의 오늘 3시 20분 퇴근버스에서 깜빡하고 검은색 작은 가방을 두고 내렸습니다 안에 지갑도 있는데 분실물 관련은 어떻게해야하죠?</t>
   </si>
   <si>
+    <t>식당에서 페이코 결제가 힘듭니다 12시 점심시간때 마다 3공장 식당을 이용하는데KT통신망이 과부하로 불통이라 어플이 작동하지 않습니다  어플 불통시 다시 줄을 서서 확인하는 일이 반복되는 만큼 KT에 실내 중계기 증설이 필요 할듯 합니다 그럼 수고하세요 추가로 SKT도 잘 터지지 않는다고 하네요 확인해주세요</t>
+  </si>
+  <si>
+    <t>갤럭시 노트8 정규호님 핸드폰 통근버스에서 습득하였습니다.배터리가 없어 충전후 점심시간에 사원서비스센터에맡겨드릴테니 찾아가시기 바랍니다.</t>
+  </si>
+  <si>
+    <t>가방검색 안녕하십니까? SK하이스텍 경비보안 담당자입니다. SK하이닉스 경비보안은 건물단위 보안을 기본으로 운영되고 있어, SK하이닉스 건물마다 보안장비들이 설치되어 있는것을 확인하실수 있습니다.따라서 SK하이닉스 구성원은 건물 출입시 소지품 검색이 이루어 지고 있으나, 협력사 또는 방문객의 경우SK하이닉스 건물을 출입하지 않는 경우 소지품 검색 없이 자유롭게 SK하이닉스 공단을 출입 할 수 있어보안상 문제가 야기되기에 외곽초소에서 협력사 및 방문객을 대상으로 소지품 검색을 시행하게 되었습니다. 또한 보안검색은 예외사항이 없으며, 직위/소속/성별을 불문하고 모든 출입자에 대하여 동등하게 보안검색을하도록 운영되고 있습니다.다만, 외곽의 경우 보안근무자들이 대다수 남성근무자로 구성되어 있어 여성 소지품을 검색하기 민감하여주로 남성분들을 대상으로 검색이 이루어진것 같습니다. 상기 사항을 개선하기 위해 건물출입자의 경우는 출입증에 스티커 부착을 통해 구분하여 검색절차에 있어개선예정이오니 참고부탁드립니다. 마지막으로 보안검색에 있어 불쾌감을 드렸다면 사과드리며, 사전안내를 통해 검색의 오해가없도록 하겠습니다. 감사합니다. 문의전화  - 이천캠퍼스 : 031-8094-7732 or 7744 - 청주캠퍼스 : 043-  280-7003 이렇게 답변을 1년전에 달아주셨는데 개선점은 하나도없이 그대로 진행되네요 상시출입증 받은사람들은 따로 조치를 취해서 표시해주실순 없나요 매일 나갈때마다 매번 가방검사를 따로하니 너무 불편합니다. 스티커를 부착이던 다른 방법을 통해서라도 조치좀 해주세요</t>
+  </si>
+  <si>
+    <t>아 참고로요 4조3교대 바뀌면서 하이닉스 직원들이랑 출퇴근시간이 겹치다보니 이제 주변에 이면주차 자리도 포화상태라고 하네요. 방법이라는게 찾으면 찾을수 있겠지요. 귀 사가 귀찮음을 감수하고라도 직원들에게 합리적인 방안을 제시해 주셔야 사원들도 자신의 일에 자부심을 가지고 일하지 않을까요? 대기업 하청 그러면 그렇지라는 말 듣고싶으시진 않을거 같은데요.</t>
+  </si>
+  <si>
+    <t>저 하이닉스 보안팀 직원 부인인데요 소속은 하이닉스는 아니에요. 남편이 툭하면 주차딱지가 날라오길래 보니까 사내 주차장을 이용 못하게 한다고 하더라고요. 이유를 물어보니 배정되는 자리가 있다고 하는데 먼저 입사한 직원들이 먼저 다 받았다고 하더라고요. 그러면 그 이후에 들어온 직원은 아예 자리를 받지고 못하는 건가요? 되게 불합리하네요. 직원들끼리 기간을 두고 로테이션으로 자리를 배정받았다  반납하고 그런 시스템으로 바꿀 생각은 없나요? 4조3교대로 바뀌면서 통근버스 타고 다니라는 말도 해봤는데 통근버스가 다니는 동네도 아닐 뿐더라 하루에 두시간을 서울도 아닌데 출퇴근 시간으로 사용해야 한다고 생각하니 되게 불합리하네요. 방법은 여러가지 일거 같은데 고려를 안하시는건지 못하시는건지 답변 부탁드려요.</t>
+  </si>
+  <si>
+    <t>타각 관련 질문 안녕하세요 관리자님,제가 8월 12일 중식을 배식 받는 과정에서 타각을 했는데느낌이 좋지 않아 확인해보니, 사번이 두번 찍혀있더라구요그래서 이상해서 다시 보고있었는데, 배식해주시는 아주머니께서 두번 찍힐 수가 없다고밥 받아가라고 하셔서 그냥 왔는데타각이 두번 된건지 확인하고 싶은데 어느분께 여쭤봐야할지 몰라서 문의드립니다~더운날씨 건강 잘 챙기세요</t>
+  </si>
+  <si>
     <t>옥계해수욕장 좋아요~ 시원하고~ 이천이 더워서 옥계로 놀러왔는데시원하고 좋아요~시설도 많이 변해서 쓰기 편하고~텐트에 미리 매트를 2장씩 배포 해줘서 사용하기 편하고이벤트도 자주 해서 옥수수도 얻어먹었네요 ㅎㅎ 완전 놀기도 좋고 시원해요~^^</t>
   </si>
   <si>
     <t>분실물 문의 셔틀 차량에 물건을 놓고 내렸는데 찾을 방법이 있을까요?물건 : 더치병, 작은 치약 상자입니다</t>
   </si>
   <si>
+    <t>오창 퇴근 버스 불만 오창 퇴근 버스 기사님 인력 교체 요청 합니다.평소 기사님이 운전을 험하게 합니다.같이 동승 하시는 수석님이 앞자리에 타면 너무 무섭고 불안하다고 자리를 옮기 실정도 입니다.또한 목격한바로 임산부가 타고 있었음에도 불구하고 과하게 운전을 한적도 있습니다.그리고 성격 또한 너무 예민 하고 까칠 한거 같습니다.동승 하시는 어떤 분은 저한테 에어컨좀 켜달라고 얘기좀 해달라고 문자로 보내시더군요.기사님 눈치 보인다고.그리고어제는 저한테 잘때 코곤다고 간혹 심할때 있다면서 뒷자리에 가서 타던지 주의하던지 하랍니다.너무 황당하고 어처구니 없고 수치스럽고 해서 주변 다른수석님들 에게 여쭈어 봤더니그정도로 과하지 않다고 기사분이 너무 예민하고 까칠 하신거 같다고 무슨기사 눈치보고 버스 타야겠냐고 하십니다.너무 화가 나고 불쾌한건 둘째치고그말은 운전에 집중못하고 산만 하다는건데 한두 분이 타는 버스도 아니고수십명이 타는 버스를 운행 하는 분이 그렇게 예민하고 산만하다면안전은 어떻게 보장합니까??불안해서 버스 탈수 있겠습니까?좀더 안전 운전을 할 수있는 예민 하지 않은 분으로 인력 교체 요청 드립니다.인력 교체 될때가지 저도 최대한 안자보려 노력은 해보겠습니다.(왜 제가 그래야 하는지모르겠지만 기사님이 불편하시다니 노력은 해보죠.)그렇지만 뒷자리 이동은 불가 합니다.기본적으로 멀미가 있어서 앞에 타는데 그분은 운전을 너무 험하게 해서 뒤에 한번 탔다가멀미가 심해 도저히 탈수가 없습니다.기본적으로 험하게 운전하시는분인데 거기에 예민하고 운전에 집중을 못한다면너무 위험한거 아닌가요?그 기사님에게 어떻게 수십명의 안전을 맡길 수 있겠습니까?최소한 안전하고 편한 퇴근을 보장 받을수 있는 권리는 있습니다.반면 오창 출근 버스 기사님은 운전도 너무 안전하게 잘해 주시고 날도 더운데 인상 한번안쓰시고 항상 웃으면서 인사 하십니다.항상 너무 감사해하면 출근 하고 있습니다.오늘 이런일도 있고해서 조심스레 여쭈어봤습니다. 혹시 제가 잘때 코골아서 운전 하실때방해 되시거나 불편하신가요? 여쭈었더니 기사님은 그런거 없다고 오히려 잘 주무셔서좋다고 해주셨습니다.가능하면 최대한 빠른 시일에 교체 부탁드립니다.당장 오늘 퇴근은 어떻게 하나 눈치보이고 불안해서 난감하고 스트레스 받네요.</t>
+  </si>
+  <si>
+    <t>M14 라인 화장실 청소에 관하여 안녕하세요.제가 이번에 이렇게 문의글을 쓰게 된 연유는 얼마전 M14 건물 3층, 9층에 있는 여자화장실을 이용하다가 충격적인 경험을 했기 때문입니다.볼일을 보러 화장실에 들어갔는데 이게 왠일. 화장실 변기 커버에 변이 묻어있는게 아니겠습니까.변 묻은 변기 커버에 놀란 저는 옆 칸으로 옮겨가보았지만 거기에도 마찬가지로 커버에 변이 묻어 있었습니다.7~8칸 정도 되는 좌변기 칸들 중 2개가 이용이 불가능한 상황이었던 것입니다.하지만 문제는 해당 화장실의 변 묻은 커버가 2~3일 동안 그대로였다는 점입니다.이모님 한분 한분이 담당하시는 청소구역이 넓고 3층 9층의 화장실이 사용자가 많아 쉽게 더러워진다는 점을 감안 하더라도 변 묻은 커버가 며칠 동안이나 방치되었다는 점은 쉽게 납득하기 어렵습니다.앞으로도 직원들이 깨끗한 화장실을 이용 할 수 있게 조금 더 3층 9층 화장실 청결상태에 신경을 써 주셨으면 좋겠습니다.</t>
+  </si>
+  <si>
     <t>7번버스 이기사님을 칭찬합니다~ 운전도 잘 하시고 ,인사도 잘 해주시는7번 버스 이상직 기사님을 칭찬합니다~더운날 운전 하시기도 힘드실텐데항상 밝은 목소리로 기분 좋게 인사해주시고,,처음 내리는 노선이라 여쭤보면내리는 지점까지 친절히 얘기해주시는,,,,이상직 기사님~정말 감사합니다^^덕분에 지나치지 않고 잘 내릴 수 있었어요~감사합니다^^노조게시판에올렸던글인데,,,이곳에 올리는게 맞는거 같아서 다시 올려요^^</t>
   </si>
   <si>
     <t>분실물 문의 드립니다 8월3일 오후 근무후 12시 부터 1시 사이에 남자기숙사 헬스장에서 파란색 쥐샥 시계를 분실하였습니다. 제 기억으로는 의자에 놔두고 온거 같은데 찾을수 있을 까요 ?? 아니면 분실물 접수된게 있나요?</t>
   </si>
   <si>
+    <t>'반계탕 이라 쓰고 닭곰탕이라 읽는다' 때는 2018년 8월 3일 중앙식당 야식시간...02:10에 도착하니 반계탕이 아닌 국물에 닭고기 몇조각 떠 있더라는....충격의 도가니에서 벗어나질 못하고 있네요메뉴에는 분명히 반계탕이라고 써 있는데나의 쟁반안에 있는 갈기 갈기 찟겨 있는 닭고기와 마주하니눈물이 주루르,,,,준비한 식재료가 매진된 싸한 느낌,,,,그러나 사전에 직원들이 귓띔으로라도' 미안하다 준비한 식재료가 부족하여 본의 아니게 제육볶음으로 대신한다'라고했더라도 마음이 덜 상했을텐데....아~~~~더위속에서 땀흘리며 고생한 보람이 한순간에 물거품이 되었습니다.아쉬움을 뒤로한채 식당을 나서는 무거운 걸음 걸음이 세시를 넘어가네요'반계탕 이라 쓰고 닭곰탕이라 읽는다'다음엔 다른 메뉴를 골라야 할까봐요최소한의 안내라도 해주면 안될까요?어려운거 아니잖아요더불어 사는 세상 서로 서로 불편하지 않게이해하며 살려고 하는데....가끔은 이해하기 힘들더라는....다음부턴 안내라도 좀 해주세요제발꼭그럼 수고하세요</t>
+  </si>
+  <si>
+    <t>ID카드 타각 오창.이천 출퇴근 이용자입니다.버스에 ID카드 타각시  사용할수 없는 카드라고 음성메세지가나옵니다. 그외 회사 출입시 문제된 적이 없었습니다.상기관련  확인 부탁드립니다.</t>
+  </si>
+  <si>
+    <t>출첵합니다 【  https://www.casinohwii.com/ 】카지노사이트, 카지노커뮤니티, 온라인카지노, 온라인바카라【  https://www.casinohwii.com/ 】카지노사이트, 카지노커뮤니티, 온라인카지노, 온라인바카라【  https://www.casinohwii.com/ 】카지노사이트, 카지노커뮤니티, 온라인카지노, 온라인바카라【  https://www.casinohwii.com/ 】카지노사이트, 카지노커뮤니티, 온라인카지노, 온라인바카라【  https://www.casinohwii.com/ 】카지노사이트, 카지노커뮤니티, 온라인카지노, 온라인바카라【  https://www.casinohwii.com/ 】카지노사이트, 카지노커뮤니티, 온라인카지노, 온라인바카라【  https://www.casinohwii.com/ 】카지노사이트, 카지노커뮤니티, 온라인카지노, 온라인바카라【  https://www.casinohwii.com/ 】카지노사이트, 카지노커뮤니티, 온라인카지노, 온라인바카라【  https://www.casinohwii.com/ 】카지노사이트, 카지노커뮤니티, 온라인카지노, 온라인바카라【  https://www.casinohwii.com/ 】카지노사이트, 카지노커뮤니티, 온라인카지노, 온라인바카라</t>
+  </si>
+  <si>
+    <t>체육관(청운식당옆) 샤워실 확장요망 및 락커키 교체요망 SK 협력사 직원으로 청운식당옆 체육관 헬스장을 이용하는 사람입니다..헬스장이나 수영장 이용 숫자에 비해서 샤워장이 너무 작은거 같습니다. 특히 점심시간이나 퇴근후 시간에는 이용하는 사람이 많아 줄서서 기다려야 만 샤워를 할 수 있고, 락커키는 오동작이 자주 일어나 그때마다 관리인을 불러서 열어달라고 해야되고, 관리인 부재시에는 다른 대안이 없이 마냥 기다려야만 하구요...관리하시는 분은 락커키 번호 누를때 조심해서 누르면 된다고만 하시고 답답하네요...요즘은 터치식으로 나오는 좋은 키도 있는데 이용자의 편의를 위해서 바꿔주실수는 없는지요?</t>
+  </si>
+  <si>
+    <t>이정도면 문제 아닌가요? 하루가 멀다하고 하루에도 몇번씩 페이코 관련 식당관련 글이 올라오고 있지만 아무도 대답을 안해주고 있습니다.바로위에 보이는 ' 고객의 소리 - sk 하이스텍은, 언제나 당신과 함께합니다.'는 정말로 개소리 아닌가요???협력사 직원들을 생각하면 이렇게 대응을 하면 안되죠정신 좀 차리세요..</t>
+  </si>
+  <si>
+    <t>카드분실 A조 출근 청주 2번 버스 기사님 뒤뒤자리쪽  근처에 카드를 분실했습니다ㅜ</t>
+  </si>
+  <si>
     <t>친절한 기사님 평균적으로 7시 20~35분 사이에 행복2문에서 복지관까지 사내버스로 출근합니다 어떤분은 필요없는 말씀이 많구 어떤분은 내릴때 인사해두 들은척두 안하시구 ㅎㅎ 근데 25분에 행복2문에서 출발하시는 기사님 넘 과하지도 모자라지도 않을만큼의 친절한 말씀과 행동이 오늘처럼 짜증나는 이 더위속에서도 하루를 즐겁게 시작할수있는 힘이 되어 주길레  몇마디 적어봅니다늘 화이팅하시고 건강하세요</t>
   </si>
   <si>
+    <t>고담 셔틀 불친절 및 안전 미흡 이천에서 근무하는 협력사 직원입니다2018년 07월12일 후문에서 18시 30분경 고담행 버스를 탑승 하였습니다 (18시 40분 고담에서 출발)기사님이 일에  불만이 많아 보이네요뭐가 마음에 안드는지 탑승자들에게 뒤로가라 어쩌라 합니다 말투 또한 거칠었고요제가 탈때는 뒤로 들어가기 힘든 상황이었고그다음 정류장인 기숙사에 정차 했을때내리는 사람들 때문에 저도 잠시 하차 하였습니다사람들이 내리고 다시 버스에 올랐으나기사님은 문을 닫았고 가방이 문에 끼인 상태로잠깐이지만 주행을 하였고그때에도 아저씨는 불만 가득한 어조로 뒤로 가니 마니 연신 혼자말 중이었고 문에 누가 끼었는지확인조차 하지 않았습니다제가 아저씨를 불렀지만 듣지 못하셨고앞에계신 남자분이 말을 하고 나서야 문을 열어주었습니다그리고 한다는 말이 뒤로 가라니까 앞에있냐고혼자 웃긴지 웃더라고요일단 다치지는 않았지만 위험해 보입니다고담 도착후 다른 사람들이 있기에 모두 하차후아저씨께 불만에 대해 이야기 하자 또 뒤로 가라니까 라는 말뿐 본인은 잘못 없다는 말투 였습니다40분이 되어  나 가야 한다 말씀 하셔서하차 후 게시판에 글을 남깁니다제 기분을 떠나 안전상에 상당한 문제가 있는 것 같아보입니다7년 정도 다니면서 이런 분은 처음보는것 같네요조치 부탁 드리며조치 결과 답변 부탁 드립니다</t>
+  </si>
+  <si>
+    <t>보안업체 봉인스티커 확인 보안업체사람들은 왜 건물 안에서 밖으로 나갈때왜 검사를 안하는지요?</t>
+  </si>
+  <si>
+    <t>페이코식권 문의합니다. 안녕하세요현재 상시출입증으로 출입을 하고 있고 폰을 이용해서 페이코를 결재해서 먹고 있습니다.제가 폰을 안들고 왔을떄는 다른분한테 2번 찍는 방법이 있겠지만상시출입증이 있으면 식권이 구입된다는 말은 들은듯합니다.상시출입증으로 식권을 어디가서 신청을 해서 구입이 가능한지 알수있을까요?</t>
+  </si>
+  <si>
     <t>3공장보안분 3공장에서 아침에 동문으로출입하는데 보안담당자분에게 서류 도장좀찍어달라고 정중하게 존댓말로 웃으면서 요청했는데 짜증섞인얼굴로 종이를 돌려서달라고 손가락질로만 응답을했습니다 아침부터 기분이 매우 나빳네요 조금이라도 친절하게해주었으면좋겠습니다</t>
   </si>
   <si>
     <t>김재완 기사님 감사합니다^^ 신입생이라 셔틀버스를 잘못타서 친구들이랑 고생했는데 김재완 기사님께서 친절히 안내해주셔서 감사함을 전하고자 글을 남깁니다^^그리고 길을 잃고 헤매던 도중 다시 순환버스를 타고 오셔서 저희를 태워주시고 건물 앞까지 안내해주시는 모습을 보며 어떤 일을 보답할 수 있을까? 라는 생각으로 고객의 소리에 글을 남기고자 생각했습니다ㅎㅎ좋은 기사님들 덕분에 회사생활이 더욱 가치가 높아지고 편리해져 윤택해질 수 있는 것 같습니다^^다시한번 감사드리고 고맙습니다ㅎㅎ</t>
   </si>
   <si>
-    <t>한빛관광 경기78 8489 기사님 칭찬합니다. 6월 22일인지..23일인지 3교대 감곡 장호원 퇴근 셔틀을 노선이 바뀐지 모르고 탓습니다.그래서 종점에서 내려서 택시를 불러야 하나 걸어가야 하나 고민하고 있었는데기사님이 친절하게 어디까지 가냐고 물어보신후종점까지 운행후 제가 내리곳까지 태워다 주셨습니다.정말 감사합니다. 다음에 박카스 한박스라도 사가지고 타서 감사의 말씀을 전하겠습니다.앞으로 노선 잘 보고 탑승하도록 하겠습니다.정말 감사합니다.</t>
+    <t>보안근무자 관리자분들에게 묻습니다 보안요원 분들 중에 관리자분들은 자율복장인건가요일반 사원 분들은 복장 통일 하는데관리자분들만 복장이 다른거 같아요넥타이도 안하고 구두도 안신고 개별사복 입으시는거 같더라고요일반사원은 밖에서 춥든 덥든 복장통일하면서근무 서는데 관리자는 본인 편의 때문에개별 복장 갖추는건 너무 이기적이지 않나요규정을 준수하고 집행해야하는  보안근무자 ,특히나 관리자들은 앞장서서 솔선수범하여 모범을 보여야 하는데 그렇지 않다면 보안팀 내에서도 부하직원들이 무엇을 보고 무엇을 느낄까요그래서야 회사 내에서 기강이 바로 설 수 있을까요 그럴 수 있을지 의문이 듭니다</t>
+  </si>
+  <si>
+    <t>라인내 휴대폰 TRS관련문의 안녕하십니까. 라인내 전화기 TRS관련 문의가 있어서 글을 씁니다. 라인내 휴대전화는 지금 모토로라 TRS로 쓰고 있는 것으로 아는데(3G망으로 알고있습니다.) TRS 전화기 규격이 정해져있나요?제가 아는것으로는 4G망이 아니고 3G망으로만 사용해야된다고 알고 있습니다.그러면 3G망인 TRS 전화기는 모두 사용이 가능한가요? 혹시 다른 제한 사항이 있는 지 확인하고 싶습니다.</t>
   </si>
   <si>
     <t>친절하신 기사님 행복2문 아침 7시25분 빨강버스 운행하시는 기사님 늘 밝은 모습으로 저희들을 대하는 모습이 참 보기가 좋았습니다 늘 감사합니다</t>
   </si>
   <si>
+    <t>이천 부속의원 물리치료사분들 감사합니다. 작년 12월 퇴근길 부주의로 인해 우측 어깨 탈골이 발생했었습니다.약 6주간 고정대를 차고 생활 후 어느정도 치유되어, 물리치료를 진행해야하는데,외부 병원을 매일 이용하는 것은 사실상 불가능하여 고민이 많았습니다.그러던 중 같은 팀원으로부터, 사내 물리치료실이 굉장히 잘 되어있다는 말을 듣고 1월말에 처음으로 방문하게 되었습니다.물리치료실은, 사외 그 어떤 병원들보다 최신설비를 갖추고 있었고, 물리치료사분들은 항상친절하며 정성껏 치료에 도움을 주셨습니다. 어깨 회복구간에 맞춘 적절한 운동방법과초음파치료, 특히 김유진 주임님의 물리치료로 이제 완치가 되었습니다.사내 물리치료실을 이용하며 제가 계속 만족해왔기에, 주변 팀원들에게도 많은 소개와 권유를 하였고, 이에 여러 팀원들이 물리치료실을 이용해 건강이 좋아지고 있습니다. 이제 이번주까지 진료받으며 더이상 나올 필요 없겠다는 말을 듣고(저 또한 그리 느끼고 있습니다.)친절하고 아리따우신 물리치료사분들을 더 뵙지 못하는 것에 정말 아쉽고..^^; 더 이상 아프지 않아 재방하지 않는 것이 최고겠지만, 혹시라도 안좋아지거나 다른 일이 생기게 되면 도움을 받으러 찾아뵙겠습니다.그동안 감사했습니다.</t>
+  </si>
+  <si>
+    <t>분실 6월 20일경 시민/세무서 버스에서 뒷자리쪽에서 보조베터리 흰색을 분실하여 말씀드립니다</t>
+  </si>
+  <si>
     <t>사원증 케이스 관련 문의 드립니다 사원증 케이스를 다시 받을수 있는건가요?사원증 케이스 깨진 부분이 있어서 사원증이 빠짐 현상이 있습니다,그로인해 사원증을 분실 할수도 있을거 같아 케이스를 다시 받으려고 하는데 다시 받을수 있는지 문의 드립니다.</t>
   </si>
   <si>
-    <t>M14 화장실 사용 화장실 사용 하고 난 후 아주머니께서 들어가서 확인해서는휴지를 많이 쓴다하여 제가 대변을 봤다고 했는데도 불구하고 뭐라하시네요저만 그러는것도 아니고 다른사람들도 보면 많이 사용하는 분들도 계시는데이상하게 저한테만 그러시네요제가 만만해 보이셨나요?휴지사용하고 휴지통에 넣었고 더럽게 사용한 것도 아닌데제가 똥싸고 휴지 사용한건데 왜 화장실을 사용할때마다 뭐라 들어야 하는지 모르겠네요화장실 사용하고 싶어도 사용할때마다 뭐라하고 불쾌하게 쳐다보시고손씻을때 양치할때 볼일볼때 사용하는곳인데 왜 눈치를 주시는건지 모르겠네요사용하면 화장실 청소해야되서 그게 싫으셔서 그러시는 건가요?화장실을 그럼 더 만들어주세요^^화장실 사용하는 것까지 제가 왜 눈치를 봐야하는지 모르겠네요저번에도 그러셨는데 또 그러시고생각보다 어리지 않아요사람 겉모습만 보고 어리다고 멋대로 판단해서 차별하지 마세요마.지.막.으.로. 부.탁.드.립.니.다.</t>
+    <t>사내주차장 이용 안녕하세요 이번에 신입사원으로 들어왔는데 사내주차장 이용하려면 어떻게해야하나요?</t>
+  </si>
+  <si>
+    <t>혹시 자회사 직원은  자율출퇴근 이용을 못 하나요? 우선 서비스에 진심으로 감사드립니다. 다름이 아니라 제가 지금 하이닉스 자회사에 다니고 있는데 혹시 자회사 직원들도 자율출퇴근 셔틀을 이용할수 있나요? 답변 부탁드립니다.</t>
+  </si>
+  <si>
+    <t>버스 승강장 주차에 신경을 좀 써주셨으면 합니다. 마구자비로 주차를 하여 바닥에 번호도 안보일 지경입니다.이런거 관리 하시는 분이 안계신가요?퇴근시간대에 모니터링 한번 해보시면 이해가 가실 겁니다.더욱 심한 날도 많습니다.ps. 시스템 오류인지 첨부파일이 올라가지가 않네요. 시스템 오류 수정이 필요합니다.</t>
   </si>
   <si>
     <t>사원서비스센터 친절한 안내 감사드립니다. 원상희대리님오랫만에 콘도문의 및 예약으로 인해계속 전화해서 귀찮게 해드렸음에도 불구하고 자세한 설명과 친절한 안내 감사드립니다..정말정말 감동받았아요~ㅠ좋은 하루 보내세요~^^</t>
   </si>
   <si>
-    <t>이해하는 마음(이해심) 아침출근 시간 7시20~30분경? 수도관광 빨간 버스 기사님의 자상함을느꼈습니다.아침에 커피마시는 것을 좋아해 커피를 들고타는 경우가 많은데, 혹시 모를 만약의 사태를 대비해 주의를 받는 경우가 가끔 있었습니다.그래서 뚜껑있는 컵을 사용하지만 그러한 지적에 약간 부담을 느낀 것도 사실 입니다.그런데 해당 기사님은 안된다는 말 보단,침묵하시거나, 쏟을지 모르니 조심하라는 표현을 쓰시더군요!그런 차이가 저에게는 좀더 편안한 느낌을 받았습니다.그래서 칭찬 합니다.</t>
-  </si>
-  <si>
     <t>조직도/메신저 사진 탑재 건의 안녕하세요. 하이닉스 경영기획팀에서 근무하는 이성우라고 합니다.매번 업무 관련 지원에 감사드리고 있습니다.다름이 아니라, 조직도 상에 하이스텍 분들의 사진이 업데이트되어있지 않은 경우가 많은데이를 업데이트해 주시면 업무상 편의가 증진될 것 같아 건의드립니다.업무 분장이 어떻게 나뉘어져 있는지 모르는 상황에서 조직도 안에서 얼굴을 보고 찾아서 연락을 드리는 경우가 많은데, 사진이 업데이트되어 있지 않거나 제각기 다른 사진 (셀카?)을 올리시는 바람에 정확한 분께 연락드리기가 어려운 감이 있습니다 ^^; (저의 경우, 사원서비스센터 특정 업무 처리가 잦은 편인데 조직도만 보고는 찾아가기 어렵습니다)이 곳에 건의드리는 것이 맞는지 모르겠으나, 담당자께 전달되어 본 건의가 재고되었으면 좋겠습니다. 감사합니다.</t>
   </si>
   <si>
     <t>친절한 버스기사님 감사합니다 청주-이천 간 버스 운행을 하시는 편광범 기사님을 칭찬합니다. 청주에서 이천으로 퇴근하던 길에 실수로 휴대전화를 버스에 두고 내리게 되었는데, 우연히 연락처를 찾아 연락한 곳이 해당 버스의 기사님이셨습니다. 기사님의 바쁜 스케쥴 때문에, 제가 충분히 찾아가서 분실물을 수령할 수 있음에도 불구하고, 제 위치를 고려해주셔서 수령할 수 있도록 배려해주셔서 두 배, 열 배 감사했습니다. 앞으로도 안전 운전, 친절 운전 부탁 드립니다!</t>
   </si>
   <si>
+    <t>18889573 보안 담당자님 답변 부탁드립니다. 저또한 궁금합니다. 기준이 무엇인지.대한민국 어느 기업이 협력사 남자만 검사를 할까요....</t>
+  </si>
+  <si>
     <t>장봉식기사님 감사합니다 가방 두고 내려서 그안에 지갑도 있는지라 난처했는데기사님이 다음날 아침에 식사시간에 밥도 못드시고 찾아주셨습니다! 너무 죄송했는데  정말 친절하게 대해주셔서 이렇게나마 감사의 뜻 전합니다.</t>
   </si>
   <si>
+    <t>이천캠퍼스 부속의원 내  물리치료실을 극찬 합니다. 저는 평소 디스크 질환을 몇 년전부터 겪고 있으며,다양한 치료(각종 시술, 운동기법, 재활치료, 기타 등)을 받고 있습니다.그러나 디스크는 한번 발병시 호전되기 어려우며, 계속적인 관리가 필요하죠. 저 역시 디스크로 인해 적지 않은 기간 휴직을 하게 되었고,완치가 되지 않은 상태에서 복직을 하였지만 업무가 만만치 않아 이천 하이닉스 내 물리치료실을 방문하게 되었습니다.디스크가 많이 진행되었고, 여러 가지 치료를 받은 경험이 있어서 물리치료가 별다른 효과가 없다는 것을 알고 있었지만그래도 당사 내 있는 물리치료실이 접근하기 용이하여 방문을 하게 되었죠그런데 여기 일하시는 물리치료사님들의 치료 방법 및 효과는 매우 남달랐습니다.환자들을 생각하는 마음이 무엇보다 진심으로 느꼈졌고, 마음이 행동으로 나타나 치료 하나하나에 관심과 정성을 듬뿍 솟아 주는것이 느꼈졌습니다.더욱이 치료 뿐 아니라 환자에게 대하는 친절함과 따뜻한 미소는 물론이고,환자의 생활습관, 업무 관련 스트레스도 함께 이야기하며 몸과 마음이 모두 힐링되는 시간이었습니다. 처음엔 이러한 것이 일회성에 그치지 않을까 생각했지만 바쁜 가운데 매번 최선을 변치않는 모습을 보이는 물리치료사 분들의 모습을 보고 감동을 받아 이렇게 글을 올리게 되었습니다.앞으로도 물리치료실의 발전을 기대하고 응원합니다.또한 가지고 계신 여러 좋은 아이디어(예: 헬스장과 연계하여 재활치료 실시 등)이 꼭 실행되어서 SK하이닉스 구성원들의 건강이 나날이 좋아질 수 있는 계기가 되면 좋겠네요물리치료사님들, 모두 너무나 감사합니다.</t>
+  </si>
+  <si>
     <t>수도관광 심재국 기사님 감사합니다! 안양과천행 수도관광 통근버스로 출퇴근하는 하이닉스 M14 FAB 근무자입니다~출근중에 지갑을 두고내린걸 알고 지푸라기 잡자는 심경으로 대뜸 전화드렸는데 무려 청주에서 이천까지 와주셔서 친절하게 지갑을 건네주신 수도관광 심재국 기사님에게 감사합니다! 마침 현금도 넉넉히 뽑아두고 중요한 일정표도 보관해두고있었던터라 하늘이 노래졌는데..기사님에게 꼭 좋은 평가가 적용되었으면 하네요~</t>
   </si>
   <si>
-    <t>연정흠 여사님 칭찬합니다^^ 연정흠 여사님은 항상 웃는 얼굴로 사원들을 맞아 주시고 친절하게 대해 주셔서여사님을 볼때마다 항상 기분이 좋습니다.가끔 뵐때에도 항상 안부도 물어봐 주시고 기분 좋은 칭찬을 해주셔서 덕분에 밥을 맛있게 먹고 일하고 있어요^^항상 감사드립니다^^</t>
+    <t>보안요원 성희롱 기술지원센터에 출근하는데 검색대에서 약간 마르고 얼굴이 까무잡잡한 보안요원이 저를 포함해서 여사원들을 음흉한 눈으로 쳐다보면서 키가 어떻고 몸매가 어떻고 하는말을 들었습니다출근시간이라 정신이 없어서 일단 올라왔는데 생각해보니 기분이 너무 나빴습니다같은 구성원끼리도 그런 말은 성희롱인데 하물며 고객사인 구성원에게 보안요원이 그런말을 하다니 도저히 참을수가 없었습니다내려와서 따져보려고 했더니 이미 그 보안요원은 보이지 않고 퇴근한 후였습니다지금 글을 쓰고 있는 이순간에도 치가떨리고 온몸이 부르르 떨립니다정말로 다시는 그 보안요원 보고싶지 않습니다향후 이런일이 발생하지 않도록 강력한 조치 부탁드립니다</t>
+  </si>
+  <si>
+    <t>형평성이  안맞는것 같음 다름아닌5월19일 행복 3문통하여18:45경 퇴근 하는데 보안요원 이 가방 검사 하자 하더라구요 햇죠근데옆에 옆사람가방메고 잇는데 그냥통과 하더군요.그래 물엇죠 .저사람은 왜검사 안하냐고 . 하는말와  통상이나  여자는 검사안합니다. 예전부터 그랫다나요. 나참 어이 업어서  사람 차별하는겁니까  웰레 그런건지  교육을어떡해 이거형평성맞나요.협력업체 사람 그것도 남자만 뭐 가져 갑니까  궁금합니다.</t>
+  </si>
+  <si>
+    <t>남자기숙사 헬스장 샤워장이요 비누걸이대를 왜 선반에다가 올려두시죠?샤워 바구니 선반에 올려놔야 하는데 비누걸이대 때문에 불편합니다.예전에는 벽에다가 비누걸이대 고장해서 사용했는데 지금은 선반에 그냥 올려두시더라고요..</t>
+  </si>
+  <si>
+    <t>실내수영장 문의 제가 현재 m15 청주 하이닉스 건설현장 업무로 잔디구장 앞 건물에 상주하고 있습니다. 청주하이닉스 내에 실내수영장이 어디 위치해 있고 혹시 시설이용시 제한이 있을까요? 예를들면 상시출입증이 있어야 이용가능한지 여쭤봅니다. 이용가격도 답변 부탁드립니다~!</t>
+  </si>
+  <si>
+    <t>상시출입증 목걸이줄 변경 (안전장치 부재로 인한 사고 발생 가능성) 안녕하세요.현재 외부 협력업체로 상시출입증 (주황색/녹색 목걸이 줄)을 발급받아 사용 중인데, 해당 목걸이줄에는 특정수준 이상의 당기는 힘이 가해졌을 때 자동으로 줄이 풀리는 안전클립이 장착되어있지 않습니다. 이로 인해 회전문에 끼어 목걸이 줄이 조여지는 위험사고가 발생하기도 하는데, 해당 목걸이줄이 위험하니 임의의 다른 목걸이줄로 구해서 색깔 무관하게 사용자가 바꿔서 착용해도 되나요?</t>
+  </si>
+  <si>
+    <t>모든 차량이 그런건 아니지만 맨앞자리 냉장고위 보온포트?는 넘 위험해 보이네요. 차량 맨앞자리 냉장고 위에 커피를 드시기위한 보온포트가 있는 차량이 종종 있는데 어떤경우김이 폴폴나면거 물이 끓고 있는데 너무 위험해 보이네요. 개선해주세요.</t>
+  </si>
+  <si>
+    <t>외주 인력들을 잠재적 범죄자입니까? 안녕하세요.SK하이닉스에서 약 3개월 정도 외주직원으로 근무중인 사람입니다.퇴근시에 건물보안검색대를 통과하면서 가방 X-ray 및 소지품 검사를 받고 있습니다.그런데 정문게이트를 통과할 때 왜... 외주인력들만 가방을 재검사 하는건가요??이 뜻은, 외주인력들을 잠재적 범죄자로 생각하시는거 아닌가요?검사를 할거면 전 직원 검사를 하시던지, 왜 하필 외주인력 '남자' 들만 검사를 하는건가요?매번 정문 검색대를 통과할때마다 기분이 상당히 불편하네요.(보안검사가 불편한게 아니라 외주직원 남자만 특정지어서 검사하는지 이해가 안되는겁니다.)답변 부탁드립니다.</t>
+  </si>
+  <si>
+    <t>보안에 대해서 안녕하십니까.제가 한두번 본게 아니라 여쭙고싶습니다.보안 근무자분들 검색대 통과 안해도되나요? 보안요원은 하이닉스의 자산을 무단반출할 가능성에 아예 배제가 되어있는건가요?남자 두분께선 검색대 옆으로 돌아서 게이트 찍고 가시고,분홍색 캉골 가방맨 여성분은 대놓고 검색대 돌아서 게이트도 안찍고 당당하게 우회해서 가더라구요.사내에서 그런거 잡는게 보안요원이라고 생각합니다.오늘 출근하고 인력개발원에서 목격했습니다 08시 05~07분 경 이구요필요하시다면 정식적으로 쵤영허가 받아서 사진 첨부해드리겠습니다.</t>
+  </si>
+  <si>
+    <t>LG U 플러스 통신사 안터짐 불편 LG U 플러스 통신사 핸드폰 안터짐으로 불편합니다.건물 외부는 해당 없지만 건물 내부에선 전혀 터지질 않으니 업무 전화는 물론 일상 전화까지 사용하기 어렵습니다.SK 통신사 이용하는 모든 건물에서 잘 사용하는걸로 아는데 .. 개선 안되는겁니까?</t>
   </si>
   <si>
     <t>식당에 가면 행복해 집니다. 항상 직원들의 건강을 위하여 고민하시고 항상 밝은 모습과 친절한 마음으로우리 모두에게 행복을 주시는 분이 있습니다.3캠퍼스에서 누구나 공감하시겠지만 그분은 바로 윤미란 영양사님 입니다.</t>
   </si>
   <si>
-    <t>감사 했습니다 박남..여사님 ^^ 제가 손에 붕대를 감은 상태에서 퇴식구에 식판을 가져다 놓기 위해 일어 나려고 했더니여사님이 발견하시고 대신 들어 주시더라고요.너무 감사했습니다.성함을 여쭤보지 못하고..박남...까지 밖에 못봤는데..끝에가 희였는지..잘 기억이 나지 않아서 ㅠㅠ일단 이렇게만 적을게요.테이블 정리 해주시는 분이였고..늘 밝게 웃어주시고. 음식 맛있게 먹었는지 인사 건내주시는 분이셨어요.감사했습니다^^</t>
+    <t>보안스티커 부착에 대해 보안분들 교육 부탁드립니다. 보안분들도 폰 보안 스티커 부착에 대해 제대로 숙지 못하고 계시는듯 합니다.제가 노트8로 폰을 바꾼지 두달이 안되었는데요. 처음 봉인시 카메라처럼 보이는곳이 많아 스티커 부착시 보안분께 여쭤봤습니다.전면,후면 이렇게 부착하였고 보안분께 이렇게만 부착하면 되냐고 또 붙일곳이 없는지 확인까지 받았습니다. 폰 바꾼 날짜를 알고 있기 때문에 언제 몇시였는지 날짜도 말씀드릴수 있습니다.그렇게 지금까지 붙이고 다녔는데 듀얼카메라? 부분 미부착으로 이제서야 적발하시더라구요.스티커 부착 안내문을 제대로 못본 제 불찰도 있지만 바쁜 출근길에 부득이하게 보안분께 여쭤보고 부착한건데 제 입장에서는 많이 억울하네요.저같은 억울한 적발자가 나오지 않도록 보안분들께 교육을 부탁드립니다.교육이 어려우면 잘못된 정보를 알려주지 마시고 안내문을 보고 붙이라고 얘기하게끔 해주세요.보안을 잘 지켜온 사람으로서 너무 억울해서 글 올립니다.</t>
+  </si>
+  <si>
+    <t>사원서비스센터에서 여권신청도 가능한가요? 알려주세요~!</t>
+  </si>
+  <si>
+    <t>금정노선 기사님 칭찬합니다. 차량번호가 6158인가 하는거 같은데...아침에 밝은 웃음으로 인사해 주시고 어두운 버스안에서 책을 읽을때면 개별 조명을 할 수 있도록 해 주시는 그 배려에 무척 감사드립니다. 다른 노선 버스를 타러 갈때 우연히 버스 정거장에서 마주쳐도 변함없는 친근함을 보여 주셔서 정말 감사합니다.</t>
+  </si>
+  <si>
+    <t>분실물 문의드립니다. 제가 4월13일 금요일 오후 8시 구리/노원 퇴근버스 7444호를 탑승하였는데 지갑을 놓고 내린것 같아 문의드립니다. 하루 빨리 찾아야 할 일이있어서 급히 알아보고 싶어서 문의남깁니다.</t>
   </si>
   <si>
     <t>김숙자 여사님을 칭찬 합니다 ^^ 1캠퍼스에 근무하시는 김숙자 여사님을 칭찬 합니다.성함을 몰라서 여태껏 칭찬글을 못 올렸는데...드디어 알게 되서 올립니다^^늘 밝은 얼굴로 먼저 인사해주시고 친절하게 대해 주셔서 저뿐만 아니라 같이 식사하는 동료들도 여사님 칭찬히 자자 합니다!늘 밝은 얼굴로 대해 주시는 여사님 모습이 너무너무 좋습니다^^</t>
   </si>
   <si>
+    <t>사내 임산부 비율이 어떻게 되나요 버스에 임산부석 운영은 아주 좋다고 생각하지만두 좌석은 많은 것 같아요사내 임산부 비율 따져보고 한 자리로 조정하는 것을 건의합니다</t>
+  </si>
+  <si>
     <t>추운 날씨에 고생하시는 보안요원분들 힘내세요 후문으로 몇 차례 오고가며 근무하는 하이닉스 직원입니다수목금 3일 내내 비가 오나 바람이 오나정장차림 한벌로 애처롭게 덜덜 떨며 고생하시는 보안 요원들이 걱정됩니다근로자는 근로자로서 본인 본분을 다하여 임무에 충실히 하는 것이 옳은 모습이고관리자는 관리자로서 근로자들이 더 나은 근무환경에서 근무할 수 있도록 서포트하는 것이 아름다운 모습 아닐까요겨울내내 파카 입은 모습도 보았고, 코트 입은 모습도 보았습니다근무복이 지급 안된  것이 아닐건데, 한주내내 추위에 떨며 고생하시는 보안요원들의 모습이 안타까워서 한글자 올려봅니다</t>
   </si>
   <si>
+    <t>협력사 이천 고담주차장 사용가능여부 확인 상시출입증으로 출퇴근시 고담방문객주차장사용이 가능한지 알고 싶습니다.</t>
+  </si>
+  <si>
     <t>M14 지하 1층 화장실 청소하시는 아주머니분 화장실 사용할려고 들어갈때 가끔 청소하시는 아주머니분이랑 마주치면표정이 안좋으시던데 왜그러시는건가요?화장실을 볼일보거나 손씻으러 사용하는건데사용하면 표정이 안좋으시는 이유가 궁금하네요그리고 화장실 청소중이셔서 다른 화장실 있냐고 물어봤는데그냥 지나치시길래 다니는 길만 다니니 위치모른다고 하니까손가락으로 저기라고만 하시면 제가 어찌압니까?결국 다른분한테 여쭤봤네요ㅡㅡ위치물어보는것도 기분나쁜 표정으로 쳐다보시고그냥 마주칠때마다 기분나쁜 표정으로 쳐다보시네요저도 나이가 많이 어린것도 아닌데 겉모습만 보고 그렇게 행동하지 마셨으면 합니다.하루이틀도 아니고 기분이 매우 불쾌하네요</t>
   </si>
   <si>
+    <t>간편식 배식시 불편함을 고쳐주십시요 간편식을 배식 받기 위해서 첫번째로 하는 일이 비닐봉투의 입구를 벌리는 일입니다만,비닐 봉투의 입구를 벌리기가 쉽지 않습니다.비닐 봉투의 입구를 벌리기 위해 통상 비닐봉투의 입구를 비비거나 손가락에 침을 묻혀는 방법으로 쓸 것 같습니다. 불편합니다.선진국에서 널리 쓰이고 있는 방법을 소개해봅니다.첨부된 사진과 같이 비닐 봉투 옆에 물에 젖은 헝겊을 비치해 놓으면 젖은 헝겊으로 손가락를 젖게 할 수 있으므로 비닐 봉투의 입구를 쉽게 벌릴수가 있습니다.사소한 것이지만 사소한 것에서 감동을 받았으면 좋겠습니다.</t>
+  </si>
+  <si>
+    <t>복사 붙여넣기 기분불쾌 ㅡㅡ 식사 타각기 관련해서 답변이 복사하기 붙여넣기 하시는거 같은데ㅋㅋㅋ관리를 엄청 소홀하게 하시는거같네요..? 그럴꺼면 이런 게시판 작성판 또한 관리하지마시고 폐쇄 하세요..똑같은 답장 듣기시르니깐보안강하하던지 한사람때문에 도대체 몇명 몇백명이 피해를 보고잇나요..겁나 무능력하네요 ㅋㅋㅋ</t>
+  </si>
+  <si>
     <t>감사합니다~ 동남고속 9506 김학록 기사님에게 감사함을 전합니다3월30일 금요일 사원증을 버스안에서 잃어버리고 계속 찾았는데 기사님이 친절하게 차를 돌려서 제가 있는 곳 까지 와주셨어요. 덕분에 사원증도 찾고 기사님 친절함에 너무 감사드립니다.</t>
   </si>
   <si>
-    <t>Take out메뉴 중 훈제란!! 훈제란 입고 언제되나요! 매일매일 기대하면서 회사에 출근하지만 없어진지 너무 오래되었어요 ㅠ하루빨리 입고되었으면 좋겠습니다.입고계획이 있나요?</t>
-  </si>
-  <si>
-    <t>명절인데 수고가 많으십니다. 명절인데 맛있는 식사를 해주셔서 진심으로 감사합니다. ^^덕분에 맛있는 식사를 했네요~!!!추운 날씨에 감기 조심하시기 바랍니다.</t>
+    <t>신호 위반 지난번에 하이통에 올리려다가 말았는데..이런 사이트가 있었군요..지난달인지, 이달인지 신호 위반하셔서 운전 중에 경찰이 차 세워서 딱지 떼였던 기사님이 계신데요..항상 구의/성수선 탈 때마다 현대2차, 강변에서 내리는 구성원에게 꼭 한마디씩 싫은 소리 하시던 기사님이라 기억이 나네요..그런 기사님은 교육을 하시나요..? 아님 패널티가 있나요..?</t>
+  </si>
+  <si>
+    <t>가방검사 퇴근길에 건물 안 보안 엑스레이 검색대 통과 후 정문에서 가방 검사를 하시는데 모두 똑같이 엑스레이 검색대를 통과해서 나왔는데SK직원, 협력사 여성분들을 제외하고 협력사 남성만 가방검사를 하시더군요 매번 협력사 남성만 검사하시기에 이번에 물어봤더니 답변이 여성분들은 불쾌해 한다고 하더군요 남성도 기분나쁘고 불쾌 합니다. 가방을 열어서 보여주는데도 거기에 손을 넣어서 검사하는가 하면 어떤 보안직원분은 뒷짐을 한채로 내려다보듯이 쳐다보는데 무슨 범죄자 취급당하는것 기분이라 상당히 불쾌합니다.</t>
+  </si>
+  <si>
+    <t>안녕하세요. 통근버스 출입증 분실관련 문의드립니다. 안녕하세요. 불철주야 고생이 많으십니다.다름이 아니오라 2018년 03월 23일 저녁 19시에 구리 노원선 퇴근버스를 탑승하여 분실물 확인을 하고 싶습니다.</t>
+  </si>
+  <si>
+    <t>식사 타각기 식당 타각기에 대해 궁금한점이 있습니다.사번 도용으로 인한 불편함보다 타각기 이용 불가로 인한 불편성이 더 확대되어 가는데요변경된 이후 더 불편해졌고 효율성없이 운영되고 있는것 같습니다... 또한 밑에 보면 제대로 답변도 안해주시네요 ...타각기 이용시 비밀번호나 본인 확인 등에 대한 보안을 강화시키는것으로 변경되야 하는것이 맞지 않을까요 ?</t>
+  </si>
+  <si>
+    <t>sky happy bus 어플 문의 하이닉스에 다니는 협력업체 직원입니다.앱을 다운받아서 ID인증?비밀번호찾기를 하려는데상시출입증 뒤에나와있는 NO.SHI 로 시작하는 일련번호 8자리 입력 과 이름, 핸드폰번호를 입력했더니회원정보가 존재하지 않다고 나오는데요. 일련번호 말고 개인 I 사번으로 입력해도 안됩니다.따로 인증은 어떻게해야하나요?</t>
+  </si>
+  <si>
+    <t>식당 타각키 안됨관련 금일 이천 교육으로  복지관에서 조식을 먹으로 갔는데 청주 인원이라 그런지 타각키가 안되었습니다.번호입력도 없어져서 막막해 있는 상황인데 그에대한 방법이나 대처할 수 있는 방법에 대한 설명은 전무해 보였습니다. 식당쪽에서는 안되면 어쩔 수 없다는 이야기만 하고 시간이 없어서 그런다니 완전 불친철한 인상과 회사쪽에 문의만 하라는 이야기만 하더군요.물론 정책이 바뀌었으니 식당쪽에서는 방법이 없을 수 있습니다.전사원이 이천 청주 식당이나 출입 정도는 기본으로 등록이 되어져야 하지 않나싶네요.개별등록이 아닌 회사직원이라면 이천 청주 가리지 않고 등록이 될 수 있게 하였으면 합니다.현재 시스템이 그렇다면 등록 절차가 어떻게 되는지요</t>
+  </si>
+  <si>
+    <t>사번 입력 기기 중단한 이유가 뭔가요 공식적으로 에고도 없이 전면 중지하는게 좀 당황스러워요 간식 두번 타는거 못하나요 ?</t>
+  </si>
+  <si>
+    <t>[문의] Happy Bus 인증 문의드립니다. 안녕하세요Happy BUS 인증 문의 드립니다.(지난 3월 6일 문의드렸는데 게시판 문제인지 비번이 틀리다고 하여 제가 쓴 글을 볼수가 없어 다시 남깁니다)아이폰에 SKY Happy BUS APP 설치 후비밀번호 찾기 --&gt; 사원번호, 이름, 휴대폰 입력 하면 존재하지 않는 사용자라고 나옵니다.사원번호에 ID카드 Tag 번호, X사번 모두 입력하였으나 실패하였습니다.어떤 걸 사원번호로 사용해야 하는지 알려주시기 바랍니다.</t>
+  </si>
+  <si>
+    <t>청주 문화센타 헬스장 건의 사항이요.. 롤매트로 바꾼후부터 냄새관련 환기를 일정시간 하신다고 하셨는데요...정말 하시는건가요??한번도 하시는거 못봤습니다...운동하러 왔다가 폐가 망가질꺼 같네요..양파 이런거로 냄새 없앨려고 하시지 마시고 환기 좀 꼭 해주세요...그 좋은 마루 바닥에서 왜 냄새나는 롤매트로 바꾼건지 이해할수가 없네여,,ㅜㅜ그리고 신발 안신는 인원들 점검 하시는건가요...??어제도 두명이서 양말도 안신고 맨발로 여기저기 활보를 하더군요..제가 말해서 주의를 줄수도 있지만 그러다 싸움이라도 나면 어쩌나 싶어서 관뒀네요..제가 헬스장 관리자도 아니고...제발 맨발의 청춘들 단속 좀 해주세요....헬스장 관리인은 있기는 한건가요??</t>
+  </si>
+  <si>
+    <t>보안차량사내제한속도 3캠퍼스 내에서 보안근무교대시 차량 쏘렌트는 사내 제한속도 20km를 안지켜도 되는건가요??? 40,50km는 되보이는 속도로 주행을 하던데요</t>
+  </si>
+  <si>
+    <t>보안 할거면 공평하게 제대로하세요 하이닉스 구성원은 안에서 검사하니 괜찮은데같은 협력사직원임에도 여자분은 검사안하는건뭐죠? 그건 그렇다 치고 근무끝나고 다같이나가는데왜 저만 가방을 열어보시는지요검사를할거면 제대로 다 하던가몇몇사람할거면 하지마셔야죠그리고 식당에서 반찬떨어져서 가져다주시는동안기다리고있는데 그반찬 안받으신다고 제앞으로 넘어가시던 보안요원분키크시고 머리 약간 곱슬하시고 피부 하야신분가실땐 가더라도 저이반찬을 안먹는데 앞에먼저가도될까요 이렇게 물어보는게 힘든가요말도없이 가는거 기본이안돼있네요.다음에 마주치면 명찰보고 이름적어서 올리겠습니다야간에 지나갈때 졸고계신거 깨워서 검사받고 피곤해서 그런가보다하고 지나갑니다힘든일하시는건 아는데 매너좀 지켜주세요</t>
+  </si>
+  <si>
+    <t>[문의]SKY HAPPYBUS 인증 관련 안녕하세요SKY HAPPYBUS 인증이 되지 않아 문의드립니다.1.휴대폰에 어플 설치 후 최초 로그인 시 비밀번호 찾기가 필요하다 하여 비밀번호 찾기 선택2. 팝업창에 사원번호, 이름, 휴대폰 입력 후 확인 --&gt; 회원정보가 존재하지 않습니다    사원번호에 사번 (X0006483) 및 ID카드번호(B557770) 입력해도 동일하게 오류 발생함.HAPPY BUS 어플 인증 방법(회원정보)에 대해 확인 부탁 드립니다. 참고) 핸드폰은 APPLE iPHONE 임.</t>
   </si>
   <si>
     <t>영양사님을 칭찬합니다!~~ 매번 친절하게 웃어주시고 얼굴도 예쁘신 송기용? 영양사님을 칭찬합니다.사람이 많아 정신 없으시고 바쁘실텐데 항상 웃는 얼굴로 무거운 국도 갖다주시고 항상 감사합니다~!추우신데 감기 조심하세요^^</t>
   </si>
   <si>
+    <t>식단 조회 시 날짜 이동 2017 / 10 에 문의했고 11월 10일까지 구현한다 답변 받았는데왜 바뀌질 않는지요?이해가 안되는군요.============================안녕하세요 고객님요청하신 개선사항은 11월 10일 이전까지 구현 완료 예정입니다하이스텍 홈페이지를 이용해주셔서 감사합니다좋은하루되세요*^^*원문내용 ====날짜를 입력 후 검색을 해야하는데날짜 좌우에 버튼을 만들어서날짜를 입력하지 않아도 이동 가능하도록 웹사이트 개선 바랍니다.아래와 같이. &lt; 날짜 &gt; ====</t>
+  </si>
+  <si>
+    <t>사내셔틀 김재환 기사님 친절함에 감사드립니다. 사내셔틀 버스를 이용하는 구성원인데요,김재환 기사님 버스 탈때마다 친절함에 항상 감사하다고 전하고싶어 글 남깁니다. 정차할때 , 이동할때 위트있고  친절하게 방송해주셔서 얼마나 감사한지 몰라요.항상 건강하셔서 사내셔틀 운행 오랫동안 해주셨으면 좋겠습니다.더불어 이 추운 날씨에 통근버스 관계자분들도 고생 많으신거 같아요.모두 감사합니다^^</t>
+  </si>
+  <si>
     <t>심재국 기사님 칭찬합니다~ 오늘 아침에 ㅠㅜ 정신이 없었는지 버스에 가방을 두고 내렸습니다....너무 어안이 벙벙해져서.. 일단 하이스텍 대표 연락처에 문의를 하였더니..사당선 기사님 세 분을 안내해주시더라구요..다행히 바로 담당 기사님 연결이 되어서..저 때문에 급하게 식사하시고 이 엄동설한에 가방까지 직접 저희 건물로 가져다주셨습니다.. 건물 찾으시느라 더 고생하신 것을 생각하니 너무 너무 감사드리면서도 죄송했습니다.아침에 인사도 반갑게 일일이 다 해주셔서 인상에 남아있었는데..이번 기회에도 너무 친절히 응대해주셔서 이렇게라도 감사의 마음을 표현해드리고 싶었습니다.추운 겨울에 안전 운전해주셔서 너무 감사드리고앞으로도 잘 부탁드립니다! 기사님 감사합니다~~</t>
   </si>
   <si>
-    <t>청주 2캠퍼스 식당 안녕하세요...집에서 제대로 밥도 못얻어 먹고 다녀서 ^^평일 및 주말 회사에서 조식, 중식을 자주 먹는  SK 하이닉스 구성원 입니다.친절은 한방향이 아닌 서로 소통하면서 양방향으로 가는거라 생각합니다.예전엔 불평불만이 많은 저였지만 좋은 마음을 가지고 보게 되니점점 나아지고 있는 2캠퍼스 식당에 대해 칭찬과 감사의 말씀을 전하고자 합니다.저는 영양사분들은 나중에 감사드리고 ^^조리원 아주머니들을 칭찬해 드리겠습니다.힘들고 열악한 환경에서도 많이 웃어주시고 도움 주셔서 감사한 마음 가지고 있습니다.제가 불쌍하고 딱하게 생겼는지 ^^ 잘생긴 총각(?) 왔다고 좋아해 주시고가기만 하면 덤으로 하나씩 더 챙겨 주시려 하시고뭐 부족한거 없냐, 맛은 어떠냐... 먼저 와서 물어봐 주시고오늘 메뉴는 뭐로 만들었다 등등 PR도 하시면서 얘기하시는 걸 보고저야 잠깐 가서 밥먹고 오면 끝이지만그 짧은 시간을 위해 평소에도 노력을 많이 하신다는 그 마음이 저에게  진심으로 와닿았습니다.앞으로도 맛있는 식사를 위해 많은 노력을 부탁 드리고저만 많이 주지 마시고 저랑 같이 먹는 사람들도 다~ 많이 주세요 ㅎㅎㅎ나중에 기회가 된다면 제가 커피 한잔씩 대접할 기회가 있었으면 좋겠습니다.감사합니다.이름을 말씀드리면 창피해 하실테니 자체 ** 처리 하겠습니다.^^*태자 여사님 감사함니다*성복 여사님 감사합니다*경남 여사님 감사합니다.***(모두들) 여사님 감사합니다^^</t>
-  </si>
-  <si>
-    <t>청주3공장 아침 편의식 사과 상태 너무 한거 아닌가요? 오래전부터 청주3공장 아침 편의식을 항상 이용하고 있는 직원입니다.그런데, 사과 상태가 정말 너무 한거 아닌가요?사과크기가 작을뿐만 아니라, 사과모양은 항상 비대칭이며, 사과표면에 흠집이나 멍이 기본적으로 들어있고, 껍질은 마치 오래된 낙엽같은 질감의 사과들이 거의 대부분 입니다.제가 늦게 출근해서 상태가 좋지 못한 사과만 남은게 아니라, 일찍가도 수북히 쌓여있는 거의 모든 사과가 이렇습니다.어쩌다 하루이틀도 아니고 매일같이 계속 이러길래 참다참다 글 올립니다.도대체 얼마나 원가절감을 하실려고 항상 이런 사과만 재공하나요?사과가 코인이 1개라면 이해라도 하겠지만, 코인 2개에 어떻게 이런 사과를 내놓습니까?요즘 마트가면 10개에 5,500원에 할인판매 하는 사과도 회사보다는 품질이 더 좋습니다.언론에서 올해 사과가 풍년이라 사과값이 많이 하락했다는 보도도 나오는 마당에...회사 직원들 상대로 정말 너무하다는 생각이 들어 글 올립니다.면피용으로 말로만 개선하겠다고 하지 마시구요, 제발 근본적으로 개선 될 수 있길 바랍니다.직원들 바보 아닙니다. 앞으로 계속 지켜보겠습니다.</t>
-  </si>
-  <si>
-    <t>출근버스님칭찬 광주1호선 신석범기사님은평소 탑승시 진근감있는 인사와회사도착전 꼭 안내방송을 친근감있게잘해줍니다. Fm기사분인것같아 칭찬드립니다</t>
-  </si>
-  <si>
-    <t>고담식당 추석연휴인데도 기숙인들을위해고생하시네요</t>
-  </si>
-  <si>
-    <t>셔틀버스 이용에대한 관계자들께  감사 오늘 이천 시내에  갈일이 있어 정문에서 오후 3시차에 탑승하여 이천시내까지셔틀버스를 탑승하였습니다많은 사람이 타지는않앗는데 기사님께서 추석연휴 전이라 그런지는모랄도친근감 있는 인사와 안전운행으로 다시한번 통근버스이용자로서 헤택을 누리는 기분을 느꼇습니다수고하시는 기사님과 회사에 다시한번 감사드립니다</t>
+    <t>상시출입증 식사 등록 관련件 안녕하세요 상시출입증 식사 등록때문에 문의드립니다.상시출입증으로 식사시 기기에 타각 하려면어떻게 어디서 등록을 해야 하는지 알려주세요.</t>
+  </si>
+  <si>
+    <t>사이트가 이상하네요 아래 글쓴이인데, 계속 오류나더니 여러번 등록이 됐네요.삭제도 안되고..</t>
+  </si>
+  <si>
+    <t>남자 기숙사 헬스장 건의합니다. 요새 헬스장에 왜이리 신성일 씨가 많은거죠??다들 맨발의 청춘입니다...이거 단속 안되나요??맨발로 런닝머신 뛰고...아주 더러워 주겠어요....외부 신발도 좀 단속해 주세요..그냥 외부 신발 신고 들어와요..</t>
+  </si>
+  <si>
+    <t>사내셔틀버스) 06:20 방문객주차장 출발/ 버스 기사님을 칭찬합니다. 칭찬이유) 1. 새벽부터 환하게 웃어주시며 인사해주십니다.이건 정말 쉽지 않은일인데 ㅠㅠ, 매번 이렇게 인사해주시니 덩달아 기분까지 좋아집니다. 2. 요즘 이슈되고있는 임산부&amp;노약자석에대해 잘 설명해주셨습니다.승차할때부터 임산부석엔 앉지 말아달라고 정중하게 부탁하셨고,운행중 방송으로 잘 설명해주시더군요   기사님의 성함은 김재환 기사님이며 이 글을 보실진 모르겠지만 매번 친절하고 안전하게 운행해주셔서 감사하다는 말을꼭 하고싶습니다.기사님버스를 타면 기분이 좋아집니다 ^-^* * 하이통에 올린글입니다.기사님께서 혹시 확인 가능하실까 하여 이 게시판에도 올려봅니다.</t>
+  </si>
+  <si>
+    <t>협력2관 2층 QRT쪽 복도 화장실 문의 항상 고객을 위해 고생하시는 SK하이스텍에 감사드립니다.다름이 아니라 이번에 QRT 신규 사무실 공사를 하면서 복도쪽 화장실도 새로 공사하셨는데완공된 이후 아직도 관리가 안되는거 같아 문의 드립니다. 기본적으로 대변기 안에 휴지, 세면대 휴지 등이 구비 되어있지 않고 청소 관리도 안돼서 대변보는 곳엔 누군가 대변 닦고 바닥에 버린 휴지가 몇일째 방치되고 있습니다.바쁘시더라도 위생이 가장 중요한 화장실을 빠른 시일내에 관리를 해주셨으면 감사드리겠습니다.다시한번 노고에 감사드립니다. 수고하세요</t>
+  </si>
+  <si>
+    <t>14924963 번 답변 부탁 드립니다. 커피 자동판매기 매일 이용하는 사람인데요. 이거 사실인지요? 답변 부탁 드리고 관련자 문책 부탁 드립니다.본인 먹을 것 아니라고 이렇게 대한다는게 말이 됩니까?등록자분께 여쭙니다. 어디인지요.</t>
+  </si>
+  <si>
+    <t>식단 조회시 날짜 입력 날짜를 입력 후 검색을 해야하는데날짜 좌우에 버튼을 만들어서날짜를 입력하지 않아도 이동 가능하도록 웹사이트 개선 바랍니다.아래와 같이. &lt;    날짜    &gt;</t>
+  </si>
+  <si>
+    <t>협력사 직원도 하이닉스 통근버스 이용가능한가요? 안녕하세요이천 Hynix 라인에 출입하고 있는 무진전자 직원입니다저희와 같은 협력사 직원도 통근버스 이용가능한지 궁금합니다이용가능하다면 상시출입증을 지참하면 되는 건가요?그럼  오늘도 기분 좋은 하루되세요!감사합니다</t>
+  </si>
+  <si>
+    <t>아이폰 IOS 11업데이트 후에 실행이 안됩니다. 업데이트 부탁드려요 ~</t>
+  </si>
+  <si>
+    <t>통근버스조정 오후 10시  구리노원선 조정부탁합니다.10시차 구리노원선을 태능노원으로 노선조정바랍니다.구리태능선은 빈자리가 많은데 굳이 노원까지가는 노선이 구리를 거쳐가야하는지 노선검토바랍니다.</t>
   </si>
   <si>
     <t>2000관광 기사님들이 하나같이 친절하시고 정말 편안하게 출퇴근을 할수 있도록 해주십니다. 감사합니다.</t>
   </si>
   <si>
-    <t>한결같은 광교선 7411호를 칭찬합니다. 우리 통근버스 전담기사님의 배정이 어느덧 느낌상 1년이 훌쩍 넘긴것 같은데요~처음이나 지금이나 참 안정감 있게, 변함없이 출퇴근을 책임져주시는 기사님께 감사의 말씀을 드립니다.그전 기사님들도 잘하셨었지만, 이따금 늦게 오시거나 결행도 있었던것 같았는데지금은 전혀 그런 걱정이 없이 편안하게 출퇴근 하고 있는듯 합니다.우리회사 최고 복지는 통근버스가 아닐까 합니다.서울내에서 출퇴근하더라도 콩나물시루에 한시간넘게 갈아타고 서서가고 부비적대고..7411호 같은 기사님이 옆에 계신것은 참으로 애사심(?)을 늘리는데에도 충분한 복지라고 생각되네요~삼촌같은 편안한 기사님~ 항상 건강하십시오~</t>
-  </si>
-  <si>
     <t>수영장 청소 안녕하세요. 복지시설인 체육관의 수영장을 이용하는 임직원입니다.여러 편의시설에 감사해 하며 사용하고 있으나, 수영장 탈의실에 대한 청소를 조금 더 청결하게 또는 자주 해주셨으면 정말 감사하겠습니다.수건으로 몸을 닦은곳, 드라이기 하는 거울쪽 등머리카락 &amp; 각종 털들?? &amp; 먼지가 많아서 사용하는데 위생상으로도 불편한 감이 있습니다.걸어다닐때도 비켜 걸을 정도 입니다.조금만 신경써주시면 고맙겠습니다. 항상 노력해주시는 점 감사하게 생각합니다.</t>
   </si>
   <si>
     <t>버스기사님을 칭찬합니다 셔틀버스 기사님을 칭찬합니다.저는 기숙인으로 항상 회사에 올때처음만나는분은 기사님들이십니다.항상 밝게 인사해주시고 환하게 웃어주셔서 저까지 덩달아 기분이 매우 좋아집니다이러한 감사함을 느끼는 분들이 많으실텐데여기에 올라오는 글들을 보면 안좋은 글들만 올라와서 안좋네요 ㅠㅠ불만글은 올리기 쉬우나칭찬글 좋은글들은 마음으로만 새기고올리지않는것 같아 아쉬운 마음이 드네요</t>
   </si>
   <si>
-    <t>기사님을 칭찬합니다 안녕하세요.기사님을 칭찬하기 위해 글을 올립니다.8월30일 모가선퇴근노선버스를 타고 가던 중 잠이 들어 하차장소에서 내리지 못하였습니다.도중에 하차하려 했지만 친철하신 황용철기사님께서 위험하다며 다시 저의 목적지까지 태워다주셨습니다.너무 감사합니다.황용철기사님을 칭찬합니다.</t>
+    <t>개인정보수정 중 좌표등록 안됨 안녕하세요.개인정보수정 메뉴에서  상세등록-좌표등록 할 때 팝업이 열리는데 '좌표선택'이나 '저장'이 클릭해도 아무런 반응이 없는데 어떻게 해야 하지요; 이 부분을 등록안하면 개인정보수정이 안돼서..참고로 윈도우 10에 IE11 버전 사용중입니다.</t>
   </si>
   <si>
     <t>옥계 하계 휴양지 올해도 옥계에 다녀 왔네요.작년하구 올해 두번 인데솔직히 기대는 크게 안하고 갔었는데,아주 만족 스러워 후기 남깁니다.특히 샤워시설이 잘 돼 있어서 불편함이 없었구,유아 풀장도 관리를 아주 잘 해주시더라구요.성수기때가 아니어서 사람도 적어 딱 좋았습니다.근데 거기 관리하시는 스텝이 물어보니 이천캠퍼스보안요원 이시더군요.단지에서 몇번 본거 같아서요.더운데 참 고생들도 많으시구...좀 낯부끄러웠던건, 구성원 몇몇분들이 소위 갑질들을 하셔서 언쟁하는걸 봤는데..참 그러지들 말았으면 합니다.일하시는 분들한테 나이 어리다고 반말을 하지 않나, 막 이거 내놔라, 저거 내놔라..그곳도 관리하시는 룰이 있을텐데 참 왜들 저러나 생각이 들더라구요.왔다갔다 하면서 보니 스텝분들도 밤늦게까지 자리 지키시고 잡일도 많이 하시고 고생스러 보이고 안스러워 보였습니다.우리야 놀러갔지만 그분들은 거기서 일하시는 건데..저희한테는 힘들어 보이는데도 얼굴 찌뿌리지 않고이것저것 친절히 해주셔서 잼있게 잘 놀다 왔다고 말씀드리고 싶네요,스텝분들 더워도 화이팅하세요.</t>
@@ -298,6 +625,9 @@
     <t>[하계휴양소] 옥계 후기 안녕하세요. SK하이스텍 옥계 휴양소 담당자님.주말에 다녀온 회사 직원입니다.옥계에 모기도 없고 선선하고, 날씨도 우려했던 것 보다 흐리거나 비가오지 않았고추가로 담당자님들의 이리저리 뛰고 바쁘지만 항상 웃음과 특유희 쾌할홤으로 배려해주셔서 감사합니다.이번 휴양소를 보면서 회사 복지의 제공 목적을 실제로 확인할 수 있었습니다.복지 혜택 → 가족들의 SK하이닉스 만세외침, 불꽃놀이 보고는 눈물흘림 → 가족들의 내년에도 또 오고 싶어함.→ 가족에게 즐거운 시간을 선사함에 대한 자부심과 기쁨 그리고 재참가를 위한 내년까지도 화이팅.회사와 담당자에 대한 감사, 그리고 애사심의 절적한 예였다고 생각합니다.감사합니다.</t>
   </si>
   <si>
+    <t>사내셔틀 이용관련건 전일 셔틀 기사님이 PKG 건물 하차하려면 사내 순환셔틀을 탑승하라고 하셔서 금일 06시 20분경 고담주차장에서 사내셔틀 이용하려는 도중 보안요원이 구성원 전용이라 사용하지 말라는 제재를 받았습니다.일일방문증 교환후 타는 셔틀은 만차로 이용이 안되고 뒤에 서있는 사내셔틀은 PKG하차가 가능하여 탑승하려 했지만 안된다고 하는데 구성원 사내셔틀이 따로 있는건가요???현우문 주차장에서는 사내셔틀을 탈수 있는데 고담에서는 왜 탑슥이 불가한가요???일일방문도 아니고 상시출입증을 가지고 있는데도 제재한다는건 불합리해보이는데 정말 구성원전용 버스가 있는건지 문의드립니다.</t>
+  </si>
+  <si>
     <t>옥계해수욕장 주말에 옥계에 다녀왔어요 매년가는데 올해도 실망시키지 않고 넘 좋았어요  힐링 잘 하고 왔습니다^^ 감사합니다</t>
   </si>
   <si>
@@ -307,6 +637,9 @@
     <t>옥계해수욕장~ 옥계해수욕장 비가 온다고 걱정했는데~비가 다행이 안와서 토요일날 많은 행사로 아이들도 신나고 어른들도 신나게 놀다 왔습니다~~특히 지원해주는 스텝여러분들이 웃으면서 많이 챙겨주시고~ 유아풀장에 스텝분들이 와서 아이들이랑 놀아주고 ~ 아이들이 좋아해서 기분이 좋았습니다.3살?4살?되는 아이가 아파서 운영본부 왔는데 스텝 관리자??분들이 아이를 달래먼서 응급처치 해주는거 보고많이 고생들 하시는 구나 생각이 들어서 이렇게 글을 올립니다~옥계 날씨가 좀 그랬지만 재미있고~ 어른들도 편하게 놀다와서 좋습니다 ~다음달에 또 놀러가고싶네요~~</t>
   </si>
   <si>
+    <t>식당작업 환경개선 안녕하세요...주로 복지식당을 이용하는 sk하이닉스 구성원입니다.가끔 중앙식당도 이용합니다....^^다름이 아니라, 제가 식당을 이용하다보면, 기타식(라면조리) 음식 만드시는분 이 더운 여름에 땀을  엄청 흘리시면서 구성원들 식사 만들어 주시는거 보고, 저희 어버지,어머니같아 맘이 많이 쓰이네요저희 구성원들을 위해서 저렇게 땀 흘려가면서 일 하시는데, 변변한 냉풍시설이 안되어 있습니다.각식당마다 업체가 틀리겠지만, 이 더운 날씨에 조금이라도 작업환경이 개선 되었으면 하는 맘에 글을 쓰게 되었고. 어디에 글을 올려야 될 지 몰라 여가 올립니다.그리고 퇴식구 그안에서 열기나 엄청밖으로 나오는걸 느껴습니다. 그럼 안에서 일 하시는분은그 열기를 몸으로 다 받고 하시는데, 저희 구성원들을 위해서 고생하시는분들입니다.조금이라도 작업환경 개선 부탁드립니다. 각 행복문에 보완분들 냉기가 바로 오는 무슨기계같은거 있던데....효과는 어떤지 모르겠지만, 조금이라도 도움이 된다면 꼭 설치 부탁드립니다.</t>
+  </si>
+  <si>
     <t>이천 M14 Phase1 3층 남자 Smock Room 방진의류관리 여직원분들.. 안녕하세요 M14 Phase1 에서 근무하는 한 남직원입니다.저는 방진의류를 착의하기위해 Smock룸에 들어가는데 여직원분들의 불친절함에 불만을 느낍니다.우선 예전일인데 목요일에 방진의류세탁을위해 입던 방진복을 걷어가고 보관중이던 새 방진복을 꺼내주는 과정에서 제가 일하며 입고있던 방진복을 미처 반납하지 못했습니다. 그래서 여직원분께 말씀드렸는데짜증난다는 표정과 말투로 아 그냥 주세요 이거 이번주에 세탁못가니까 그렇게아세요 라고 말하셨습니다.그당시 저는 신입사원이라 잘모르기도했고 어차피 이래도 저래도 결과적으로 못가는거 말이라도앞으로는 목요일에 넣어주시면 되구요 이 방진복은 죄송하지만 이번주에 세탁을 못갈거 같아요 라고만 하셔도아뇨 제가 죄송하죠 라고 할 수 있는건데 말이에요 ..오늘은 Vender용 방진복을 큰카트에 실어서 이동하는 도중 비켜달란 말한마디 없이가다가 발이 바퀴에 깔릴뻔 했습니다...저희가 그분들께 서비스 받으려고 있는것도 그분들도 저희에게 서비스를 해주려고 계신건 아니지만같은 건물에서 얼굴보며 일하는데 얼굴 붉힐일은 없었으면 좋겠습니다.p.s 야간에 일하시는 체구가 왜소하시고 남자Smock 신발장하고 캐비넷 복도 닦아주시는 여직원분(아주머니..)는 정말 친절하십니다</t>
   </si>
   <si>
@@ -316,28 +649,115 @@
     <t>정문 보안요원 칭찬합니다 안녕하세요다름이 아니고 정문에서 근무하고있는 이재...하?보안요원을 칭찬합니다.사실은 보안요원에 대하서 솔직하게 안좋은 선입견이 살짝있긴했습니다. 그러나 요즘 정문으로 출퇴근을 하고있는데 정문에 이재하? 보안요원 매일 수고하세요 라고 인사를 꼬박해주시고있습니다.처음에는 별로 신경을 안쓰고 있었는데 일주일이 지나도 한결같이 인사해주시고 무언가를 여쭈어볼때도 친절하게 답변해주시고 그모습을 보게되니 안좋게만 봤던 선입견이 점점 사라지고있습니다. 오늘도 어김없이 인사해주는 모습에 월요병에 기운이 없었는데 아침부터 살짝 힘이나네요 감사합니다  이름이 확실하지않아서 명찰에 이재..ㅎ 까지 보여서....아무튼 감사합니다</t>
   </si>
   <si>
+    <t>청운 헬스장 런닝머신 정전기 조치바랍니다 날씨도 더워져서 운동하는 인원들이 많아지고있습니다 .청운헬스장 이용시 런닝머신운동을 할때 TV를 시청하며 하곤하는데요옆사람  피해주지않기위해 이어폰을 꼽고 합니다.하지만 이어폰 꼽으면 정전기가 일어나 귀에서 팍팍 터져서 도저히 이어폰을 끼고 할수가 없어요 일반 핸드폰 이어폰이라던지 아무 이어폰을 끼워도 정전기가 일어나지 않도록 조치 바랍니다 .이어폰이 아니더라도 살만 닿아도 따닥 따닥 정전기가 매우많이 일어납니다 .운동하다 놀란적이 한두번이 아니네요 꼭좀 조치부탁드릴께요</t>
+  </si>
+  <si>
+    <t>보안 가방검사 보안관련 불만을 여기에 작성하는것이 맞는지 모르겠으나 어디에써야할지 몰라 이곳에 작성합니다.버스 승강장 및 행복문 출문시 보안원들이 가방 검사를 하는데요 이게 잘못 됬다고는 생각 안합니다보안상의 절차이니까요..하지만 가방검사를 하는 사람을 가려하는건 문제가 있다고 생각하는데요하이닉스 정직원분들과 여성분들은 가방검사를 하지 않더군요?협력사직원과 외부업체분들은 잠재적 범죄자취급인가요? 상당히 기분나쁘네요여성분들 가방뒤짐은 프라이버시침해고 남성가방뒤짐은 침해가아닌가요? 가끔 여성보안원분이 검사도 하시는데 이것도 문제아닌가요? 남자가 여자꺼 뒤지는건 안되고 여자가 남자꺼 뒤지는건 된다? 말이 되나요?그리고 각건물에서 나올때 엑스레이스케너로 싹 스켄하고 나오는데 걸렸으면 이미 거기서 걸렸겠죠정말 불쾌하고 기분나쁩니다.</t>
+  </si>
+  <si>
+    <t>고담주차장 주차할려면 고담주차장 하이닉스 직원외 주차금지인가요아니면 외부업체인데 문자메시지로 방문예약 완료 인거 보여주면 된다고 하던데 고담주차장 주차 가능한 정확한 기준이 뭔지 설명해주세요 고담 관리하는 사람들 인성부터가 세상 다산사람마냥 귀찮아하는대 아는것도없고 물어봐도 대답도 시큰둥해서 찾아서 올립니다</t>
+  </si>
+  <si>
+    <t>에어컨 조절좀 해주세요! 저번에도 동일한 내용으로 글 올렸는데 아무도 확인 하는담당자가 없는건가요?기술지원센터 6층 건물안 에어컨 너무 심하게 틀어놓는거 같습니다.야간시간까지 멈추지않고 작동하네요!주간시간에는 무슨 냉장고 수준입니다.사람들이 시원해 하는게 아니라,추워서 다들 얇은 패딩 및 잠바,니트,담요를 사용합니다.남자,여자 모두 그럽니다! 대부분이 감기도 걸려서 고생들도 하고 있구요!도대체 여기에 올려서 조치가 안되면 누구한테 말해야되나요?조치부탁드리겠습니다.</t>
+  </si>
+  <si>
+    <t>카톡ID 알려주세요 무엇이든 물어보세요 라는 슬로건으로sk hystec 카카오톡 ID가 가치있는 의사소통 이라고 알고있는데 검색해도 안나오네요.뭐라고 검색해야 뜨는건지 알려주세요~</t>
+  </si>
+  <si>
+    <t>출입증에관한질문(보안) 문의드립니다.출입증 사진뜨는거있자나요... 저희 사진이 뜨는거 맞는데....보안요원들 가끔 보면요 타인의 사원증을 이용하는걸로 보여요 모니터에 표시되는 얼굴은 전혀 다른 사람이거나 남자가 여자꺼 사진도 뜨기도 하더라구요..... 보안요원은 다른 사람거를 맘대로 사용하나요?아니면 시스템 오류일까요.................................................</t>
+  </si>
+  <si>
+    <t>스카이라운지10층 1번열린마당 식당의자 끄시는 소리 정말 어케 안될까요??? 안녕하세요제가 비밀번호 오류떠서 답글을 확인못했습니다아직 의자 해결도 안되었던데 해결불가능인가요??? 계속 의자 끄시는 시끄러운 소리를 들으며 밥을 먹어야되는건가요???노조불합리에 올려야만 빨리 해결이 되는건가요??? 스카이라운지10층 1번열린마당 식당공간 의자좀 해결해주세요1번 열린마당 식당칸에 앉게되면오는사람 가는사람 의자 당기는 소리 미는소리때문에 밥이 코로 들어가는지 입으로 들어가는지찌이익익~~ 소리가 자꾸 거슬려서 짜증유발이 되어 20~30분동안 정말 힘듭니다빠른 의자 해결좀 해주세요. 소리가 나지않게 해결좀 해주세요 거기서 직접 여러사람들과어울려 식사를 함께 해보시면 아실듯합니다12시~12시 40~50분쯤 그곳에서 한번 소음을 감상해보세요~ 빠른 해결부탁드립니다.</t>
+  </si>
+  <si>
+    <t>고담주차장 담당자는 없는건가요? 답글이 전혀 없어요 고담주차장에 대해 글을 작성을 하면 보기는 하는건가요?답글이 전혀 없네요담당자분은 확인을 안하나요?고담에서 타는 셔틀은 공사 셔틀이네요그 셔틀을 타기 위해 두번 세번 셔틀을 보내야만 탈수 있습니다도대체 그놈의 건설 주차장 공사는 언제 끝나나요?말만 하고 시행을 안하고 있지 않나요일찍 오면 뭐합니까주차도 못하고 셔틀도 못 타서 늦게 출근을 하는데 지각 처리되면 책임은 누가 질껀가요담당자분을 글을 보시는데로 구성원들이 작성한 모든 글에 답글 작성해 주세요</t>
+  </si>
+  <si>
+    <t>장호원 오후 통상버스 5484님 어제도 글을 올렸었는데 노선을 제대로 모르고불친절하다고 오늘도 역시 변한게 없네요.어제도 틀려서 지적을 받은 노선으 또 똑같이 틀린다는게 말이 됩니까? 자신도 노선이 틀렸다는걸 알고 잇는데도 불구하고 노선표에 그렇게 적혀있다고 하면서 또 같은 노선으로 오네요.그러면서 다른 승객들 한테 하는말이  하이닉스측에 전화가 와서 자신은 그렇게 말해줫다 노선이 장호원 고가밑 - 읍사무소  라고적혀있다 그런데 승객들은 자신한테 쌩 난리를 친다 . 라고 말하네요. 상식적으로 이게 말이 됩니까? 모든 장호원방향 버스 운전하시는 기사님들은 노선표을 안보고 운전한다는 말이네요 그럼. 그럼 지금 이 8458버스 기사님이 정상적으로 운행하시고 다른 모든 버스기사님들이 잘못하고있다는 말이되네요. 상식적으로 모든 다름기사님들이 같은노선으로 운행하시고 본인만 다르게 운행하시는데..누가 잘못된 건가요?그리고 본인이 잘못한것으로 연락을 받은것이 무슨 억울한 일을 당하신것처럼 하소연 하시는데 ..이게 정상적인 상황이 맞습니까? 참 당황스럽네요  그리고 어제 올린글 답변으로 경고 공문을 발송한다고 하셨는데 어떻게 처리가되는지 알고싶습니다. 경고 공문 내용과 이러인해서 생기는 불이익이라던가 그런것들 말입니다.물론 제가 버스기사님 사정을 잘 몰라서 괜히 짜증내는 걸 수도 있는거지만 어찌되었건 서비스업 인만큼 본인이 잘못한것이 아님에도 승객이 불만이 생긴다면 그건 기사님과 나아가서 버스 화사측의 교육의 문제라고 생각 하네요. 버스 기사님이 처음운행하시는거면 기존에 운행하시는 버스 기사님과 동승해서 같이 노선을 둘러보고 운행하는게 기본 아닙니까?</t>
+  </si>
+  <si>
+    <t>스카이라운지10층 1번열린마당 식당공간 의자좀 해결해주세요 안녕하세요스카이라운지10층 1번열린마당 식당공간 의자좀 해결해주세요1번 열린마당 식당칸에  앉게되면오는사람 가는사람 의자 당기는 소리 미는소리때문에 밥이 코로 들어가는지 입으로 들어가는지찌이익익~~ 소리가 자꾸 거슬려서 짜증유발이 되어 20~30분동안 정말 힘듭니다빠른 의자 해결좀 해주세요. 소리가 나지않게 해결좀 해주세요 거기서 직접 여러사람들과어울려 식사를 함께 해보시면 아실듯합니다12시~12시 40~50분쯤 그곳에서 한번 소음을 감상해보세요~ 빠른 해결부탁드립니다.</t>
+  </si>
+  <si>
+    <t>고담 주차장 문의합니다. 고담주차장 한시적 개선을 요청드립니다. 1. 출/퇴근 혼잡시간에 출입증업무 과부화 개선 부탁드립니다.&gt; 현재 두분이서 출입증 발급을 지원해주시지만, 출/퇴근 시간에는  대기시간이 깁니다. ( 평균 10분 ~15분 대기)2. 주차장 (고담) 개선을 요청드립니다.&gt;  고담주차장은 주차비가 무료이기에 많은 분들이 이용하며, 정확히 몇대 주차가 가능한지는 모르겠으나, 출근시간에는 운이 좋아야 정상주차를 할수 있습니다.&gt; 당분간 계속 이럴것 같은데 개선해주시면 감사하겠습니다.</t>
+  </si>
+  <si>
     <t>체육관 청소 담당해주시는 아주머니께 감사인사드리고 싶습니다. 안녕하세요, 주로 저녁시간에 청운체육관 이용하는 구성원입니다.이용하는 시간대가 늦은 시간이다 보니, 사람이 몰려 나가거나 거의 한산할 때가 많은데요..여자 탈의실이나 헬스장을 보면 언제나 꼼꼼히 청소를 해 주시는것 같아요.누가 보지 않아도.. 땀을 뻘뻘 흘리시면서 여기저기 샤워실 구석 청소하시는 모습에 감사 인사를 드리고 싶었습니다. 강옥자 사원님, 감사합니다~!더불어 체육관 관리 및 운영에 힘써주시는 분들께 감사드려요.</t>
   </si>
   <si>
-    <t>부발역셔틀기사님칭찬 가끔부발역 가는셔틀버스를이용한는구성원입니다 승하차시에 항상 밝게인사해시시고 친절하신9634 기사님 칭찬드리고십습니닷</t>
+    <t>보안검사에 대해.. 보안검사 철저한건 좋습니다. 그런데 제가 일용직도 아니고 방문객 도 아니고, 분명 근무하는 건물에서 가방검사 철저하게 하고 나왔는데요왜, 셔틀타는곳에서 까지  보안이 가방검사를 또 한다고 하는지 이해를 할수가 없네요,셔틀타는곳에서 검사할거면 근무하는건물에서 가방검사를 하지말아야죠..또한,분명 내 앞 사람도 가방을 들었는데 왜 앞 사람은 그냥보내고 저한테만 검사를 하자고 하는지..사람차별인가요?한번만 그러면 모를까 연속 3일을 계속 그러니 이렇게 글 올립니다.제가 뭐 훔쳐서 나온것도 아닌데, 뭐하나 훔쳐나온 사람한테 대하듯 인상쓰면서 가방검사하자니요?!보안이 강화되서 그런다, 철저해야되서 그런다, 그런답글 말고 납득이 되는 답변 부탁하겠습니다..</t>
+  </si>
+  <si>
+    <t>고담 주차장좀 해결해주세요 건설근로자분들이 출근 시간대에 와서 한번이라도 확인 하셨나요?B조 출근 시간대에 와서 확인을 해보셨나요?아니면 주자장에서 근무 하시는 분들 의견이라도 들어 보고 반영이라도 해보았나요?실제로 근무 하시는분들이 더 잘 알고 피드백을 받아 보셨나요?받으셨다면 해결할 방법을 시행 하였나요?나몰라 하는 이유는 무엇인가요?가보세요완전 개판입니다주차장에서 일하시는 분들만 불쌍해요탁상론 그만 하시고 현장 가서 자세히 보고 듣고 의견을 반영해서 시행해주세요건설근로자 주차장 만든다고 하셨는데 그 분들이 그곳 주차장에서 출입증을 받을수 있나요?건설근로자분들이 출입증을 쉽게 받고 빨리 나가기 위해 고담 주차장만 이용 할텐데 그럼 당연히 고담 주차장만 이용 하지 먼곳은 이용 안합니다지금도 출입증 빨리 반납하거나 발급받을려고 아주 난리도 아니고셔틀버스는 건설 버스가 되고 금방 만차 되어 타지 못하고 다음 버스도 겨우타고 다녀야 합니다문자로 오는 출입증???어느 근로자가 이야기 해주더군요스마트폰 이니 스크린샷으로 찍고 아무차나 끌고 들어 가면 된다다른분들도 다 이용하고 있다대부분 다 알고 이렇게 해서 출입 한다 말만 하지 말고 현장 가서 자세하게 확인 하고 주자장 근무자에게 의견을 듣고 일을 확실하게 좀 해주세요탁상론은 그만하였으면 합니다</t>
+  </si>
+  <si>
+    <t>남자기숙사 헬스장 남자기숙사 헬스장 미세먼지 측정기는 언제 설치하시나요?저번에 설치 가능하다고 본거같은데요..공기질이 너무 탁합니다..환기라도 좀 시켜주세요..,.,창문을 여시던가요...수고하세요.,.</t>
+  </si>
+  <si>
+    <t>답변을 안다는 이유는 무엇인가요? 일안하시나요?하이스텍에 문의를 하지말고 하이닉스에 문의를 해야할가요?</t>
+  </si>
+  <si>
+    <t>통근/셔틀버스 조회 방법이 알고 싶습니다. 상시출입자입니다.통근/셔틀 버스 이용을 위해 관련 정보를 조회하고 싶은데 현재의 사번과 비밀번호로는 접근이 불가능하네요.직원 전용 서비스인지.. 아니면 제가 볼 수 있는 방법이 있는지 궁금합니다.</t>
+  </si>
+  <si>
+    <t>남자기숙사 헬스장 관련이요.. 혹시 공기 청정기 헤파필터 교체하는건가요??필터 교체안하면 공기청정기가 무슨 소용이 있을까요??그리고 남자 탈의실에 냉온수기 온수 나오는 밸브를 안전 밸브로 바꿔놓으셨는데요...불편합니다..헬스장은 어린이는 없잖아요..다들 성인인데 굳이 불편하게 사용할 필요있을까요??수고하세요...</t>
   </si>
   <si>
     <t>스마트차키 분실 안녕하세요스마트 차키를 분실하였는데 발견하신분은 연락부탁드립니다.</t>
   </si>
   <si>
+    <t>마음따뜻한 기사님 저는 태평리서 매일새벽 5시에  출근하는데 ? 요즘처럼 추운날씨에도 기사님은 항상 차를 따뜻하게  해주셔서 마음까지 따뜻해집니다??한번은 비가오는데 우산없는 저한테 기사님 우산을 꺼내주셔서 고마운적도 있습니다마음 따뜻한 기사님께 감사드려요동남차 8269기사님 화이팅</t>
+  </si>
+  <si>
+    <t>남자 기숙사 헬스장 질문합니다. 안녕하세요...헬스장이 지하이다 보니까  공기 청정기도 여러대 있고  신경많이 써주셔서 감사합니다.근데 외부 공기가 안좋은날은 헬스장 공기청정기가 있어도 좀 탁하더라고요..혹시 미세먼지 측정기를 헬스장 중간쯤 설치 가능한가요??수치를 육안으로 확인하면서 운동하면 좀 더 안심이 될꺼같아서요...가격은 인터넷에서 10만원 안쪽이더라고요...감사합니다.</t>
+  </si>
+  <si>
+    <t>통상 출근 5번버스 기사님 여자 기사님이 운전하시는 버스인데 아침마다 뉴스나 드라마 소리가 갑자기 너무 커서 놀랍니다음소거로 해주시거나 일정 음량이상 높이지 않으시면 좋겠습니다그리고 스피커 on/off유무나 시계 등 차내 고장난 부분은 수리 하시면 좋겠습니다</t>
+  </si>
+  <si>
+    <t>지난번에 교대 셔틀 글 쓴 사람입니다 기사님 교체를 바라고 쓴 글은 아니니안전교육만 많이많이 자주 진행해주세요감사합니다</t>
+  </si>
+  <si>
+    <t>반계탕 피가 철철 흐릅니다 반계탕 피 철철 흐릅니다.음식 조리 신경써주세요식중독 걸리겠네요그리고 아까 글 썼는데 왜 임의로 내리시나요?고객의 소리라면서 막 그래도 되나요?</t>
+  </si>
+  <si>
+    <t>청주 사내 셔틀 버스 검사좀 해주세요 청주 사내셔틀 차량넘버 73호1993 이버스 차량검사좀 해주세요매연냄새 너무 납니다. 셔틀타고 캠퍼스간 이동시에도 그렇고 차안에 매연냄새차 밖에 매연냄새 너무 나고 운행시 매연이 너무 나옵니다. 실내에 쾌쾌한 매연냄새가진동하는데 운전자분 건강도 걱정되고 타시는분 건강도 우려됩니다.하루에 여러번 운행하는데 캠퍼스간 매연을 뿜고 다닙니다. 차량검사를 일부로 안하는건지알면서 묵인하는건지 빠른 조치좀 해주세요</t>
+  </si>
+  <si>
     <t>sk하이닉스 주최 호주 효도관광을 다녀오며.... 안녕하세요?저는 금번 sk하이닉스에서 주최하는 효도관광을 다녀온 김 태우라고 합니다.조그만 기업을 운영하다 보니 경황이 없어 이제서야 글을 올립니다.먼저 sk그룹 CI의미처럼 행복날개에 태워 주셔서 감사 드립니다.이인용 사무국장님 이상학 사원님 항상 있는 듯, 없는 듯 앞뒤에서 불편함 없게 챙겨주셔서 고마웠습니다.특히 두 분의 온화한 미소는 제가 본받아야 하겠다 할 정도로 압권이었습니다.레드캡스 김종호 과장님 많은 인원들 잃어버릴까... 아픈 데는 없나... 여기저기 뛰어다니시느라 고생 하셨습니다.현지 가이드 이강면 이사님 호주의 역사와 문화 또 삶의 지혜 등 주옥 같은 이야기를 들을 수 있어 좋았고요. 그 이야기 덕분에 여행객 모두 가족 같은 분위기가 연출 되었던 것 같습니다.저희는 사돈 내외가 같이하는 여행길이었는데요. 처음엔 불편하지 않을까 걱정을 했습니다만, 걱정도 잠시 스텝 분들의 리드로 하나가 되었습니다.거듭 감사 드립니다.끝으로 이번 여행길에 소중한 추억과 행복을 가득 담아 왔습니다.어느새 sk하이닉스의 정직원이 된 기분입니다. 저희 가족 및 제가 아는 주변사람 모두의 마음을 담아 sk하이닉스의 반도체 Global vision과 행복에 공헌 할 수 있도록 기원합니다.감사합니다.                             sk하이닉스 주최 효도관광을 다녀온 김 태우 올림</t>
   </si>
   <si>
     <t>효도관광 호주 부모님 후기 입니다 저희는 대구에 사는 도현호 부모입니다 호주효도 관광을너무 즐겁게 다녀와서 한 말씀 안 드릴 수가 없어 창을 노크합니다 이천 회사에서 오신 두 분의 배려와~레드캡 김종호씨의 체계적인 업무와 친절함에 효도관광이더더욱 빛을 발해 저희들은 불편함 없이 일정을 마쳤습니다 현지에 계신 이강면 투어 리더께선 스타강사보다뛰어난 각 분야에 해박한 지식과 언변으로 부모들의 눈높이에서 웃음과 여행 정보를 제공받았습니다 저 욕심으론 여건만 되면 매년 회사에서 주최하는관광행사에 참여하고 싶은 마음이네요~모든 게 완벽하고 너무 좋았어요 끝으로 프로그램을기획한 회사 관계자분들께 정말 정말 진심으로 감사드리며~에스케이하이닉스가 세계를 석권하는 발전을하도록 기원드리면서 인사드립니다~-도 명환 드림부모님이 직접 글까지 써보내시면서후기를 꼭 남겨달라고 하셔서이렇게 살짝 남겨봅니다.부모님이 소풍 다녀오신것처럼좋아하시는 모습을 보니자식으로써 저도 무척 기분이 좋습니다잘다녀오실수있도록 많은 신경을 써주신관계자 모든 분들께 감사드립니다.^^</t>
   </si>
   <si>
+    <t>출퇴근버스에서 자리착석시에 매너 교육을  했으면 합니다 출퇴근 버스를 이용하다보면 옆좌석에 타인과함께 타는경우가 많습니다.나중에 타는 탑승자를 위해  안쪽 자리부터 앉는것이 매너가 아닌가  생각하는데일부 사람들은 바깥쪽 자리에 앉고 사람들이 탑승시  눈을감고 옆에 앚지말 라는식의  반응을 보이곤합니다.자기혼자 편하자고하는 매우 이기적인행동이 아닐수 없습니다.거기다 옆사람이 착석하게되면  자신이 무슨 어까 깡패인양  한껏 가슴펼치고 앉고 다리까지 쩍벌하여  불편을 초래합니다.정말이지 비매너의 극치입니다.이런 매너없고 이기적인 행태에 대해 근절할수있도록 교육이 되었으면 합니다.</t>
+  </si>
+  <si>
+    <t>기술지원센터(TC)동 비상계단2층의 출입문개방 문의드립니다. 안녕하세요? 기술지원센터(TC)동 6층 근무자입니다.운동삼아 평상시 계단을 이용하여 6층까지 출입을 하고 있습니다.한데, 언제부터인지 2층 출입문을 개방해놓으셨는데, 2층에 어떤시설물이 가동중인지는모르겠으나, 메퀘한 냄새가 올라와서 계단으로 다니기가 힘든건 둘째치고, 아시겠지만 6층에는항상 비상계단문을 개방해놓고 있는 특성상 층 전체에 건강에 별로 좋을것 같지 않는 냄새가 퍼집니다.더군다나 6층에는 많은 인원들이 상주근무를 하고 있는데, 이런 영향들을 끼침에도 불구하고 2층문을상시개방하시는 이유가 있는지요? 환기가 목적이라면, 다른층에 있는 구성원들에 피해를 주고 있으므로다른방법을 강구 하시는게 맞다고 봅니다.거기다가, 평시 가이드해주시는...층간 권한없는 출입자가 제한없이 출입을 하는 보안위반상황이상시발생할 소지가 다분해 보입니다.</t>
+  </si>
+  <si>
+    <t>원산지문의 문제를 삼으려고 하는 것을 아니니 오해는 하시지 마시길 바랍니다.수입산으로 표시하는 경우와 특정국가를 표시하는  차이가 궁금합니다.그리고 국내산 수입산을 혼합하는 경우는 비율을 모르니 먹어야할지 말아야 할지 고민하고 있습니다.이에 대한 비율 표시가 가능할까요?제가 등록한 글에 대해 비공개로 해두엇더니 접근불가로 확인이불가하여재등록합니다.</t>
+  </si>
+  <si>
     <t>한빛관광 육장진기사님..감사 드립니다. 10/4일 고담주차장에서 사내로 입문하는 08시10분 셔틀버스에 평소 아껴 사용하던 스타벅* 템블러를 놓고내렸습니다. 차량에서 내려 50미터 정도 가다가 바로 인지를 하여 차량 뒷 번호를 확인 하고자 하였으나, 어제는 안개가 너무 많이 끼어 확인이 불가 하였습니다.출근 후 여기저기 연락하여 운전 기사님 연락처를 전달 받아 연락을 드려 보았으나,보이지 않는다..라고 말씀을을 하셨습니다..차량에 놓고 내린 템블러는 친언니가 4년전 생일 선물로 사준 특이한 템블러로 현재는 시판되지 않은 완소 아이템 이었습니다.잊어버렸다 체념 하기엔 너무 아쉬워서 사내 게시판 분실물 찾기에 글을 올려 보았으나 퇴근시까지 연락이 없었습니다.실망감을 안고 퇴근을 하였는데..기사님께서 다시 연락을 주셔서 다른 차량에서 찾았다라는 말씀과 내일(10/5)동일한 08시10분 셔틀버스 기사님편에 맞겨 놓을테니 찾아 가시라고 말씀을 해 주시고는 통화를 종료 하였습니다.기사님께서도 하루종일 운전하시고 피곤한 몸을 이끌고 퇴근을 하셨을 텐데.. 일부로 시간을 내시어 연락을 주셔서 정말 고맙고 감사 했습니다. 사내에 많은 기사님들 가운데 친절한 기사님도 때론 불 친절한 기사님도 계시곤 하지만.. 육장진기사님 처럼구성원의 사소한 요청 사항에도 다시 한번 귀 기울여 주신다면 많은 구성원들이 저처럼 행복감과 감사함을갖으며 근무할 수 있을거라 생각 됩니다. 육장진기사님..오늘은 태풍의 영향으로 비가 많이 오고 있습니다.. 빗길 안전운전 하시고 항상 건강 하시기를 바랍니다.기사님..정말 감사했습니다.</t>
   </si>
   <si>
+    <t>냉온수 관련 안녕하세요. 청주 기숙사 식당 옆 CD기 근처에 설치된 냉온수기가 없어져서식사 후나 기숙사 시설 이용후 불편한 점이 있습니다 다시 설치 해주시면 감사하겠습니다</t>
+  </si>
+  <si>
     <t>칭찬 평소 광주1호선이용하는 구성원입니다매일 아침 일찍 정류장에 오셔서 운행준비 해주시는아시아고속관광 기사님께 감사의말슴을 드립니다항상 시간도잘 맞추어주시고 안전운행과 친절함까지지  최고의 기사님이라생각듭니다</t>
   </si>
   <si>
-    <t>저희에게 맛있는 음식을 해주시는분들께 감사인사드립니다. 1공장 식당에서 식사를 하는 많은 사람들중에 한명입니다.매번 식사할때마다 느끼는거지만 음식의 맛과 짜임새가 너무 만족해하며 식사를 하고있는데요...여러모로 저희를 위해 많은 노력을 해주시는 분들께 짧게나마 감사의 인사를 드리려고 적게 되었습니다.항상 감사드립니다.그리고 돌아오는 추석에 고향에 못가시고 음식을 해주시는 분들께 너무나도 감사드립니다.즐거운 한가위 되시기를 바랍니다.^^</t>
+    <t>고담 주차장 문의 이번에 이천 sk하이닉스에 외부업체 직원으로서 일을 하러 가게되었습니다.집과 거리가 있어 자가용을 이용하려 하는데 고담주차장은 저 같은 외부업체 직원도 사용할수 있는건가요?</t>
+  </si>
+  <si>
+    <t>셔틀 8209차량 아저씨껌씹는건 좋은데 조용히 씹으시면 안될까요?</t>
+  </si>
+  <si>
+    <t>사내 차량 이동시 안전 사고 우려 8월30일 아침 07:30?경  주차타워 가는중 발생된 사례입니다현재 2공장 인도가 전체적으로 공사중으로 안전사고우려가 매우 큰 상태입니다그런데 주차타워 코너에서 은색 소나타 차량이  운전 중 핸드폰을 보고 만지며 코너링하며도보자들이 놀래서 피하여 사고는 없었으나 주의 경고가 필요합니다정확히는 모르나 안면이 식당 영양사분인것 같습니다  차를 세워서  따지고 싶었으나 놀래서 그럴 여력이 없었고요 이건 꼭 짚고  개선되야합니다 사내 규정 속도를 지켰다고 해도 현재 상황에서는 더욱더 주의가 필요합니다 구성원들의 안전을 지켜주세요</t>
+  </si>
+  <si>
+    <t>통근버스 불만 8월 30일 중부 관광 천호선 7872 번 가운데 차량 입니다기사님 운전 정말 급정거.급출발로.인해 머리가 다.아프고 속도 미식거려 토할지경 입니다거기에 추운 날씨에 에어컨은 얼마나 강하게.하시던지정말 불만이.가득하네요도대체 기사님들 교육은 시키는지 시키면 얼마나 잘 시켜 이렇게 운전을 험하게 하는지 모르겠네요분명 돌아오는 답변은 교육 철저히 하신다고 하겠지요 제대로 된 답변 부탁드립니다오죽 정신없고 화가나면 모바일로 작성하겠습니까?구성원들을 위해 제대로.된 교육 하시길 바라겠습니다한분으로 인해 다른 잘하고 계시는 기사님들께 죄송한 말씀이네요천호선.</t>
   </si>
   <si>
     <t>하이웰 건의사항(칭찬) 내용 전달합니다. 하이웰 건의사항에 있는 기사님 칭찬 글입니다.========================================무더위와 개인적인 사정 때문에 많이 지치고 우울한 하루였는데,한빛관광 육장진 기사님의 친절한 인사와 재미있는 말씀 덕분에우울했던 마음에 위로를 많이 얻었습니다. 진심으로 감사했습니다!항상 안전 운행에 힘써 주시고 친절하게 웃어 주시는 모든 기사님들께 진심으로 감사와 존경의 인사를 드립니다!</t>
@@ -397,37 +817,37 @@
     <t>미아리선 박성순 기사님 칭찬합니다~ 미아리선 박성순 기사님 칭찬합니다~언제나 구성원들의 안전을 생각하시며, 안전벨트를 꼼꼼히 체크하십니다~그리고 어제 퇴근버스에서 사원증을 분실하였으나기사님께서 사원증을 잘 보관하시어 운행종료후에도 기다려주셔서 제가 직접 찾을 수 있도록도움을 주셨습니다~박성순 기사님 감사합니다~ :)</t>
   </si>
   <si>
-    <t>이화원조리원님을 칭찬합니다^^ 4/9 야간 편의식때 방긋 웃으면 인사로 맞아주셔서 기분이 너무 좋았습니다^^</t>
-  </si>
-  <si>
     <t>식당에서 분실물 보관 하는 곳이 따로 있었으면 좋겠습니다. 식당에서 우산을 놓고 나왔는데,,, 분실물 관련해서 보관하는 곳이 없어서 인지, 재수 좋으면 찾고 아니면 못찾는 식의 말씀들을 하셔서,,, 분실 당시의 식당 운영 하시는 분들도 교대를 해서 그런지 ,  불편한 점이 있습니다.그냥 식당 구석이나 빈공간에 분실물 보관 장소하나 작게 만들어만 놔도 좋을듯 합니다. 아니면 식당 분실물은 어디에 보관하고 어디에서 찾아가도록 식당직원들에게 홍보좀 해 주시던지,, 생각좀 해 주세요.</t>
   </si>
   <si>
     <t>1공장 이혜정조리원을 칭찬합니다. 아침마다 1공장에서 밥먹는데 항상 친절하게 인사해주셔서 하루를 즐겁게 시작합니다.항상 감사합니다.</t>
   </si>
   <si>
-    <t>둔촌동선 버스기사 님을  칭찬합니다. 최근 2주 정도 전 부터 새 기사님으로 변경이 된거 같은데 항상 탑승할 때나 하차할 때 기분 좋은 목소리로 인사를 해주십니다. 이도현 기사님을 칭찬합니다. 계속 둔촌동선 기사님이면 좋을 정도입니다. 감사합니다.</t>
+    <t>용인신갈1 출근버스 2~3주 전쯤 오던 차는 차량 condition이 괜찮았는데최근에 오는 차량은 노후화 되어 condition이 전체적으로 좋지 않습니다.유독 좌석 앞뒤 간격이 좁은 듯 하며등받이 레버 없는 좌석 있습니다.(안전벨트도 상당히 불편하군요.)관광버스 업체에 condition 좋은 새차를 배차할 수 있도록 요청 바랍니다.그리고 매번 차량 히터로 말들이 많은데 왜 개선이 안되는지요?차량 가장자리에 있는 난방 배관에 신발을 신은 채 발을 올려도발바닥에 열기가 느껴질 정도로 배관이 많이 뜨겁습니다.옷들도 충분히 따뜻하게 입고 다니니난방을 최소화 하든지 안해도 무관할 듯 합니다.이 부분도 다시 한 번 조치 바랍니다.</t>
   </si>
   <si>
     <t>셔틀버스 담당자 분과, 잠실선 아저씨께, 감사드립니다. 핸드폰을 찾았습니다. 저 때문에 버스를 한번 더 살펴 봐 주시는 번거로움을... 죄송합니다.친절하게 전화해 주시고 다시한번 찾아봐 주셔서 정말 정말 감사드립니다.너무나 친전하게 전화해주셨는데, 이곳에 감사하다는 말 밖에 드릴 말씀이 없네요....정말 감사합니다.!! 오늘도 안전한 운전, 행복한 하루가 되셨으면 좋겠습니다~담당자분께서도 찾았다고 다시 전화주셔서 정말 정말 감사합니다~!! (전화 올 줄 몰랐어요.ㅎㅎ)</t>
   </si>
   <si>
-    <t>남양주선 관련 안녕하세요. 남양주선을 자주(매일) 이용하는 구성원입니다.항상 버스 출발 5~10분 일찍 나와주셔서 구성원들이 추위에 떨지 않도록 배려해주셔서 감사합니다.요즘 얼굴에 힘이 없어보이시는데요, 항상 버스를 이용하면서 기사님들께 감사의 마음을 가지고 통근을 하는 구성원이 있다는 것을대신 알려주시면 감사하겠습니다.수고하세요.</t>
-  </si>
-  <si>
     <t>이천관내 셔틀버스 기사님 감사합니다. 먼저 분실한 저의 폰을 찾아 주시고, 친절하게 응대해 주신 육장진 기사님 너무 감사합니다. 이 말을 꼭 전하고 싶어서 글을 씁니다. 금일 10시 이천관내 셔틀버스를 타고 회사로 들어 왔는데~ 몇 분 후 핸드폰이 없다는 사실을 알고급하게 전화를 했더니 육장진 기사님께서 전화를 받으시고는 기사님 일도 바쁘실텐데~ 일이있던 제가 일을 보고 찾아 갈 수 있게끔 배려까지 해주셨습니다.기사님 덕에 무사히 핸드폰도 찾고 급한일까지 깔끔하게 처리 할 수 있었습니다. 그래서 하루 종일 기분이 좋네요~^^ 꼭 칭찬해 드리고 싶어 이름까지 여쭤 봤습니다. ㅋㅋ육장진 기사님 다시 한번 감사합니다~~~~~</t>
   </si>
   <si>
+    <t>임산부 자리 관련 . . 교대조 셔틀 모전리선을 이용하는 임산부 입니다. 예전에 야간조때 모전리선이 자리가 부족해서 서서가는 사람도 많다는 내용으로 증차에 관하여 건의한적도 있는데요.   그때는 임신하기전이여서 증차계획은 없다는 답변에 그냥저냥 수긍했었습니다. 그런데 임산부가 되고나니 서서가는것을 마냥 참아야만한다는게 화가나네요. 몸도 힘들고요. 솔직히 목줄색상이 다르다는걸로 임산부인것을 알고 자리를 양보해주는 사람도 없습니다. 임산부 좌석에 앉은 아주머니들은 업체분이신지 그런 교육은 받고있는지도 의문이구요. 결론은 모전리선 증차에 관하여 다시한번 건의드리는다는 내용이구요. 임산부 전용석은 이용을 자제하자는 내용의 교육을 협력업체에도 주기적으로 해주셨으면 합니다. 두서없이 써낸글 읽어주셔서 감사합니다.</t>
+  </si>
+  <si>
     <t>통근버스담당자님 + 한빛관광 + 일성푸르지오 유완상기사님 감사드립니다. 어제(11/2) B조 퇴근 후 퇴근 버스에서 피곤함에 잠시 졸다가 지갑을 흘리고 내렸습니다.늦은 시간이라 연락할 방법이 없어 고민하다 통근버스관리시스템에 김일구대리님이 올려 주신 통근버스 운행계획표를 참고하여 한빛관광에 연락을 했고 기사님 연락처를 제공 받아 지갑을 찾게 되었습니다.하여 아래와 같이 감사와 칭찬의 말씀을 드립니다.1.운행노선이 굉장히 많고 다양함에도 정확한 내용의 운행계획표를 올려 주신 김일구 대리님 감사 드립니다. 2.늦은 시간임에도 전화 대응을 잘 해 주신 한빛관광 담당자님 감사 드립니다 (23:10분 근무자)3.오랜 운행으로 피곤하셨을텐데 밝은 음성으로 기꺼이 집을 나서서 차량 내부 확인을 통해 지갑을 찾아 주신 유완상기사님 감사드립니다. (성함은 한빛관광 전화받으신 분을 통해 알게 되었습니다 ^^)</t>
   </si>
   <si>
     <t>부속의원 최고의 서비스에 감사를 드립니다 최근 종합검진결과에 대한 소견을 토대로 조금은 불안한 마음과 조급한 마음으로외부병원 진료차 부속의원에 병원문의/상담/예약에 이르기까지 문의와 상담을 드린결과적극적인 업무자세,신속한 병원예약까지 본인 가족의 일처럼 편리와 감동을 주신 주임 신영미 간호사, 김지연 간호사를비롯한 관리자 여러분께 감사의 말씀을 드리며,이러한 최고의 서비스로 안도와 큰 행복을 주신 하이스텍에 감사의 말씀을드립니다.....꾸벅^.^</t>
   </si>
   <si>
+    <t>수영강습시 중급 상급 구분 요청 드립니다. 어디가 문의해야할지 몰라 여기다 건의 합니다.현재 수영 선생님이 두분 계시는데 반 운영시 회원으로서는 좀 불편함이 있습니다.중급 과 상급을 아예 나눠서 강습할수는 없나요?</t>
+  </si>
+  <si>
     <t>이천 기술지원센터 6층 여자화장실 세면대  3칸 모두 고장 상태 6일째입니다. 지난 주 금요일부터 6층에 있는 여자화장실 중  한쪽의 세면대 세칸을 모두 사용하지 못하고 있습니다.월요일에 출근을 했을 때에도 사용불가상태이길래.. 무슨 시멘트 양생을 하느라 이렇게 오래 걸리나보다 했는데알고보니.. 수리를 하러 오지 않는 상태라고 하네요.  오늘은 수요일이고 고장발생 6일째입니다.6층에 근무하는 여직원들이  모두  남은 한쪽 화장실에 몰리고 있습니다.  매우 불편합니다.바쁘시겠지만.. 오늘은 꼭 수리를 하러 와주셨으면 합니다.</t>
   </si>
   <si>
-    <t>2000관광 홍태호 기사님 감사합니다 11일 금요일 6시 퇴근버스에 사원증을 놓고 내렸습니다. 주말 출근이 예정되어있어 그날 당장 찾아야했기에 스카이해피버스 어플에서 기사님 전화번호로 연락드렸습니다.기사님께서 다음 정류장(마지막 정류장)에서 기다려 주겠다고 하셔서 사원증을 찾을수있었습니다제가 가는길에 차가 밀려 조금 늦게 도착했는데도 친절하게 기다려 주셔서 감사 드립니다^^</t>
+    <t>수도관광 안양/과천선 하얀차량 좌석 관련 안양/과천지역을 운행하는 수도관광 하얀색 차량의 좌석 중 일부에서 등받이 조절의 고장이 있습니다. 가만히 앉아있어도 조절 레버와 상관없이 뒤로 제껴지거나 앞으로 당겨집니다. 과도하게 제껴지면 뒷좌석 사람에게 피해를 주게 되고, 체중이 가벼운 경우 의자가 자꾸 당겨져 착석에 불편이 많습니다. 등받이 조절장치의 수리를 요청 드립니다.</t>
   </si>
   <si>
     <t>성남 3교대 출퇴근 버스 운전기사님을 칭찬 합니다. 동남 관광(성남출퇴근 버스)  김민석 기사님 칭찬 합니다. 출퇴근시 안전운전의 모범으로 임직원이 편안하게 이용할수 있으며항상 웃는 얼굴로 미소를 지으며 반겨주시는 기사님 입니다.임직원들이 이용시 불편함이 없는지 배려해 주시며 비가올때는 미쳐 우산을 준비못한 임직원에게 대여해주시는 고마운 기사님 입니다.좋은 기사님을 혼자 지켜보기에 이렇게 글로 남아 남김니다.앞으로도 김미석 기사님과 함께 출퇴근을 하였으면 합니다.감사합니다.</t>
@@ -439,6 +859,9 @@
     <t>2000관광 최종회 기사님 감사합니다 ^^ 18일 업무후 셔틀버스로 퇴근하는데 중요한 서류를 버스애 놓고 내려서 걱정이 많았는데 스카이해피버스 어플에서다행히 기사님 전화번호가 있어서  연락이 됐는데 기사님이 친절하게 다음  운행하시는 버스시간과 노선을알려주셔서 시간에 맞추어 기사님한테 잘 받게 되었습니다 서류라 분실될까봐서 봉투에 담아주시기까지하셨네요 ^^  분실되면 어쩌나 걱정했는데  기사님 친절에 너무나 감사 드립니다..</t>
   </si>
   <si>
+    <t>체육관 런닝머신 수리요청 사내 체육관 헬스장에 배치되어 있는 런닝머신 수리요청드립니다. 대부분 경사 설정이 안됩니다. 감사합니다.</t>
+  </si>
+  <si>
     <t>옥계해수욕장 스텝분들 칭찬합니다 제가 해변가랑 여러곳을 놀러가보았지만 이번 휴가는 참 기분이 좋았습니다이번휴가지는 아이엄마로서 참으로 마음이 놓이는 곳이었습니다항상 빨강가방을 들고 다니면서 응급환자에 대처를 차분히 신속히 잘해주는 거기에 아이가 다쳤을때 놀라지않게 달래주며 조근조근 적어가면서 물어봐주시는분!!해수욕장마다 그런분만 있음 참으로 좋을것같다라는 생각을 해보았네요^^응급후송도 많이 가시는것같던데 참 고생도 많이 하시는것같아요성함은 모르지만 열심히 일해주시는 분으로 하여금 참으로 즐거운휴가동안 감사했습니다더운여름 남들 쉴때 고생하시는분들로 인해 즐거운휴가 보냈습니다^^</t>
   </si>
   <si>
@@ -496,40 +919,73 @@
     <t>기사님 감사하니다 안녕하세요. 얼마전 통근버스안에서 제 실수로 지갑을 놓고 내린 적이 있었습니다. 아무생각 없이 집에 돌아와 지갑을 찾아보니 없더군요... 순간 앞이 노래지더군요... 마음을 다잡고 SKY Happy Bus를 보고 제가 타던 차량번호를  보고 다음날 기사님께물어보고 찾었습니다. 너무도 친절히 응대해주신 한빛관광 경기78사 8477사님 감사드립니다. 지갑잊어버린 제 맘을 어떻게 아셨는지 ~ 기사님 너무감사합니다</t>
   </si>
   <si>
+    <t>임부석의 불편 안녕하세요. 임산부입니다.다름이 아니라, 몇가지 궁금한게 있어서 남깁니다.현재, 임산부 예약석을 운영하고 있는것으로 압니다. 그렇게까지 운영하는것은 아마도 구성원들의 임부석에 대한 의식이 아직은 없고, 그래서 시행하는 것으로 압니다.어제도 자리가 많이 남았는데 어느 남자분이 통로쪽에 앉아서 신문을 쫙펴서 보시더라구요. 이런 경우, 제가 자리를 비켜달라고 말을 해야하는 걸까요?맞은편 복도 자리에 앉아서 그분을 바라보았지만, 눈하나 꿈쩍 안더라구요.기사님들께서 수고스럽더라도, 이런 부분에 대해 적극적으로 말씀해주시면 좋을거같습니다.실제로 덩치있는 남자분이 임부석에 앉아 다리를  쩍벌리고 앉아계셔서 다리를 오무려달라 말을 한 적이 있지만 내릴 때 째려보시더라구요. 이런 일이 있을떄마다, '그럼 자리를 비켜달라 말을 하지 그러냐.....'라고 반문하는 분들 계실텐데요,이렇듯 화내거나 째려보는 사람 꽤 많습니다. 그렇기에 기사님들의 적극적이 홍보가 필요하고, 그런 이유로 임산부 예약제도 실행하는 거 아닙니까?어떤 차량엔 임산부 스티커가 부착되지 조차 않은 경우가 많습니다.저는 이번주를 마지막으로 출산휴가에 들어가지만, 저와 같은 불편을 겪는 임산부와 몸이 불편하신 분들을 위해 글을 남깁니다. 육아 휴직후 돌아왔을 떄, 많은 것들이 바뀌어 있길 바라며 글을 마칩니다.</t>
+  </si>
+  <si>
     <t>[감사글] '2000관광' 강명호 기사님, 그리고 김일구 대리님께 감사드립니다. (경기78사9643 버스 담당) 지난 6/26 금요일 DRAM TEST기술PJT, DRAM특성분석 부서의 SK텔레콤 인재개발원 (마장 FMI)에서의 workshop으로 이천 SK하이닉스 본사 ~ SK텔레콤 인재개발원 간 셔틀 운행을 담당해주셨던 '2000관광' 경기78사9643 버스 담당 기사님이신 강명호 기사님께 감사글 남깁니다.종일 workshop 실시 후 퇴근을 위해 SK텔레콤 인재개발원 입구에서 이천 SK하이닉스 본사로 돌아가기 전 버스에서 반갑게 인사로 맞이해주신 강명호 기사님께 감사드립니다. 하루종일 내리던 비가 그쳐 맑게 개인 하늘만큼이나 청결했던 버스 내부에 기분이 좋아져 잠이 들었다가 도착하여 내릴 때 깜박 우산을 놓고 내려버렸습니다. 그런데 더 큰 문제는 해당 우산이 타 구성원에게 빌린 값비싼 우산이라 앞이 깜깜해지는 심정이었습니다.퇴근 버스로 갈아타고 서울에 도착하는동안 급히 SK하이스텍 통근버스 담당자이신 김일구 대리님께 연락을 드렸으며 퇴근버스 정리로 매우 바쁜 상황에서도 침착하게 분실한 우산의 위치와 특징에 대해 말씀드릴 수 있었습니다. 당시에는 강명호 기사님 성함을 비롯하여 차량 번호, '2000관광'인지 여부도 몰랐기 때문에 '마장 FMI 운행을 담당하신 기사님'이라는 한정된 정보만을 전달했음에도 불구하고 김일구 대리님께서는 빠른 연락으로 담당 기사님을 정확히 찾아 연락을 취해주셨으며, 퇴근 버스가 서울에 도착할 무렵에 이미 담당 기사님이 강명호 기사님께서 개인 휴대전화를 통해 분실한 우산을 찾아서 잘 보관 중이며, 출근 시간에 맞추어 전달해주신다는 명확한 일정까지 알려주셔서 그제서야 마음을 놓을 수 있었습니다.금일 오전 출근 시에 강명호 기사님이 약속하신 대로 정확한 시간에 바로 찾을 수 있었으며 우산 주인에게 아무 문제 없이 돌려줄 수 있었습니다. 금일 우산을 찾은 과정에서도 지갑과 폰을 분실한 구성원을 최선을 다해 도와주고 계신 모습이 매우 인상깊었습니다.다시 한번 감사의 말씀 전달드립니다.- SK하이닉스, 김민우 드림</t>
   </si>
   <si>
+    <t>지갑 찾아주신 의왕/안양/과천 노선 기사님 감사합니다 금요일 저녁 7시반 의왕/안양/과천 노선을 타고가다가 자는도중 바닥에지갑을 떨어뜨리고 그사실을 모른채 그냥 내렸습니다.혹시나해서 전화를 했더니 노선 운행 끝나고 기사님께서 지갑을 챙겨두셨습니다.당장 다음날 주말이라 지갑이 필요했던 상황인데 출근도 안하고 수령할 방법이 없는 상황에서자택 주소를 알려주셔서 토요일에 찾아가니 지갑을 챙겨주시더군요. 의왕/안양/과천 노선 운행하셨던 이장우 기사님 정말 감사합니다</t>
+  </si>
+  <si>
     <t>동남 고속 관광 최재훈 기사님 감사합니다 :) 어제 통근버스에 지갑과 사원증을 놓고 내렷는데최재훈 기사님이 보관 및 아침에 찾을 수 있도록 연락 주셔서 다행히 찾을 수 있었습니다뿐만 아니라 지갑을 어디서 잃어버린지 모를까봐 카드 회사에 전화해서 버스기사님이 보관하고 계시다고 메모까지 남겨주셔서 정말 감사했습니다항상 타고 내리실때도 인사해주셔서 너무 감사했는데 이번 계기로 꼭 감사하다고 전해 드리고 싶습니다!</t>
   </si>
   <si>
-    <t>동남관광 기사님 너무 감사했어요! 증일동 현대홈타운 거주하는 사람입니다.몇일전에 10시 30분 퇴근 셔틀을 이천관내로 잘못 탔었거든요시내에서 사람들 다 내리고 저만 남았고 셔틀 잘못탄게 처음이라 많이 당황 했고기사님께 그냥 아무데나 내려달라고 했었는데기사님이 괜찮다면서 노선 바꿔서 홈타운까지 운행해주셨습니다.밤이고 늦은시간인데 기사님 얼굴에서도 피곤함이 많이 묻어나보였는데이런일이 있을수도 있는거라며 괜찮다고..이창선(?)기사님 정말 감사했어요 (__)성함이 맞는진 모르겠네요 '-' 기사님 화이팅~!</t>
-  </si>
-  <si>
     <t>한빛관광기사님칭찬합니다 6월초쯤에 출근하다 신용카드지갑을 잃어버렸습니다.당황하고 찾을길이없어 어쩔줄몰라하고있었늣데이틀후에 한빛관광기사님한테 얘기했더니 찾아주신다고하시더라구요결국엔 기사님께서 관광회사 기사님들한테 수배해서 동남관광차 틈바구니에 있는걸 찾아주셨습니다너무 감사해서 식사대접이라도해드릴려고했는데극구사양 하시더라구요한빛관광 경기78사8440 기사님께 감사드립니다  정말 고맙습니다더운 날씨에 건강 조심하시고 안전운전 부탁드릴게요~~</t>
   </si>
   <si>
-    <t>칭찬해주세요! 5/23일 B조퇴근길 잠실가야하는 상황인데 다른 기사분이 잠실차 떠나고 없다고 잘못 알려주시는 바람에어쩔수 없이 성남셔틀을 타야하는 상황이였습니다.. ㅜㅜ알고봤더니 잠실차는 성남차 바로 옆에 있었더라구요 .. (잘못알려주신 아져씨 미워요 ㅜㅜ)미친듯이 뛰어와서 28분에 도착한 나머지 너무 정신없어서  잠실차를 확인 못했거든요 혹시나 하는 마음에 이차 잠실 안가냐고 물어봤는데 잠실가시냐고.. 가시면 가드려야죠 하시면서저 한명때문에 굳이 잠실까지 운행해주신  성남/광주 퇴근버스 박형규 기사님 너무 감사했습니다.걔다가 짜증한번없이 너무나 친절하게 무사히 잠실에 태워다 주신점 진짜 이렇게라도 감사의 마음을 전해드리고싶네요 복받으실꺼예요 ~ 저그날 너무 멘붕이였는데기사님 덕분에 약속장소에 무사히 잘도착하였습니다. 감사합니다 ^^ 그럼 수고하세요꼭 박형규기사님 칭찬해주세요 !!!!!!!!!!!!!!!!!!!!!!</t>
+    <t>이천 정문 행복문 출입로 벽돌 원복 해주세요 이천 정문 출입로 벽돌을 다 뒤집어 놓고 의경이 아침저녁으로 출퇴근시마다 쳐다보고통행로가 좁아서 너무너무 불편하니 원복 해주세요~</t>
+  </si>
+  <si>
+    <t>이천 체육관 매점 앞 CCTV 설치 관련 체육관 남녀 탈의실/샤워장 앞 냉온수기 위에  CCTV가 설치 되어 있습니다.매점에서 설치한 것으로 짐작하고 있습니다만, CCTV 설치시에는 안내 표지판도 같이 부착해야 하는 것으로 알고 있습니다. 그리고, CCTV를 그곳에 설치한 이유가 궁금하네요.매점의 도난에 관련하여 설치했으면 매점 내부에만 설치하면 되지, 매점을 이용하지 않고 체육관 탈의실을 이용하는 불특정 다수가 촬영되어야 하는지 의문입니다.</t>
   </si>
   <si>
     <t>이천 체육관 샤워장 청소 관련 이천 체육관 남자 샤워장 관련 건의 합니다.샤워장 바닥이나 벽면에 물때가 거뭇하게 끼어 있어 보기가 않좋습니다.잘하고 계시지만 조금만 더 청결한 관리를 요청 드립니다.</t>
   </si>
   <si>
-    <t>복지관 5월 생일파티 이벤트 오늘 정말 행복하고 맛있는 점심을 배부르게 먹었답니다.직장동료의 축하인사말과 함께 말이지용~~이런행사에 처음 당첨되어 어리둥절 갔는데 영양사분들의 분주한 움직임에 음식 준비 뚝딱.케잌..요거요거 내가 또 좋아라 하는 아이스크림 케잌이로다가 따~~악!정말 신경 많이 써 주셔서 너무너무 감사했습니다동료들 모두 너무 맛있다며 저때문에 잘 먹었다는데 저는 누구에게 감사인사 드려야 할지~이벤트 담청되게 해주신 영양사분께~그리고 이렇게 맛나게 음식준비 해주신 조리사님,아주머니들께 감사인사드려봅니다. 이수정 양양사님,박한나 영양사님,최지은 영양사님 외 박현수 조리사님..그리고 아주머니들..오늘 정말 행복한 하루가 이제 시작 된듯 싶네요항상 감사히 잘 먹겠습니다.</t>
+    <t>셔틀 버스 기사님을 칭찬합니다 좀 오래 된 일이었는데 칭찬할 곳이 어딘지 몰라서 못하고 있다가 노조에 어떤 분이 칭찬하는 곳 없냐는 질문글 보고 알게 되어 칭찬하게 되네요예전에  고담 셔틀 버스 정류장에서 정문 가는 셔틀을 기다리고 있었는데그날이 주말이라서 운행을 안하는 시간이었는데 그것도 모르고 하염없이 기다리고 있었습니다그때 셔틀한대가 지나가다가 멈추더니 오늘 주말이라고 정각마다 운행 한다고 하더라구요어쩔 줄 몰라 하고 있었는데 그 기사님 께서 기술 지원 센터 까지라도 데려다 드린다며 데려다 주셨습니다결혼식을 가야되서 시간도 촉박했고 구두를 신고 있어서 정문까지 걸어갈 생각에 정말 막막했었는데기술 지원 센터까지라도  태워다 주셔서 얼마나 고마웠는지 모르겠어요정신없이 내려서 이름은 기억 안나지만 젊으신 분이었고 썬글라스를 쓰고 계셨어요늦었지만 정말 감사했습니다그 뒤로도 몇 번 본것 같은데 그때 마다 친절 하게  운행 하시는 모습 본 것 같아요항상  새벽 부터 밤 늦게 까지 고생 하시는 친절한 기사님들 상이라도 줬으면 좋겠네요그럼 수고하세요~~!</t>
+  </si>
+  <si>
+    <t>사내 체육관 개선 관련 안녕하세요.사내 체육관 시설 이용자 입니다. 체육관에 노후된 헬스기구를  신형으로 교체 되어 더 좋은 여건에서 운동을 할 수 있어 좋았습니다. 앞으로도 좋은 여건에서 건강 증진 할수 있도올 좀 더 다양한 기기를 보유하고 주기적으로 노후 기구를 교체하였으면 좋겠습니다. 쾌적한 환경속에서 운동을 할 수 있도록 해 주시는 모든 분들께 감사드립니다.</t>
+  </si>
+  <si>
+    <t>단지내 조경이 절정이네요 ... M14공사로 인해 미쳐 느끼지 못했었는데 ...단지내에 나무도 많아지고 꽃들이 많아져 출,퇴근길 마음이 편안합니다.중앙식당 앞 벚꽃 공원은 삭막한 건물사이에서 편안함을 느끼게 해주는 유익한 공간이 된것 같습니다.이래 저래 구성원들의 심적안정을 위해 노력하시는 하이스텍 담당자분께 진심으로 감사드립니다.</t>
+  </si>
+  <si>
+    <t>사내 체육관 헬스 기기 교체건 의견드립니다. 안녕하세요.사내 체육관 시설  이용자 입니다.어제 4월 16일 누후 헬스기구를 신형으로 교체하는 것을 보았습니다.기존의 노후 헬스기기 이용시 불편한 점이 있었는데, 신형 헬스 기기로 교체되어더 좋은 여건에서 운동을 할 수 있어 좋을것 같습니다.앞으로 좀 더 다양한 기기를 보유하고 주기적으로  노후 기구를 교체하였으면 좋겠습니다.쾌적한 환경속에서 운동을 할 수 있도록 해 주시는 모든 분들께 감사드립니다.수고하세요.</t>
   </si>
   <si>
     <t>청주사업장 3교대 출퇴근 1번버스 기사님 칭찬합니다~ 우선 항상 출퇴근을 책임져 주시는 기사님께 감사 말씀드리구요^^성함은 정확히 모르겠지만 1번 버스를 운행해 주신지도 꽤 오래 되었다고 생각이 드는데요제가 타 노선은 많이 타지는 않지만 그래도 기사님은 항상 안전운전 해주신다는 생각이 들어서감사의 의미를 담아 간단하게나마 칭찬의 글을 적어봅니다시간에 상관없이 항상 밝은 모습으로 업무에 임해주셔서 승객으로서도 기분이 좋습니다~입사 이래로 항상 1번 버스를 타고 다녔지만얼마 뒤에 이사를 해서 다른 노선을 타고 다닐 생각하니 아쉽기도하네요ㅜㅜ 앞으로도 안전운전 부탁드리며 항상 수고하세요^^</t>
   </si>
   <si>
-    <t>잔반 용어 안녕하세요? 오늘 '잔반'이 일본어투 표현이라는 기사를 보고....정보공유드립니다http://m.news.naver.com/memoRankingRead.nhn?oid=008&amp;aid=0003451794&amp;sid1=103&amp;date=20150410&amp;ntype=MEMORANKING</t>
-  </si>
-  <si>
     <t>동남관광 출.퇴근 버스 최재훈 기사님을 칭찬 합니다(동남관광 기사님들 모두 감사 합니다) 안녕 하세요 저는 SKhynix 근무하는 직원 입니다우선 제가 여기 글을 쓰는 이유는 항상 출.퇴근을 안전하게 목적지까지 바래다 주시는 기사님들이 있어서 고마움을 표현 하고자 글을 올립니다.제가 자주 타고 다니는 노선은 가락동선 과 잠실선 입니다,특히 가락동선 이나 잠실선은 여러 버스회사 기사님들도 계시지만 우연이랄가 동남관광 버스 타는 비율이 높더라구요 그래서 그런지 기사님들을 볼때마다 마음이 편합니다 그렇다고 다른 버스 기사님들은 불편한건 아닙니다,다른 기사님들도 안전하게 친절하게 잘 해주십니다,다만 제가 타는 버스 비중이 동남관광이 많아서 그런지 정이 더가는건 사실입니다특히 최재훈 기사님은 출근이든 퇴근이든 목적지에서 항상 마지막 인사를 모든 승객들에게 인사를 하십니다항상 안전하게 대려다 주셔서 감사 합니다최재훈 기사님과 동남관광 기사님들 항상 안전 운행 하시고 건강 하시기 바랍니다~~^__^</t>
   </si>
   <si>
+    <t>사내 체육관 샤워실 타올에서 담배 냄새가 종종 납니다. 사내 체육관 샤워실 타올에서 담배 냄새가 종종 납니다. 아마 타올 보관장소나 타올 이동시 냄새가 배는 것 같습니다.비 흡연자가 사용시  불편 합니다. 조치 부탁드립니다.</t>
+  </si>
+  <si>
+    <t>한빛관광기사님 칭찬합니다 지난주 금요일 오전 10시 40분쯤이었던거같아요저는 서울가는 버스를타기위해 신하리 정류장에서기다리고있는데 한빛관광버스가 오더니  정차를 하시더라구요그런데 타는사람이 없어서 그냥출발해도 되는 상황이었는데조금서있더니 뒤로 후진을 하시더군요그래서봤더니 여자분 한분이 그차를타기위해뛰어오시는거에요어떻게 멀리서 뛰어오는걸   알고기다리셨는지제가 다 고마움을 느끼겠더라구요그여자분이 올렸는지는모르겠지만그친절에 감동받아 이렇게 칭찬글을 올려봅니다아! 그버스 번호도 외워두었습니다한빛관광 8476호앞으로도 변함없는 친절 부탁드립니다</t>
+  </si>
+  <si>
+    <t>임산부 우대석에 대한 고민. 안녕하세요. 임신 5개월에 들어가는 임산부입니다. 통근버스로 출퇴근하면서 느낀 임산부 우대석에 대한 나름의 고충을 말씀드리려고 합니다.(통근 지역은 일부러 적지 않겠습니다.) 많은 구성원분들이 임산부 우대석에 대해 어떻게 생각하고 계실런지 모르겠습니다.저 역시, 임신전까지는 별다른 생각이 없었기때문에 많은 분들이 임산부 우대석에 대해 아무런 생각을 가지고 있지 않으리라고 생각합니다.^^ 아침 시간은 특히나 피곤하지요? 그런데,임산부 우대석이라는 앞쪽 좌측 좌석 2자리에는 늘 아저씨분들이 타고 계셔요. 사원증 타각 시에 핑크색 줄도 착용하였는데 그런 저를 몇번이고 보셨으라고 생각합니다만, 늘 같은 자리에 같은분들이 타고 계시더군요. 몸이 아프신 것 같진 않았고 오히려 건강한 편으로 보였습니다. 저는 우대석이지 전용석이 아니기에 다른 빈자리를 찾아서 앉지만, 대개의 사람들은 복도에  착석해서 이미 눈을 감고 계십니다. 창가쪽으로 가려면 복도쪽 사람이 살짝 다리를 비켜준 그 틈으로 지나가야하지요. 문제는, 앞자리는 이미 의자가 젖혀져있고 비좁은 공간을 지나다보니 배가 눌린다는겁니다. ㅎㅎㅎ임신전에는 아무런 불편없이 지나다녔던 것도 주수가 지나면서 불편해지는 겁니다. 특히나, 중간 이후쪽에 앉게 되면, 출근 버스 타기 전에 담배를 피고 온 아저씨가 계셔서 가끔 근처라도 앉게 되면, 정말이지 너무나 괴롭습니다. 그분은 출근시에 길빵?까지 하시더군요....  사실, 맨 앞자리의 임산부 우대석이 사고시에 위험한 위치이나, 이렇게 배가 눌리는 불편은 없기때문에 우대석으로  지정한 것 같습니다. 차라리, 우대석이란게 없었다면, 마음이 서운하지도 않았을텐데, 괜한 앉지도 못하는 우대석으로 마음이 상할때가 많습니다. 자리를 양보해 달라고 말하는 것도 웃긴것 같고, 유난떠는 임산부가 되고 싶지도 않기떄문에 매번 참고 있지만, 이러한 불편을 감수하고 개선하는게 개인의 몫만은 아니지 않습니까?  통근 시, 방송으로 이와 관련하여 안내를 좀 더 적극적으로 해주시면 좋겠습니다. 지켜지지 않은 우대석은 차라리 없애는게 덜 서운할 것 같다는 생각도 듭니다.  우대석은 강제할 수 없는 것을 알지만, 이 글이 제 푸념으로만 끝나지 않았으면 하는 마음입니다. 감사합니다.</t>
+  </si>
+  <si>
+    <t>버스 내 구성원 간 매너 안녕하십니까.기존에도 영상으로 통근 버스 에티켓 방송을 하는 것으로 알고 있지만 매너 문제도 확실히 홍보해 주셨으면 좋겠습니다.퇴근 때 복도 쪽 앉으시는 구성원 중 창가 자리 있냐고 물어도 무시하는 분도 계시고 정말 기분나쁘다는 표정으로 짜증난다는 식으로 비켜주시는 분도 있습니다. 앉고 나서는 고의적으로 팔로 밀고 툭툭 치는 분도 있습니다. 버스 의자가 넓지 않고 붙어 있어도 모두 참고 서로 양보하는데 가끔 이런 분들 때문에 기분 상하는 분들 많습니다. 모두 같은 회사 구성원으로서 너무 매너 없습니다. 그렇게 혼자 앉고 싶으면 택시 타고 가라고 해주세요. 본인이 버스 전세내는 것 마냥 행동하는 사람 많습니다.적극적인 홍보 부탁드리겠습니다. 이런 부분을 개선하려 노력하는 것이 중요할 것 같습니다.</t>
+  </si>
+  <si>
+    <t>아래 사내셔틍 게시자입니다 답변 볼려고 하는데 자꾸 접근 할수 없다고 떠서요여기다가 답변좀 다시 해주세요그리고 오늘도 인재개발원 앞에선 안내려주는거라는데 정류소 아닌가요?</t>
+  </si>
+  <si>
+    <t>통근버스 탑승매너 좀 지켰으면 합니다. 자사인지 입주사인지는 알 수 없습니다만,몇 남사원분들이 아직도 여사원옆에만 골라 앉아 편하게 가려고 합니다.편하게 가는거 좋지요.하지만 서로 편하게 가야 되는거 아닙니까?일부러 어깨펴고 팔로 여사원 팔누르고 힘주고 있고 불편하니 제 자리로 넘어오지 말아달라고 3번이상 말했음에도 일부러 안자면서 자는척 팔에 힘을 주고 있네요.사진도 찍었습니다.보시고 제가 과민한건지 아닌지 판단 가능할 것 같습니다/우등고속버스도 아니고 남사원이 이렇게 넘어와서 편하게 가고자하면 여사원은 쭈그리로 가야하나요?</t>
+  </si>
+  <si>
     <t>동남고속관광 김민석 기사님을 칭찬합니다 2/16일 새벽 잠실선 퇴근버스에서 물건을 분실했었어요야간 출근버스를 타면서 기사님께 새벽 퇴근버스에서 물건을 분실하였다고 말씀드리니여기저기 전화하셔서 분실물을 찾아주셨어요본인의 일처럼 적극적이고 친절하게 도움을 주신 기사님께 너무 감사드립니다.기사님 아니였으면 못 찾았을거예요밤낮없이 저희 출퇴근을 안전하게 운전해주시는 기사님들의 수고에 다시한번 감사드려요김민석 기사님! 감사합니다!</t>
   </si>
   <si>
-    <t>따슨 통근길 넘 좋아요 추위를 유난이 마니타는 저인데~~매번 느끼지만 항상 먼저 대기하시구 따습게 뎁혀주신 성남행 아시아 버스기사님 넘 감사합니다</t>
+    <t>산업보안요원의 무리한 요구에 대해 개선해 주시기 바랍니다. 행복3문 산업보안요원의 출입문 통제시 출입통제 물품에 대한 정확한 검문검시는 당연한 업무이나출입신청을 받을때 후면에 출입시 차량내 들어있는 모든 물품을 안적었다고 지적하시면서오히려 뭐라고 하시는데....제가 보안 관련 지침서 등을 찾아봐도 어디에도 그런 문구는 없습니다.만약 물품에 대한 기재가 모두 필요한 경우라면 당연히 기입하는 란이 양식에 있고 기입을 했어야 마땅하나시스템이 그렇게 갖추어져 있지 않고 뒷장에 암묵적으로 적어왔던 부분을 꼭 그것이 제대로 된 보안규정인양비안양거리면서 말하는 태도에 할말을 잃었습니다.해당 시스템에 대해서는 보안관련 개선을 하시거나 하시는게 맞지 말도 안되는 보안규정을 들먹이면서직원들의 보안의식을 나무라는 것은 아니라고 봅니다. 굉장히 고압적인 태도에 보안도 중요하나 말도 안되는규정 운운하면서 말씀하시는 부분들은 있어서는 안되리라 생각합니다.이와 더불어 열심히 일하시는 산업보안요원분들에게 피해를 주는 행동인 것 같기도 하네요....해당 산업보안요원에 대해서 서비스에 입각한 교육을 통해 이러한 부분들은 시정하여 주시기 바랍니다.감사합니다.======================================================================안녕하십니까?보안요원 관리자입니다우선 사내출입시 심려를 끼쳐드려 죄송하다는 말씀 드립니다고객님께서 의견주신 내용에 대해 말씀드리면,납품접수증 주의사항 9번항목에 명시되어 있듯이 반입물품(사내 납품물품 제외)을 반입자가 신고하고 들어오게 되어 있습니다. 현재 반입물품 신고시스템은 반입증(노란색) 양식 및 당일 물품반입증, 지입자재 반입신고절차가 있어고객들이 이용할 수 있도록 하였고, 납품객의 편의와 절차간소화를 위해 납품증 뒷면에반입물품을 기록하고 근무자의 확인을 받도록 하고 있사오니, 이점 확인하시어 업무참고하시기 바랍니다그리고 근무자의 고압적인 태도 및 서비스 불편에 대해서는 매월 C/S교육등을 통해 교육하고 있으나 현장에서 적용하지 못하는 근무자가 있는것 같습니다고객님의 의견 참고하여 수시 교육 및 관리에 힘쓰도록 하겠습니다다시한번 심려끼쳐 드린점 사과드리며, 문의사항이 있으시면 SK하이스텍 보안섹션장(사내전화 7744)에게전화주시기 바랍니다수고하십시오==============================================================회신 주신 내용 잘 보았습니다.하지만,,,제가 생각할때 잘못되었다고 생각하는 부분에 대해서 잘못 인식하시는 부분이 있으신듯 하여추가로 글을 올립니다.제가 제기했던 문제는 납품차량에 대한 관리에 대해서 말씀드렸던바입니다....처음에 뒷장에 표기해야 한다고 말씀하셨는데.... 양식도 없는 뒷장에 표기를 알아서 하라는 태도에 문제를제기한 부분입니다. 그리고 납품물건 이외의 물건은 다 적어라는 것도 이해가 안되는게임직원들이 반입/반출 시 신고해야 하는 품목에 대해서는 보안과 관련하여 당연히 주의를 하고 있으나....모든 물건들은 적어라는 것도 우스운 일이구요....만약 그렇게까지 하고자 하신다면....당연히 출입시 보안요원들께서 확인하고 적어야 되는 부분이 아닌가 문제 제기를 해봅니다.들어갈때는 아무말 없다가 나올때 뭐라고 하는 행태에 대해서 바로 잡아달라고 요청드렸던 부분인데....뭔가 잘못 생각하시는 부분이 있어서 바로 잡고자 합니다. 그리고 임직원이 동승해서 일을 처리했음에도 불구하고납품 물품 외 물건이 있다고 뭐라 하는 부분은 임직원의 보안의식을 의심하는 행동으로 밖에 비춰지지 않구요...그날 기사님께도 굉장히 죄송했고...하물며 나아가 SK하이닉스의 기업 이미지를 어쩌면 실추시킬수 있는 일이아닌가도 생각해 보았습니다. 보안도 중요하지만 원칙이 중요하다면 제대로된 시스템을 갖추고 요구할 건요구해 주시기 바랍니다.산업보안요원의 무리한 요구는 받아들이기 힘듦을 재차 교육해 주시기 바랍니다.고객의 소리에 좀 더 주의깊게 기울여 주셔서 좋은 모습으로 바뀌기를 기대해 봅니다.감사합니다.</t>
+  </si>
+  <si>
+    <t>출/퇴근  하극상  금성관광  서울 72 5719 버스 교체  대체 언제 됩니까? 이제 화가 나네요.. 안녕하세요?하기 사항과 같이 작년 연말 부터 연초 까지 하극상인  서울 72 5719  버스( 매연/ 난방/ 가스 냄새 ..)등 작년에  연말부터 새로운 한해 까지 내용들을 하기 사항에 나열하였습니다.출근 뿐만아니라.. 퇴근때에도 여러 구성원들이 현재도 많은 불편을 겪고 있는데  대체.. 언제까지 참으며, 출퇴근 버스를 이용해야 되나요 ?  정확한 교체 시기 및 회신 부탁드립니다.. 참고로 아래 사항은 지난해 부터 올해 까지 출퇴근 버스  Q&amp;A 내용 입니다._______________________________________________________________________x000B_참다 참다.. 어제는 정말.. _x000B_구의선 퇴근 (6시) 버스 노후차량(5719)이라서 그런지 히터, 가스 냄새가 너무 심해서 두통, 구토 유발합니다. _x000B_차량 소음은 어쩔 수 없다해도 저녁 식사를 못할 정도인게 벌써 몇번인지.. _x000B_같은 차를 이용하는 몇몇 사람들에게도 물어보고 저만의 생각이 아닌것 같아 건의 드립니다. _x000B_솔직히 차량 딱 봐도 다른 노선과 완전.. 장의 차량 같은데다.. _x000B_제발 구의선 차량 교체 좀 해 주세요. 기존에 고정으로 있던 차량 (5768??)은 언젠가부터 안 보이더니 _x000B_그 하얀 버스가.. 제발 요 ~~ ㅠ ㅠ_x000B_====______________________________________________________________________________________안녕하세요! 통근버스 담당자입니다._x000B_？_x000B_본내용을 해당사 대표자에게 직접 전달하였으며,_x000B_？_x000B_재차 삼차 제보됨에 따라 차량교체를 지시하였습니다._x000B_？_x000B_반복되는 불편을 드린점 사과의 말씀을 드리며,_x000B_？_x000B_지시불이행, 관리소홀등의 사유로 운행계약에 영향을 미쳐_x000B_？_x000B_협력사 변경이 예상됨을 안내드립니다._x000B_？_x000B_편안한 출퇴근길이 될 수 있도록 최대한 신속히 조치할수 있도록 하겠습니다._x000B_？_x000B_기타 문의사항은 031-8094-7733-김건호 과장,7775-김일구대리 7752-정해용 주임으로 _x000B_？_x000B_연락주시면 친절히 안내해 드리겠습니다._x000B_？_x000B_감사합니다.안녕하세요! 통근버스 담당자입니다._x000B_문의하신 내용에 대해 아래와 같이 답변드립니다.당팀에서는 연식위반, 대차사용등에 대한 패널티를 징수하므로써연식개선과 대차사용자제를 장려하고 있으나, 배차문제로 인해 연식이 낮은 차량이 중기적으로 배정되는 경우도 있을수 있습니다._x000B_(신차계약 후 출고까지 1년이상 소요되는 경우도 발생하고 있습니다.)보다 근본적인 문제해결을 위해 협력사 재계약시 재배정을 통해 개선코자 하며,이는 1월중으로 변경이 있을것으로 예상하고 있는점 참고하시기 바랍니다._x000B_？_x000B_기타 문의사항은 2218-김건호 과장,4503-김일구대리 4061-정해용 사원으로 연락주시면 친절히 안내해 드리겠습니다._x000B_감사합니다._x000B__x000B__x000B_안녕하세요? 하기 노선 출근자 입니다 _x000B_. _x000B_하기 사항 처럼 배차는 협력사의 고유 권한인거 충분히 이해합니다. _x000B_하지만, 현재 금성 서울 72 5719 버스는 처음에 말씀드린것 처럼, _x000B_차량 년식이 오래되어 안전 사항 및 매연으로 구성원들이 많은 불편함을 받고 있는 실정입니다. _x000B_혹시 차량 년식 제한이 몇 년까지 제한이 있는 건가요? _x000B_현재 차량은 제한이 지난것처럼 보이는데,.. 안전에 문제가 있는지? 다른 불편사항은 없는지? 다시 한번 배차 변경이외, 근본적인 해결책을 제시해 주시면 감사하겠습니다. _x000B__x000B_그럼 수고하세요.. _x000B_다시 검토 간곡히 부탁드립니다. _x000B_감사합니다. _x000B__x000B__x000B__x000B__x000B_________________________________________________________________ _x000B_안녕하세요! 통근버스 담당자입니다. _x000B__x000B__x000B_5719차량에 대해 직접 점검은 완료하였으나, 구성원 정서상 당분간 배차를 변경토록_x000B_지시하였습니다. 이점 참고하시기 바라며, 특이사항을 제외하고 배차는 협력사의 고유권한인점 정중히 양해 부탁드리는 바입니다._x000B__x000B_기타 문의사항은 2218-김건호 과장,4503-김일구대리 4061-정해용 사원으로_x000B__x000B__x000B_연락주시면 친절히 안내해 드리겠습니다._x000B__x000B__x000B_감사합니다.</t>
   </si>
   <si>
     <t>기사님 감사합니다. 안녕하세요.금일 출근셔틀에서 금일 처리를 하야하는 서류봉투와 통장을 두고 내려 가슴을 조리고 있을때 한빛 관광 38호 기사(육장진)님께서 내용을  확인하시고 먼저 연락을 주시여다행히도 금일 일들을 처리할수 있게 되었습니다.정신이 없어 제대로 인사드리지 못하였는대  육장진기사님 다시 한번 감사드립니다.</t>
@@ -541,81 +997,279 @@
     <t>분실물관련 사내셔틀에서 분실 했습니다..분실물 습득한것 중에 ...루X비X 핸드백 있는지 확인 좀 부탁드립니다.</t>
   </si>
   <si>
+    <t>통근버스 內 비상탈출용 망치 고정 관리 개선 요청 건 안녕하세요!SK 하이닉스 구성원의 업무 편이 및 건강증진을 위해 애써 주셔서 감사 드립니다.표제의 내용과 관련하여 건의 드립니다.개인적으로 깨끗한 버스와 친절한 기사님의 안전한 운행 지원으로 불편함 없이통근버스를 이용학고 있어 감사 드립니다.매일 출/퇴근 시 이용하는 버스라 내부 시설에는 관심두지 않았던 사항인데어제 퇴근 버스 이용 시 무심코 차량 사고 時 승객의 비상 탈출을 위해 버스 창가주변에 비치해 둔 비상탈출용 망치가 Piece 나사 못으로 고정되어 있는 것을 확인 했습니다.아마도 비상탈출용 망치가 고정이 되지 않으면 운행 중 바닦으로 떨어지거나흔들림에 의한 소음 발생, 또는 기타 사유로 인한 분실 등이 우려 되어 그렇게조치한 것으로 추측됩니다.하지만 비상탈출용 망치는 말 그대로 언제 발생할 지 모르는 비상 상황下에서승객의 탈출을 위해 사용되어야 하는 데 , 지금처럼 고정되어 있을 경우 Piece 나사 못을 제거하기 위한 별도의 드라이버를 사용하지 않으면 탈착하여사용할 수 없으며,  임으로 벽에 고정되어 있는 비상탈출 망치를 힘으로 무리하게 떼어 낼 경우손잡이 부분이 파손되며 손에 상해를 입을 가능성도 있어 보였습니다.제가 이용하는 버스만 이렇게 고정되어 있을 것으로 예상되지 않은 상황으로전체 출/퇴근 버스에 대한 비상탈출용 망치 고정 현황을 파악하셔서 실제 비상탈출 상황발생 시 버스 탑승객 누구라도 쉽게 사용이 가능하도록 조치하면 보다 안전한 통근 버스이용이 되리라 생각 합니다.항상 SK하이닉스 전체 단지 구성원을 위한 SK하이스텍 임직원 여러분의 노고에 감사드리며부디 건의 사항이 개선 반영 되기를 소망해 봅니다.건강하고 행복한 겨울 보내세요.. 감사합니다.</t>
+  </si>
+  <si>
+    <t>통근 버스 기사님을 칭찬합니다. 어제 저녁 퇴근 하다 지갑을 버스에 놓고 내렸는데.기사님 께서 열정을 가지고 친절 하게 찾아 주셔서 맘편히 퇴근 할수 있었습니다.성함은 잘 모르겠는데.퇴근 버스 강남/교대 방향 6시 차 운행 하신 기사님 [핸드폰 번호 뒷자리(1180)]너무 감사 드려요.</t>
+  </si>
+  <si>
+    <t>[14.10.21] 망포역 출근 버스 안녕하세요망포역에서 출발하는 버스를 타고 출근을 하는 구성원입니다.아침에 출발을 하기 전에 기사분께서 잠시 할 말이 있다고 하시더군요그리고  대뜸 마이크로 화를 내시며하는 말이왜 자꾸 차 기물을 파손하는 겁니까~안전을 위해서 설치해 놓은건데 한두번도 아니고 자꾸 왜 파손을 하냐고~~계속 뭐라고 하시더군요듣다듣다 한 구성원께서 물어 봅니다.여기 중에 누가 그랬냐고......아저씨는 모른답니다. 그냥 월요일오전에 청소할때 망치가 떨어져 있었답니다.누가 했는지도 모르면서 왜 여기서 그런말을 하시냐고 하니..기사분은 여기밖에 없다고 합니다.누군지도 모르고 어디서 그랬는지도 모르면서 왜 여기서 뭐라고 하냐라고 사람들이 화를 내기 시작을 하니 그냥 차를 출발을 시키네요....참 아침 출근길부터 기분을 확 상하게 해 주시네요.구성원은 기사분들께 조심해서 대해야 하지만 기사분들은 구성원에게 막 대해도 되는 법이 있나요?누가 했는지 어디서 문제가 생긴 것인지도 모르면서 그냥불특정다수에게 화를 내고 책임을 전가하는 모습 좋지 않습니다.화만내고 잘못에 대한 부분은 시인도 없이 넘어가면 되나요?대부분에 기사분들이 친절하고 하시지만...이번에는 정말 기분이 나쁘네요...아침부터 뭐하자는 건지 모르겠습니다.내일 아침에는 기사분께서 사과를 하고 출발을 하는 모습을 기대해 보겠습니다.</t>
+  </si>
+  <si>
     <t>통근버스 기사님을 칭찬합니다. 어제 c조 아침 퇴근길에 비가 내려 우산없이 버스에 탑승했는데..기사님께서 일회용 우비를 나누어주셔서 다행이 많이 젖지 않고 집에 갈 수 있었습니다.이렇게 좋은 기사님이 계시다는 것을 알리고 싶은데.. 어디다 알려야 할지 몰라 여기다 작성합니다.좋은일하시는데... 어찌 보답할 방법이 없네요..대신 칭찬 좀 해주세요.. ^^이렇게 좋은 기사님이 많이 계셨으면 합니다.  --&gt; 건의사항 ㅎㅎ기사님 정보 :  성함이 정확히는 모르겠는데.. 이창선 기사님 ??                       차 번호가 잘 생각이 안나는데..  8265 ??                       노란고무신을 카드키 찍는곳에 놓고 다니는 차입니다.버스운행은 이천관내버스입니다.</t>
   </si>
   <si>
-    <t>3공징 식당 이용관련 3공장 중식 이용을 업무로 인해 13시 10~20분 정도에 이용하고 있는데요13시 30~40분 정도 되면 매번 아주머니께서 밀대로 바닥청소를 하더라구요식사중인데도 불구하고  내자리 발밑 근처 까지 청소 하더라구요제가  다른사람과 교대로 식대를 하다보니 늦은시간에 식사를 하는데그때마다 청소 하는모습을 매번 목격합니다..거의 40분 정도면 식당  모든분들 식사가 끝나거든요..이시간 맞추어서 바닥 청소 진행해 주셨으면 감사하겠습니다.</t>
-  </si>
-  <si>
-    <t>귀향버스 급여공제  말도 안되는 금액입니다 귀향 버스 급여공제  설날  ( 21.924원)  보다 5% 인상 하여   +4384 원이 올라 ( 92,080 ) 원을 급여 공제 되었습니다.  개인적인 사정으로   귀사 버스를 이용을 못하게 되었으니 금액 지불은 당연하다 생각 됩니다. 하지만 !! 경주에서 이천까지  우등버스 기준  17.900 원입니다.  합 71.600 원 우등 버스도 아닌 회사 버스가  이렇게 많이 받는 산정 기준이 무엇입니까!   버스는  몇명이 타든 운행이 되었고 .  이 금액들을  받아서 어디에 쓰는 겁니까!  개인적인 사정은  누구나 있겠지만 .  호의적이고 친절 하게  대처하던  하이스텍 담당자가 바뀐것인가요?  귀향 버스 이미지가   공짜로 타는데 무슨 말이 많냐는 식이네요  그 많은 돈을  지불하고 불편한 버스의 기억.  귀향 버스에서  에어컨을 장시간 틀어  감기가 된통 걸렸습니다. 그 응급실 비용에 아파서 집으로 급하게 오느라 쓴  버스 비용에 저 금액까지 다 내려니. 너무 하다는 생각 뿐이네요 이게 사원의 복지 입니까!!</t>
+    <t>관리실 기숙사 편하게 사는데거실에  폰은 왜 설치한건가요전화해도  안 받고 경</t>
+  </si>
+  <si>
+    <t>주말 사내셔틀 관련 안녕하세요.사내셔틀 주말 운행 관련 문의 드립니다.사내셔틀 운행 시간 표에서는 토요일 일요일에 대해서고담주차장에서 방문객 주차장까지 라고 표시가 되어 있고하단 주의 사항에는 평일 17시 40분 이후부터는 보안관련해서 경영지원본부까지만 운행 되어 진다고 되어 있는데사실상 주말에 사내셔틀을 타면 경영지원본부까지만 운행을 하는데어느게 맞는 건가요?</t>
+  </si>
+  <si>
+    <t>버스기사님칭찬해용! 9월3일날 이천아트홀에서 진행한 행복한마당 끝나고 이천하이닉스로 돌아오는 셔틀운행해주신 2000관광기사님 칭찬합니다!(성함을 모르겠어요ㅠㅠ)어제 a조끝나고 가서 저녁 8시반에 돌아와서 너무 몸이 피곤한상태였는데 친절하게 현우문앞에 세워주셔서 기숙사까지 편히갔습니다!! 9시에 망포로 퇴근하는 통상셔틀때문에 또 일하러 가셔서 힘드실텐데 아빠처럼 자상하고 웃으시는 모습에 정말 마음 편히 셔틀이용한것같아요!! 감사합니다!! 복받으실거에요♥♥</t>
   </si>
   <si>
     <t>옥계 해수용장 스텝분들 너무 친절하네요. 저번주에 가족들이랑 옥계 해수욕장을 다녀왔는데요~ 텐트로 너무너무 깨끗하고 바다도 너무 맑아서 기분 좋은 여행이였습니다.저희가 좀 늦게 도착해서 어두워져서야 해수욕장을 찾았는데요 밤 늦게 까지 일하시느라 힘드실텐데 친절하게 안내해주시는 모습에 너무 감동 받았고 덕분에 즐거운 추억 만들었습니다.젊은 친구들 같았는데 어쩜 이렇게 착하고 성실한지요. 다음 휴가때 또 놀러갈게요~^^ 감사합니다ㅎㅎ</t>
   </si>
   <si>
+    <t>휴대폰 식당메뉴판 모바일서비스 안되나요? 안녕하세요휴대폰 모바일 서비스로 메뉴판을 볼 수 있게는 안되는지요?어제 날짜로 질문을 드렸었는데 답변도 안주시네요.잘되다가 갑자기 안되는 이유가 무엇인지요?</t>
+  </si>
+  <si>
     <t>칭찬 (한빛관광) 통근버스 담당자 여러분 안녕하세요? 연일 계속되는 무더위속에  얼마나 수고가 많은지요 이렇게 글을 쓰게된 동기는 한빛관광 78사8473 기사님을 칭찬해드리고 싶어서 입니다 항상 웃으시며 인사를 하시는데 무심히 지나치는 분들에게도 개의치 않으시고 개개인에게 고개숙이며 인사하시는 모습이 너무나 인상적이였습니다. 그런 모습을 보며 승차 했는데 출퇴근 길이 너무도 즐거웠습니다 출발,정지시에도 안전운행은 기본이고 승차하면 차가깨끗해 기분까지 상쾌했습니다 앞으로도 편안함을 가득 전해 주시는 기사님 덕분에 힘이 많이 나요   기사님  앞으로도 안전운전 부탁드립니다고 전해주세요</t>
   </si>
   <si>
+    <t>통근버스 아저씨 칭찬드립니다. 매일 대월 모가 통근버스에 몸을 싣는 사람입니다,출퇴근길 승차시 인사는 한번도 빠짐없이 해주시며, 어제는  퇴근길엔 집에서 직접 담그신 매실원액을몸에 좋다며 한잔 권해주셨습니다.  타 버스 탑승시 먼저 인사를 안하면 해주시는 분들이 없으신데 대월 모가선 아저씨께선 언제나 한결 같은 모습으로 인사해주셔서 저도 덩달아 인사를 드리게 됩니다. 대월 모가선 경유지 차도가 많이 구부러지고 울퉁불퉁하여 위험하고 승차감도 좋지않을것 같은데한국의 슈마허 이신지 안전운행은 물론이와 좋은 승차감 덕분에 가끔 단잠에 빠지기도 합니다. 각설하고 퇴근길 지친몸을 싣고 집으로 갈수있게 해주시는 파란버스 대월 모가선 아저씨   감사드립니다, 물론 매실원액이 맛있어서 쓰는게 아니예요. ㅎㅎ</t>
+  </si>
+  <si>
     <t>옥계 휴양소 느낀점! 옥계 휴양지를 갓다와서재미도 잇고 시설도 다른 휴양소 보다 깔끔하고 샤워장 도 깨끗해서 기분이 참 좋았습니다.댜앙한 이벤트 들과 밤낮 가리지 않고 열심히 하시는 진행자분들 때문에 편하게 쉬다 왔습니다좋은 추억들 많이 만들고 갑니다</t>
   </si>
   <si>
     <t>휴양지 너무 재밌어요 지난주 주말에 갔었는데요너무 재미있게 잘 보내다 와서 감사합니다.폭죽놀이를 그렇게 가까이서 보기는 처음이네요.. ㅋㅋ 맛있는것도 많이 먹고..밤에 열대야가 아닌날에 맞춰서 잘 간거 같아요..즐거운 추억 잘 만들고 왔습니다. 내년에  또 갈게요</t>
   </si>
   <si>
+    <t>[비공개글](구)식권 환불 및 사내 통근버스 이용관련 문의 [비공개글](구)식권 환불 및 사내 통근버스 이용관련 문의 이 글을 올렸는데, 비밀번호가 잘못됐는지 열리지가 않습니다.다시한번 답변 올려주시면 감사하겠습니다.내용은구)식권 환불 안되는 이유와 앞으로도 환불이 안되는 것인지?(상품권으로써의 현금가치가 있는 상품인데 환불 안되는 사유가 무엇인지-사원서비스센터의 편의를 위한것인지)추가금액없이는 교환조차 어려운 데 불편을 많이 겪었습니다.사내 통근 버스 이용시 로그인해서 해야하는데 상시출입증이 있어도 가입이 안되더라구요~노선확인 및 버스 확인하는데 유용하게 쓰려고 하는데밑에 있는 글과 비슷하게 B로 시작하여 20으로 바꾸어서 입력했지만 가입이 안되서 협력사는 가입이 안되는 것인지 궁금합니다.(회원정보가 확인이 되지 않는다고 뜹니다 ;; 상시출입증 넘버대로 입력도 해보고 20으로도 바꿔서 입력도 해보아도요 ㅎ)</t>
+  </si>
+  <si>
+    <t>외주업체직원은 셔틀버스노선을 볼수 없는건가요? X사번과 상시출입증의 B사번, B를 20으로 바꿔서까지도없는 정보라고 하네요..외주직원들은 셔틀이용 못하는건가요?</t>
+  </si>
+  <si>
+    <t>모바일 버전 홈페이지도 개설해 주세요!!! 홈페이지 개편을 축하드립니다.깔끔하게 바뀌었네요!!!그런데, 예전에 되었었던 모바일 버전 홈페이지도 오픈 되었으면 합니다.언제나 서비스에 감사드리며...수고하세요!!!</t>
+  </si>
+  <si>
+    <t>청운 체육관 너무 더워요....개선 진행 사항 공지 부탁드려요.. 몇번  불편 사항을 공지 드렸었는데...운동하는데 너무  너무 덥네요... 운동하는데  당연히 더워야 된다고 하지만...많은 인원이  한꺼번에  협소한 공간에 모여 운동하다보니.. 답답함과 더위가 극치에 달합니다.확인하시구 싶으시면~ 참여해 보셔요...^^에어컨 설치 및 개선 사항이 진행 중인지 공지 부탁드려요..너무 더워 당분간  체육관 안가구...설치 되면 갈려고 합니다.ㅠㅠ감사합니다.</t>
+  </si>
+  <si>
+    <t>청운 헬스장 탈수로 죽을거 같습니다. 웰니스 프로그램때문에 청운 헬스장을 자주 찾고 또한, 잘 사용하고 있습니다.그런데, 여름이 다가오면서 체육관 가기가 두렵습니다.운동하다가 죽진 않을까? 실제 웰니스 프로그램은 과체중이나 운동부족때문에 주로 운동이 부족한 사람들만 모아서 운영하는것으로 알고 있습니다. 저를 포함한 이분들이 운동하다 현기증이나 탈수로 문제가 생길경우 어떻게 하시겠습니까? 실제 과한 유산소 운동도중 현기증을 느껴봤습니다. 더워 죽을거 같습니다. 문쪽에 에어콘 달아주시고, 환풍기도 좀 작동하게 해주세요..미칠거 같아요..트레이너도 힘들어하네요</t>
+  </si>
+  <si>
+    <t>사내식당 선택후 메뉴에 날짜가 오늘인지 내일인지 확인이 안되네요. 안녕하세요,항상 고생이 많으십니다.다름이 아니라사내식당 선택후 메뉴에 날짜가 오늘인지 내일인지 확인이 안되네요.일자를 확인 할 수있게 표현해 주시고또한 일자별로 첨부파일을 안열어도  확인할수있도록 날짜 선택을 할수있게 하면 좋을것 같습니다.수고하세요,</t>
+  </si>
+  <si>
+    <t>청운 헬스장 시설 개선 헬스장 환풍기 모두 고장입니다. 운동때문에 힘든게 아니라 더운 실내온도에 죽겠습니다.에어콘을 앞쪽에 한대 더 넣고 환풍시설을 완비해주시면 감사하겠습니다.</t>
+  </si>
+  <si>
+    <t>이천] 사내 체육관 헬스장 공조가 안되요~너무 답답합니다. 안녕하세요? 사내 체육관 헬스장을 사용하고 있는 사용자 입니다. 헬스장내에 공조가 안되는 것 같네요.. 에어컨은 있지만..자체 공조기에서 공조가 이루어 지지 않는 것 같습니다. 운동시 매우 답답함을 느끼네요. 확인 조치 부탁드립니다.</t>
+  </si>
+  <si>
+    <t>임산부석 도대체 언제 관리할꺼에요? 2011년 1월 29일날 쓰신 내용이에요 지금까지 3년이 넘었는데 뭘 관리한거에요? 아직도 임산부석은 아줌마들이 앉아있어요 이런건 홍보를해도 안되고 교육을 해도 안됐으면 기사님들께 못앉게 하라고 해야하는거아니에요? 아줌마랑 아저씨랑 오빠오빠 하면서 장난치고 놀던데요? 이번달만해도 배 많이 나온 임산부가 임산부석에 앉으려고 햇는데 복도쪽에 앉아있던 아주머니 말씀이 여기 자리맡아놨다고...뭡니까 이게? 그래서 그 임산부가 맨날 이렇게 자리를 맡아 놓으시면 어떡해요.. 이랬더니 쳐다도 안보고 다른데 자리있으니까 딴데 앉으라고 그임산부도 오죽 어이가 없었으면 그아주머니께 조금 큰소리로 여기 임산부자리거든요? 했는데도 들은척도 안하고ㅡㅡ 결국 그 임산부가 다른자리갔어요 골절등의 몸 불편한 사람, 임산부가 앉는 자리라구요? 손가락골절은 아닐테도 다리골절을 말하는거 같은데 다리골절됐는데 어떻게 출근을 해요? 출근을 했다해도, 다리 골절된 사람이 많으면 얼마나 많다고... 실질적으로 하이닉스단지내에 거동불편하실정도로 나이 많으신분도없고 거동불편자는 회사에 일하러 나오지도 못할것이고, 그자리를 사용할 사람은 임산부밖에 없어요 그자리를 아예 임산부전용석으로 바꾸고 기사님들을 교육해서라도 그자리에 임산부 아닌사람은 못앉게 해주시고, 버스 출발 직전까지도 자리가 비어있으면 그때 앉을수 있도록 해야하는거 아닌가요? 출근시에도, 그자리는 마지막 정류장까지는 임산부외엔 앉아선 안될거같아요 앉아있다가도 나중에 임산부가 타면 자리를 양보해줘야 정상이겠죠 여기에 답변만 이러하다 저러하다 이렇게 하겠다 하지마시고 실행을 하세요 실행을 말만 들으려고 이런글 쓰는거 아니에요</t>
+  </si>
+  <si>
     <t>통근버스 분실물 게시판에 신고해도 회신이 전혀 없네요 얼마전 통근버스에서 떨어진 돈을 주워 기사님 전해 드리고 분실물 접수 신고 했는데.. 전혀 회신이 없네요 제가 쓴글을 볼 수도 없고.. 주인을 제대로 찾아준것인지 중간에 없어졌는지 알길이 없네요 주워 신고한 행동이 의미가 없는거 같아 문의 해봅니다</t>
   </si>
   <si>
+    <t>분당근무자의 이천 퇴근 버스 카드 등록 요청 안녕하세요 이번에 이천에서 분당 정자로 근무지가 변경되었는데요 분당에서 사용하는 사원증으로는 이천에서의 퇴근시 타는 버스에서 등록이 되지 않아서 타각이 안되더라구요 사원증을 2개 들고 다니기 힘들어서 그러는데 분당 근무자들의 버스 타각이 가능하도록 해주시기 바랍니다. 감사합니다.</t>
+  </si>
+  <si>
+    <t>3교대 C조 광주/성남 선 운행 기사님 너무 불친철 합니다. 야간 근무후 피곤한 상태에서 3교대 C조 광주/성남 선 운행 기사님 너무 불친철 합니다. 여사원들이 아무리 어리다고 해도 반말 하시고, 도대체 왜 내릴 때 사원증을 찍고 내리라고 소리지르는지 모르겠습니다.. 아침마다 짜증나느데 기사님 교육이나 변경 요청 합니다. 1년째 같은분인데 짜증나네요</t>
+  </si>
+  <si>
+    <t>해피버스 ID인증 진행 오류 인증번호 받는 조그만 팝업창 확인 안눌림</t>
+  </si>
+  <si>
     <t>동탄_ 출/퇴근 능동선 (동남관광) 기사님 칭찬 드립니다. 아침 출근때 항상 웃는 얼굴로 인사 해주시고 편안하게 출근 시켜 주시고 퇴근때도 밝은 얼굴로 인사 주시는 기사님 칭찬 합니다... 계속 맘으로는 감사한 마음은 있었는데 이제야 칭찬글 올립니다. 항상 감사 드립니다.^^</t>
   </si>
   <si>
     <t>동남관광? 향교선 박문수 기사님 감사합니다^^ 사소한것 하나까지 신경 써주시는 박문수 기사님께 감사 드립니다. 비오는날 우산을 버스에 두고 내렸다가 다음날 우산을 분실물 없었는지 물어보니 기사님께서 젖은 우산 말려서 선반에 잘 보관해주셔서 너무 고마웠습니다. 항상 모든분들께 친절하게 먼저 인사하시고 웃는 모습이 활기차고 기분 좋게 만들어 주셔서 너무 감사 합니다^^</t>
   </si>
   <si>
+    <t>스카이버스 고객의 소리는 최고의 서비스를 제공하기 위하여 고객님의 의견을 수렴할 수 있는 열린공간입니다. 음해성 및 사실과 다른 왜곡된 글은 당사 이미지 실추 등 업무에 영향을 줄 수 있으므로 자제해 주시기 바랍니다.</t>
+  </si>
+  <si>
     <t>이화아파트 셔틀버스 운전기사님을 감사합니다 토요일 A조 출근 셔틀(이화아파트)에서 핸드폰을 두고 내렸습니다 . 퇴근하고 버스정류장에서 이화아파트 차량 기사님들께 핸드폰 없었냐고 여쭤봤더니 없으셨다는 말씀밖에 없었습니다... 주말이라 분실물 센터도 연락이안되서 못찾나보다 했는데 한분이 손수 나서셔 도와주셨습니다 . 어느차량인지 아냐고 물어보시더라구요... 모른다고 했더니 배차시간표를 일일이 찾아서 이화아파트 토요일 A조출근 셔틀 기사님들께 일일이 전화해서 제 핸드폰이 있는지 확인해주셨습니다. 한분이 제 핸드폰은 가지고 계시다고 하셨나봐요. 그래서 기사님이 보관하시다가 저에게 주시겠다고 본인이 다음날 A조퇴근 일성 배차 시라고 저에게 그쪽으로 오라고 하시더라구요 못찾겠으면 한빛38호 찾으면 된데요.... 저는 너무 감사해서 다음날 퇴근하고 감사의 표시로 커피를 사서 기사님을 찾아갔습니다.... 기사님께서 환하게 웃으시면서 이거 맞냐고 물어보시더니 저에게 핸드폰을 돌려주셨습니다.... 감사하다고 커피를 드시라도 드리는데 계속 사양하시더라구요... 너무너무 감사했습니다.... 핸드폰에 아이들 사진이랑 연락처때문에 걱정을 많이했는데 친절한 기사님 덕분에 소중한 핸드폰을 찾아 기뻣습니다.... 친절한 한빛 38호 기사님 감사합니다 ....</t>
   </si>
   <si>
     <t>(셔틀버스 여주선 ) 김 연훈 기사님 칭찬하고 싶어요^^ 칭찬합니다. 항상 웃으면서 반겨주시고~ 따뜻한 마음으로 대해주시고 커피 서비스 까지 해주시는 김 연훈 기사님을 칭찬하고 싶어요~ 여주선 1년정도 타고 다녔는데 갑작스레 다른기사님으로 변경이 되어 궁금하기도 하고 왜 갑자기 변경됬는지도 알고싶네요 다시 여주선 으로 빨리 복귀 하시길 바라며^^</t>
   </si>
   <si>
-    <t>청주 버스 기사님을 칭찬합니다. 버스를 타고 출근/퇴근할때, 편안하게 다가오는 기사님들 덕분에 즐겁게 출퇴근을 하고 있습니다. 특히, 요즘에는 버스가 5분 먼저 출발하는데, 전단지로 알려주시기도 하지만, 일일이 인사를 해주시며 앞으로는 5분 먼저 출발한다고 친절히 알려주셔서, 늦지 않게 버스에 올랐습니다. 강서 비발디에서 출발하는 지충규 기사님! 감사합니다. 좋은하루 되세요... 다른 청주 기사님들도 너무 좋습니다..^^ 다들 동네 아저씨 같으셔서 ㅎㅎ</t>
+    <t>한빛관광 청결상태가좋아요. 매일 출퇴근 하면서 느끼는 거지만, 다른 통근 버스들 보다 한빛관광 버스가 깨끗 한것 같아서 좋네요ㅎㅎ 다른 버스들은 조금 오래된 버스같은 느낌이 있는것 같은데 한빛관광 버스는 깨끗해보여서 퇴근할때는 한빛관광 버스를 타는 편입니다 ㅎㅎ 기사님들도 친절 하신것같고 퇴근길이 조금이나마 기분이 좋아지네요 ㅎㅎ</t>
+  </si>
+  <si>
+    <t>한빛관광 통근버스 칭찬합니다 통근버스 타면 한빛관광 버스가 제일 깨끗하고 친절한것 같아서 버스 타면 기분이 좋네요 ㅎㅎ</t>
+  </si>
+  <si>
+    <t>동남 차량번호6606 기사님을 칭찬합니다. 지난주 시내에서 한약을 짓고 저녁 9시 셔틀을 이용하였습니다. 단지 내 공사로 인하여 노선도가 변경된걸 몰랐는데, 기사님께서 친절히 방송으로 안내도 해주시고 저같은 경우는 청운으로 갔어야하는데, 마지막 정류장에서 한참떨어져 있었습니다. 하지만, 기사님께서 경영지원본관까지 태워주신덕에 잘 들어올 수 있었습니다. 몸이 안좋은 상태에서 한약까지 들고 있어서 걱정많이했는데 친절하신 기사님덕에 잘 올 수 있었어요. 성함은 모르지만 다시한번 감사하단 말씀 드리고 싶습니다.</t>
   </si>
   <si>
     <t>이창선기사님 칭찬합니다. 공사중이라 노선이 변경되어 사원들이 헷갈리지 않도록 친절하게 방송해주시고 늘 상냥하게 인사해주시는 모습이 정말 친절하십니다.</t>
   </si>
   <si>
+    <t>안양 금정선 버스 수리 요청 드립니다. 안녕하세요. 안양 금정선 출근 버스 수리요청드립니다. 뒤에서 오른쪽 3번째의 통로쪽 의자가 뒤로 넘어가는 버튼이 불량이라 의자가 고정되지 않고 뒤로 휙휙 넘어갑니다. 때문에 많은 사람이 해당 자리에 앉지 못하며 설령 앉았다고 하더라도 불편하게 출근을 해야 합니다. 이에 대한 수리 요청 드립니다. 감사합니다.</t>
+  </si>
+  <si>
     <t>칭찬합니다!! 오늘 중요한 물건을 버스에 두고 내렸었는데 한빛관광 38호 육장심 기사님이 친절하게 신경써주시면서 찾아주셨습니다!! 기사님 감사합니다!!</t>
   </si>
   <si>
     <t>경향고속 기사님 칭찬합니다. 경향고속 공문배 기사님 칭찬합니다. 금요일 퇴근 사당/터미널 7:30 셔틀을 이용했는데, 승/하차 모든 직원에서 가식이 아닌 진심으로 인사를 해주셔서 마음이 훈훈했네요. 어떤분들은 정말 가식적으로 억지로 인사하시는 느낌이 드는데 말이죠.</t>
   </si>
   <si>
+    <t>아미월드 변경 관련... 고객의 소리는 최고의 서비스를 제공하기 위하여 고객님의 의견을 수렴할 수 있는 열린공간입니다. 음해성 및 사실과 다른 왜곡된 글은 당사 이미지 실추 등 업무에 영향을 줄 수 있으므로 자제해 주시기 바랍니다. 아미월드가 1월에 아미통으로 주소가 변경 된다고 했는데 아미통으로 들어가도 1월 이후의 게시물이 하나도 없네요.. http://amitong.com/ 여기 접속이 맞나요?...식단이건 핸드폰 판매 정보건 전부 1월 초 이후로 업데이트가 하나도 없던데요.</t>
+  </si>
+  <si>
+    <t>차량소음 수고하십니다. 송정동 한빛관광바스 8440 차량 보름전부터 차량소음이심한데 수리를전혀 안하네요 수리요청부탁드립니다.</t>
+  </si>
+  <si>
+    <t>체육관 헬스장 시설이 항상 깨끗이 유지되고 있어 관계자 분들께 감사드립니다. 안녕하세요? 저는 점심 시간을 이용해서 헬스장을 이용하는 구성원입니다. 헬스장을 이용하다보면 눈이 오는 날의 경우 신발에 물이 뭍어 헬스장 바닥이 더러워 지는 경우가 있는데 항상 깨끗이 청소가 되어 있고 운동시설도 정리가 잘 되어 있더군요. 헬스장 관계자 여러분께 진심으로 감사드립니다.</t>
+  </si>
+  <si>
     <t>경향고속 8782 기사님 결혼식준비차 차량대절을 해야하는 상황이었는데 감사하게도 정보를 주셔서 아주 쉽게 해결할수있었습니다. 아침에 버스를 탈때마다 한사람한사람에게 친절하게 인사하시며 일하시는 모습이 아주 인상적이어서 늘 즐거운 마음으로 출근하고 있습니다. 정말 감사합니다, 앞으로도 안전운행 부탁드립니다</t>
   </si>
   <si>
-    <t>안녕하세요 결혼식때 버스 대절때문에 연락을 드렸습니다. 어느 담당자분과 통화를 해보면 될까요? 내용은 버스 1대 대절 서울 -&gt; 이천 -&gt; 대구 그리고 역순으로 올라오는 스케쥴입니다.</t>
+    <t>2014년 주말농장문의요 ^^ 청주 주말농장 분양언제하는지 알수있나요?</t>
+  </si>
+  <si>
+    <t>아이디/비밀번호 관련입니다. 안녕하세요. 아이디가 없다고 나와서 이렇게 문의드립니다. 확인부탁드립니다. B54988 고재일</t>
+  </si>
+  <si>
+    <t>청주 1공장 정문앞 담배피우는 보안요원 출근해서 버스내리는곳(정문앞)에서 흡연하는 보안요원때문에 미쳐버리겠습니다. 상쾌한 아침에 왜 거기서 담배 피움니까? 2일전에는 여자둘 남자둘 쌍쌍이서 담배를 피워재끼는데 회사만 아니면 강냉이를 털어버리고 싶었습니다.</t>
+  </si>
+  <si>
+    <t>비밀번호 문의 드립니다. 귀향/귀사버스 ID인증하고서 로그인하고 신청완료했는데 다시 로그인하려고했더니 비밀번호가 기억이 안나네요 변경한 비밀번호 문의 드려요</t>
+  </si>
+  <si>
+    <t>청주 3공장 보안요원 아침에 청주 3공장 임시동문으로 출근하는데 게이트에 사원증을 찍었습니다. 옆에서 보안요원이 보더니 안찍혔다고 다시 찍으라 하더군요. 그래서 찍혔고 소리도 났다고 했는데도 그냥 막무가내로 다시찍으라고 하길래 다시한번 분명히 찍혔다고 하고 가는데 보안요원 뒤에다대고 ** 이라고 욕을하더군요. 이게 말이 됩니까??? 보안요원이 회사 임직원에게 욕을 하는게?? 보안업무 하면서 임직원들과 이런저런일 있을텐데 대응방법에 대해서 교육좀 똑바로 시켜주세요. 그리고 이런일은 정말 기본중에 기본인거 같은데 정말 불쾌하네요.</t>
+  </si>
+  <si>
+    <t>안녕하세요 안녕하세요, 제공해주시는 통근버스를 잘 이용하고 있는 사우입니다. 편안한 출퇴근을 제공해 주셔서 항상 감사합니다. 다름이 아니라 제가 임산부이고, 최근 심한 입덧으로 멀미를 하는데 제가 탑승하는 버스의 우대석에는 출, 퇴근시 항상 남자분이 앉아계십니다. 앞자리에 앉으면 시야가 트여 멀미가 좀 나은 편인데 매번 염치없게 자리 양보를 말씀드리기도 어렵고 참 곤란합니다... 분홍색 목걸이를 메고 있음에도 항상 앞자리에 먼저 앉으셔서 어쩔 수 없이 뒷자리에 앉게 되는데 그때마다 너무 힘들어 휴직을 생각할 정도입니다.... 염치 없지만 혹시 캠페인 추가 추진 계획이 있으시다면 빠른 시일내에 한번 진행되었으면 합니다^^. 출퇴근이 멀미로 너무 힘들어서 봉지와 휴지를 들고 다니기는 하는데, 버스에서 내리고 나서도 한동안은 고생을 해야 해요. 과거 제가 임산부가 아니었을 때는 기사님께서 그 자리에 앉은 승객들에게 우리 버스에는 임산부가 타니 자리 양보를 부탁한다고 하셨었는데 대규모 캠페인이 아니더라도 그런 방식의 안내면 충분히 양해 구하는것이 어렵지 않을 것 같아요. 어려우신 줄 알지만 이렇게 부탁드리니 한번 고려해 주시기를 부탁드립니다. 건승하십시오. 감사합니다.</t>
+  </si>
+  <si>
+    <t>노선 담당 업체 변경 후 목동선 WiFi는 어떻게 되는 것인가요? 수고가 많으신데..이런 내용으로 계속 고민 하다 올립니다. 목동 출 퇴근 노선이 예전 동남에서 경향으로 변경이 되었습니다. 그런데..예전에 WiFi를 설치하였던 동남 고속은 서울 인근 지역에서는 WiFi를 사용할 수 있었습니다. 그런데 경향 고속으로 바뀐 뒤 기기 자체도 없는 것 같습니다. 비용이 들어 갈 수 있는 상황이라 좀 그렇지만 가능하다면 WiFi 사용할 수 있도록 기기 설치된 노선버스 사용하게 부탁드립니다. 참고로 목동선 장거리 노선입니다. 다시금 부탁 드립니다.</t>
+  </si>
+  <si>
+    <t>버스노선 검색 사이트에서 로그인이 안됩니다. 버스노선 검색 사이트에서 로그인하려하니.. 로그인이 안되고..비밀번호 찾기도 안되는데요.. 최초 입력이라 사번으로 하였는데도 안됩니다.</t>
   </si>
   <si>
     <t>쾌적한 수영장을 위해 애써주신 권오영 대리님께 진심으로 감사드립니다. 수영장에 수건을 비치해 주셔서 정말 감사합니다. 수영장 처음 사용하시는 분 또는 수건을 깜빡 잊은 분들이 난감해 하는 걸 종종 봤었는데 이제 더 이상 그럴 일이 없겠습니다. 저의 경우도 집사람에게 매일 꺼내 놓는 수건이 미안했었는데 이젠 한결 맘이 가볍습니다. 수영장의 수건은 저에게 그 무엇보다 혁신적인 변화입니다. 진심으로 감사드립니다. SK하이스텍의 무궁한 발전을 기원합니다.</t>
   </si>
   <si>
+    <t>2014년 1월2일 방문객 주차장 개방불가관련 2014년 1월2일 방문객 주차장 개방불가관련 차량을 가지고 출근하였다가 지각을 할 뻔 했습니다. 휴일에는 주차장을 개방하는 것으로 알고 있는데 경비분께서 주차요금을 받으라는 지침을 받았다고 하여 여러모로 불편하였습니다. 이런일이 다시는 발생되지 않도록 주의해 주세요.</t>
+  </si>
+  <si>
+    <t>한빛관광 8441호 기사님 감사합니다 19일 18시퇴근 한빛관광 8441호 기사님 감사합니다 청주에서 16시30분 셔틀을 타고 이천으로 오는도중 폭설로 인하여 차량이 정체되어 18시 퇴근차량을 이용할 수 없겠구나 생각했지만 정확히 18시 2분에 정문에 도착하고 보니 목적지로 가는 퇴근버스가 정문에 신호대기중이었는데 안되는줄 알면서도 혹시나 태워줄 수 있는가 확인하니 기사님께서 감사하게도 태워줘서 19시30분까지 기다리지 않고도 집에 갈 수 있었습니다. 그리고 내릴때에도 인사도 잘하시고.... 암튼 이자리를 빌어서 다시한번 감사드립니다</t>
+  </si>
+  <si>
+    <t>구리-태릉, 구리-노원 노선 변경 건의 드립니다 안녕하세요 태릉 노선 관련하여 기존에 문의 드렸던 이용주 라고 합니다. 18시 구리-노원으로 이어지는 노선에 대해, 월, 화 목: 태릉-노원 / 수, 금: 하계-노원 으로 변경 건의 드립니다. 사유(아래 3가지 노선을 1달간 직접 탑승하며 모니터링 한 결과) 1. 구리-노원 / 구리-태릉 노선의 경우 태릉에서 하차하는 승객이 거의 없음 아얘 없거나 3명 미만 2. 하계-노원 노선의 경우 빈 자리가 많음(10자리 이상) 구리-태릉 / 구리-노원 노선의 경우에는 망우역을 지나면 탑승객이 거의 없습니다. 간간히 태릉이나 노원 가는 승객이 1~2명 남아있는 정도이며 태릉, 노원까지 가는 승객이 탑승해 있는 경우 종종 기사님들이 짜증을 내시기도 합니다.(중간에 운행을 마치면 되는데 1~2명때문에 끝까지 가야하므로) 실 탑승객으로 1달 넘게 모니터링 한 결과이니 적극적으로 참고 부탁드리며 기존 방안으로의 노선 변경을 강하게 건의드립니다. (적어도 구리-노원 노선은 폐지 하는게 옳다고 봅니다. 구리 지나가면 탑승객이 거의 없습니다.) 답변 부탁 드립니다. 감사합니다.</t>
+  </si>
+  <si>
+    <t>해피버스 로그인 관련 질문 로그인 비밀번호를 찾을수없어 문의드립니다. E-mail or 핸드폰번호가 상이하여 그렇다고하셨는데 저에게도 sns로 비밀번호를 알려주시면감사하겠습니다</t>
+  </si>
+  <si>
+    <t>청주 1공장 식당 의자 파손 교체 필요합니다 안녕하세요..금일 12월12일 A조 근무자로 6시이후 출근전에 식당 의자에 앉으려고 했는데 입구에서 왼쪽 끝쪽 라인에 테이블이구요 나란히 있는 의자 3개가 하나는 등받이가 빠져버리고 하나는 등받이 한쪽이 부러지고 하나는 높이 이상 이었습니다 파손의자라서 따로 분리해 두었을거라고는 생각하지만 사원들이 발견하기전에 미리 폐기 했어야 한다고 생각합니다.. 빠른 후속 조치 바랍니다</t>
+  </si>
+  <si>
+    <t>2자리만있는여성우대좌석 남성분들이.. 버스한대에 운전석뒤에 2자리만있는 여성 및 임산부우대좌석에 남성분들이 앉아계시니 참곤란합니다. 앉아계시는데 양보해달라고하기도 어렵고.. 거기 좌석에 보면 주주황색으로 표시도 해놓고 프린트물로도 홍보한걸로아는데...남성분들 2자리밖에 없는 여성 및 임산부우대좌석 좀 양보부탁드립니다.</t>
+  </si>
+  <si>
+    <t>해피버스 로그인 관련 질문 안녕하세요. 해피버스 로그인 시 비밀번호 오류가 나는데요. [비밀번호찾기]를 통해 찾아보려고 해도 없는 정보라고 나옵니다. 또한 모바일 버전에서는 아예 로그인 버튼이 안눌리는데 (Google market에서 보면 특정 스마트폰에 대해서 안되는것으로 보이는것 같음) 해결 지원 부탁드립니다.</t>
+  </si>
+  <si>
+    <t>비공개글 비밀번호 비공개글을 올렸는데 비밀번호를 잊어버렸습니다. 비밀번호를 초기화 해주실수있는지요?</t>
+  </si>
+  <si>
     <t>남자 수영장 화장실 건의사항 수영장 관리에 수고많으십니다. 9월 공사 이후 쾌적한 샤워실 사용에 굉장히 만족하며, 관리에 대한 노고에 감사드립니다. 한가지 건의드릴 사항으로는 남자 화장실 내 슬리퍼가 없습니다. 남자 신체 특성상 바닥이 많이 지져분해 지는데 맨발로 디딛기가 무섭습니다. 또 한가지 더 말씀드리자면 현재 화장실 벽체가 불투명 유리라서 안에 앉아 있기가 무척이나 민망합니다. 불투명이라 해도 노크라는 신호가 있으니 굳이 내부 인원을 육안으로 확인하지 않아도 될듯 합니다. 이 두가지만 개선되면 더 할 나위 없이 좋은 샤워시설이 될듯 합니다. 감사합니다.</t>
   </si>
   <si>
     <t>아침 대방역 출발 기사님 칭찬드립니다. 몇개월이 지났는지 정확히 기억나지는 않지만, 아침 대방역 출발하는 버스가 경향고속으로 바뀌었습니다. 더불어 기사님도 바뀌게 되었는데,,, 처음에도 느낀거지만, 참 친절하신것 같네요... 몇개월이 지난 지금도 아침마다 친절히 인사해주셔서, 더불어 같이 깍듯이 인사 하려고 노력하고 있습니다. 작은 일이지만 하루의 시작을 미소로 시작할 수 있게 해주시는것 같습니다. 어떻게든 감사인사드리고 싶었는데, 여기에나마 칭찬드리고 싶어 글남깁니다. 감사합니다.</t>
   </si>
   <si>
-    <t>청주 통근버스 기사님을 칭찬합니다. 안녕하세요, 하이닉스에 재직중인 사원입니다. 청운 버스 기사님을 칭찬하고 싶어서요 ^^ 요즘 아침에 버스를 타게되면... 잠이 들깨서인지 몰라도... 버스를 타게되면 싸늘한 기분이 들때가 있지만...청주 버스 기사님들은 아침에 일찍 출근하셔서 버스를 따뜻하게 만들어놓고.. 일일이 기분좋게 인사를 해주셔서 출근길이 너무 좋습니다. 그중에 제가 청주에서 5년째 출근중인데.. 몇개의 노선을 타봤습니다...집값때문에 이사문제로요 ^^ 최근에 지충규!! 기사님께서 너무 기분좋게 맞아주셔서 회사에서도 활력있게 생활할수 있었습니다. 저녁에 술도 좀 먹구 탈라구하면..술깨라구..물도 직접 주시고.. 서비스 정신이 정말 좋으신분 입니다!!!</t>
+    <t>해피버스 비밀번호 초기화 부탁드립니다. 안녕하세요.. 해피버스 비밀번호 초기화좀 부탁드립니다. 비번을 잊은건지, 자꾸 아니라고 나옵니다</t>
+  </si>
+  <si>
+    <t>버스 온도 관련 안녕하세요. 12/03 오후 6시 퇴근 버스를 이용한 사람입니다. 불만 사항이 있어 몇가지 글을 작성 합니다. 1. 버스 차량 온도 : 버스 차량 온도의 경우 말이 많은건 당연하다고 생각합니다. 하지만 어제 같은경우 날이 많이 푸근 한 상황 이였고, 늘 답글 달아 주시는 담당자 분께서 하시는 뒷자리가 상대적으로 취워 또는 개인 편차가 있어 라고 표현하기에는 많이 과도하게 더웠 습니다. 대부분의 사람들이 잠바를 벗고 땀을 닦는 상황이였으며, 내릴때 보니 기사님은 창문을 열고 운전을 하셨습니다. 과도한 난방 자제 부탁 드립니다. 2. 내비 소리 : 길안내 및 과속 카메라를 위해 네비 이용은 당연하다고 생각 합니다. 하지만, 소리가 너무 큽니다. 앞자리에 소리가 너무 커 뒷자리로 자리를 옮겼음에도, 너무 크게 또렷히 잘 들립니다. 다른 버스 대비 유독 크게 해놓고 다니시는 것 같습니다. 소리 줄여 주세요. 3. 차량 실내 소등 : 해가 짧아 지면서 퇴근시에도 많이 어두워 졌습니다. 조금이라도 눈을 붙이려면 차량 실내 소등 부탁 드립니다. 어제는 켜놓고 쭉 달리셨습니다. 통근 버스 담당자님, 늘 불만 사항들을 읽으시고 개선해 주시느라 고생이 많으 시겠지만, 조금만 더 세심하게 고객의 소리에 귀 기울여 주세요. 부탁 드립니다.</t>
+  </si>
+  <si>
+    <t>하이스텍 로그인이 안됨 현대엘리베이터 입사 3주차 사원입니다. 사번으로 하이스텍 로그인이 안됩니다. 5004730 이 사번입니다. 확인 바랍니다.</t>
+  </si>
+  <si>
+    <t>통근버스노선 확인을 하려고 하는데 ... 통근버스 노선 확인을 위해 사이트 접속(하이버스?)을 하는데 사번/비번을 묻는데 사용자 등록이 안되었다고 나옵니다. 누구한테 연락해서 해결할지 몰라서 여기에 남깁니다.</t>
+  </si>
+  <si>
+    <t>아이폰5, 아이폰5s 용 보안 스티커 제작 부탁드립니다. 아이폰 4에서 아이폰5, 아이폰5s 의 전면 카메라 위치가 변경되면서 기존 보안스티커는 너무 커서 위 쪽으로 붙이거나 짤라서 붙이면 뒷주머니나 다른 주머니에서 뺄 때 스티커가 떨어질 위험이 매우 큽니다. 조금 더 작으 스티커도 제작해주시기 바랍니다.</t>
+  </si>
+  <si>
+    <t>해피버스 로그인 안녕하세요. 사번 입력해도 없는 ID로 나옵니다. 처리 부탁드립니다.</t>
+  </si>
+  <si>
+    <t>고담주차장 a조 셔틀 미운행건 이번달도 기대를 져버리지 않았네요...? 11/3일 또 a조 출근 셔틀차가 오지 않았습니다. 불만글을 적을려는데 밑에 또 한분이 오전 셔틀이 안왔다고 성토하셨네요. 담당자 연락도 안되는데 연락처는 왜 적어 놓았습니까? sk하이닉스는 스마트다 독하게다 캠패인을 계속 하는데 sk하이스텍은 안 따라옵니까? 그냥 느슨하게 가는겁니까? 통근버스 외부업체를 바꾸던지 패널티를 주던지 대책 공식적으로 요구합니다.</t>
+  </si>
+  <si>
+    <t>11월 3일 일요일 오전 고담셔틀버스 미운행에 관한 건. 금일 11월 3일 일요일 오전 고담주차장에서 8시10분 막차 셔틀버스를 타려고 기다리고 있었으나 8시 20분이 되도록 버스는 나타나지 않았고 보안요원이 담당자인 김건호 대리/정해용 사원에게 수차례 연락을 취했으나 연락이 되지 않았습니다. 보안요원 말로는 이런일이 처음이 아니라더군요 예전에도 이런일이 있어서 보안차량으로 사람들 출근시켜 준 적도 있고 오늘도 5분간격으로 버스가 오지 않고 중간 중간 배차를 빼먹었다고 하더군요 지금 장난하십니까? 그 자리에 저 말고도 버스를 타려던 사람이 6명이나 더 있었습니다. 저는 그나마 사무실이 M10C여서 열심히 뛰어서 겨우 출근을 했지만 사무실이 먼 사람이 있었을텐데 그분은 무조건 지각했을겁니다. 주말에 출근하는 사람들의 편의를 더 봐주진 못할망정 사람 별로 없는 주말이니까 이렇게 띄엄띄엄 몰래 배차 빼먹고 담당자라는 사람들은 연락도 안되고 이럴거면 왜 주말에 5분간격으로 배차 해놓는거죠? 아예 10분~20분 간격으로 해놓으시죠? 이번이 처음이면 그냥 넘어가려고 했으나 보안요원 말대로 이런 일이 수차례 발생했다는건 앞으로도 계속 발생될게 뻔하고, 책임감 없는 배차담당자들이 많을 것 같아 이렇게 글을 올립니다. 정확히 확인 하시고 해당사항 개선은 물론 상습 배차 미운행자들에 대한 징계 바랍니다. 조치사항 정확하게 답변되지 않을 시에 계속해서 문제제기 하겠습니다.</t>
   </si>
   <si>
     <t>청주 출퇴근 청운관광 버스기사님들께 감사드립니다. 어제 6시 청주행 퇴근 버스에서 지갑을 놓고 내려 많이 걱정했었는데, 아침에 무사히 지갑을 찾을수가 있었습니다. 지갑을 잘 보관하여 돌려주신 청주 출퇴근 버스 기사님 모두에게 감사한 마음 전합니다.</t>
   </si>
   <si>
+    <t>물리치료실 운영방안에 대해서 문의드립니다. -. 문제점 금일 11시경 전화하여 16시30분 예약 문의드렸습니다. 예약이 꽉찼다고 예약해주지 않았습니다. 물리치료 받을 방법이 없냐고 물었지만 진료받은후 2주가 되지 않아 재진료를 통한 물리치료를 받을수 없으며 예약으로만 물리치를 받을수 있다 하였습니다. -. 검색 의사 진료후 물리치료 진행하게 되고, 물리치료 진행후에 예약을 하고 난후에 다시 가야하더라구요. -. 질문 1. 물리치료실의 병실은 몇개인가요? 2. 예약인원의 수는 최대 몇명인가요? 3. 예약은 치료받기전 얼마전에 해야하나요? 4. 개인적인 일이 생길지도 모르기때문에 금일 예약하려 하였지만 실패하였습니다. 미리 예약잡아놓고 가지않아도 되나요? 된다면 미리 예약부터 무조건 잡아놓겠습니다. 5. 제가 생각하기에는 10개의 병실이 있다면 6개는 예약 4개는 초진에 대한 물리치료 라고 생각됩니다 맞나요? 6. 맞다면 융통성있게 진행해도 되지 않나요? 7. 예약이 꽉차서 구성원이 이용을 못한다라면 확장해야하는것이 맞지 않나요? 8. 사용원에 대한 체크는 하지만 월 사용인원을 체크하나요? 9. 물리치료실 확장에 대해서 어떻게 생각하시나요?</t>
+  </si>
+  <si>
+    <t>통근버스 로그인이 안됩니다. 사번으로 비밀번호 요청해도,, 등록된 id가 아니라 하네요. 처리 부탁합니다.</t>
+  </si>
+  <si>
+    <t>이천 사내셔틀 관련 (이천) 금일 고담주차장에서 출발하는 오전 5시25분 셔틀이 오지 않았습니다. 10분 이상 기다리다 보안요원께 문의 시 기사님과 연락이 되지 않는다고 걸어 가라고 하더군요! 오늘이 처음은 아닌 것 같던데(저는 처음 경험했지만 매일 동일 시간에 타는 몇 몇분이 전에도 발생한 적이 있다고 함) 보완대책이 시급해 보입니다. 인적관리가 제대로 되지 않는다면 시스템이라도 보완해 주세요! 이런경우가 발생되면 셔틀을 기다리는 많은 구성원들이 피해를 보게됩니다.</t>
+  </si>
+  <si>
+    <t>로그인 관련건 제목 그대로 스카이해피버스 로그인이 안됩니다. 로그인시도시에 아래와 같은 메시지 창 뜹니다. 등록된 아이디가 아니거나 아이디와 비밀번호가 일치하지 않습니다. 아이디와 비밀번호를 확인하세요. 비밀번호를 틀렸나 싶어 비밀번호 찾기를 시도하니 아래와 같은 메시지 뜹니다. 요청하신 정보에 대한 비밀번호를 찾지 못하였습니다. 비밀 번호를 새로 받거나 하는 방법으로 이용할 수 있도록 조치 부탁드립니다. 감사합니다.</t>
+  </si>
+  <si>
+    <t>로그인 방법 안녕하세요 통근버스 노선을 보려고 하는데 로그인이 안되네여 처음 로그인하는데 사번도 안되고 비번 찾기를 해도 안되는 걸로 나오고.. 해결 부탁 드립니다.</t>
+  </si>
+  <si>
+    <t>스카이해피버스 로그인이 안됩니다. 제목 그대로 스카이해피버스 로그인이 안됩니다. 로그인시도시에 아래와 같은 메시지 창 뜹니다. 등록된 아이디가 아니거나 아이디와 비밀번호가 일치하지 않습니다. 아이디와 비밀번호를 확인하세요. 비밀번호를 틀렸나 싶어 비밀번호 찾기를 시도하니 아래와 같은 메시지 뜹니다. 요청하신 정보에 대한 비밀번호를 찾지 못하였습니다. 비밀 번호를 새로 받거나 하는 방법으로 이용할 수 있도록 조치 부탁드립니다. 감사합니다.</t>
+  </si>
+  <si>
+    <t>셔틀버스 에어컨 냄새가 심합니다. 2013년 10월 1일 송정동 -&gt; 하이닉스행 B조 셔틀버스 에어컨 냄새가 상당히 쾌쾌한게 곰팡이 냄새가 매우 심했습니다. 이로인해 멀미가 유발되었으며 몸적.심적으로 매우 괴로웠습니다. 차량의 공조시스템 청소가 필요해 보입니다.</t>
+  </si>
+  <si>
+    <t>통근버스 좌석 삐걱거림 수리요청 안녕하세요 10워 1일 화요일 창동선 출근차량(현대관광)의 의자 수리 요청드립니다. 버스 오른쪽 중간쯤 좌석들에서 삐걱거림 소리가 너무 많이 납니다. 삐걱거림이 하이톤이라 듣기에 매우 거북합니다. 예전부터 가끔 창동선에 배차되고있는 차량인데 수리가 안되고 있습니다. 업체에 시정요청 부탁드립니다. 갑사합니다.</t>
+  </si>
+  <si>
     <t>수영장 여 샤워실 수영장내 관람석(2층)에서 다 보입니다. 제목과 같이 2층 관람석에서 샤워실 내부가 훤히 보입니다. 문을 전체 가려주시기 바랍니다. 또한 선풍기 설치 및 빗 등 비치 부탁드립니다. 그리고 이번 강습부터는 라카 지원 안해주시나요?</t>
   </si>
   <si>
+    <t>로그인 할수 없습니다. http://www.skyhappybus.com/inc/login.asp IT지원실 상시 근무자 입니다. 비밀번호 찾기 에서 사번 은 무엇을 입력 해야하는지? 하이닉스에서 지급 받은 사번 i0100179 입력후에 확인 해도 요청하신 정보에 대한 비밀번호를 찾지 못하였습니다. 메세지만 출력 됩니다..</t>
+  </si>
+  <si>
+    <t>스카이해피버스 비밀번호 초기화 해주세요 스카이해피버스 비밀번호 초기화 해주세요</t>
+  </si>
+  <si>
+    <t>통근버스 관리시스템 비밀번호 초기화 로그인 안됩니다. 비밀번호 초기화 해주세요</t>
+  </si>
+  <si>
+    <t>스카이 통근버스 ID/비밀번호 문의 고객의 소리는 최고의 서비스를 제공하기 위하여 고객님의 의견을 수렴할 수 있는 열린공간입니다. 음해성 및 사실과 다른 왜곡된 글은 당사 이미지 실추 등 업무에 영향을 줄 수 있으므로 자제해 주시기 바랍니다. 안녕하세요. 통근버스 id와 비밀번호 초기화부탁드립니다. 비밀번호 찾기해도 찾을수없다고 나오네요.</t>
+  </si>
+  <si>
+    <t>통근버스 기사님들께 출퇴근버스운행은 어떤건가요? 개인 차량 운행도 아니고 다 같이 이용하는 버스 아닌가요? 요새 대중교통은 물론 사내셔틀도 기본 매너등을 지킬 수 있도록 홍보가 꾸준히 되고 있는데 정작 기사님들은 기본 매너를 안지키시는거 같습니다. 차량 운전직전에 차앞에서 담배를 피시기는걸 몇번 목격했습니다. 그리고 오늘은 퇴근버스안에서 차가 밀려 지루하셨는진 모르겠지만 라디오를 전체 스피커로 키고 가시더군요. 이어폰을 끼고있어도 새어 들어오는.. 출퇴근시 이어폰을 끼고 노래를 들어도 옆사람에게 피해줄까싶어 볼륨1로 해놓고 듣습니다. 그리고 그렇게 홍보되고 다들 지키는걸로 알고 있습니다. 가끔 비매너로 큰 소리로 도착시까지 통화하시는분들도 계십니다만 기사님들도 운전하시면서 큰 소리로 통화 자주 하시더군요. 출퇴근버스에서 많은걸 바라는건가요? 기본적으로 홍보되는 내용들에 대해 지켜주셨으면 합니다.</t>
+  </si>
+  <si>
+    <t>스카이해피버스 비밀번호 초기화 요청드립니다. 스카이해피버스 비밀번호 초기화 요청드립니다. 사번/사번으로 입력하니 비번이 안맞다고 하네요. 혹시 청주 통근버스 정보처럼 엑셀파일로 정리해서 올려주실 생각은 없으신가요?</t>
+  </si>
+  <si>
+    <t>밑에 글...제가 송정동 셔틀을 증포동으로 잘못썻네요. 바로 아래 글 입니다. --------------------------------------------- 저는 하이닉스 다니는 9개월된 임산부입니다. 보건소 사거리 근처에 갈일이 있어 보건소사거리쪽 삼성서비스센터에서 내리려고 증포동 셔틀을 탔습니다. 타기전 혹시나 빨리가는 버스가있나싶어 15분 이천시내 기사님들께 보건소 사거리 가는지쪽 가는지 물어봤는데 15분 시내셔틀 2분이 친절히 서로 대화나누시며 증포동이나 모전리 차를 타라고 친절히 알려주신점 감사드립니다~ 문의후 길도 잘 모르고 임산부라 증포동 셔틀 맨 앞자리를 탔는데, 기사님은 사내에서 앞차가 조금 늦게 간다고 저 새끼 왜이렇게 늦게가~ 라는 말등을 하시며..난폭 운전까지는 아니지만 운전 하시는 내내 차선을 자주 바꿔가며 거친 운전을 하셨습니다. 제가 길을 몰라 이현고등학교에서 사람들이 내릴때 기사님 여기가 보건소 사거리에요? 라고 물어보니, 버스를 잘 못 탔다고 하셨습니다. 그래서 전 그래요?하며 내렸고 두리번 거렸더니 기사님이 손가락으로 한쪽 방향을 가르치시고는 가셨습니다. 내린후 처음보는곳이여서 제가 내린 이현고등학교를 치고 네이버로 보건소사거리 길찾기를 했더니 제가 아얘 잘못탄게 아니더군요.. 여기서 화가나는건 제가 무거운 몸을 이끌고 비까지 오는 날씨속에서 비를 맞으며 꽤 한참을 걸으니, 제가 내리려고 했던 기사님이 알려주신방향(셔틀이 지나간 방향) 삼성서비스센타가 보이는겁니다. 제가 탔던 셔틀은 삼성서비스센터로 지나가는게 맞았던거죠... 증포동 셔틀은 삼성서스비센터에 서는데 .. 거기가 보건소 사거리는 아니여도 이현 고등학교보다는 훨씬 가깝고 셔틀이 서는 곳인데.. 왜 잘 못탔다고 하는 소리를 듣고 제가 내리는걸 바라보셨을까요?? 제가 몸이 무거워 다시 탈 시간이 지나가는게 싫어서 그 기사님은 손가락으로 가르치시고는 그냥 지나가신 걸까요?? 아님 한번 더 가서 다시 내리라고 설명해 주시기가 귀찮으셔서 그냥가신걸까요? 멀리서 내린 만삭인 제가 한참을 걸은후 셔틀이 지나간 자리에 있는 삼성서비스센터를 보면서.. 비를 맞으며 배불러서 걷는 제가 너무 처량하기도하고, 멀리 떨어진 정거장에서 내린걸 알면서 그냥 간 기사님을 생각하며 그 기사님의 부인은 아기 안낳으셨나,딸은 없으신가? 이런저런 생각을 많이하며 ..너무 기분나쁜 하루를 보냈습니다. 다른 셔틀 기사님들께는 매번 타고 내릴때마다 감사인사하며 잘 타고 다녔는데,, 어제 A조퇴근 증포동 셔틀 기사님은 왜 잘못탔다하시며 그냥 가셨는지 이해가 되지 않습니다.. 밖에 시내버스 기사님들도 어제 증포동 셔틀 기사님 보다는 배려해주시네요~ 증포동 기사님 빨리 돌려고만 하지 마시고, 특히나 임산부인데.. 저같은 일이 반복되지 않았음해서 글남깁니다. 조금만 배려 해주셨음 하네요.</t>
+  </si>
+  <si>
+    <t>어제 9월6일 A조 퇴근버스 2시 30분 증포동 버스기사님. 저는 하이닉스 다니는 9개월된 임산부입니다. 보건소 사거리 근처에 갈일이 있어 보건소사거리쪽 삼성서비스센터에서 내리려고 증포동 셔틀을 탔습니다. 타기전 혹시나 빨리가는 버스가있나싶어 15분 이천시내 기사님들께 보건소 사거리 가는지쪽 가는지 물어봤는데 15분 시내셔틀 2분이 친절히 서로 대화나누시며 증포동이나 모전리 차를 타라고 친절히 알려주신점 감사드립니다~ 문의후 길도 잘 모르고 임산부라 증포동 셔틀 맨 앞자리를 탔는데, 기사님은 사내에서 앞차가 조금 늦게 간다고 저 새끼 왜이렇게 늦게가~ 라는 말등을 하시며..난폭 운전까지는 아니지만 운전 하시는 내내 차선을 자주 바꿔가며 거친 운전을 하셨습니다. 제가 길을 몰라 이현고등학교에서 사람들이 내릴때 기사님 여기가 보건소 사거리에요? 라고 물어보니, 버스를 잘 못 탔다고 하셨습니다. 그래서 전 그래요?하며 내렸고 두리번 거렸더니 기사님이 손가락으로 한쪽 방향을 가르치시고는 가셨습니다. 내린후 처음보는곳이여서 제가 내린 이현고등학교를 치고 네이버로 보건소사거리 길찾기를 했더니 제가 아얘 잘못탄게 아니더군요.. 여기서 화가나는건 제가 무거운 몸을 이끌고 비까지 오는 날씨속에서 비를 맞으며 꽤 한참을 걸으니, 제가 내리려고 했던 기사님이 알려주신방향(셔틀이 지나간 방향) 삼성서비스센타가 보이는겁니다. 제가 탔던 셔틀은 삼성서비스센터로 지나가는게 맞았던거죠... 증포동 셔틀은 삼성서스비센터에 서는데 .. 거기가 보건소 사거리는 아니여도 이현 고등학교보다는 훨씬 가깝고 셔틀이 서는 곳인데.. 왜 잘 못탔다고 하는 소리를 듣고 제가 내리는걸 바라보셨을까요?? 제가 몸이 무거워 다시 탈 시간이 지나가는게 싫어서 그 기사님은 손가락으로 가르치시고는 그냥 지나가신 걸까요?? 아님 한번 더 가서 다시 내리라고 설명해 주시기가 귀찮으셔서 그냥가신걸까요? 멀리서 내린 만삭인 제가 한참을 걸은후 셔틀이 지나간 자리에 있는 삼성서비스센터를 보면서.. 비를 맞으며 배불러서 걷는 제가 너무 처량하기도하고, 멀리 떨어진 정거장에서 내린걸 알면서 그냥 간 기사님을 생각하며 그 기사님의 부인은 아기 안낳으셨나,딸은 없으신가? 이런저런 생각을 많이하며 ..너무 기분나쁜 하루를 보냈습니다. 다른 셔틀 기사님들께는 매번 타고 내릴때마다 감사인사하며 잘 타고 다녔는데,, 어제 A조퇴근 증포동 셔틀 기사님은 왜 잘못탔다하시며 그냥 가셨는지 이해가 되지 않습니다.. 밖에 시내버스 기사님들도 어제 증포동 셔틀 기사님 보다는 배려해주시네요~ 증포동 기사님 빨리 돌려고만 하지 마시고, 특히나 임산부인데.. 저같은 일이 반복되지 않았음해서 글남깁니다. 조금만 배려 해주셨음 하네요.</t>
+  </si>
+  <si>
     <t>SKT 사내 매장(사원서비스 센터) 주무회사/부서가 하이스텍인지는 잘 모르겠지만, SKT 사내 매장(사원서비스 센터)이 변경되어서 신규 핸드폰 판매만 한다고 합니다. 예전에는 가입/해지/명의변경 등등의 폭넓은 업무를 했었는데, 왜 최근에 변경된 매장은 신규로 구매하는 핸드폰만 취급하나요 ? 대부분의 SK계열사 내부에는 SK Telecom 매장이 있고 가입/해지/명의변경 등 종합업무를 하는데... 예전처럼 판매랑 관리업무를 같이 했으면 좋겠습니다. 혹시, 담당회사/부서가 아니라면 알려주세요...</t>
   </si>
   <si>
+    <t>버스를 기다리는 동안....ㅡㅡ 8/23일날 8시10분차를 기다리는 동안 버스가 너무 안와 가는찰나에 버스기사 아저씨가 와서 줄 서있는 사람 수만 세어보고 갔습니다...... 아무런 얘기도 없이 휙 가버리고 8시 25분경에 다시 왔습니다..... 버스가 너무 늦게와 짜증도 많이나고 날씨도 덥고 짐도 많았는데 정말 열받았습니다.. 다시는 이런일이 없었으면 좋겠습니다....</t>
+  </si>
+  <si>
+    <t>통근버스 Wifi 서비스 제공 되고 있나요?... SKhynix 통근버스 보면 wifi 공유기가 부착 되어 있기는 한데.. 이요하려구 AP 검색하면 안되는 것이 다반사고.. 된다 하더라도 웹 서핑하려하면 통신이 끊어 지는 것이 다반사고.. 확인 후 조치 부탁 드립니다...</t>
+  </si>
+  <si>
+    <t>안전벨트 고장 8월21일 구리/태능 6시 퇴근버스(차량번호 5317) 앞에서 4번째 왼쪽 창가 자리에 안전벨트가 없습니다.(끈만 있습니다.) 조치 부탁드립니다.</t>
+  </si>
+  <si>
     <t>옥계좋아요 입사후 처음 옥계 해수욕장을 이용해 보았습니다. 야외에서 지내는 거라서 불편하지 않을까 싶었는데, 회사에서 지원해준 물품으로 편안히 텐트에서 숙박할 수 있었습니다. Staff분들께서 그때그때 대응해 주시는 행동과 샤워실 및 취사장 이용등, 모든 것들이 사용자에 대한 배려가 잘 되어있었습니다. 특히 권오영사원께서 저희 아이에게 필요한 온수를 직접 가져다 주신일은 진정한 사원복지의 모습이지 않을까 싶습니다. 잘 놀고 왔습니다. 고맙습니다.</t>
   </si>
   <si>
@@ -628,55 +1282,166 @@
     <t>옥계하계휴양소 정말 즐거웠었습니다. 말로만 듣던 옥계...설명이 필요 없을 정도로 완벽했습니다. 버스를 타고 무거운 물건을 아이스박스 등 옮겨주시고, 스텝들의 친절한 안내와 설명 그리고 저희 텐트에 빨래줄도 설치해주셨습니다. 그리고, 해변가요제는 나이트를 연상시키는 것처럼 정말로 흥겹고, 즐거웠습니다. 그리고 너무나 아름다운 풍등과 불꽃축제는 감동 그자체였습니다. 이번년도 휴가는 제생에 최고로 기억이 남은 휴가였던거 같습니다. 스텝분들 다시한번 감사드리며, 스탭중에 권오영대리의 따뜻한 배려는 인상이 깊었습니다. 다시한번 감사드립니다.</t>
   </si>
   <si>
+    <t>채식 메뉴 요청드립니다. 안녕하세요? 늘 다양한 식단을 제공해 주시고자 노력해주셔서 감사합니다. 제안 드리고자 하는 것은 제목에서 말씀 드린 것 처럼 채식 메뉴입니다. 건강에 대한 관심이 높아져 채식을 하는 사람들도 많아지고 있는데 회사 식당은 채식인을 위한 메뉴는 전혀 없어서 채식인들은 식사를 하기가 어렵고, 채식을 생각하고 있거나 건강을 위해 건강식을 생각하는 사람도 어쩔 수 없이 일반식을 먹는 경우가 많습니다. 채식 메뉴가 생기면 현재 채식을 하시는 사람들 뿐만 아니라 채식을 하시지 않던 분들도 건강을 위해 먹어 볼까 하는 마음에 좋은 습관이 생겨 궁극적으로 많은 사람들이 지금보다 더 건강하게 본업에 매진 할 수 있을 거라고 생각합니다. 적극적으로 고려 부탁 드리겠습니다. 감사합니다.</t>
+  </si>
+  <si>
+    <t>스카이해피버스 로그인관련 사번/사번으로 로그인 해보았지만 로그인 실패입니다.. 확인 부탁드립니다</t>
+  </si>
+  <si>
+    <t>통근버스 어플 Happy Bus 로그인 관련 안녕하세요 통근버스 어플을 잘 사용하고 있는 SK하이닉스 직원입니다. 자동로그인 기능을 사용하여 따로 아이디나 비밀번호 입력없이 잘 사용하고 있었는데요, 얼마 전 어플을 키자 로그아웃이 되어있어 아이디와 비밀번호가 기억나지 않아 사용하지 못하고 있습니다. 아이디는 사번이 아니었던가요? 아이디와 비밀번호를 다시 찾는 방법에 대해 문의드립니다.. 수고하세요~</t>
+  </si>
+  <si>
+    <t>스카이해피버스 로긴이 안되요~ 스카이해피버스 로긴이 안되요~ 비번 찾는것도 안되고.. 확인해 주세요. 사번 : B20318 이름 : 이승현</t>
+  </si>
+  <si>
+    <t>주말 구리-노원선 수유까지 안 가나요? 이전에도 그런일이 많았는데, 이번에도 기사님이 노원에서 내리라고 하네요. 원래 주말에는 구리-노원선이 수유까지 안 가나요? 운행일보까지 보여주면서 노원까지라고 하더군요. 전에도 이런 글을 올려서 한동안을 수유에서 잘 내려 주셨는데, 또 시간이 지나니 이런 일이 발생을 하네요 원래 수유까지 안 가는 건가요?</t>
+  </si>
+  <si>
     <t>박수진 영양사님을 칭찬합니다. 매번 볼때마다 항상 밝은 미소로 고객에 대응하시는 박수진 영양사님을 칭찬합니다.</t>
   </si>
   <si>
+    <t>통근버스에서 가방을 옆좌석에 놓아 타 구성원이 착석을 못하게 함 통근버스에서 가방을 옆좌석에 놓아 타 구성원이 착석을 못하게 하는 구성원이 있습니다. 본인만 편하면 된다는 이기주의라고 생각합니다. 다 타고 옆좌석이 비었을때 가방을 놓아야지 구성원이 타고 있는중에 가방을 놓아 두는 행위는 않지 말라고 얘기하는 것이나 다름없습니다. 본인이 그런 경우를 당했다면 어떻게 생각할까요? 생각이 있는지 없는지 이를 개선하기 위한 의식개선 행동개선 홍보 활동이 필요하다고 생각합니다. 출퇴근시 이런 사례를 예방하기 위한 홍보 영상을 제작하여 교육하였으면 합니다. 이것이 구성원이 상호 행복해지기 위한 발걸음 아닐까요? 감사합니다.</t>
+  </si>
+  <si>
     <t>칭찬 합니다. 복지식당에 너무 친철한 분이 계셔서 글 올립니다. 성함은 최 동명씨입니다. 배식을 하실때 항상 밝은미소로 인하여 즐거움을 선사하여 주시고, 반찬을 넉넉히 주셔서 너무 감사드립니다. 앞으로도 항상 지금처럼 밝은미소로 친절히 대해주세요 ^.^</t>
   </si>
   <si>
     <t>잠실선 박형규기사님 감사합니다. ^^ 안녕하세요. 곧 퇴직을 앞두고있는.. 잠실에서 통근버스를 이용하는 구성원입니다. 다름이 아니라 꼭 감사드리고싶은 기사님이 계셔서 글을 남깁니다. 바로 잠실선을 오래 운행해주고 계신 박형규 기사님이신데요, 정말 항상! 하루도 빠지지 않고 친절하시고, 쾌적하게 운행해주십니다. 늘 감사인사 전하고싶었는데, 이제서야 글을 남기게 되었네요.. 요즘같이 덥거나 습하거나, 혹은 한겨울과 같이 많이 추운날.. 버스 이용할때 늘 내부온도에 걱정을 하게되는데요, 늘 탑승자를 먼저 생각해주시고 준비를 해주셔서, 박형규기사님이 보이면 버스에 타지 않고도 안심하게되요.. 또한 하차할땐 늘 친절히 큰소리로 인사해주셔요.. (특유의 말투가 있어요^^) 아침엔 갤러리아팰리스앞에서 운행을 하시는데, 항상 진두지휘하셔서 전체적으로 통근버스를 책임지시는것같더라구요.. 예전에 신랑이 지갑분실해서 찾아주신 경험도 있고,, 오랜 기간동안 많은 도움을 받았네요.. 오랜기간 동안 박형규기사님덕분에 회사를 안심하고 편안하게 잘 다닐 수 있었습니다. 늘 감사드렸어요.. 항상 건강하시고, 가정에 행복 가득하시길 바랍니다!! ^^</t>
   </si>
   <si>
+    <t>입주업체 근무자입니다 통근버스 관련 정보를 보고 싶은데요 관리 시스템에 로그인을 할 수 없네요. 통근버스 관련 정보를 볼 수 있는 방법이 있을까요?</t>
+  </si>
+  <si>
     <t>6월 28일 강변/잠실행 퇴근버스 기사님과 박일규 대리님 감사합니다. P {margin-top:0px; margin-bottom:0px; color:#333; font-family:돋움,dotum,sans-serif;font-size:12px;font-weight:normal;}제목과 같은 날 지갑을 퇴근버스에서 분실하였는데 정말 친절하게도 분실하여 문의함과 동시에 빠른 대응 해주셔서 지갑을 분실않고 찾을 수 있었습니다.    게다가 더 감사한 일은 제가 강변에서 내렸는데 기사님은 최종 도착지인 잠실을 지나 가셨음에도 불구하고 다시 강변으로 직접 오셔서 지갑을 돌려 주셨습니다.    정말 감사드립니다. 성함은 모르지만 기사님과 박일규 대리님 감사합니다.</t>
   </si>
   <si>
     <t>통근버스 담당자님 감사합니다. 비오는 날 아침, 우산 한쪽이 망가지셔서 어깨가 다 젖으시는 줄도 모르고 사내셔틀 배차를 위해 바쁘게 뛰어다니시는 모습 정말 감동적이었습니다. 덕분에 저희는 비를 피해 편하게 근무지까지 이동할 수 있었습니다. 자주 뵈었는데 성함을 몰라 이렇게나마 감사를 드립니다. 정말 감사합니다~</t>
   </si>
   <si>
+    <t>고담주차장 정문에서 버스타는 곳 까지 인도가 필요해 보입니다. 이곳에다 요청할 내용이 맞는지는 잘 모르겠지만, 셔틀버스와 관련이 있어 요청드려봅니다. 고담주차장 입구(기숙사 쪽)에서 셔틀 타는 곳까지 이동할때 차와 차 사이를 조심 조심 걸어 다녀야해 불편이 많습니다. 짐이 있거나 가방이 있을때, 비/눈이 오는 날은 더욱 불편합니다. 불편을 해소하고 주차된 차에 손상이 가는 것을 방지 하기 위해서라도 입구에서 셔틀 타는 곳 까지는 사람만 다닐 수 있는 길이 필요해 보입니다.</t>
+  </si>
+  <si>
+    <t>하이치과에 대한 고객 설문 요청 드립니다. 얼마전 부속병원에 대한 고객 설문 요청을 받은 적이 있습니다. 그때 하이치과에 대한 내용은 따로 없는 것 같아 요청 드립니다.</t>
+  </si>
+  <si>
+    <t>스카이 해피버스 사이트 관련 보완이 필요합니다. 스카이 해피버스 사이트 관련 보완이 많이 필요해 보입니다. 알단 로그인시 흰화면에서 멈춰있는데...답변을 보니 패스워드를 본인이 변경하여서 그렇다고 답변이 여럿 달려 있던데... 하지만 대부분의 사이트는 패스워드가 틀리면 패스워드가 틀려서 로그인이 되지 않는것을 인지할수 있도록 팝업 창을 띄우는데...그렇지가 못하네요... 그리고 안에 사용 중에도 실행이 되었는지 안되었는지... 확인할 길이 없는 부분이 많습니다. 좀 더 보완해서 해당 사이트를 이용하는 임직원들의 편의를 우선적으로 생각하여 주시기 바랍니다. 감사합니다.</t>
+  </si>
+  <si>
+    <t>정문 통과할때 검색대(?) 정문에서 사원증 타각하고 통과할려고 하는데 차단막이 닫히는 통에 손목에 타박상을 입었습니다. 정상적으로 타각하고 진입한것 같습니다만, 갑작스레 차단막이 닫혀서 손목이 피멍들고 부을 정도로 타박상을 입었습니다. 안전을 위해서 개선이 필요하지 않을런지요 ?</t>
+  </si>
+  <si>
     <t>잠실선 기사님 칭찬합니다. 저희 동료직원께서 아침에 통근버스에 지갑을 두고 내린 모양입니다. 부랴부랴 연락해서 버스가 아직 통근버스 주차장에 있다는 말을 듣고 같이 달려갔습니다. 마침 기다리고 계시더라고요.. 지갑에 손대면 괜히 오해가 생길까봐 아예 차문을 닫고 들어가지도 않고 기다리셨다고 합니다. 덕분에 동료직원이 소중한 지갑 잘 찾았습니다. 차량번호가 8224였나..잘 기억이 나지 않지만 동남고속 잠실선 3개 차중 한대입니다. 친절하게 응대해주셔서 더욱 감사했습니다.</t>
   </si>
   <si>
+    <t>해피버스노선 해피버스? 노선을 조회하러 들어갔는데 로그인이안됩니다 회원가입을 따로해야하는건지? 초기비밀번호도 안되구요</t>
+  </si>
+  <si>
     <t>주말농장 담당자 이승진 사원을 칭찬합니다. 작년에도 주말농장을 했었습니다. 그때도 매달 한번씩 아이들이 참여할수 있는 이벤트도 열어 주시고. 여러 사람들이 하는 주말농장이라 여기저기서 불만들이 많을 텐데도 항상 작은 의견 하나까지 신경써 주시고 배려해주시는 주말농장 담당자 이승진 사원께 감사한 마음을 글로나마 남깁니다. 올해도 역시나 작년에 미진했던 부분들 보완하려고 애쓰시는 모습이 구지 말로하지 않아도 눈으로 보입니다. 앞으로도 주말농장에 들어오는 사우들이나 사원자녀들이 더 즐겁게 농사 짓는 모습을 볼수 있도록 수고해 주세요. 이승진 사원님 한번더 칭찬 합니다.</t>
   </si>
   <si>
+    <t>스카이버스 로그인이 안되요... 로그인시 로그인이 안되고 첨부와 같은 에러가 발생합니다. 회사에서요.. 확인 부탁 드립니다.</t>
+  </si>
+  <si>
+    <t>주말농장 관련 제안드립니다. 항상 사원들의 복지를 위해 애쓰시는 관계자 분께 감사 드립니다. 작년과 올해 주말농장을 하면서 한가지 제안과 한가지 불만사항을 올리고자 합니다. 첫째 제안. 요즘 등산로를 가보면 입구쪽에 등산화와 옷을 털수있는 컴프레셔가 설치되어 있습니다. 주말농장에서 일을 하고 집에 가려고 하다보면 항상 옷이며 신발이며 먼지투성이가 되곤 합니다. 이럴때 농장 가운데 잔듸밭 주변에 먼지 털이용 컴프레셔가 하나쯤 있었으면 좋겠다는 생각이 들더군요. 고려해 주세요. 둘째 불만. 작년같은 경우 차량 출입시간이 일출시부터 일몰시까지 였던 것으로 기억합니다. 올해는 차량 입차 시간이 08시 30분으로 공지가 되었구요. 하지만. 제가 시골출신이라 여름 농사철 일하는 시간을 압니다만. 농사를 업으로 하시는 농부들도 여름에는 새벽 4시경부터 시작해서 9~10시 정도면 일을 끝냅니다. 사실 지금은 별 무리가 없습니다만 6월이 넘어가게 되면 아침 9시만 넘어가면 더워서 일을 못합니다. 8시 30분에 들어와서 30분 만에 일이 끝나는 것도 아니고 저녁에 일을 하자니 좀 시원해지는 6~7시에 들어와서 한두시간 일하고 집에가면 애기들 잘시간이 너무 늦어집니다. 맞벌이 하시는 부모님들은 월요일 아침부터 애들 깨우느라 고생하시게 되죠.. 새벽에 일찍 나오면 해결될 문제입니다. 그래서 제 의견은 출차시간은 괜찮지만 입차 시간만큼은 일출시 아니면 최소 6시 정도로 변경해 주셨으면 합니다. 고려해 주세요.</t>
+  </si>
+  <si>
+    <t>환기좀 고객의 소리는 최고의 서비스를 제공하기 위하여 고객님의 의견을 수렴할 수 있는 열린공간입니다. 음해성 및 사실과 다른 왜곡된 글은 당사 이미지 실추 등 업무에 영향을 줄 수 있으므로 자제해 주시기 바랍니다. 출근때 잠실선 종합운동장 출발하는 버스.. 한시간 내내 타고오다보면 너무 후덥지근합니다 공기순환 좀 해주세요</t>
+  </si>
+  <si>
     <t>기사님 칭찬합니다 5월 20일 영통 살구골 앞 7시 6분 출발 (8462)버스 기사님께 감사말씀드립니다. 당일 몸이 안 좋아서 땀도 많이 나고 멀미도 많이 났었는데, 기사님께서 자리도 앞에 앉도록 해주시고 시원한 음료수도 주시는 등 배려해 주셔서 무사히 출근할 수 있었습니다. 당일 경황이 없어서 내리면서 감사 인사도 잘 드리지 못했는데, 이 곳을 빌어 다시 한번 감사드립니다.</t>
   </si>
   <si>
+    <t>5/14일 6시 구리/퇴근노선 불만 어제 6시퇴근버스 구리/태능선 주자창버스 정차부터 항상 태능/노원 라인 정차되있는곳에 차가 있으니 당연히 태능써있는것만 보고 차를 탔습니다. 운전석에 기사아저씨가 쭉 있었던 것도 아니고 55분 전후로 들어와서 그때 탑승 하는 사람들 한테 태능 바로 가는차는 다른 차라고 말함... 전승객한테 말하는것도 아니고 그렇게 말하는데 누가 귀 귀울이는 것도 아니고 뒤쪽에 이어폰 꽃고 자기할일 하는데 들리겠습니까? 아저씨 중화에 사람 내리고 난 다음부터 왜 이차를 탔냐느니 차가 얼마나 막히는데 대놓고 궁시렁 대면서 한참을 면박 줌...노선 없는거 타서 더 가달라는것도 아니고 돈 안내고 타는것도 아닌데 왜 이런 욕을 얻어먹으면서 차를 차야 하는겁니까? 그리고 누가 바로 태능가는게 있는데 돌아가려고 하겠습니까? 애초부터 아저씨가 정해진 라인에 차를 대야지 완전 적반하장 전에 공지된거 보니까 서비스 안좋은 차량업체 바꿨다고 올라오던데 현대관광 왜 쭉 운행되는지도 의문이네요 그리고 타업체 작성만 가능하다는데 이게 접수가 된건지 어떻게 처리 된건지는 어떡게 확인하라는 겁니까?</t>
+  </si>
+  <si>
+    <t>스카이 해피버스 로그인이 안됩니다. 사번을 입력하고 비밀번호는 어떤걸 입력하더라도 하얀 화면만 뜹니다. 참고로 제 사번은 B51443입니다. 해피버스 로그인 관련 문의가 상당히 많고 주위에도 불만이 많은데 이 부분은 전혀 개선이 안되고 있는건가요? 너무 불편합니다.</t>
+  </si>
+  <si>
     <t>춘계행사(그룹) 진행에 관관버스가 필요합니다. 안녕하세요. 품질혁시그룹의 문병삼 책임입니다. 이번 춘계행사를 그룹차원의 기술사무직군으로 산행을 예정하고 있습니다. 날짜는 5/25(토) 속리산으로 가기로 결정했는데, 안전사고 예방을 위해 사원서비스센터에 관광버스를 예약했으면 합니다. 법인카드 결재로 진행하는 것이라서 쉽게 연결하기 위해서 도움을 요청합니다. 차량은 3대로 1)청주-&gt;속리산-&gt;청주, 2)이천-&gt;속리산-&gt;이천 3)이천-&gt;속리산-&gt;신갈-&gt;양재 로 계획하고 있습니다. 이건으로 누구와 Contact 해야 하는지 문의드립니다. 이상입니다. 감사합니다.</t>
   </si>
   <si>
+    <t>우대좌석 없는게 나을꺼 같습니다. 우대좌석이 있어도 여전히 떡하니 앉아 계시는 남성분들이 많습니다. 배부른 몸으로 회사다니기도 벅찬데 그런 모습을 볼때마다 이게 무슨 우대 좌석인지..차라리 없으면 기대라도 안하니 없는게 나을꺼 같습니다. 제지하는 사람도 하나도 없는데 운영이 되겠습니까?? 그리고 답변좀 달아 주세요. 건의사항 게시판에 글올린지 이틀이 지나도 답변이 없네요..</t>
+  </si>
+  <si>
     <t>감사합니다. 아래 칭찬글이 있어서, 칭찬할지 망설이다가, 그래도 하는게 맞다고 생각해서 올립니다. 칭찬 대상자는 강은혜 물리치료사입니다. 개인적으로 목과 허리가 좋지않아 통증으로 고생하던중, 필라테스 강좌가 있는걸 알고 신청했는데, 어디선가 많이 봤던 분이 강사시더군요 물리치료실에서 안면은 있었지만, 잘 알지 못했는데, 그 분이더군요,,, 아랫분의 칭찬처럼, 친절하고, 전공적인 지식을 바탕으로 각자에게 좋은 운동과 필요한 부분을 지적해 주시는게 좋았던 것 같습니다. 덕분에 가끔 통증이 있을때 집에서도 배운 운동을 연습하며, 통증 개선에 도움이 되는 경우도 많았습니다. 특히 자칫 딱딱하기 쉬운 운동시간을 참 즐겁게 이끌어가는 능력이 돋보였던 것 같네요. 감사한 마음 표현할곳을 찾다가 이곳에 적어봅니다. 감사합니다.</t>
   </si>
   <si>
+    <t>통근버스관리시스템 접속 문의 사이트 개편 직후 로그인이 되었는데, 최근 버스노선을 알아보기 위해 접속했다가 로그인이 안되서 비밀번호 찾기를 시도해도 계속 실패합니다. 어찌해야 하는지요? 사번은 BB47317 입니다.</t>
+  </si>
+  <si>
+    <t>버스안에서 신발벗고 있지 맙시다 지금 천호군자 퇴근버스 맨뒷자리 가운데 앉은 사람 신발벗은채양반다리하고 발을 의자에 올리고 가고있습니다 옆자리에서 상당히 불쾌합니다 버스에 매마지막으로 탄 나이 지긋하신 분인데 알만하신분이 개념이너무 없으시네요</t>
+  </si>
+  <si>
     <t>SK하이스텍 사원아파트 담당자 권오영 대리님을 칭찬합니다. 2월20일부터 기다리고 기다렸던 사원아파트 배정전화를 오늘 아침에 받았습니다. 자고 있던터라 정신없이 전화를 받았는데도~ 제가 물어보는 거에 하나하나 정성스레 답해주셔서 너무 감사했습니다~ 대리님의 친절함에 오늘 아침부터 좋은소식으로 하루를 맞이했네요~^^ 수고하시고 신경써주셔서 다시한번 감사드려요!!</t>
   </si>
   <si>
+    <t>통근버스내 기본매너가 지켜질수 있게해주세요.. 예전에는 이정도는 아니였던거 같은데 일부 몇몇 사람들의 매너의식이 사라지는거 같네요. 통근버스출발후 음식물 섭취. (임산부는 이해할수 있습니다만..) 이어폰 미사용 DMB 시청. 소리 켠 후 게임. 메세지소리, 벨소리 대학교셔틀버스도 아니고, 너무한거 같습니다. 어제 구리선에서는 중간자리에 계신분이 이어폰도 사용하지않고 야구를 보시는지 소리가 앞자리까지 다 들리더군요 저도 포함 몇몇 사람들이 쳐다보는데도 아랑곳하지않고 보시더군요,. 유인물배포나, 방송등..이 필요한거 같습니다. 몇몇 사람들때문에 힘들게 출퇴근하는 사람들에게 피해를 주면 안된다고 생각합니다. 빠른 조치 부탁드릴께요</t>
+  </si>
+  <si>
+    <t>이천 사내 체육관 및 헬스장 이용시간 문의 드립니다. 고객의 소리는 최고의 서비스를 제공하기 위하여 고객님의 의견을 수렴할 수 있는 열린공간입니다. 음해성 및 사실과 다른 왜곡된 글은 당사 이미지 실추 등 업무에 영향을 줄 수 있으므로 자제해 주시기 바랍니다.</t>
+  </si>
+  <si>
+    <t>스카이해피버스 문제가 좀 많은것 같은데요.. 주말 근무를 해야하는데, 노선을 확인할 수 가 없네요. PC로 로그인도 안되고, 스마트폰으로 찾으려고해도 아래 스크롤바로 이동이 안되서.. 노선확인을 할 수 조차도 없고.. 노선 검색기능도 안되고.. 차라리 전처럼 화면에 엑셀로 다운받을 수 있게끔해주시는게 훨씬 좋은것 같습니다. 어플이 너무 엉성하고.. 그리고 PC에서도 확인을 할 수 가 없네요.</t>
+  </si>
+  <si>
+    <t>강은혜 물리치료사님을 칭찬합니다. 안녕하세요. ^^ 먼저 제가 왜 물리치료를 받게 된 이유 제가 퇴행성 디스크를 판정받고 사내병원(물리치료) 찾게 된지도 3개월정도 되어가고 있습니다. 정말 허리때문에 지금도 힘들게 회사생활을 하고도 있습니다. 본론 강은혜 물리치료사님 칭찬 이유 첫번째, 환자응대 친절과 유머 감각 풍부합니다. 제가 처음보는 사람한테 엄청 차시남(차가운시골남자) 인데요. 이분한테 안 통하네요. ^^ 거의 한달동안 그 컨셉으로 쭉~~ 나가는데요. 그만큼 친절하다는 말 입니다. 그리고 유머 감각 사례를 말씀 드리면 어떤 여성분이 물리치료를 받고자 접수하면서 허리뼈가 빠지게 아프다면서 호소를 하자 물리치료사님이 전에도 오셨는데 좀 무리하셨나봐요. 하면서 던지는 한마디  오늘 비가 와서 더 아프실꺼예요 제가 글 재주가 없어서 재미가 좀 없네요. 상황을 웃겼는데요. ^^ 둘번째, 환자에 아픔을 챙겨주는 성격 제가 이번 필라테스 기수에 수료하고 있습니다. 제가 기수 중 좀 열등생중에 한명인데 하나 하나 잘 챙겨 주시면 조언도 해주시며서 집에가서 숙제라면서 허리에 좋은 동작도 가르쳐 주신 그 마음씨가 참 좋습니다. 섯번째, 환자의 현 상태 파악을 잘 하세요. 물리치료 받을때 그때 그때 제 상태를 체크 해 주시면서 필라테스 할때 저한테 무리한 동작을 피해 달라는 따뜻한 조언과 숙제 잘 하시고 있는지 물어보십니다. 마지막으로, 물리치료사님 재주가 많은분 같은데 저희 같은 환자에게 도움되는 다른 프로그램 추진 부탁드립니다. 제가 보기에는 사내에 허리 환자들 많은것로 알고 있습니다. 수요예측을 통해 더 좋은 프로그램 요청 드립니다. 끝까지 제 글 읽어 주셔서 감사합니다. 좋은 하루되세요. ----------------- 외모 만큼 성격도 좋은 강은혜 물리치료사님 칭찬 합니다. --------------------------------</t>
+  </si>
+  <si>
+    <t>자전거가져오려면.. 현재 청운기숙사에 살고있는데요, 밖에서 자전거를타고 기숙사 주의에다가 세워놓기만 할껀데 어떻게해야지 출입가능한지 궁금하네요,</t>
+  </si>
+  <si>
+    <t>이천 사내 테니스장 이용 문의 사내 테니스장은 어떻게 이용하나요? 동호회나 강습은 따로 없나요?</t>
+  </si>
+  <si>
+    <t>통근버스 시스템 사이트에 들어가지지 않습니다. 사내트 내의 글들을 찾아 proxy설정도 해봤는데, 로그인 창은 뜨지만 로그인 시 사이트에 들어가지지 않네요. 이전에는 엑셀파일이라도 있어서 쉽게 볼 수 있었는데, 이건 들어가지지도 않으니 노선도 자체를 볼 수가 없군요.</t>
+  </si>
+  <si>
     <t>통근버스 분실물 보관 장소 ?? 3/15일 천호/군자 10시 퇴근버스에서 제 실수로 지갑이 든 가방을 놓고 내렸습니다. 다음날 담당자께 연락 및 문자를 보냈는데, 이틀이 지났는데 아무 답도 없습니다. 단지 분실물이 있다면 보관장소 및 주말에 찾을 수 있는지만 확인하려고 했는데, 어디에도 확인 할 수 있는 방법이 없네요!! 답답해서 이렇게 글 올려봅니다.</t>
   </si>
   <si>
-    <t>여주선 통근버스 기사님 칭찬 합니다. 우선 친절하신 기사님 성함을 몰라 너무 죄송하게 생각 합니다. 3월6일 22시30분 퇴근버스 기사님을 칭찬합니다. 제가 그날 과음을 해서 여주에서 내리지 못하고 이천 차고지까지 왔는데도 기사님께서는 너무 당연하다는듯이 댁이 이천이신데 불구하고 직접 기사님의 차로 여주까지 다시 데려다 주셨습니다. 택시잡기도 어려운 곳이었고, 술이 많이 취해 사고가 날 수도 있는 상황이었는데 기사님의 친절하신 배려로 무사히 집에 귀가할 수 있었습니다. 기사님 성함을 알 수 있다면 너무 감사할것 같습니다. 다시한번 감사 기사님께 감사한 마음을 전합니다.</t>
-  </si>
-  <si>
     <t>이천 통근 버스 담당자이신 김건호 대리님 아침 전화 받아주셔서 감사합니다. 하이닉스 근무 중인 한 사원입니다. 오늘 아침 통근 버스를 탈려고 일찍이 나와서 기다리고 있었는데, 차가 안 오더군요.. ^^; 알아볼 곳이 없어서 애만 태우다 저장해두었던 김건호 대리님께 아침 일찍 전화 문의를 드리게 되었습니다. 출근도 안 하셨을테고, 아침 일찍이라 주무시고 계셨을지도 모르는데.. 전화도 받아주시고, 친절히 답변까지 해주셔서 정말 감사했습니다. 통근 버스를 자주 안 타서 한달에 한번 확인할까 말까했는데.. 앞으로는 미리 확인하여 오늘과 같은 무례는 없도록 하겠습니다. 부끄러워서 이름도 못 적네요.. ㅎㅎ; 정말 죄송하고 감사했습니다. 그리고 개인적인 바람으로는, 출퇴근 버스 변경 사항에 대한 홍보나 문자 알림 서비스 같은 게 있으면, 더 편해지지 않을까 생각해봅니다. ㅎㅎ;</t>
   </si>
   <si>
+    <t>(재등록) 동백 출근 버스 등받이 수리 요청 지난 2/19에 요청한 사항인데 아직도 수리가 되지 않았습니다. 수리되지 않는 무슨 사유가 있을 수 있을 것이라 생각되지만, 다시 한 번 점검해 주시기 바랍니다. 답변 주실 때는 조치 가능하겠다 는 내용이 아니고 조치(수리) 완료 했다 라는 내용이었으면 좋겠습니다. 감사합니다. ==== 지난 2/19에 요청한 사항===== 안녕하세요. 출퇴근 버스 관리에 수고가 많으십니다. 동백 출근 버스 (경기78 아8478)의 31번 좌석, 34번 좌석의 등받이가 고장입니다. 꽤 오래 되었는데 개선 요청 하는 사람이 없어서 수리가 안 되는 듯 보입니다. 확인하시어 수리해 주셨으면 좋겠습니다. 감사합니다. ===== 답변=== 안녕하세요! 통근버스 담당자입니다. 제보에 감사드리며, 즉시 유선으로 통보, 조치가능하도록 하겠습니다. 기타 문의사항은 2218-김건호 대리,4503-김일구대리 4061-정해용 사원으로 연락주시면 친절히 안내해 드리겠습니다. 감사합니다.</t>
+  </si>
+  <si>
+    <t>예전처럼 출퇴근 버스 노선도 파일을 올려주세요 어떻게 든지 스카이해피버스 사이트를 이용하려 했지만 너무 불편하네요. IE에서는 제대로 작동도 안하고, chrome에서만 작동이 되는군요. 차라리 예전처럼 파일로 올려주셨으면 합니다. 그리고 외람된 말씀이지만, 사이트 재개발 하셔야겠군요. 부탁드립니다.</t>
+  </si>
+  <si>
+    <t>스카이해피버스 외부직원 사용여부 스카이해피버스 이용은 외부직원은 제외되나요? I사번입니다.</t>
+  </si>
+  <si>
+    <t>번호를 알고싶어서요 제가 복지관안에 있는 엘지가전제품센터의 번호를 알고싶은데 어디서 찾아야 되는지 어떻게 알수 있는지 알고싶습니다.</t>
+  </si>
+  <si>
+    <t>스카이해피버스 접속 시 오류(?) 건 확인 요청드립니다. 안녕하세요. 저만 이런 문제가 있는 것인지 잘 모르겠습니다만, 금일 스카이해피버스 사이트에 접속하려고 했는데, 등록되지 않은 사용자로 로그인이 안되고 있습니다. 사번에, 이메일에, 잘못된 사항이 없는데도, 아예 찾을 수 없다고 하는데요... 휴대폰에서 접속하던 것도 자동 로그인을 해제했다가 다시 접속하려고 했더니, 마찬가지로 로그인이 안되고 있습니다. 어떤 문제가 있는 건가요? 확인 요청드립니다.</t>
+  </si>
+  <si>
     <t>기사님 칭찬합니다 통근버스 이강빈기사님을 칭찬해드리고싶습니다. 이강빈기사님께서는 고객 한명한명을 항상 웃는얼굴로 대하시며 늘 친절하게 인사를건네십니다. 진심이느껴지는 기사님의 친절과정성이 존경스럽고 본인의일을 정말사랑하시는것같아 보기가 참좋습니다. 성실하시며 최선을다하시는 이강빈기사님 칭찬 드립니다.</t>
   </si>
   <si>
+    <t>20일 아침 샌드위치 날짜를 문의드렸는데 제가 날짜를 잘못봣네요. 전화안주셔도 됩니다 전화를 다시안받으시네. 그래서 글남깁니다. 혼한을 드려서 죄송합니다.</t>
+  </si>
+  <si>
+    <t>복지관 1층 출입문에 관하여 문의드립니다. 안녕하세요. 복지관 1층 출입문에 관하여 물어볼 것이 있습니다. 바람이 많이 불어 들어와 출입문이 제대로 고정되지 않던데요. 1층에서 식사를 할 때마다 문이 열려서 불편합니다. 멀찍이 앉는다면 상관없지만 자리가 없을 때에는 어쩔 수 없이 바람을 맞으며 식사를 해야해서요. 춥지 않고 편하게 식사할 수 있는 환경을 만들어주셨으면 합니다. 늘 맛있는 음식 마련해주셔서 감사합니다.</t>
+  </si>
+  <si>
+    <t>버스노선은 이제 정직원 아니면 볼수가 없나요? 협력사 직원 입니다. 상시 출입증으로 계속 근무하고 있습니다. 그런데 버스노선 검색하려 했더니 계정이 없더군요. 어떻게 해야 노선 검색을 할수 있습니까?</t>
+  </si>
+  <si>
+    <t>스카이 해피버스 관련,, 지금 사용이 가능한건가요,, 회사 피씨에선 접속시 오류로 로그인이 안되는 것 같고.. 폰에서 접속시 노선 검색도 제대로 안되고 사용하기 어렵네요 ㅠㅠ;;; 적응 될 때까진 이전 처럼 엑셀파일 다운받을 수 있게 올려놔 주심 안되나여...?</t>
+  </si>
+  <si>
+    <t>스카이해비버스 사이트내 노선검색이 안뜹니다!! 지도로보기? 그것도 안뜨네요 출근퇴근 설정하는것도 좀 이상해요 첨에 등록할때 퇴근부분은 퇴근이라 안뜨고 분실물?그런걸로 뜹니다.</t>
+  </si>
+  <si>
     <t>정문보안님들.!!! 2월6일이였습니다. 제가 수술을하고 퇴원하여 기숙사로 들어가야되는상황이였는데 퇴원하여 짐도 있엇고 다리수술이라 목발도 집은상태였는데 제가 듣기론 정문에서 다리가 불편한사람들을 정문 보안차가 데려다 준다는 이야길들었습니다. 낮 12시쯤 혹시 차 없냐고 물어봣는데 어떤 분이 없어요없어 이러고 목발집고있어서 임산부 가는길로 가도되냐고 사원증을 보엿습니다 그랫더니 찍고 가라고 하시드라고요.. 너무 열받아서 그상황에 가방도 2개에 목발까지 집고 잇는상황이라 화도 못내고 꾸역꾸역 기숙사까지 갓네요... 그래도 마음착하신 아주머니들을 만나서 짐을들어주시긴햇는데... 보안팀 너무하신건아닌지.. 차가 없으면 기다려달라든지 점심시간이 다되어서 어딜가셧다는둥 핑계라도 대셧으면 기분이라도 안나뻣을텐데.. 구지 목발까지 집고잇는사람한테 사원증까지 찍고 가라고하시고... 오늘도 외래병원에서 소독하고 들어오는길에..정문에서 어떤보안분이 어디까지가세요? 물어보드라고요 청운5관이요 이랫더니 아무 대꾸안해주시는건 거기가 멀지 않아서인가요? 결국엔 오늘도 이렇게 무시당해서 글올립니다. 다리불편한사람들은 아무리 정문에서 기숙사까지 5분거리여도 20분가까이 걸리는데... 너무 화가나서 여기에 글올리네요.</t>
   </si>
   <si>
-    <t>복지관 앞 구두 수선매장 카드 안되나요? 이천 단지 안에 독점으로 운영하고 있는 구두 수선매장은 카드도 안되고 아저씨도 불친절 하네요. 현금만 되면 현금 영수증을 해주시던가 구두 수선하면 만원이 넘기 일쑤인데 회사 내에 카드 결제 안되는 곳은 이 곳 뿐인 것 같습니다.</t>
+    <t>스카이 해피버스 사용하는건가요?? 통근버스 위치좀 확인해보려고 했더니 전에 올려져있던 위치정보 엑셀파일은 사라져있고 스카이해피버스 사이트를 이용하게 해놓으신거 같은데요.. 스카이해피버스 사이트는 정식 오픈하신거 맞나요? 지금 test파일이 떡하니 올려져있고, 기타 필요로하는 시스템이 제대로 작동하질 않습니다.조회나 노선검색 거의 모두.. 담당자님 확인 후 답변해주세요.</t>
+  </si>
+  <si>
+    <t>칭찬합니다(통근버스) 안녕하세요? 어제 퇴근 버스에 사원증을 두고 내렸는데, 기사님께서 너무 친절히 찾게해 주셔서 칭찬글을 올립니다. 2000관광 송정동 운행버스기사님 차량 번호 : 9624 입니다. 감사합니다.</t>
   </si>
   <si>
     <t>설 귀향/귀사버스 신청문의 안녕하세요. SK 하이닉스 정승현입니다. 이메일로 설 귀향/귀사버스를 신청했는데 따로 확인메일이 오지 않아 신청이 잘 된건지 알고싶습니다. 확인 후 이메일로 알려주시면 감사하겠습니다.</t>
@@ -685,10 +1450,19 @@
     <t>1/29일 분당 경부 6시차 분실물 맨앞자리에 쇼핑봉투를 두고 내렸습니다. 내용물은 비타민통, 커피, 선물 케이스(내용물은 허리띠)입니다.접수되면 연락 부탁합니다.</t>
   </si>
   <si>
+    <t>휴대폰 분실 하였습니다. 찾아주세요 ㅠ 1월27일 잠실에서 이천가는 야간셔틀버스 맨뒷좌석에 셔틀버스에 내리자마자 휴대폰 을 놔두고 온것을 확인하였습니다. 습득하시면 위 연락처로연락주십시오. 진동으로 되어있습니다.</t>
+  </si>
+  <si>
     <t>신하리 8시버스 운전자분께 감사 드립니다 안녕하세요. 지난 월요일날 신하리에서 아침 8시 버스를 타고 출근을 하면서 주민등록증을 분실하였는데, 기사 아저씨께서 자리에 보이지도 않았던 분실물을 구석 구석 찾아서 찾아 주셔서 감사 드립니다. 그날 편지봉투에 밀봉을 해서 약속한 장소에 맏겨 주셔서 다음날 개인적인 업무 처리 하는데 도움이 많이 되었습니다. 아침 출근 8시 버스를 많이 이용하는데, 기사 아저씨께서는 친절하게 우리들을 맞아주시니 감사합니다. 수고하세요^^</t>
   </si>
   <si>
-    <t>1월11일(월) 아침 현대관광 창동선 당당하시는 기사님외 현대관광님 분들 칭찬하고 싶습니다. 안녕하세요? 저는 SK하이닉스 연구소에 재직중인 송필근 책임입니다. 오늘 이사후 처음으로 창동선 버스를 타게 되어 첫출근 하는 날인데 제가 그만 회사 정류장에 도착하고 깜빡 통근버스에 핸드폰을 두고 내리게 되어 기사님 연락처를 백방으로 알아보는데 제일인양 알아봐주신 현대관광기사님 2분과 창동선에서 제 핸드폰을 보관해주시고 저녁 퇴근시 전에 주신 이름모를 현대관광 기사님 너무 감사드립니다. 핸드폰 때문에 아침부터 잃어버려 걱정이 되었는데 잘 보관해 주시고 웃으시면 전달해주셔서 다시 한번 머리 숙여 감사드립니다.아울러 현대관광 이름모를 기사님 두분도 이자리를 빌어 다시 한번 감사드립니다.앞으로도 창동선에서 안전하고 친절한 운행 쭉 부탁드립니다.송필근 드림</t>
+    <t>비공개 기능 삭제 검토 부탁드립니다 비공개 글이 대부분입니다 같은 내용으로 유추되는 글을 열람할 수가 없어, 비슷한 질문이 계속 반복되고 있는 것 같습니다 게시판의 성격상 반드시 비공개일 필요가 없는 주제가 거의 전부라고 생각됩니다 어차피 상호열람할수 없다면, 리스트에 보이는 건 불필요해 보입니다 비공개가 반드시 필요할 사항은 1:1게시판을 신설하는 것이 더 합리적이지 않을까 생각됩니다 관리자분의 검토부탁드립니다</t>
+  </si>
+  <si>
+    <t>버스 히터 고장에 대한 답변에 대해 궁금한 사항이 있어 글 남깁니다. 안녕하세요. 노고가 많습니다. 아래 답변에 대해 궁금한 사항이 있어 문의 드립니다. 1) 해당 업체의 차량 교체 작업 -&gt; 왜 차량이 주마다 최소 2번씩은 교체 되나요? 어떠한 문제가 있는지 궁금합니다. 개인적인 생각으로는 배차된 차량에 어떠한 문제가 생겨 변경이 될 수 있다고 봅니다만, 다른 이유가 있는지 궁금합니다. 2) 단말기 기기구매, 설치, 테스트 등의 과정 일정은 따로 관리 하시나요? 최대한 신속히 마무리 한다고 적혀있는데 1월 말이면 완료 되나요? 일정 알려주시면 감사하겠습니다. 그럼 수고하세요~ -------------------------------------------------------- 안녕하세요! 통근버스 담당자입니다. 이용에 불편을 드린점 먼저 사과의 말씀을 드립니다. 먼저, 해당업체의 차량 교체작업으로 인해 다소 고정적 배차빈도가 낮은점과 (교체작업으로인한) 단말기 미장착 차량이 배차되고 있음을 인지하고 있습니다. 이는 단말기 기기구매, 설치, 테스트등의 과정을 최대한 신속히 마무리하여 가능한한 임시차량으로 인한 불편을 덜어드리도록 최선을 다하겠습니다. 더불어, 금일 배차된 차량의 난방불량건에 대해서는 ① 운행전 점검(상태) 이행여부 및 이상발생시 관리자 통보 미이행 ② 불량시 즉시대응조치 미숙 및 탑승객 사전 안내 미이행 등의 사유를 들어 업체 최고관리자 및 기사반장, 담당기사에게 시정 및 강한 질책으로 재발時 징계(노선반납등)됨을 통보하였습니다. 다시한번 업체를 대신해 사과의 말씀을 전해드립니다. 기타 문의사항은 2218-김건호 대리,4503-김일구대리 4061-정해용 사원으로 연락주시면 친절히 안내해 드리겠습니다. 감사합니다.</t>
+  </si>
+  <si>
+    <t>고장난 비데가 너무 많습니다. M10A에 근무를 하고 있는데요 사람이 많은 관계로 여러 화장실을 이용하고 있습니다. 주로 비데를 사용하고 있지만, 최소 50% 이상은 고장으로 작동을 안하고 있습니다. 몇달씩 수리가 안되는걸로 보면 관리가 안되고 있는듯 한데요, 전체적인 점검이 필요하다고 봅니다. 어치피 설치되어 있는거 조금만 신경써서 잘 사용할 수 있게 유지 관리해 주세요~</t>
   </si>
   <si>
     <t>업무를 하시는건지? 2013년 1월 10일 오전에 분실분 신고를 하고 8시 30분쯤 경 전화로 분실물에 대해서 얘기했으나 하루가 다 가도록 아무처리도 안되고 연락을 해도 전화도 안받고. 무엇을 하시는 건가요? 하도 연락이 안되서 직접 청운관광 연락해서 기사님 전화번호 알아내고 연락했더니 바로 먼지 아시더만.. 도대체 하루종일 머하시는건가요? 분실물 담당이신분이 신고하고 전화로 얘기해도 아무 처리도 안되고. 정말 화가 나나에ㅛ</t>
@@ -697,33 +1471,90 @@
     <t>전제종기사님 감사드립니다 1월8일 양재선 퇴근버스에서 핸드폰을 두고 내렸는데 기사님께서 찾아주셔서 큰고민을 덜었습니다. 정말 중요한 핸드폰이었던지라 감사의마음으로 작은사례를 할려고 했는데도 그것조차 거절하시네요 다시한번 큰 감사드립니다! 새해 복 많이 받으세요~!!</t>
   </si>
   <si>
+    <t>하나SK페일리카드 혜택 얼마전 SK그룹이 하이닉스를 인수하고 나서 페밀리카드를 발급받았습니다. 혜택을 자세히 알고자 인터넷홈피와 하나카드사에 직접 문의한 결과 임직원카드는 하나카드홈피에 없고 따로 혜택설명서를 받아볼 수 없으니 자하 홈피나 관계자에게 문의하라 하였으나 확인 할 방법이 없어 여기에 글을 남깁니다.</t>
+  </si>
+  <si>
+    <t>31일 오전 11시 05분 사내 셔틀 기사분의 미소를 칭찬합니다. 정말 별건 아니고 기사분의 미소가 너무 기분 좋아 이렇게 칭찬 드립니다. 11시 이천시내 셔틀기사분께 따로 셔틀이 없냐고 물으니 다음에 오신다고 말씀을 주시더군요(딱히 기분 나쁘게 말하신건 아니고 그냥 퉁명스러웠습니다. 아직도 그런것도 모르고 있냐는 정도의 느낌?) 그리고 다음 5분차를 타고 방문객주차장에 가냐고 물었더니 너무 밝은 미소로 답변을 해주셨습니다. 야간 근무 끝나고 피곤한 상태로 가는데 기분이 그냥 좋아지더군요. 가는 길에 걸어가는 행인들이 추위때문 모자를 눌러써 뒤에 버스가 오는것도 모르다가 버스가 있는걸 알고 비켜주자 그냥 기다리고 계시다가 미소한번 밝게 웃어주시고는 출발 하시더라구요. 그 따뜻하고 밝은 미소에 괜히 저역시 기분이 좋아저서 이렇게 칭찬 드립니다.</t>
+  </si>
+  <si>
     <t>노원선 지난번 운전기사 응대 태도 불만 재발 안녕하세요. 12월22일 이 게시판에 말씀 드렸는데 또다시 운전기사의 불편한 응대태도에 대해서 말씀드립니다. 이 기사님이 제 얼굴을 잘 알고 있더라구요 오늘 06:40분 현대관광차를 탔습니다 한참 가는데 speak에서 불교에서 염하는 비슷한 소리가 들리더군요. 듣기좋은 음악은 아니었습니다. 지금부터 운전기사와 저와 대화입니다 저 : 기사님 위에서 이상한 소리가 나는데 작게 하든지 꺼줄래요 운전기사: 저에게 다가오며 눈을 부라리면서 무슨 소리가 나는데요. 저건 제 라디오 소리데 저: 아무튼 작게하든지 꺼주실래요? 운전기사 : 운전석으로 가지 않고 4초정도 저를 뚫어지게 쳐다봅니다. 저 : 기분이 나빠져 목소리가 높아졌습니다 왜 쳐다봐요 운전기사 : 자식뻘밖에 안돼는 넘이. 나 너만한 자식이 있어 (이때부터 반말로 나갑니다 참고로 제나이 올해 47세이고 내년에면 48세입니다. 제 아버님은 올해 76세이구요) 저 : 저도 화가나서 나이먹은게 자랑이예요? 운전기사 : 니 애비한테 그래라. 라디오 소리가 나면 꺼달라고 하면 되지 뭐가 불만이야? 저 : 맨붕됨.  방금전 소리를 작게하거나 꺼달라고 한것 기억안나요? 운전기사 : 너 지난번에 히타 소리 난다고 했는데 앞으로 히타 소리 안나게 히타 꺼줄까? 저 : 기사님 반말하지 마세요. 운전기사 : 내가 언제 반말했어? 그렇게 불만이 많으면 앞으로 이 차 타지마. 니 승용차 타고 다니면 돼잖아?. 이렇게 해서 오늘도 맨붕상태로 출근했습니다. 저번에 히타 소음 건으로 업체에서 어떤 feedback을 했는지 제 얼굴을 잘 알고 있었고 이번에는 라디오 음악 꺼 달라는 요청을 히타에서 소리난다는 이야기로 착각하고 그렇게 감정을 표현하시네요. 운전기사님이 연세가 얼마인지 모르겠지만 업무로써 응대해야지 나이는 왜 따집니까? 저도 현업에서 고령에 속하고 이 때문에 퇴물취급 받을까봐 업무로써 더 노력하고 인정받을려고 기를 쓰고 노력하는데... 나이 먹은게 결코 자랑이 아니고 오히려 마이너스인데... 아무튼 저도 화가나서 나이먹은게 자랑이냐라고 이야기 한것은 지나쳤다고 생각하지만 고객관점에서 운전기사의 응대 태도는 분명 개선의 여지는 있는 것 같습니다. 그냥 지나칠 수도 있었지만 이런 불만 표시가 향후 많은 사람에게 좋은 혜택이 돌아간다는 마음으로 이글을 올립니다.</t>
   </si>
   <si>
     <t>대왕 오징어[복지관] 대왕 오징어 대왕 오징어 대왕 오징어 대왕 오징어대왕 오징어 대왕 오징어대왕 오징어 대왕 오징어대왕 오징어 대왕 오징어대왕 오징어 대왕 오징어 험오스럽다.</t>
   </si>
   <si>
+    <t>복지관식당 식권발급기 문제 식권을 발급받으려고 하는데 사번과 주민번호를 입력하면 사번이 없다고 나옵니다.한두번이 아니라 이렇게 글을 올립니다. 그리고 한가지 더 예전에 오징어반찬 문제로 글을 올렸었는데 요근래 다시 수입산 대왕오징어가 나옵니다. 맛이 없고 혐오스러워서 못 먹겠습니다. 조치해주세요.</t>
+  </si>
+  <si>
+    <t>글은 많은데.. 답변이 없는 글도 많습니다. 언제 답변을 올리시는지요? 하루에 한번은 싸이트를 확인해야 하지 않는지요?</t>
+  </si>
+  <si>
     <t>통근버스 분실 안녕하세요 우산 분실하여 분실신고하고 그리고 문자 드렸는데 문자 씹으시고 분실신고건 대한 말씀 없어서 글 올립니다. 우산 펴고 버튼 다시 누르면 다시 접혀지는 검정색우산 안양행으로 가는버스 타고 가려다가 중간에 서울행으로 급변경으로 두고 갔습니다. 습득한 우산있는지 문의 드려요. 댓글에 전화 달라는 소리 말고 습득한 검정색우산 있는지요? 없으면 할수없구요. 분실날짜는 12월 14일 저녁 6시전에 버스 우측 4~6열?입니다.</t>
   </si>
   <si>
+    <t>노원선 통근버스 불편 및 운전기사 태도 오늘 아침 06:40분 차 현대관광 버스를 하계에서 탑승하여 출근하던 차 운전기사의 서비스 태도에 대해서 말씀드리고자 합니다 버스 천장에서 '끼긱~끼긱~하는 소음이 커서 신경이 많이 쓰였습니다. 심지어 좌측 뒷좌석에 있었던 여사원이 제가 오락하는 줄 알고 소리좀 줄여달라는 오해까지 할 정도였습니다. 운전기사에게는 운전도중이라 말은 못하고 회사입구에서 저 소음을 들어보라고 하였습니다. 현상을 정확히 알려드려야 하겠기에 안전한 구간에서 알려드린 것입니다 그런데 운전기사 하는 말에 맨붕되었습니다 제가 너무 민감하다는 겁니다. 자기는 괜찮다네요. 에어컨을 끄며 그것은 에어컨 소리인데 에어컨을 켜지 말라는 이야기냐고 오히려 나에게 따지더군요. 더이상 이야기를 안했습니다 뒤따라 하차하는 한분이 소음 소리가 크고 신경에 거슬린다고 거들어 주더군요 제가 말씀드리고자 하는 것은 1.특정 버스기사의 고객마인드가 형편없다. 2.노원선 버스가 전반적으로 노후화 되어 승차감이 불편하다 (저번에는 의자 등받이가 고정이 안된 이야기를 하고 두번째 이야기 했더니 그때서야 어디냐고 물어보더군요. 그동안에 얼마나 많은 사람이 불편을 겪었겠습니까?) 운전기사 서비스 마인드 교육 부탁드립니다</t>
+  </si>
+  <si>
     <t>한빛관광을 칭찬합니다. 안녕하세요? 한빛관광의 배려에 감사의 글을 올립니다. 얼마전부터 한빛관광 버스에 올라타보니 맨 앞좌석(노약자석)에 예쁜 쿠션이 놓여져 있더라구요 기사님께서 말씀은 없으시지만 아마도 노약자의 편의를 위해서 비치해 놓으신거같습니다. 장거리를 출퇴근 해야하는 노약자를 위해서 성의를 보여주신 한빛관광에 감사하다는 말씀 드리고 싶습니다.</t>
   </si>
   <si>
+    <t>환자 발생시 보안팀쪽 차량이용 음... 제가 지금 다리를 다쳐서, 야간 끝나고 오티후에.. 전화를 해서.. 차량을 좀 이용할수 있냐고 물어서.. 차량이 칩팩 부현관까지와서 편하게 이용할수가 있었습니다. 한쪽 다리에 깁스를 한 상태로 정문까지 걸어가는건 생각보다 여간 힘든게 아니기때문에 감사하게 잘 이용했습니다 그런데... 보안팀쪽에 전화를 해서 차량을 이용할수 있는 시간이 출퇴근 시간만인가요...? 회사 업무를 보다가 오티나.. 다른 업무 문제로 인하여 늦어질시에는 차량을 이용할수가 없는건가요...?</t>
+  </si>
+  <si>
+    <t>출퇴근 버스 운행 문제 아래 동탄 노선(용인글로벌)에 대한 최근의 고장차량 운행에 대해서 언급된 글이 있습니다만, 근본적으로는 각 노선별 운행되는 기사와 차량에 대해서 하이스텍에서 관리를 못하는 것 같습니다. 아니 관리를 안하고 있는게 맞을 것 같습니다. 어제 정규 노선차량이 사고로 운행이 불가하여 대차가 지정되었으면 기사는 누구이고, 대차는 어느회사 어느 차량인지 사전에 관리 및 통제가 되면 오늘같이 고장차량이 대차 차량으로 지정되는 일이 발생하지 않았을 것입니다. 금일 대차 기사님의 통화 내용을 보면 노선 뛰라고 하니까 그냥 있는차 가지고 나왔다, 이차도 내차 아니다 이런 내용입니다. 궁여지책으로 회사바꾸어 대응한다고 하지만, 근본적으로는 미숙한 하이스텍의 출퇴근버스 기사/차량관리 및 운영시스템부터 개선을 해야 할 것 같습니다. 최근의 문제 상황에 대해서 내부 채널을 통해서 회사 총무그룹에 의견이 전달되도록 하겠습니다.</t>
+  </si>
+  <si>
+    <t>어깨싸움 아시다시피 통근버스 좌석이 사람에 비해 좁습니다. 그런데 일부 사람들이 옆 사람은 생각도 안하고 자기만 편하게 팔이나 다리를 벌려 앉네요. 특히 팔을 자기만 편하게 하고 앉으면, 그 팔에 옆사람 팔은 눌리거나, 팔을 피하려고 하다보면 좌석에 겨우 걸터앉아 1~2시간을 가게 됩니다. 특히 많은 옷을 입는 겨울엔 더욱 심하게 어깨싸움을 하게 되네요. 서로가 양보하면 좋겠지만, 그런 사람은 보기 힘듭니다. 그러니 좌석을 확실히 나눌 수 있는 나무판 하나씩 비치해주세요.</t>
+  </si>
+  <si>
+    <t>석계선 차량상태 석계선 차량 난방이 안되더군요.. 그런데 처음 그런것도 아니고 어제도 같은 차량이 난방이 안됐는데 오늘 어떻게 같은 차량을 또 운행 할 수 있는지... 현대관광 사장 마인드가 그런건지 조치 좀 취해주세요</t>
+  </si>
+  <si>
     <t>황인택기사님감사합니다. 2012.11.30. 10시 구리/노원행 퇴근길에 깜박하고 가방을 두고 차에서 내렸습니다. 너무 막막하고 어떻게 찾을지 걱정되었는데 정해용 담담자 분께서 찾았다는 연락을 주셔서 일단 감사하고요^^ 그날 기사분이셨던 황인택 기사님께 정말 감사드립니다. 가방안에 저에게 중요한것들이 많이 있었는데 이렇게 찾아주셔서 다시한번 감사드립니다. 그리고 제가 정말 감사의 마음으로 작은성의를 드리려고 했는데 그것조차 받지 않으시더라고요. 저 말고도 많은 분실물들을 주인에게 찾아주셨더라고요!! 더 많이 감사드립니다. 복받으실꺼예요!!^^</t>
   </si>
   <si>
     <t>보안직원들 참..싸가지들 보안이면 보안이지 먼 벼슬이라고 말투며 행동이며 명령조입니까? 보안이 먼 경찰이라도 됩니까?? 단순 경비업무하면서 명령조로 하는말투좀 고치라고하세요 어느누구하나가아니라 보안직원 전부 다가 그럽니다 자리가사람을 만든다고 보안요원분들이 머 하이닉스 직원들 위에 있는줄로 아시는가본데 써비스를 제공하는 회사에서 이따위 써비스마인드를 팔아먹는다는게 말이됩니까? cs교육을 재대로 시키시던가 그놈에 말투 들 부터고치라고하세요 나이먹은 아저씨나 어린놈들까지 전부 인상쓰면서 명령조야..</t>
   </si>
   <si>
+    <t>11/28 영통 느티나무 앞 출발 버스 의자 고장 수리되었나요? 안녕하세요 영통 느티나무 앞에서 출발하는 출근 버스에 의자 등받이 조정하는 버튼이 눌려서 의자가 고정이 되지 않아요 좌석 번호는 안적혀있어서요 통로쪽이고 앞에서 8번정도에 있어요 11/28일 확인했을때는 의자가 고장이었는데 오늘은 앞에 앉는 바람에 확인을 못했네요~~ 수리 여부 확인 부탁드립니다. (아침에 내일때 정신없어서 기사님께 말씀 못드렸어요..)</t>
+  </si>
+  <si>
     <t>수영강습생용 락커시급 체육관 수영장 여자탈의실에는 강습생들의 수영보따리가 책장 두개와 사물함 위쪽을 가득 채우고 넘쳐납니다 저도 그 중에 보관을 했는데요 두 번이나 도둑을 맞았습니다 남이 쓰던 샴푸며 때밀이를 왜 가져가는지... 당일 사용하는 락커 말고 열쇠를 가지고 다닐 수 있는 보관함을 좀 만들어주세요 강습을 진행하자면 그에 따른 서포트도 있어야 하는거 아닐까요 사이즈가 작아도 좋고 유료도 좋습니다 정말 절실합니다</t>
   </si>
   <si>
+    <t>고객의 소리에 해결는 몇%? 주로 변명및 리풀만 하는것같은데.. 며칠전 고객의 소리에 불만사항에 대한 글을 올렷으며 그것에 대한 대책 마련을 요구 하였으나 주로 리풀에만 그치고 누구가 답할수 있는 답변으로 끝낫음 과연 여기 고객의 소리에 글을 남긴것에 대한 해결된 건수는 얼마나 되는지 달 별로 공지를 해주시는게 담당자 연락처를 알려주는 리풀에 무엇을 어떻게 하라는건지...</t>
+  </si>
+  <si>
+    <t>임산부 배려석 말이에요.. 안녕하세요. 현재 임신 6개월차인 임산부입니다. 다름이 아니라 어제 버스를 타려고 보니 이천관내 버스 중 총 5개 버스의 임산부 배려석 전체에 전부 아저씨들이 타고 계시더라구요. 두 좌석 다.... 한 대도 아니고 과반수의 버스에 아저씨들이 앞자리 딱 앉아계시고.. 출근할때에는 다들 마음도 급하고 하니 배려를 해달라고 하진 않겠는데 퇴근할때는 기사님의 제재가 가능하니 기사님들께 부탁드려서 아저씨들이 맨 앞자리 임산부 배려석에 앉지 못하게 해주셨으면 합니다. 어떤 버스는 기사님이 아저씨들이 앉으려고 하면 뒤로 가서 앉으시라고 권유(?)하신다던데... 1:1로 제가 아저씨 여긴 임산부석인데요..- 라고 하게 되면 상당히 불쾌해하시더라구요. 아예 시행을 하지 말던지 아니면 조금 제재를 해주셨음 해요. 오늘도 임산부인데 자리가 없어 복도에 서서 출근했네요. 그러다 급정거라도 해서 사고 나면 누가 책임을 져주실건지 걱정되는 마음에 글 남겨봅니다. 잘 부탁드립니다. 추운 날씨에 감기 조심하세요. 감사합니다.</t>
+  </si>
+  <si>
+    <t>아래 7시30분 노원노선 운영 관련 건의드립니다에 대한 다른의견입니다 우선 21시 노선은 구리/태릉,태릉/노원이 아닌 구리/노원,태릉/노원이 맞을겁니다 19시30분 배차가 구리/태릉,구리/노원에서 구리/태릉,태릉/노원로 변경되면 노원하차인원은 상당한 타격이 생깁니다 (1) 현재는 많은포션을 차지하는 태릉하차분들이 2대의 차를 나누어 타시고 있지만 (모두 구리를 경유) (2) 구리/태릉,태릉/노원로 변경이 되면 무조건 태릉/노원을 타시기 때문에 노원하차인원은 타기기 상당히 힘들어집니다 (3) 따라서, 변경이 된다면 구리/태릉,태릉/노원이 아닌 구리/노원,태릉/노원이 되어야 합니다 이 내용도 함께 반영부탁드립니다</t>
+  </si>
+  <si>
+    <t>7시30분 노원노선 운영 관련 건의드립니다. 안녕하세요. 현재 7시 30분의 노선은 구리/태릉 1대, 구리/노원 1대로 운영중입니다. 원래는 1대였는데 2대로 시범운영(? 확정됐는지는 모름) 하는걸로 알고 있는데 혹시 9시노선처럼 구리/태릉 1대, 태릉/노원 1대로 검토해보심이 어떨까요 실제로 7시 30분차의 구리/노원차에는 태릉/노원으로 가는 사람들이 대부분이고 구리에서 하차하는 사람은 적으면 0명에서 많게는 5명정도 뿐입니다. 그렇다고 구리/태릉 노선의 좌석이 부족하지는 않는것 같습니다.(직접 타보지는 않고 눈으로 봤을때만이라 확실하지 않음) 노원은 구리를 경유해 갈경우 시내를 통과해야해서 많게는 30분 넘게 시간이 더 걸립니다. 긍정적인 검토 부탁드립니다. 또한 어느순간부터 6시차 노원선이 모든 요일에 태릉을 거쳐서 운행하게 되었는데 공지사항에는 없네요. 그럼 추운 날씨 감기 조심하세요.</t>
+  </si>
+  <si>
+    <t>독서등관련 추가요청사항입니다 1.우선적인 전체공지를 부탁드린 내용에 대한 답변 감사드립니다 2.전체적으로 공지가 되면 꼭 게시판에도 공지부탁드립니다 3.전체공지해주신 이후에는 관리자님 처음 말씀대로 독서등이 켜지지 않는 차량에 대해 개별버스번호로 요청드리도록 하겠습니다</t>
+  </si>
+  <si>
     <t>담당자분들을 격려합니다 화이팅! 저도 직장생활이 10년이 넘었지만, 다른회사랑 비교해서 이만한 복지가 또 있을까 싶네요. 며칠전 분실물덕분에 담당사무시에 찾아갔던적이 있었는데 기대도 않하고 있던 좀 오래된 물건을 친절하게 잊지않고 찾아준 담당자들이 너무 고맙습니다. 근데 옆에 한분은 본인물건이 없어졌다고 난리를... ㅡㅡ 본인부주의로 잃어버린물건을 왜 관리자한테 성질을 내고 있는지 원.. 게다가 우연치 않게 처리해야할 일들을 적어둔 회의실을 봤는데요. 같은회사라는게 좀 부끄럽게 너무 개인적인 이유로 요구하는게 많더라구요. 아무리 자회사라고는 하지만 예전에 같이 근무했던 동료들인데 말이죠. 차편이 모자란것에 대해 죄송하다는 말은 듣고싶지 않다 라는 말이 말인가 싶네요. 그게 담당자들이 죄송할일인가 싶어서 동료가 한 말이 부끄럽기까지 합니다. 아마 정확하진 않겠지만 우리회사에서 차편늘리고 줄이는것을 결정해주고 하이스텍에서는 운영만 하는것일텐데요. 맞지않나요? 측은한 생각마저 들어서 이렇게 두서없이 늘어놓게 되었습니다. 기운내시고 화이팅하세요~! 알아주는 사람이 없는건 아니니까요..</t>
   </si>
   <si>
+    <t>11월 6일 성남/곤지암 버스 기사님의 불편함 11월 6일 오후 2시30분에 잠실 버스를 타려고 기다리고 있었습니다. 저를 포함한 대기 인원은 모두 11명이었구요! 잠실 차량이 없는지 성남/곤지암 버스 기사 아저씨가 오시더니 본인 버스에 타라고 하시더라고요. 사건은 거기서 시작된거 같네요. 좌석이 운전석 옆에 있는 보조석까지 10자리가 남는 상태였고 버스 기사 아저씨가 곤지암에 가면 내리는 사람이 있으니깐 거기서 부터는 앉아서 갈수 있는데.. 탈건지 말건지 알아서 하라고 하더라고요. 저는 어쩔수 없이 시간관계상 탄다고 얘기했습니다. 하지만 제 아내는 다음달이 예정일인 임산부였습니다. 기사분은 간이 조수석이 앉은 제 아내를 보고 임산부냐고 물어보더니 기 앉으면 안되는데라고 한마디만 하고 출발하였습니다. 물론 저는 바닥에 신문지를 깔고 아내 옆에 앉아 있었구요. 불편한 상태로 곤지암에 도착했지만 내리는 사람이 없어서 바닥에 계속 앉고 아내 또한 계속 불안하게 간이 조수석에 앉아서 갈수 밖에 없었습니다. 그래서 저는 기사분에게 처음에 탈때 곤지암에서 사람이 내리니깐 앉아서 갈수 있다고 하시지 않았습니까! 근데 내리는 사람이 없네요.? 처음에 출발할때 확인하고 얘기해주셨어야 하지 않나요?라고 물어보니깐.. 기사 아저씨는 대수롭지 않게 광주에 가면 내리는 사람이 있으니깐.. 거기서 앉아서 가라고 하시더라구요.. 그리고는 그때부터 내가 손해 보면서 까지 잠실 사람 태웠는데.. 이런 얘기 듣는다고 계속 뭐라고 하시더라고요.. 저도 그렇지만 임산부인 제 아내는 오는 내내 계속 그런 얘기를 들어야했으면 아내는 많은 스트레스를 받았습니다. 그리고는 성남을 지나서 잠실을 가는 도중 기사 아저씨가 또한번 불쾌함을 주시더라고요.. 마이크로 아까 앞에 앉았던 사람 앞으로 오라고 자기쪽 담당자 핸드폰 번호 가르쳐 줄테니깐.. 아까 있었던일 전화해서 다 얘기하라고 방송을 하시더라고요.. 그때는 정말 어이가 없었습니다. 사실 전화는 그전에 할려고 했습니다. 하지만 버스내에서 통화를 하면 다른 사람에게 불편을 줄까봐 전화를 해도 차에서 내려서 할려고 했는데.. 굳이 방송으로 전화 번호 가르쳐 줄테니깐.. 다얘기하라니. 사실 저는 그때 임산부는 지정 좌석에 앉아야 하는데 사정 때문에 안된다는 양해의 말을 들었으면 했습니다. 저는 이런 기사분의 태도는 다시는 없어야 된다고 생각합니다. 그리고 담당자 분과 통화를 하였는데.. 기사분과 얘기후 전화를 주신다고 했는데.. 지금까지 전화가 없네요.. 버스를 이용하는 한 사람으로써 SK하이스텍에 신뢰 할수 없네요.. 어디 불쾌하고 불편해서 버스 이용하겠습니까? 기사 아저씨의 실명은 거론하지 않겠습니다.</t>
+  </si>
+  <si>
+    <t>통근버스 독서등 관련 요청드립니다 1. 아래에 통근버스 독서등 관련 요청에 대해 지지합니다 2. 관리자께서 해당버스의 번호를 콕!찍어달라고 말씀해주셨는데요 제가 타는 구리/노원선은 다양한 시간에 탑승을 하며 늘 독서등을 켜보지만 지난 1달간 한번도 켜진적이 없습니다 3. 우선 관리자님께 전체통근버스에 대한 지침공지 한번 부탁드립니다 4. 어느정도 개선이 된후 미진한 부분에 대해서는 관리자님 말씀대로 개별버스번호로 말씀드리도록 하겠습니다 5. 또한, 독서등은 켜지지만 그 성능이 너무 뒤떨어지는 부분에 대해서도 이후에 개별버스번호로 말씀드리도록 하겠습니다 항상 열정적으로 지원해주심에 미리 감사드립니다</t>
+  </si>
+  <si>
     <t>그랜드관광 박종관기사님 감사합니다. 11/01(목) 22시 영통선 퇴근버스 내에서 지갑을 분실한 듯 하여 다음날 통근버스 담담자께 전화를 드렸더니 바로 연락이 왔습니다. 남의 손을 탈까봐 직접 전달해 주시겠다며...11/02(금) 저녁에 만났는데 얼마나 마음고생이 심했겠냐며 오히려 위로 인사를 해주시면서 건네주시더군요. 정말 다시한번 감사드립니다.</t>
   </si>
   <si>
+    <t>스카이해피 버스 접속을 어떻게 하나요? 스카이해피 버스 사이트에 접속해서 기본정보 변경 창이 뜬 이후에 아무리 기본정보를 변경하려고 해도... 계속 http 오류 404 not found 라는 창으로 넘어가면서 아무것도 되지 않네요.. 확인 부탁 드립니다!!</t>
+  </si>
+  <si>
+    <t>skyhappybus site 이용 관련 문의 드립니다. 위 홈페이지 로그인 하면, 개인정보 수정후 이용가능합니다 라는 안내문구가 뜨고, 개인정보 수정하고 수정완료 누르면 아무것도 안뜨네요. 다시 접속하면 다시 개인정보 수정후 이용가능합니다라는 안내문구로 돌아갑니다. 요걸 무한 반복하고 있는데요. 저만 그런건지 원래 그런건지 확인좀 부탁드립니다. 그리고, 아이폰은 아직 어플 안나온게 맞는건가요~?</t>
+  </si>
+  <si>
     <t>[불합리]통근버스 분실물에 관한 불편한 진실 2012/10/15 22:00 청주-&gt;이천행 퇴근버스에서 안경을 놓고 내렸습니다. 피곤한 터라 버스에서 잠이들었다 깨니 회사 정문이 더군요. 잠결에 빠르게 버스에서 내리고, 뭔가 허전하다 했더니 안경이 없었습니다. 버스는 방금 출발한 상태였구요. 정문 보안 검색대에 버스 기사님의 연락처를 문의 하였습니다. 보안요원은 기사님 번호는 모른다며, 연락처 하나를 주시고는 이리로 연락해 보라고 하셨습니다.(만약 여기서 기사님에게 바로 전화가 가능했다면... 안경을 찾을 확률이 굉장히 높았을 것입니다) 당시 23시가 넘은 시간... 보안 요원에게 받은 전화번호는 받지 않았습니다. 다음 날인 2012/10/16(화요일) 오전 보안 요원에게 받은 전화번호로 다시 전화를 하였습니다. 담당자가 전화를 받았고, 확인 후 다시 연락을 주겠다고 하고 전화를 끊었습니다. 그날... 연락은 오지 않았습니다. 다음 날 2012/10/17(수요일) 오전 다시 문의를 하였습니다. 담당자가 전화를 받았고, 확인 후 다시 연락을 주겠다고 하고 전화를 끊었습니다. 퇴근 시간이 가까워지고 응답이 없자 다시 연락을 하였습니다. 확인 후 다시 연락을 주겠다고 하였습니다. 퇴근 시간이 넘어서 연락이 왔습니다. 전화를 못받아서 부재중 전화 15분 뒤 전화를 걸어 분실물 확인 여부를 물었습니다. 기사님이 20시 이 후 연락이 가능하다고, 확인 후 다시 연락을 주겠다고 하였습니다. 그날도... 연락은 오지 않았습니다. 2012/10/18(목) 안경을 분실하고 3일 뒤... 다시 연락을 하였습니다. 담당자 분께서 하시는 말씀이 어제 기사님과 연락이 안되어서, 오늘 오전에 문의 결과 분실물을 확인 하지 못했다고 합니다. *일단 위 내용은 통근버스 내 안경 분실에 대한 담당자의 대응 결과입니다. 어떤 누구에게는 하찮은 물건 일 수 있으나, 잃어버린 사람에게는 소중한 물건 일 수 있습니다. 자신이 겪지 않은 일이라 간절함이 작을 수 있습니다. 하지만... 1. 잃어버린지 1분도 되지 않은 상황에서 분실물에 대한 문의 결과가 3일이 지난 뒤에 확인을 받았다는 진실 2. '확인 후 연락을 주겠습니다' 라는 자동 응답성 멘트가 '수고하세요'와 같은 늬양스로 들리는 불편한 진실 3. 하루 동 시간 수십대.. total 몇 백대가 운행하는 통근버스임에도 불구하고 통근버스 분실물 카테고리의 분실물 마지막 update가 2012-02-16일 이라는 불편한 진실 여러분은 어떻게 생각하십니까?</t>
   </si>
   <si>
@@ -733,33 +1564,114 @@
     <t>수영장 드라이기 안녕하세요. 여자샤워실 드라이기가 2개인데 1개가 고장났어요. 수리 부탁드려요.</t>
   </si>
   <si>
+    <t>비공개 글이 너무 많습니다 안녕하세요~ 1:1 문의가 아닌, 이렇게 게시판이 운영되는 이유는 질문과 답변을 서로 공유하고자 하는데 그 의의가 있을텐데 요즘 너무 비공개 질문이 많습니다 가끔 문의사항이 있을때, 혹시 다른분께서 문의를 이미 하시진 않았는지 검색을 해보면 비슷한 질문일것 같지만 비공개설정인 글들이 대부분입니다 비공개 설정옵션을 차라리 없애고, 1:1 문의게시판을 별도로 추가운영하는건 어떤지 여쭙니다 일반적인 글들은 공개/비공개 구분없이 모두 공개되어 공유되었으면 좋겠습니다</t>
+  </si>
+  <si>
+    <t>21시 노원선에 대한 재문의 드립니다 안녕하세요~ 1. 관리자분께서 8월3일 다른 질문에 답변해주신 내용중 21시 태능/노원 1대, 구리/노원 1대, 총 2대가 운행중에 있음을 알려드립니다가 있습니다 2. BUT, 실제 노선은 태능/노원과 구리/태능으로 운행중인것 같습니다 그러므로, 구리/노원은 현재 없는 상태입니다 (1) 실제 버스에 표시되는 네온도 그렇구요. 실제로도 태능에서 모두하차하게됩니다 (2) 태능에서 내리시는 분들은 당연히 태능/노원선부터 탑승하시기때문에, 노원까지 가는 분들의 자리가 매우 부족합니다 3. 21시 노선에 대한 정확한 행선지를 여쭙니다 에 대해 다음과 같은 답변을 받았습니다 우선 통근버스 이용에 많은 감사를 드립니다. 고객님께서 제보 행선지 안내팜 표기에 대하여는 금일부터 수정하여 운행할 수 있도록 요청하였습니다. 기타 추가문의는 김일구대리(4503), 김건호대리(2218)에게 연락을 주시면 상세히 안내 해 드리겠습니다. 감사합니다. 하지만 어제 21시 노선은 역시 구리/태릉과 태릉/노원이었습니다 다시한번 수정요청을 드립니다</t>
+  </si>
+  <si>
     <t>(그랜드관광 반장님)멀리까지 가셔서 휴대폰 찾아주셔서 감사합니다. ^^ 안녕하세요. 오늘 영통선 셔틀버스에 휴대폰을 두고 내렸는데 찾아주셔서 감사합니다. ^^ 가방에 휴대폰이 없어서 주차장가서 말씀드리니 이미 제가 탄 버스는 다른 일정때문에 떠나버리셨고 정말 친절하게 여기저기 연락도 해주셨어요. 대차한 버스라서 안성까지 휴대폰이 있는걸 거기까지 가서 찾아주셔서 정말 감사드립니다. ^^ 반장님하고 통화했구요. 그랜드 관광 기사님이 가지고 계시다고 하시네요. 정말 정말 감사드립니다. ^^ --------------------------------------------------------- 어제 기사님 만났는데요 ~ 그랜드관광 반장님이 직접 안성까지 가셔서 찾아주셨더라구요 정말정말 감사합니다. 그리고 너무 너무 죄송하네요일부로 멀리까지 다녀오셔서 ㅠㅠ 기사님들 모두들 건강하시길...^^</t>
   </si>
   <si>
     <t>현대관광 서진용 기사님 칭찬합니다. 일교차가 심해서 아침마다 추운 요새, 오늘 아침 명절증후군으로 피곤해 하는 사람들을 위해 따뜻하게 히터 틀어주셔서 감사합니다, 완전 푹 자고 왔어요. 요새도 에어콘 틀어주시는 기사님들 있어서 감기를 달고 사는데 너무 감사합니다. 인사 안받아주시는 기사님들도 많으신데 웃으면서 인사도 받아주시고.. 감사합니다~!!^^</t>
   </si>
   <si>
+    <t>SKY happy bus 되는 거 맞나요? 저만 이상한건가요? SKYHAPPYBUS 홈페이지 접속은 되는데, 개인정보수정하라고 해서 하면 '인터넷 익스플로어에서 웹 페이지를 표시할 수 없습니다.' 라고 뜨고 다음에 로그인하면 개인정보 수정 후 이용할 수 있다고 하는데.. 어쩌라는 말인지 모르겠네요. 저만 이상한건지 확인바랍니다.</t>
+  </si>
+  <si>
+    <t>상시출입증으로 통근버스 이용방법 안녕하세요. 지난주부터 프로젝트로 이천하이닉스로 출근합니다. 이번주부터 상시출입증을 발급받아 통근버스를 이용하고 있습니다. 그런데 상시출입증 타각을 하면 '등록 후 사용하세요'라는 메세지가 나옵니다. 기사님은 별 말씀이 없으시긴 한데요... http://www.skyhappybus.com/로 들어가려 해도 출입증에 적힌 번호로는 로그인이 안됩니다. 어떻게 등록해야 할까요? 답변 부탁 합니다.</t>
+  </si>
+  <si>
+    <t>21시 노원선 문의드립니다 안녕하세요~ 1. 관리자분께서 8월3일 다른 질문에 답변해주신 내용중 21시 태능/노원 1대, 구리/노원 1대, 총 2대가 운행중에 있음을 알려드립니다가 있습니다 2. BUT, 실제 노선은 태능/노원과 구리/태능으로 운행중인것 같습니다 그러므로, 구리/노원은 현재 없는 상태입니다 (1) 실제 버스에 표시되는 네온도 그렇구요. 실제로도 태능에서 모두하차하게됩니다 (2) 태능에서 내리시는 분들은 당연히 태능/노원선부터 탑승하시기때문에, 노원까지 가는 분들의 자리가 매우 부족합니다 3. 21시 노선에 대한 정확한 행선지를 여쭙니다</t>
+  </si>
+  <si>
     <t>내선 전화 개통 감사드립니다. 당사는 외부전화(KT)를 사용중에, 언제 통신 장애가 발생할지 모르는 상황이었습니다. 보안운영팀 서주옥과장에게 문의한 결과 이번기회에 단지내 전화로 변경시 비용 절감 및 통신 장애를 극복할수 있다는 조언에 따라 당사도 내선전화로 변경하였습니다. 당사의 상황에 비추어 매우 적절한 조치 감사드립니다.</t>
   </si>
   <si>
+    <t>버스 ID 카드 인증 시 등록 후 사용하세요 알림 메시지 셔틀버스 승하차시 ID카드 찍으면 등록이 안되어 있다고 멘트가 나옵니다. 지난 주에 한번 이미 문의를 드렸고 이번 주부터는 수정된다고 들었는데 언제 수정이 완료되나요? 버스 기사 아저씨가 어서 등록하라고 하시네요.</t>
+  </si>
+  <si>
+    <t>협력사 통근버스 이용문의 안녕하세요. 이번달 초부터 금년 말까지 프로젝트로 이천하이닉스로 출근합니다. 금일 상시출입증을 발급받았습니다. 17일부터 셔틀탈때 카드를 찍어야 된다고 들었는데. 어떻게 이용해야 되는지 문의드립니다. skhappybus 사이트에는 발급받은 사번으로 로그인이 안되네요.</t>
+  </si>
+  <si>
+    <t>사내 병원 제2진료실 여의사분 칭찬하고 싶네요 예전에는 사내병원에 가면 질문도 별로 없고, 그냥 끄적끄적 적어준다고 대충 처방한다는 느낌이었습니다. 하지만, 제 2진료실 여의사님께 진료를 받고 나서는 감기약도 넘 잘듣고, 성의있는 질문과 태도로 환자의 질병 증상에 귀기울이시는 느낌입니다...앞으로도 쭉 사내병원에서 뵐수 있었으면 합니다... ^^</t>
+  </si>
+  <si>
+    <t>버스 등록에 관련하여~ 안녕하세요~ 요세 아침에 출근버스를 탈때 사원증을 타각 하는데... 오늘아침에 해보니까 등록이 안되있다고 나오더라고요? 무슨소리인지 몰라서 지금 등록에 관한 것이 있나 홈페이지를 찾아봤는데 없더라고요? 어떻게 해야하는지 답변 부탁드립니다.</t>
+  </si>
+  <si>
+    <t>버스 승하차 카드 타각시 한장만 대 달라는 음성이 뜹니다 안녕하세요. 버스 탑승코자 카드 타각시 '카드를 한장만 대주세요' 하고 안내가 뜹니다. 지난주에는 시범기간이라 오류려니 했는데, 오늘도 탑승시 똑같은 문제가 발생했습니다. (지난주에 문제 해결을 위해 타각과 관련한 공지사항에 있는 번호로 여러차례나 전화를 했는데 안받으셨어요..) 지켜보니 제가 탑승하는 버스에서는 저만 그런 현상이 나타나는 것 같습니다만, 아마 저와 유사한 증상이 다른 버스에 탑승하는 몇몇 구성원에게도 나타날 것 같아 공개로 글을 올리니 해결 방법을 답변으로 달아주시면 같은 문제를 겪는 사람들에게 큰 도움이 될 것 같습니다^^. 기사분은 등록을 했냐고 물으시던데 따로 등록을 하는 절차가 있는 것인지요. 안내 부탁드립니다~.</t>
+  </si>
+  <si>
+    <t>보안근무자건의입니다! 안녕하세요 요세 날씨도 쌀쌀한 가운데에 있어서 근무하시는 보안 근무자님들 수고많으십니다. 다름이 아니오라 몇가지 불만 사항이 있어서 글을 올리옵니다. 2012년 09월 09일 야간 근무자(R3연구소)에 대한 건의입니다. 주로 이곳에만 오시는거 같더군요. 그분들도 야간에 근무하시라 수고 하시는건 이해 하고 피곤 하신거는 이해합니다. 다만 근무 하시는데 한분은 엘레베이터 앞에 의자를 가져다 놓으시고 신문 보고 주무시고 하시고 사람은 오건 말건 신경조차 쓰지 않고 또 한분은 책상에 앉아서 핸드폰으로 게임을 하는데 소리마저 크게 틀고 하시는걸 한두번도 아니고 여러번 보게 되었습니다. 그렇게 근무 하실거면 핸드폰 검사대에 안올려놓고 지나가도 되겠죠? 사원증 안가지고 다녀도 뭐라 안하더군요. 이건 좀 아니다 싶어서 건의를 드리는 입장이며, 또한 유독 그근무자분께서는 새벽출근시간에는 신나는 음악을 틀어 놓더군요. 전에는 보안 방송이 나와서 그러려니 하고 지나다녔는데 이제는 나날이 최신곡을 듣고있습니다. 그런데 이렇게해도 되는건가요? 듣는걸 좋아 하는 사람도 있지만 꺼려 하시는 분도 있을거라 생각이됩니다. 다른분들과 근무하는 방식이 매우 다른거에 있어 의문이 생겨 이렇게 글을 작성합니다. 쌀쌀한 날씨에 근무하시느라 대단히 수고 하십니다.</t>
+  </si>
+  <si>
+    <t>[대방역 출발 노선/신길선]임산부 우대석 홍보 및 관리 미흡 제가 타는 대방역 출발, 퇴근 신길선 노선은 임산부 우대석 자리에 임산부가 앉을수 없습니다. 항상 덩치 큰 남사원들의 인기 자리입니다.칼퇴하고 나와도 걸음이 늦으면, 못앉는 경우가 허다하고, 아침시간에는 거의 선택의 여지가 없습니다. 일전에 만삭의 임산부도 항상 뒷자리에 앉아있는 모습을 봤는데 불편해보였습니다.저또한 둘째 임신으로 배가 많이 나왔고, 이제 곧 만삭이 되어가는데, 출퇴근 시간도 긴 대방선, 신길선에서 임산부 우대석이 제대로 지켜졌음 좋겠습니다. 특히나, 대방역 출발, 신길선행 통근버스는 이전에 탔던 천호 군자선에 비해 탑승자들의 배려 및 기사님과 회사측의 관리 및 홍보가 필요해 보입니다. 적극적인 지원 부탁드리겠습니다. 벌써 임신6개월동안 말없이 다른 자리에 앉았습니다.</t>
+  </si>
+  <si>
+    <t>사내셔틀 이용중 불편사항 8월31일 오후 6시 5분 영농장 출발 사내 셔틀 이용시 기술지원센터에서 내릴려고 하였습니다. 다음 내릴곳이 기술지원 센터입니다고 방송이 나올때 미리 내릴려고 앞에 서 있었습니다. 그런데 기사 아저씨가 전화통화를 하느라 그냥 지나치어서 세워달라고 이야기를 하니.. 어이 없게도 너무 늦게 나와서 지나친거라고 오히려 뭐라하더군요.. 분명히 미리 나와서 대기하고 있었는데...</t>
+  </si>
+  <si>
+    <t>영농장 18:05 출발 버스아저씨 불친절하네요. 조치바랍니다. 영농장 18:05 출발 셔틀버스를 타면서 황당한일이있었습니다. 아저씨가 전화를 받으면서 운전을 하고 있었습니다. 도착지인 기술지원센터앞에서 내릴려고 방송이나오자마자 앞으로 갔습니다. 그런데 버스를 세워주지는 않고 계속 가는겁니다..그래서 아저씨 왜 안세워주세요 하니 아저씨가 말하길 일찍 나와있지 않았잔아요라고 하네요. 이런 황당한경우가어디있나요.. 도대체 언제부터 나오라는건가요.. 전화를 하면서 운전해 놓구선 오히려 우리가 잘못했다는 식으로 얘기를 하네요.조치부탁합니다.</t>
+  </si>
+  <si>
+    <t>8월31일 영농장 6:05분 셔틀버스 불편신고 중앙 식당을 가기위해 6:05분 차를 엠텐 사거리에서 탔습니다. (연구개발센터인가 거기 다음이 기술지원센터) 제가 내릴곳이 기술지원센터입니다. 연구개발센터를 지나고 안내가 나오자마자 자리에서 일어나 내리려고 앞문쪽으로 나갔는데 아저씨께서 전화통화중이었습니다. 그런데 아저씨께서 지나치셨습니다. 아저씨 왜 안내려주냐고 물어보니 일찍나오셨어야죠.. 이러는겁니다. 장난하는것도아니고 기사님본인이 통화하다 지나친걸 일찍나온 저보고 뭐라하는건 아닌가 싶습니다. 제제부탁드려요 짜증나서 버스를 못타겠습니다.</t>
+  </si>
+  <si>
+    <t>7시 30분 태릉/노원차 안녕하세요. 7시 30분차 구리/태릉/노원선을 이용하는데 언제부터인가 2대가 되었더라구요 2대를 운영하실꺼라면 구리/태릉, 태릉/노원 으로 분리 운영해주세요 노원선은 구리를 거쳐 갈 경우 항상 1시간 30분이 걸려요 효율적인 운영 바랍니다~~</t>
+  </si>
+  <si>
+    <t>7시 30분 구리/노원선 관련 7시 30분 구리/노원선이 현재 2대가 시범운영 되고 있습니다. 만약 2대로 확정이 된다면 현재 구리/노원, 구리/태능을 9시 퇴근버스와 같은 구리/노원, 태능/노원 노선으로 운행 되었으면 좋겠습니다. 수고하세요</t>
+  </si>
+  <si>
+    <t>통근버스 와이파이 전 버스 점검요청 와이파이를 달면 모델용 인가요? 켜지도 않는 기계 탓에 와이파이 하나도 안잡힙니다. 예전부터 올리려고 해도 고쳐지지 않아 참다 못해 지금에서야 글을 올립니다. 하이스텍에서 점검해서 와이파이 서비스를 받을수 있게 도움을 주세요</t>
+  </si>
+  <si>
+    <t>헬스장 문제가 많네요.(아령 도난) 점심시간에 헬스장에 가면 공간도 비좁고, 공기도 탁하고, 에어콘에서는 곰팡이 냄새도 나고, 헬스 기구는 너덜너덜... 관리하시는 분은 있는건지, 청소(에어컨 포함)는 하는건지... 새로 들여온 기구는 관리를 안해서 삐걱 삐걱 소리도 납니다. 개선할점이 아주 많습니다. 아령이 없어졌는데도 아무도 몰라요...관리하는 아저씨는 알고 있는지...10KG, 8KG, 7KG, 5KG 짜리 아령이 없어졌는데도 아무런 조치를 하지도 않습니다. 제발 관리 똑바로 하세요.</t>
+  </si>
+  <si>
+    <t>회사내 지게차 안전문제 어디로 문의 드려야 되는지 몰라서 여기에 남깁니다. 아침에 회사내 장비같은거 드는 지게차???(04노5548??)를 타고 가시는분이 그거 운전하면서 앞으보고 가시는게 아니라 계속 핸드폰보면서 가시더라구요. 자칫 사고로 이어질 수 있을 것 같아 말씀드립니다. 정말 위험해 보이던데 빨리 적절한 조치를 취해주셨으면합니다.</t>
+  </si>
+  <si>
     <t>옥계휴양지를 다녀왔습니다. 작년에 갔다가 만족스러워서 올해도 부모님을 모시고 다녀왔습니다. 보물찾기,운동회,해변가요제 등 준비되어있는 프로그램에 휴가기간을 즐겁게 잘 보낸것 같아 감사합니다. 밤에는 모기향과 랜턴도 지원나오고 돗자리,은박지장판 등 섬세한배려에 감동했네요. 계신 스탭들 중에 권오영대리님은 불철주야로 뛰어다니시며, 휴가객들 불편한건 없는지 신경써주시는 모습보면서 '일은 저렇게 해야 되는거구나' 생각했습니다. 앞으로 저도 제가 사장이라는 생각으로 회사생활 열심히 하겠습니다. 하이스텍 화이팅!!</t>
   </si>
   <si>
+    <t>사내 건강 검진 관련된 사항입니다. 안녕하세요. 제가 금요일날 오전 10시 경에 건강 검진 재검을 받기위해 사내 부속 검진 센터에서 피를 뽑았는데. 피를 뽑고 문지르거나 그런것도 아닌데 피 뽑고 나서 팔이 심하게 아팠습니다. 자고 일어나면 괜찮아 지겠지 했는데 토요일 야간 근무중에도 계속 팔이 아파서 보니 주사 바늘 들어간 위쪽으로 멍이 심하게 생겼습니다. 지금도 팔이 땡기고 멍이 가시질 않았는데 이런 경우도 있는지 궁금해서 글을 올립니다.현재 야간 근무 중이여서 병원은 따로 안가고 문의만 남깁니다. 답변 부탁드립니다.</t>
+  </si>
+  <si>
     <t>옥계휴양소 너무 좋았습니다 제조본부 00그룹에 근무하는 1인 입니다 8/4 ~8/5 사이에 옥계 휴양소에 다녀왔습니다 탁트인 바다와 편의시설이 모두 완비된 휴양소... 무엇보다 좋았던것은 이런 Hard-ware적인 부분도 있지만 친절함과 열정을 다하는 근무자분들,그리고 갖가지 Event 를 준비하기 위해서 준비하신 여러 직원분들의 정성이 아닐까 생각합니다 저같은 경우는 친형님 가족 및 그 지인들과 동행하였는데 이런 완벽한 서비스와 준비를 보고 왠지 모르게 어깨가 으쓱해지는것이... 왠지모를 자부심과 애사심이 생기면서 업무에 복귀해서는 조금더 업무에 충실해서 조금이라도 더 오래 회사를 다녀야 겠다는 생각이 솔찍히 들더군요 ^^ 처음가본 휴양소 였지만 100% 를 넘어서 200% 만족을 주신 담당자 및 관련자 여러분께 진심으로 감사의 말씀 드립니다 감사합니다 ^^* (특히 풍등 및 불꽃놀이 너무 좋았습니다~~)</t>
   </si>
   <si>
+    <t>통근버스 분실물 메뉴는 운영안하시나요? 게시글이 2월달에 그쳐있어 궁금해서 여쭈어 봅니다.</t>
+  </si>
+  <si>
+    <t>신길선 버스(문의번호 5785)만 빼고 답해주셨던데.. 답글기다리고있습니다 신길선 버스(문의번호 5785)만 빼고 답해주셨던데.. 답글 언제오나 매일매일와서 확인하는데.. 하필 제 글만 딱 빼고 답변을 다 달아주셨더라구요 확인한다거나 잠시 기다리라는 답변이라도 해주셔야하지않나요 ;; 답글기다리고있습니다...</t>
+  </si>
+  <si>
     <t>옥계 해수욕장 진행자분 칭찬합니다. 저는 8월4일 옥계해수욕장을 다녀왔는데요. 너무 감사하여 이렇게 글을 올립니다. 정말이지, 동생과 저와 둘이 몸만...;;;가게되었는데.. 이리저리 다 챙겨주시고~ 정말 필요한 물품들도 다있고.. 모기향, 충전기, 돗자리, 에프킬라, 정말 저희들이 편히 쉴수 있도록 준비해주신게 다 느껴지더라구요.. 더구나 스텝분들은 땡볕밑에서 식사도 못하시고 이러저리 챙기러 다니시고, 이런 저런사람들때문에 짜증이 나실텐데도..활짝웃으시면서 대해 주시는 행동에 정말 감동이였습니다.. 너무 즐거워서..다음주에 또한번 가려구요~ㅎㅎ 그때 또 뵈요~~ 저희를위해 수고해주셔서 진심으로 감사드립니다.^^</t>
   </si>
   <si>
     <t>8월 3일 오후 9시 통근 버스 퇴근길에 핸드폰을 놓고 내린것 같습니다 분실물에도 신고해놓긴 했지만 궁금해서 별도로 문의 드립니다 아이패드로 다른걸 보면서 핸드폰을 가방위에 올려놨었는데 정신없이 내리다가 핸드폰을 미처 못챙기고 내린것 같은데 확인 좀 부탁드립니다</t>
   </si>
   <si>
+    <t>wifi 언제부터 되는건가요? wifi 언제부터 되는건가요? 버스에 기기가 달려있긴 하던데, 어제 검색해 보니 나오지 않던데요... 공지사항에는 7월31일까지 설치라고 되어 있고, 언제부터 된다는 공지는 없네요... 그리고, 별 사용자 인증 없이 sk텔레콤이면 검색해서 사용하면 되는거죠?? 사용일자와 사용방법좀 공지해 주셨으면...합니다....</t>
+  </si>
+  <si>
+    <t>주말농장 제초관련 무더운 날씨에 주말농장 관리 하시느라 수고가 많으십니다. 주말농장에서 채소들을 키우다 보면 관리가 제대로 안되어 잡초가 우거져 있습니다. 정기적으로 제초기를 돌려 깔끔하게 제거해 주셔서 감사합니다. 그러나 지난주에는 좀 기분이 언짢았습니다. 호박덩굴을 통때로 다 잘라내시고 호박에도 칼날 자국이 선명하고... 결국 호박은 버렸습니다. 1주일만 더 키우면 따려던 건데... 더구나 부추 심어 놓은데는 2/3 가량 자르시고 아차 싶으셨는지 나머지는 남겨 주셨더군요... 물론 저도 제초를 한다고 하기는 하지만 주말에만 들어와서 하다보니 잡초가 좀 많았던건 사실입니다. 하지만 딱 봐도 뭔가 심겨져 있다는건 쉽게 알수 있는 정도였는데 이러한 일이 생기니 화가 나더군요.. 며칠이 지나 지금 글을 쓰니 많이 누그러진 상태로 쓰긴 합니다만... 다음부터는 정성들여 길러놓은 작물이 해가 가지 않도록 조심해 주시면 감사하겠습니다. 더운데 수고하세요..</t>
+  </si>
+  <si>
     <t>옥계 정말 짱 입니당!! 아 정말.. 최고입니다. 저희가 셔틀을 이용해서 빼먹은 물품도 많고 한데.. 왠만한건 다 빌려주시구,(모기약 렌턴등등) 화장실도 새로 지었는지 짱깨끗합니다. 보물찾기,해변가요제,물풍선터트리기 등등 상품도 푸짐하고 재밌게 놀다왔습니다. 정말 권오영씨 대단하신분인듯 싶습니다. 거기서 비오는데도 계속 뛰어다니면서 도움주시던데.. 열정 가득한 분이신거 같습니다. 저는 다녀온뒤로 계속 사람들한테 강추를 외치며 다닙니다.ㅎ 저의 sns에도 올려서 사람들한테 자랑도 햇구요 ^^ 너무 감사히 재밌게 놀다 왔습니다.</t>
   </si>
   <si>
+    <t>아미식당 새벽 물류(식자재)차량이요.. 새벽에 A조 출근시 안그래도 물류(식자재)차량과 부디칠까봐 조심조심다니는데요. 얼마전에는 비가 많이 와서 그런가 보행자 통로까지 바짝 차를 대놓고 식자재를 운반하시더군요. 그럼 그쪽으로 다니는 사람은 어디로 다닐까요? 돌아서 8동쪽으로 다닐까요? 아니면 6동쪽으로? 그날 비도 많이와서 앞쪽에 화단쪽으로 갔다가 출근부터 신발 진흙에 다 빠졌습니다. 어느정도 보행자가 다닐수있는 길은 터 놓고 운반하셔야하는거 아닙니까? 비가 오던 안오던 보행자가 다닐수있는 길은 확보후에 운반해주셨으면 좋겠습니다.</t>
+  </si>
+  <si>
     <t>현대 관광 운전사님 감사드립니다.^^ 지난 금요일 6시 구리/우성선 운전하신 현대관광 운전사님 감사드립니다^^ 서울 도착하자마자 하늘이 뚫린 듯 비가 무지 쏟아져서, 우산이 없던 저는 완전 패틱상태 ㅠ 내리기를 주저하자... 운전사님께서 웃으시며 우산이 없냐고 여쭤보시더라구요... 그래서... 네~ㅠ 라고 대답했더니 흔쾌히 버스에 있던 우산을 내어주셨습니다. 덕분에 저는 비를 피해 집에 무사히 (^^) 도착할 수 있었습니다. 감사합니다^^ 우산은 오늘 전해드릴께요~ 그럼 오늘도 안전 운전 하세요~^^</t>
   </si>
   <si>
+    <t>7월17일 구리-노원선 7월17일 퇴근노선이 구리-노원선으로 알고 있는데, 현대관광 버스 운전사님은 구리-태능이라고 버스 앞에 띄어놓고 태능에서 다 내리라고 하였습니다. 저를 포함한 3명 정도가 노원, 수유까지 가지 않냐고 하였지만 버스 앞에 띄어 놓은 걸 보라면서, 여기가 종점이라고 하셨습니다. 이전에서 현대관광 주말 구리-노원 노선은 몇명 되지 않는 다는 이유로 계속해서 노원 그리고 수유까지 가리를 거부하고 거짓말을 하는데, 다시는 이런 일이 발생하지 않도록 해주세요.</t>
+  </si>
+  <si>
     <t>수영강습 쵝오^^ 안녕하세요~~ 강습 2기부터 수강하고 있는데 정말 좋네요~ 외부에서도 받아보고 동호회도 참여하지만 회사 수영강습이 쵝오인것 같아요 ~ 수영 강사님들도 잘 가르쳐주시고, 프로그램을 담당하시는 권오영씨도 강습생들을 잘 챙기시는 모습이 정말 보기 좋습니다^^</t>
   </si>
   <si>
@@ -769,12 +1681,24 @@
     <t>수영 담당자인 권오영사원께 감사의 말씀 드립니다. 3기 초급 수강후 4기 중급을 수강중에 있습니다. 매번 느끼는 것이지만 강사님들이 정말 열심히 가르쳐 주시는것 같습니다. 더구나 오늘 이른 새벽인데도 불구하고 권오영사원께서 직접 수강생을 위해 수박에 커피등 직접 챙겨주셔서 갈증이 확 달아 나는듯 싶네요. 앞으로 더욱 더 좋은 프로그램을 만들어 주시길 부탁 드리며 감사의 말씀을 전합니다.</t>
   </si>
   <si>
+    <t>수영강습 정말 좋아요 이번까지 총 4개차수동안 매번 강습을 받아왔습니다.. 처음엔 물에도 제대로 못떠있어 강습만 받고나면 온몸에 힘이 빠지고, 이런걸 왜 하나 하는 생각이 있었죠,, 근데 차수를 거듭할수록 저도 모르는 사이에 많은 실력이 쌓이더라구요. 이젠 중고급반에서도 뒤쳐지지 않을 정도의 실력도 쌓이게 되었구요.. 스스로 찾아서 운동을 하면 정말 좋겠지만, 게으른 저같은 사람들을 위해서라도 운동도 하고, 건강도 지키는 프로그램이 많이 생겼으면 좋겠네요.. 이제 1년정도 강습을 받았는데도 아직 부족한 점이 많더라구요.. 앞으로도 지속적으로 수영강습을 이어갔으면 좋겠습니다. 수영장내 시설도 최근 유지보수를 하여 환경도 많이 쾌적해진 느낌을 받고 있습니다.. 좋은 프로그램 많이 만들어 주시고 관리해주시는 담당자 분께도 감사의 말씀 드려요.. 오늘 간식도 정말 맛있었어요.. 점점 업그레이드 되는 느낌?</t>
+  </si>
+  <si>
+    <t>현대 엘레베이터 도로 (보안 싸가지너무없내) 너무 한것 같습니다 여타부타 설명도없이 내려 가라고 하니 너무 한것 같습니다 이유를 설명하고 다음부터는 이리로 올라 오지 말라고 하는 것이 당연 한것 아닙니까 무조건 화를 내며 기분 나쁜투로 무조건 내려 가라고 하더군요 한마디로 말해 왕싸가지 없더군요 시정 바랍니다 (너무화가나 글쓰기도 짜증납니다)</t>
+  </si>
+  <si>
     <t>통근버스에서 지갑을 분실한것 같습니다 안녕하세요 금일 19시에 시청행버스 마지막 역에서 내리는데 지갑을 놓고 내린것 같습니다 맨 뒷좌석에 앉아있었는데 내리다 옷에서 빠진것 같습니다 갈색 빈폴 지갑인데 동생이 선물해준거라 꼭 찾았으면 하네요 혹시 찾으면 꼭 연락 부탁드립니다</t>
   </si>
   <si>
     <t>홈페이지 회사연혁 수고하십니다! SK하이닉스 직원인데 통근버스와 식단때문에 이곳 홈페이지를 자주 들어오는데 홈페이지구경중 회사연혁에 하이스텍이 SK그룹 계열로 편입되었다고 나오는데 이곳 하이스텍만 들어간거나요? 제가 아시는분도 자회사에 다니는데 아직 SK그룹도 아니고 저희회사 SK하이닉스 자회사도 아니라고 하는데 그냥 궁금해서 글 올립니다.</t>
   </si>
   <si>
+    <t>궁금해서 문의드립니다. 청주3공장 6월11일 중식에 수삼닭곰탕이 나오는데요. 닭이 호주산으로 되어있더라구요. 닭이 수입산이면 대다수 브라질산인것으로 알고있는데요. 오타인가요? 아니면 진짜 호주산인가요...</t>
+  </si>
+  <si>
+    <t>6월 7일 오후 2시경 단지내 경기 74 사 7361 차량 신고합니다 경기 74 사 7361차량 신고합니다 6월7일 오후 2시 10분경 스태츠칩팩을 지나던 경기78사 7261 SK하이닉스 버스에 대한 불만사항입니다. 길을 건너던 보행자 앞에 멈춰선 경기78사 7261 차량의 기사님께서 문을 열고 내리시면서까지 왜 똑바로 안보고 다니냐고 삿대질과 막말을 하시더군요 죽고싶냐고... 미쳤냐구요.. A조 퇴근시간이었고 양길가엔 주차된 차량이 많아 보행자의 시야 확보는 불편한 상황이었습니다. 물론, 보행자가 횡단보도로 건너야 하는건 맞습니다. 그리고 휴대폰을 확인하느라 전방을 제대로 주시하지 않았던건 보행자의 잘못도 있습니다. 그래서 상황 발생 후 버스가 정차하여 문이 열리자 보행자는 기사님께 죄송하다고 먼저 사과드렸습니다. 그런데. 기사님께서 그렇게까지 욕을 하실 필요까지 있나요? 버스에 타고 계시던 분들까지도 아가씨가 사과하는데 그냥 가시자고 얘기해도 기사님께선 끝까지 막말을 하셨다는군요. 하이스텍에 글쓰고 싶으면 글쓰라고.... 네 그래서 글 올립니다. 단지내에서 규정속도 30Km 아닌가요? 버스 정차시에 끼이익 하면서 급정거 했다고 했습니다. 30Km 이하 속도로 다닌다면 그정도는 아닐텐데요...? 그리고. 그 보행자는 임산부였습니다. 안그래도 놀란 상황에서 그런식으로 대응하시다니요?? 운전기사님이 제대로된 교육을 받은분이 맞습니까??? 철저한 경위 파악과 해당 운전기사의 친절마인드 재교육 부탁드립니다. 말로만 교육한다 한다 하지말고 변화되는 모습을 보여 주십시오.</t>
+  </si>
+  <si>
     <t>수영장 복장에 대한 건의... 안녕하세요... 이제 막 수영장을 애용하려고 하는 사람입니다.. 전.. 전부터 수영을 계속 해왔고, 또한 복장에 대해서 그다지 크게 생각해 본적이 없습니다만 많은 여사원들이... 수영복에 대한 꺼리낌때문에 수영장을 많이 이용하고 있지 못한 실정입니다.. 제 주변만해도 수영을 하고 싶은 사람들은 상당히 많지만... 뱃살등등... 남녀공용이다 보니... 다른 사람에게 몸을 보인다는것이 상당히 부끄럽고 챙피하게 생각하더라구여... 원피스 수영복위에 짧은 비취 팬츠라던지.. 그런거라도 착용할수 있다면... 좀 괜찮을것같습니다만... ^^;; 물론 많은 사람들이 애용하길 바라는 마음에서 문의 건의 드리는것입니다.</t>
   </si>
   <si>
@@ -799,7 +1723,16 @@
     <t>통근버스 기사 아저씨, 담당자님 감사드려요 안녕하세요. 약 1주일전에 분실물이 있었는데요, 분실후 1주일정도 소요되서 못찾을거라 생각했는데 담당자분이 친철하게 애써주셔서 찾을수 있었습니다. 정말 감사드려요. 기사님도 분실물을 잘 보관해 주셔서 감사합니다. 앞으로 저도 주의하도록 할게요 ^^ 건강 조심하시고, 운전 조심하세요~~</t>
   </si>
   <si>
-    <t>2012년 제휴사 콘도 리스트 좀 올려 주세요. 생유 베리 감솨~~</t>
+    <t>통근버스 기사님 흡연관련 태평리행&lt;--&gt;sk하이닉스 운행하시는 기사님들 중에 차량내에서 흡연하시는 분이 있는것 같은데 시정바랍니다. 새벽 통근버스 타면 차내에서 담배 냄새가 너무 많이나서 들어오는 사원 대부분 인상쓰더군요... 기사님이 차내에서 아마도 흡연 하시는 것 같은데... 제발 차내에서 흡연은 하지 않았으면 하는 바램입니다.</t>
+  </si>
+  <si>
+    <t>하이닉스 보안차량 문의입니다 이부분 저도 그런적있네요. 하이닉스 보안차량 문의글 보고 저도 동감이다 싶어서 글씁니다. 저도 이런적있네요. 낮에는 규정대로 잘 다니는 같은데요 밤에 야식먹으려 여자기숙사부터 직진으로 가면서 끝으로 좌측에 중앙식당 보이자나요.. 그 길 있는데요 가는길에 보안차량이 30킬로 초과로 운전하시는 차량 몇대 봅니다. 그뿐만 아니라 ..작은 모닝? 차량도 진짜 빨리 달리더라군요. 가끔 뒤 돌아봅니다. 무섭습니다. 조치 부탁드립니다. 보안차량은 커서 눈에 띄나 방심하면안되겠죠??.. 모닝차량은 좀 천천히 가세요 무섭습니다. 밤에 가끔 봅니다.</t>
+  </si>
+  <si>
+    <t>하이닉스 보안차량 문의입니다 일주일전쯤에 하이닉스 안에서 식당을가던중 보안차량과 부딪칠뻔했습니다 근대 사과도없이 그냥 가더군요 차량은 잠깐 멈칫한후 그냥 가버리고 어이가 없었습니다 선탠이 되있어서 얼굴은 스쳐지나봤지만 얼마지나지 않아서 또 그차량을 봤는데 똑같은분이 타고있었습니다 이름을 좀 알고싶었는데 보안요원 근무지가 매일바뀌는거같아서 그냥 지나가버렸는데 알게되었습니다 면허가 있는지도 좀 알고싶군요 그런행동을 하였으면 사과하는게 맞는데 그냥 가버린것도 이상하게 생각하고 제가 정말 사고가 났었더라면 그렇게 갔을까요 그분 성함은 김학세 라는분입니다.</t>
+  </si>
+  <si>
+    <t>sk하이닉스 정문 보안팀 2012-04월-20일 오전 11시20~30분사이 기숙사에 들어가기 위해 정문을 출입해야하나 사원증 미소지로 일일방문카드를 받기위해 기숙사가 아닌 밖에사는 동생과 함께 방문객 이용실??로 가서 작성함. 해당 여직원이 오늘까지 반납을 요구하였으나 본인이 야간인 관계로 오늘은 힘들것같다하면서 본인입장에서의 방법을 제안해봄[ 일일방문객 카드 받아서 정문을 통과한후 밖에사는 동생은 출입하지 않아도 되니 동생에게 방문객카드를줌. 동생은 일일출입증을 들고 방문객이용실로 들어와 제출하였던 본인 신분증을 받고 일일출입증을 반납하겠다.]라고 제안함. 여직원이 그래도 된다하여 정문을 출입함.그리고 일일출입증을 동생에게 주니..밖의 보안남직원이 뭐하시는거예요??라고 물어 위와같은 일이 있었다. 다른 직원이 이렇게 하라고 했다. 라고 말하니 제차 짜증섞인 말투로 물어보길래 본인도 짜증이 나서 몇번을 물어보시는겁니까~다른직원 동의하에 하는겁니다라고 말하니 마치 귀찮다는듯이 저리가라는듯 손짓을 하며 알았어요 알았어요~에잇~이라고 말을한다. 황당무개함.. 직원들이 이렇게 불친절해서야..아니 불친절한게 아니고 싸가지가 없어서야 되겠는지...너무 기분이 나빠서 분이 안풀려서 민원제기하는곳은 어디있느냐 물어보니 없다고 하네요.ㅣ.... 어이가 없네요...인사를 바라는것도 아니고 상냥한 웃음을 바라는건 아니지만..그런식으로 짜증을 내는건 아니지요.. sk의 직원들이 cs가 참좋다고 느끼고 있었는데.. sk하이닉스로 출범하였으니 좀더 나은 보안팀구성이 필요할듯하네요....</t>
   </si>
   <si>
     <t>부속의원 간호사님들과 미화원분께 고맙습니다. 제가 며칠전 몸이 상당히 안 좋아 부속의원을 찾았고 부속의원 내 남자병실에서 휴식중에 구토를 했습니다. 상당히 난감하고 죄송했는데 매우 친절히 처리해시고 편안하게 대해주셔서 고맙습니다. 당시 정신이 없어서 감사 말씀을 못드렸네요. 간호사분들과 같이 청소를 해주신 미화원 아주머니께 대단히 감사드립니다.</t>
@@ -811,24 +1744,57 @@
     <t>주말농장 권오영 담당자님 감사드려요~!! 성함을 알려주지 않으셔서 담당자 찾느냐고 힘들었습니다 하하 주말농장 많은분들 접수 받으시고, 배정하느냐고 바쁘셨을텐데도 제가 요청드린 선택배정을 흔쾌히 받아 주셔서 감사합니다 작물 맛잇게 열심히 키워서 좀 나눠 드릴께요 하하하 고생 많으 셨습니다 ^^</t>
   </si>
   <si>
-    <t>3월 25일 21시 잠실 출발 통근버스 분실물 관련 문의 드립니다. 안녕하세요. 3월 25일 21시 잠실 출발 통근버스에서 뒷자석 선반에 (코트와, 셔츠, 벨트 등이 포함된)수트케이스를 분실하였습니다. 급히 필요한 의류인데 어떻게 찾을 수 있을지 몰라 글 게시합니다. 서둘러 찾을 수 있도록 도와주시면 감사하겠습니다. 답변 기다리겠습니다.</t>
+    <t>주말 농장 신청 결과는 언제 공지가 될까요~? 분양 신청 관련 게시물이 게시판에서 검색했는데 나오질 않네요. 신청 접수는 지난주 금요일이 마감인것 같은데... 관련해서 신청접수만 받고 진행사항이 없는 것 같네요. 공지 좀 부탁드려요~</t>
+  </si>
+  <si>
+    <t>버스 좌석 불편 해소 요청 안녕하세요. 수고가 많으십니다. 좌석과 관련 불편사항에 대해 건의하고자 합니다. 대부분의 버스는 그렇지 않지만 일부 버스의 경우 좌석아래에 스피커나 나무판지를 설치해 놓아 다리를 뻗을 수 없어 굉장히 괴롭고 불편합니다. 원래 이런 설치물이 좌석아래 있는게 정당한지는 모르겠지만 대부분의 사람들이 불편해 하고, 그래서 그 자리를 기피합니다. 사소한 불만이라고 생각하시는지는 모르겠지만, 그것 때문에 상당한 불편을 느낍니다. 확인하시고 조치를 취해주시면 감사하겠습니다. 사원들을 위해 여러 가지로 수고하시는 것에 항상 감사함을 느낌니다. 수고하세요.</t>
+  </si>
+  <si>
+    <t>자전거 관련 문의 어제 일이 있어서 밖에서 자전거를 구입하여 정문을 출입하려 했으나 자전거는 출입이 불가능하다고 하여 출입이 불가능하였습니다. 때문에 100 만원이 넘는 자전거를 열쇠고리 하나로 영내 바깥에 묶어 놓은 상태인데요. 100 만원이 넘는 고가의 자전거라 상당히 불안합니다. 자전거 잃어 버리면 hystec 에서 책임 질건가요? 자전거 거치대 쪽에 시설도 매우 불편하게 유지하고 있던데요. 아무튼 퇴근할 때 버스 짐칸에 싣고 가고자 합니다만 정문에서 출입을 시켜주지 않습니다. 영내에서 당연히 안타겠다고 말씀 드렸는데 출입을 시켜 줄 수 없다고 하십니다. 집에 갈 때 버스 짐칸에 싣고 갈 수 있도록 협조 말씀 부탁드립니다.</t>
+  </si>
+  <si>
+    <t>모바일 홈페이지 알려주세요 전에 잘 이용했었는데 휴대폰 분실하면서 주소를 모르겠네요~</t>
   </si>
   <si>
     <t>궁금한게 있어서요 *^^* 항시 수고가 많으세요~ 다름이 아니라.. 수영을 다니면서 짐을 서랍장 위에 보관했었는데 공사시작 전? 후로 찾으러가보니 짐이 다 없어졌더라구요. 혹시 처분되었는지, 혹은 따로 보관 중이신지에 대해 알 수 있을까요? 감사합니다^.^</t>
   </si>
   <si>
+    <t>주차장 흡연실 주차장 공사로 인해 돌아가야 하는 불편함은 있지만 대체적으로 만족을 하고 있습니다. 하지만 지정 흡연실이 있음에도 불구하고 흡연실 근처에서 많은 분들이 흡연을 하고 계십니다. 제 생각엔 흡연실이 흡연자분들의 인원에 비해 너무 작아서 그런게 아닐까 생각됩니다. 흡연자분들도 불편하실꺼라 생각하고 저같은 비흡연자의 경우에도 불편합니다. 적절한 조치 부탁 드립니다.</t>
+  </si>
+  <si>
     <t>전재수과장님을 칭찬합니다. 하이닉스 통근버스 관리에 노고가 많은 전재수과장님을 칭찬합니다. 얼마전 광교신도시 출퇴근 불편사항을 건의했는데,.. 신속하게 현장을 답사하시고,사원들의 요청에 흔꽤히 응해주셔서 불편을 최소화 할수 있었습니다. 어떻게 하면 사원들을 더 편리하게 할수 있을까,생각하고, 또 전화 응대에도 친절하게 상담해 주시는 전재수 과장님을 칭찬합니다. 감사합니다.</t>
   </si>
   <si>
+    <t>금일 노원선 2호차 기사님을 칭찬합니다. 안녕하세요, 금일 노원/하계선 2호차 기사님을 칭찬 하고싶습니다. 요새 출퇴근 버스가 많이 추워서 버스 안에서도 덜덜 떨면서 가기 일쑤였는데, 오늘 아침에는 정말 따뜻하게 왔습니다. 덕분에 피곤한 월요일을 거뜬하게 보낼 수 있을 거 같습니다. 2호차 기사님, 정말 감사합니다~!!</t>
+  </si>
+  <si>
     <t>중앙식당 야식(빵)담당하시는분 칭찬합니다. 중앙식당을 자주 이용하는데요. 야식시간에 빵 나눠주시는 남자분!!! 밝은 얼굴로 인사를 너무도 잘해주셔서 저도 같이 고개를 숙이며 기분이 좋아집니다^^ 항상 밝은 모습으로 인사해주시는 빵 담당자분! 성암을 몰라 죄송하구요^^ 그분!!! 정말정말 고맙습니다.</t>
   </si>
   <si>
+    <t>사내 셔틀 운행시 주의운전을 부탁합니다. 아침 출근시간에 차를 돌리는 경우 또는 사내 셔틀 운행시 직원들의 통행을 하는 경우, 전세버스의 경우 양보를 보행자를 우선 보호해야하나 이를 어기는 경우가 왕왕있습니다. 상기 관련하여 불만사항을 건의코자 합니다. 금일 점심시간 식당으로 가는길에 사내셔틀버스와 약간의 마찰이 있었습니다. 아는 분께 인사를 하고(이미 차도에 있었음) 차가 근처에 없는걸 확인을 한뒤 사내도로를 건너려는 순간 그때 마침 지나가는 버스와 부딛힐 뻔하습니다. (인사와 건너려는 사이는 약 3초내에 벌어진 일입니다. 아마도 차와 제가 서로 못본 모양입니다.) 상기 일은 보행자의 좌우주시 부족 및 운전자의 보행자 보호를 위한 주시 부족에서 빚어진 일이라고 사료됩니다. 이런 경우 운전자는 차를 세워 보행자의 안위를 먼저 걱정해야한다고 생각합니다. 그러나 제가 받은 응대는 차가 지나가는데 튀어나오면 어쩌냐 라며 오히려 화를 내는 어처구니 없는 대응입니다. 이에 여기가 차 만 다니기 위한 도로냐는 대응에 지금은 운행중이다라는 말을 하더군요. 아마도 사내셔틀을 운행중이미르로 시간을 지켜야 한다는 뉘앙스로 판단됩니다. 물론 차시간을 지키는 것도 중요하지만 버스기사님의 대응은 질책을 받아 마땅하다고 봅니다. 그리고 대부분 운전하시는 분들이 목소리가 크면 이긴다는 생각을 갖고 있는데 사내셔틀이 직원을 상대로 상기와 같은 응대를 한다는 것은 문제가 크다고 생각합니다. 일단 부딛힌건 아니라, 좋지 못한 마음(사과 못받고 다시 차를 운행할때도 화내는 것만 봄.)으로 그 자리를 떳지만 버스기사의 대응과 사람이 많이 지나가는 시간에 사내셔틀의 주의성이 부족했던 부분에 대하여 개선이 필요하여 글을 올립니다. 참고로 위의 일이 있은 뒤 저를 기다리던 팀원들께 물어보니 제가 아는 분께 인사를 하던 순간 차는 꽤나 멀리 있었고 충분히 볼 수 있는 거리였다고 합니다. 상기와 관련하여 건의드리고 싶은 내용은 1) 출근시간 버스 시간의 회차 또는 주차시를 위한 버스의 주행시 보행자에 대한 보호 의무가 항상 부족하다고 느껴집니다. 2) 점심시간 또는 사람들이 많이 이동하시는 시간의 경우 주의 운전을 당부합니다. 아울러, 상기와 같이 사고발생의 위험상황이 발생되는 경우 기사님의 대응과 관련된 교육이 필요하다고 사료됩니다. 아울러 어떤 방법으로 조치를 하실건지에 대한 결과를 회신해주시기 바랍니다.</t>
+  </si>
+  <si>
+    <t>통근버스 주차장 미관개선 및 임직원 편의 도모 관련(감사의 글) 통근버스 주차장 미관개선 및 임직원의 안전과 편의를 위한 퇴근버스 탑승 동선 개선등에 따라 출/퇴근길이 개선전보다 쾌적하고 안전하게 된 것 같습니다 앞으로도 임직원들의 출/퇴근길이 쾌적 할 수 있도록 고객의 의견에 대한 빠른 응대와 노력 부탁드립니다 수고하셨습니다 ※오늘부터 고객의 소리에 귀를 기울이며 개선에 힘쓰고자 작성방법이 개선 되었습니다</t>
+  </si>
+  <si>
+    <t>모전리 2월 11일 오전 6시 30분 야간 퇴근 셔틀(동남)기사님을 칭찬합니다. 이분 성함을 잘 모르는데... 내리는 정거장마다 방송해 주시면서 친절하게 운행해 주셔서 칭찬합니다. 겨울이고 새벽,밤 에는 밖이 잘 보이지 않는데... 기사님의 친절한 방송 덕분에 편히 셔틀을 타고 다닐 수 있네요~~~ 고맙습니다..</t>
+  </si>
+  <si>
     <t>중앙식당 주방장(이근봉氏)님을 칭찬합니다. 야간 근무때 중앙식당을 자주 이용하는데 항상 밝은 미소와 친절하게 대해주셔서 인사를 받는 저도 기분이 좋아져서 식사 시간이 늘 즐겁습니다. ^.^ 앞으로도 밝은 모습 친절한 모습 계속 보여주시길...</t>
   </si>
   <si>
+    <t>보안 규정적용이 애매~합니다. 현재 산업보안 검색 중에서도 카메라 봉인에 관해 드릴 말씀이 있습니다. 알아보니 미 봉인 이외에도 위반사항이 있었습니다. 보안요원의 설명으로는 이중부착, 끝부분 들림 등도 위반사항이며 흔히 우리가 알고있는 탈착 마크표시가 나는 경우만 위반 사항은 아니었습니다. 첫번째 로는 봉인지의 끝부분이 들리는 것이(탈착 마크는 보이지 않을 정도) 언제부터 위반사항인지는 모르겠으나 사규에도 없을 뿐더러 산업보안요원을 교육시키는 지침이나 규정을 요청해도 제시 해 주지를 못합니다. 내가 모르는 사이 정확하지 않은 규정으로 위반자를 만들어 내는 것은 불합리 한 것 같습니다. 산업보안에서 보안요원 교육 지침서가 있을 텐데 이를이용해서 정확한 스펙을 제시해야 애매한 규정 으로 인한 보안 위반자가 생기지 않을 것입니다. 두번 째,저의 경우 처음엔 끝부분 들림으로 적발 하더니 그에 따른 근거가 부족하자 나중엔 이중 부착으로 적발 하더군요 어떻게든 걸리면 그만이다. 혹은 여러사람들 중 재수없게 걸렸다. 라는 논리는 더이상 이해하기 어려울 것 같습니다. 보안 요원에 말에 따르면 위반자의 1/10 은 끝 부분들림이라고 합니다. 언제까지 재수 운운하면서 사내 전과자를 양성하실 생각인지요? 회사에 오래 있다보면 이런 기록들이 인사에 반영 되는데 불성실한 산업보안 위규자를 만들어 내는 시스템 보다. 성실한 산업보안 준수자를 만들어 내는 방법으로 규정을 마련 해주셨으면 하는 바람입니다. 보안 위반자를 많이 만들어내면서 보안을 지키는 것은 쉬울지 모르겠습니다. 그러나 본 목적은 우리 회사의 재산을 지키기 위함이므로 회사의 인재를 지키는 것도 고려해 주시기 바랍니다.</t>
+  </si>
+  <si>
     <t>청주 박일규님 감사합니다 얼마전 퇴근하려고 PC를 끄고 회사문으로 가는도중 이천에 잘아시는 분의 급한 전화를 받고 바로 이천으로 가야할 상황이 됐습니다 하지만 눈이 많이와서 길이 미끄러워 차도 집에 놓고온 상황이고 택시를 타서 터미널까지 간후 시외버스를 타자니 택시잡기가 하늘의 별따기에 터미널 가는길도 무지하게 많이 막힐꺼 같고...문득 머리를 스친것이 이천으로 가는 통근버스...우연치않게 핸드폰으로 다른상황 문의 한번 했던 상황이라 통화내역 확인하여 전화를 걸었습니다 통근버스 시간,탑승장소를 물어보니 시간과 버스회사 이름까지 안내해 주시는 아주 친절한 설명...운전중이라고 했었는데 그렇게 바로 대답이 나온다는것은 운행시간,버스회사 이름까지 항상 머리에 담아두고 생활하신다는 말씀이네요 그많은 시간표와 장소까지 모두 머리속에 담아두고 생활하신다는것이 참 고맙고 아름다워 보이기까지 했습니다 청주 박일규님(이름만 알고 하이스텍 어디소속 인지는 잘 모르겠습니다) 덕분이 추운데 고생 않하고 잘갔다 왔습니다 감사합니다 ^^</t>
   </si>
   <si>
+    <t>출근/노원선 : 난방이 되고 있지 않습니다 출근/노원선 난방이 되고 있지 않습니다 모든 분들이 잠바를 입고서도, 목도리와 심지어 이불까지 덮고 있습니다 퇴근/노원선은 항상 난방이 잘 되고 있지만 출근/노원선은 항상 난방이 되고 있지 않습니다</t>
+  </si>
+  <si>
+    <t>사내셔틀건의 어제 영농장에서 5시50분에 출발한 기사님.. 퇴근시간 입니다. 게다가 눈길인거 아시죠? 사내에서 속도제한이 30인데 40까지 밟으시더니 주차장에서부터 영농장까지는 사람들이 길을 비켜줄때까지 경적 울리시면서 짜증을 내시더군요 얼어버린 길에 넘어질지도 모르는 상황에서 빨리 비키라고 연속 경적에 짜증까지 내시면서 운전하실 필요까지는 없다고 생각됩니다. 회사 사원들이 안전하게 타야할 사내셔틀이 위협적이지 않았으면 좋겠습니다. 시정부탁드립니다.</t>
+  </si>
+  <si>
     <t>현우문 출입통제하시는 분 거기 김동길? 김동기? 머리 희끗하신 아저씨 한분 계시죠? 이분 근속이 얼마나 되시는지 모르겠는데(본인말로는 15년 넘었다는데) 이분땜에 기숙사 물건 입반출 허가받고 차량 통행할때마다 짜증이 나네요. ============================================================================= 1. 약 한달전 차량에 짐이많아 기숙사 동장님께 입출입증을 끊고 저녁 6시경 현우문으로 들어가고 있었습니다. 근데 그 김동길이라는분이 저를 잡고 입출입증을 보더니 '왜 들어가냐고' 묻더군요. 그래서 보다시피 차에 짐이많아 들고 들어간다고 하니깐 왈 '정문에 세워놓고 들고들어가면 되지 않느냐' 라며 못들어가게 할려고 하더군요. 참고로 차에 있는짐은 보드 장비에 보드복에 마트에서 사온 식료품에 연중휴가 갔다오며 가득싫은 옷가지(트렁크 2개분)에...한두번 왕복으로는 다 옮기지도 못할 짐들이였습니다. 어처구니가 없어서 '내가 허가받고 출입하는건데 왜 아저씨가 못들어가게 하냐 그리고 짐도 다 무거운건데 어떻게 들고 들어가냐'라고 하니깐 그분 왈 '나도 왕년에 짐(보드)들고 다녀봤다 정문에 세워놓고 갖고 들어가라.'라고 하길래 그건 아저씨 생각이고 그럼 아저씨가 짐을 옮겨달라 라고 하니 결국은 '지금 시간에 들어가면 안나오니깐 안된다' 라고 하더군요... 차량 퇴실은 9시인가 10시까지 하는걸로 되있는데 무슨말인지 잘 이해도 안됐습니다. 그래서 제가 짐도 많고 정당하게 허가받고 출입하는데 아저씨가 왜 못들어가게 하냐 그럼 담당자를 통해서 못들어가게 하던지 이건 아니지 않냐라고 하니깐 이번에는 '입출입증 종이에 도장이 잘못되서 못들어가게 하겠다' 라고 하는겁니다.-_- 제가 2년동안 총 3번을 차량 출입을 해봤는데 동장님이 찍어주는 도장은 스태츠칩팩이라고 써진 네모난 도장을 받았던것 분명히 기억합니다. 그래서 제가 '이 도장 분명히 전에도 받았었고 아까 동장이 찍어준거다'라고 하니깐 빨간색 인감도장 형태로 된 도장이 있어야 한다고 안된다고 계속 우기는겁니다. 정말 짜증나서 빨리 들어가야 한다고 실갱이하다가 결국은 그아저씨가 들여보내줄테니 사원증은 자기가 갖고 있겠다며 그냥 가져가더군요. 아니 언제부터 입출입을 하는데 사원증을 뺏어갔습니까? 공단안에서는 사원증이 곧 신분증이고 마트나 복지관에서 사용도 가능한 카드 기능인거 아닙니까? 그런 신분증을 뺏어가다니 본인이 무슨 경찰이라도 됩니까???제가 무슨 죄를 지었나요? 어찌됐건 처음엔 신분증을 뺏었다가 제가 돌려달라고 난리쳐서 어찌어찌 돌려받고 들어가긴 했습니다. 그리고 8시 조금 안되서 나갈때에도 그분이 잡더니 저랑 또 실갱이가 붙었습니다. 제가 '동장한테 재확인하니 도장은 이 도장이 맞다 뭐가 문제냐 그리고 난 지금 1시간만에 나왔다' 라고 하며 '하이스텍에 정식으로 컴플레인 걸겠다'라고 하니깐 미안하다느니 정년퇴임이 얼마 안남았는데 봐달라느니 어쩌니....다음부턴 이런식으로 안우기겠다고 약속받고 그냥 없던일로 하고 지나갔습니다. 2. 몇일전 설 연휴 시작 전 직무 특성상 명절선물을 너무 많이 받아 차를 기숙사까지 갖도 들어와서 가지고 나갈 참이였습니다. 공교롭게도 김동길 그분이 또 계시더군요. 절 알아본건지 못알아본건지 모르겠지만 이번엔 아무말 안하는대신 차량 출입증 종이에 1/21 出 이라고 써주고 다시 주더라고요. 그리고 선물만 싣고 나갈려는데 교대자가 바뀌었는지 이번엔 어느 좀 젊은 분이였고 그분께서 저에게 말씀하기를 '방문자 차량 통행판 안받았나요?'라고 묻더군요...(그 주황색 하얀색으로 된 판떼기...) 당연히 전 받은적도 없기에 받은적 없다고 했지만 원래는 그걸 받고 들어가야 한다며 왜 못받은건지 설명하느라 시간 허비하고 짜증도나고... (다행히 언쟁은 없었습니다..) 친구 말하기로는 공단안에서 비등록된 차량이 그 판떼기 없으면 스티커 딱지도 붙을수 있다고 하는데 그건 사실인지 모르겠네요. ============================================================================== 어찌됐건 그분은 왜 본인만의 업무방식으로 공단 직원들한테 불편함을 주나요??? 본인말로는 자기가 15년 근무했고 여태까지 이런식으로 다 했다면서 당당하게 말하던데 원래 하이스텍에서는 그렇게 하라고 하는건가요?? 한번은 참고 넘어가겠는데 두번씩이나 한사람때문에 불편함을 겪으니 정말 짜증납니다. 제대로 된 교육을 해주시던지 그분을 다른문에 배치하던지 해주세요... 우리회사도 일년에 억단위로 복지비용 납부하면서 공단 복지 시설을 이용하고 있는걸로 알고 있습니다! 하이닉스직원 아니라고 차별대우하는것도 아니고 나원참...제발 조치좀 부탁 드립니다.</t>
   </si>
   <si>
@@ -838,7 +1804,7 @@
     <t>이천 부속의원 여자 선생님을 칭찬합니다. 안녕하세요? 저는 청주에서 근무하고 있는 직원입니다. 몇일전 이천에 갔다가 이천 부속의원 여자 의사선생님께 진료를 받았습니다. 진료를 너무나 친절하고 자세히 봐 주셔서 감사했고, 한달동안 기침이 멈추지 않았아서 다른병원에도 가보고 했는데 소용이 없었습니다. ㅠㅠ 그런데 부속의원 여선생님이 처방해 주신 약 먹고 다 낳았습니다. ^^ 또한, 진료를 받으러 갔던 증상 이외에 다른 가능성 있는 증상들에 대해서도 친절하고 자세히 설명해 주시는 것을 보고 참 깊은 감명을 받았습니다. 좋은 서비스 해 주신 여자 선생님 이하 부속의원 여러분께도 깊은 감사의 말씀을 드립니다. ^^ 오늘도 좋은 하루 되세요 ~ ^^</t>
   </si>
   <si>
-    <t>감사감사 황당한 이벤트 글올린 사람 입니다. 즐거운 마음 으로 찾은 식당 약속을 지켜주셨더군요 감사해서 몇자 적어용~~~ 지켜주신 약속 너무 감사하고 쿠키 맛 나게 먹었어용~~~ 중앙 식당 여러분~ 건강하시구요 새해 복 마니 받으세용~ 2012 년도 우리 모두 홧팅!!!</t>
+    <t>잠실3교대 야간퇴근차량 잠실3교대 야간퇴근차량(아시아나)이용시 앞뒤좌석폭이 너무좁아 불편합니다. 그리고 맨뒷열 의자가 뒤로 제쳐지지 않아 거의 90도 자세로 앉아있어야 합니다... 좌석 뒤에 스피커같은게 있어서 제쳐지지 않음... 다른조 출퇴근 차량은 이런불편사항이 없는데 야간퇴근차량만 너무좁네요.. 차량전환이 가능한지 검토부탁드립니다.</t>
   </si>
   <si>
     <t>잠실 동남고속 박형규 기사님 감사드립니다. 오늘 아침 설문조사를 하는거 같던데, 아쉽게 늦게 탑승하느라 설문지를 받지 못했네요.. 부랴부랴 버스앞에 붙어 있는 성함을 보고 이렇게 나마 감사의 말씀을 전해 드립니다. 항상 탑승시 먼저 웃는 얼굴로 먼저 인사하시고 안전벨트 멘트와 회사 도착시 일일이 분실물 멘트까지 직접해주시니~ ^^ 항상 밝은 모습으로 승객을 위해 안전운행 해주시는 기사님께 감사의 말씀을 전해드립니다. 내년에도 항상 밝은 모습으로 안전운전 부탁드릴게요.. ..~</t>
@@ -847,46 +1813,100 @@
     <t>기사님 감사드립니다. 안녕하세요. 어제 아침에 출근셔틀을 탔다가 119에 실려가게 되었습니다. 영통입구에서 탔는데요 한빛관광 기사님 정말 감사드립니다. (기억은 잘안나지만 한빛관광으로 통화하시는걸 언뜻들어서요.) 119도 불러주시고 당황하셨을텐데도 따뜻하게 잘 챙겨주신거 감사드립니다. 안부전화까지 주신것도 감사드립니다. 기사님 덕에 무사히 귀가 할 수 있었습니다. 정말 감사드립니다.</t>
   </si>
   <si>
-    <t>청주 퇴근 버스 노선 연장... 너무 좋아요. 안녕하세요? 이천에서 청주행 퇴근버스를 이용하는 사원입니다. 늘 2공장에서 내려 피곤한 몸을 이끌고 집까지 20여분을 걸어가야 했는데. 특히 요사이 갑자기 쌀쌀해진 날씨에 올 겨울을 어떻게 보내나 걱정하던 차에 오늘 올리신 공지사항을 보고 너무 기뻤습니다. 저뿐 아니라 해당 노선에 살고 계신 많은 사원들이 저와 같은 생각을 하고 있을거라 생각합니다. 항상 사원들을 위해 고민하고 애써 주시는 전재수 과장님과 하이스텍 관계자 여러분께 진심으로 감사드립니다. 고맙습니다.</t>
+    <t>잠실 교대버스 잠실교대버스중에서 동남고속관광 버스 차량번호는 잘 모르고요 앞측에서 3번째 내측10번좌석이 불량같습니다. 뒤로 조금 넘기고 앉아있으면 계속 뒤로가는 현상이 발생하여 앉아있는 사람이나 뒤쪽사람이나 불편합니다. 수리 해주세요.</t>
+  </si>
+  <si>
+    <t>잃어버린장갑찾아주셔서 감사해요 2주전에 셔틀버스에 두고내린 장갑을 찾았어요. 잃어버린지 1주일뒤에 분실물센터에 연락해보았더니 습득된건없지만 버스기사님께 여쭈어보신다고 하시고 몇일 뒤에 찾아주셨어요 잃어버린 후에 너무 늦게 연락했는데 찾아주셔서 너무 기뻤습니다. 감사합니다!^^</t>
+  </si>
+  <si>
+    <t>아래의 구리/노원간 배차에 관한 답변글... 제대로 확인은 해보시고 답변을 하시는건지요??? 허허... 그럼 제가 월요일에 탔던 버스는 구리/태릉선이 아니고 어떤 버스랍니까?? 다시한번 그날의 운행일지를 확인해보시지요... 태릉입구사거리에서 우회전하여 노원방면은 쳐다도 보지않고 태릉입구역에서 모두 하차시켰는데... 이렇게 답글을 달아놓으신 덕분에 졸지에 저는 제대로 알지도 못하고 고생하시는 분들한테 불만이나 털어놓는 블랙컨슈머가 되버렸군요... 제가 진정 원하는것은 제발 담당자께서는 현실적인 문제를 정확히 파악하셨으면 하는겁니다... 중복노선 배차로 인하여 타노선 이용자가 불편을 겪는 현재의 불합리를 바로잡아달라는 말씀입니다... 다시한번, 구리/태릉선의 연장운행에 관해서는 원칙을 분명히 하여주십시오 ----------------------------------------------------------------------------- 안녕하세요. 통근버스 담당자 입니다. 21시 태릉/노원이 만차일 경우 구리/태릉선을 탑승하셔도 노원까지 운행을 하오니 참고 하시기 바랍니다. 고객님... 노선의 조정은 고객 편의 위주로 설계가 된다면 좋겠지만 노선의 증설로인한 차량 추가배차등을 고려하지 않을 수 없습니다. 이에 노선 설계시 교통여건 또한 중시하고 있으니 참조 하시기 바랍니다. 기타문의는 전재수과장 (4681)에게 연락을 주시면 됩니다. 날씨가 많이 춥습니다. 건강유의하시고요, 좋은하루 행복한 하루 되십시요.. 감사합니다.</t>
+  </si>
+  <si>
+    <t>21시 태릉/노원, 구리/태릉선간 배차노선 조정 관련 21시 구리-태릉, 태릉-노원선 노선 분리 이후 태릉에서 하차하는 사원들이 태릉/노원선으로 집중됨에 따라, 하계/노원에 하차하는 사원들은 자리가 없어서 태릉-노원선을 이용하지 못하고 울며겨자먹기 식으로 구리/태릉선을 이용하여 시내버스로 환승하는 불편을 겪고 있습니다. 물론, 태릉에서 하차하는 사원들께서는 태릉/노원선을 타는것이 당연하겠지만 그로 인해 노원선이 아니면 퇴근이 힘든 사원들에게 까지 불이익이 가는것은 문제가 있다고 생각합니다. 이는 사원들의 편의를 위한 노선조정이 아닌, 사전에 충분한 숙고가 없이 배차지 및 노선중심의 증차로 인하여 발생한 문제라고 생각됩니다. 이에 1. 태릉/노원선 증차 후, 구리-태릉구간을 구리-망우로 조정... 혹은, 2. 현행 차량 유지, 구리/태릉, 하계/상계선으로 분리 조정을 건의합니다.</t>
+  </si>
+  <si>
+    <t>중앙식당 위생관련 ( 이번 글도 삭제 하실껀가요?) 지난주에 중앙식당에서 두 차례 벌레가 나와서 개선 조치 요청하였는데 게시물이 어디로 사라져버렸네요? 저는 삭제한 적이 없는데 어떻게 된거죠? 저희 회사 쪽에서도 담당자분과 유선통화 하였고, 확인 후 해당 게시글에 답변 주신다고 하셨다고 하는데 게시물 삭제 하고 어디다 달아 주신다고 하신건가요???????????????????????????? 항상 이런식으로 지나가시고 모른척 하시나요???????????????????????????? 주변에서 들은 이야기로는 이번일이 아니여도 수차례 있었지만 아무것도 달라지는게 없다고 하니 이번 역시도 그렇게 생각하고 넘어가야 하는 건가요 ?????????????????????????? 글 삭제 하지 마시고, 조치 사항 답변 주세요.</t>
+  </si>
+  <si>
+    <t>청주 바로바로센터요~ 청주 바로바로센터 담당자별 업무 / 업무시간이 궁금한데.. 자세히 알려주세요~~ ( 메일 로그인후 공지사항에 들어가면 확인가능했었는데.. 지금보니 엑박이라 안떠요 확인이 불가능하네요, 이것도 다시 확인후 올려주셨으면 좋겠네요^^)</t>
   </si>
   <si>
     <t>감사인사드립니다. 안녕하세요.저는 단지내 입점해 있는 입점업체 직원입니다.누구인지 정확히는 잘 모르겠으나 하이스텍 부속의원에 계신 직원분께 감사인사겸 칭찬을 하고자 이글을 씁니다.지난 금요일 오전 저는 갑작스런 복통으로 걷지도 못하고 아파하고 있었습니다. 그런데 저희 직원분이 하이스텍 부속의원에 연락을 하였는지 구급차가 도착하여 병원을 가고자 구급차에 올라탔습니다.직원분께서는 제 증상을 하나하나 자세히 물어보시더니 외부병원에서 치료하는게 좋겠다며 제가 다니는 병원을 물어 그곳까지 동행해 주셨습니다.저희 직원도 동행한터라 병원에 접수까지만 해주셔도 감사한데 제가 진료를 빨리 받을 수 있도록 해주시고 바쁘실텐데도 제가 진료실에 들어가는것까지 보고 가셨습니다.경황이 없어 감사인사도 드리지 못해 이렇게 글로 쓰게 되었습니다.저는 하이스텍 부속의원의 친절하고 자상함에 너무 감동하였습니다.그리고 그날 고생해주신 직원분께 다시한번 감사인사드립니다.앞으로도 항상 직원들의 건강에 최선을 다하는 모습 보여주세요.</t>
   </si>
   <si>
+    <t>6시 구리/태능선 증차에 감사드립니다. 6시 구리/태능선 증차 소식 너무 반갑더군요.. 6시 구리/태능선 증차에 힘써주신 하이스텍 담당자분들께 감사의 말씀 드립니다. 사실, 수/금요일을 제외한 6시 차량 탑승시 50분 이후에 가면 버스에 자리가 없어 천호선 또는 잠실선을 이용하여 퇴근하는 불편한 점이 지속되어 왔습니다. 이에, 6시 구리/태능선 증차를 기대하여 왔었는데 이렇게 빨리 증차가 되어 편한 퇴근길을 만들어 주심에 깊이 감사드립니다. 앞으로도 임직원들의 편의를 위해 많은 도움 부탁드립니다. 수고하세요...</t>
+  </si>
+  <si>
+    <t>구리/태능 증차에 감솨~드립니다. 우선, 많은 차량노선의 관리와 임직원들의 요구사항에 항상 관심과 지속적인 개선노력들에 감사드립니다. 많은 이용자들이 불편함을 겪는것에는 이유가 있을 것입니다. 그러나 개개인의 요구를 모두 맞춰나가기란 쉽지만은 않을것이고, 때로는 다수를 위해 소수의 불편함도 발생되기 마련일 것입니다. 항상 소수의 불편함에도 관심을 기울여 주셔서 감사드립니다. 구리/태능 노선은 분명 인원에 대한 초과가 지속적으로 발생했으며, 잠실선을 이용해 퇴근해야 하는 많은 불편함을 가지고 있었습니다. 그러나 이번 구리/태능노선의 증차로 인해 다수의 구리/태능 노선 탑승자들이 좀더 편리한 환경에서 하루의 업무를 마치고 즐거운 퇴근길로 이어졌다는데 대해.... 탑승자들의 증차요구에 부응해 주신데 대해.... 매우 감사하게 생각합니다. 항상 통근버스 주차장에서 고생하시는 하이스텍 차량담당자분들~~ 화이팅~~!!! 입니다.....</t>
+  </si>
+  <si>
     <t>분실물 신고접수 관련 안녕하세요. 분실물 신고접수 관련하여 질문이 있습니다. 요점은 분실물 신고접수 후 처리내용을 알려주시면 좋겠다는 겁니다. 이번에 우산을 통근버스내에 놓고 내렸습니다. 예전에도 통근버스에서 벽걸이 시계를 분실하여 글 올린적이 있는데요. 접수는 되었는지, 분실물은 찾았는지 못찾았는지... 통근버스에서 분실한것이라 못찾았다면 해당 기사님 번호는 알려주실 수 있는지 알려주시면 감사드리겠습니다. 수고하세요.</t>
   </si>
   <si>
+    <t>통근차량 관리자분들께 감사말씀 드립니다! 지난번 내용을 올리려다 깜박하고 지금 올리네요. 통근버스 이용이 많이 편해지는것 같습니다. 본가가 백현마을이어서 며칠전 분당선 탑승을 하였는데 정류장이 추가 신설 되었더군요. 그렇지 않아도 판교역이 개통되면 정류장이 신설되야 하지 않나 매번 생각을 했었습니다. 강남→정자로 신분당선이 생긴 덕분에 퇴근후에 막히는 양재로 가느니 판교쪽으로 해서 지하철로 들어가는것도 방법일거 같더라구요~ 그나저나 정말 통근 관리하시는분 대단하신듯 합니다. 혼자서 그 수많은 차량들을 어찌 관리하시는지.. 매일 노선이 어쩌네, 자리가 없네, 버스를 놓쳤네, 뭘 놓고내렸네; 무척 많이 전화올텐데;; 어찌 감당하신대요 ㅎㅎ (제가 다 해봤던 전화들이군요 &gt;.&lt;) 조금이나마 일을 덜어내실려면 제생각이긴 하지만, 스마트폰웹을 적극 홍보하고 자동응답전화도 대표번호로 만들면 일이 줄지 않을까요? 저도 하이웰 모바일웹에서 들어가기 귀찮아서 그냥 하이스텍 통근버스 안내쪽으로 바로 연결해서 보니 아무때나 확인할수 있어서 좋더라구요~ 에고 잠깐 짬나서 들어와서 쓰는데 주저리주저리 너무 길게 썼네요~ 여하튼 통근차량 담당하시는분 또는 분들~ 정말 고생 많으십니다~</t>
+  </si>
+  <si>
+    <t>계속되는 수영강습에 감사드립니다. 안녕하세요. 저는 1기부터 수영강습을 받고 있는 수강생인데요 수영강습프로그램을 열어주신것에 대해 감사드리고자 글을 올립니다. 최근들어 꾸준한 수영강습 덕분에 체력이 한결 좋아져서 업무할때도 집중력이 훨씬 길게가고 잔병치레도 덜하게 되어 전체적으로 건강상태가 매우 좋아진 것 같습니다. 그리고 다른 스포츠센터 강습도 들어봤지만 지금 프로그램진행하시는 강사님의 지도는 정말 세심하고 열정적인면이 있어서 수영강습갈때마다 배우는게 많습니다. 앞으로도 이런 유익한 수영강습프로그램을 계속 진행해주시면 정말 감사하겠습니다.</t>
+  </si>
+  <si>
+    <t>중앙 체육관 웨이트 트레이닝 기구 배치 건의 런닝 머신이 새로 들어오면서, 웨이트 시설은 한쪽 구석으로 밀렸다는 느낌을 가집니다. 피트니스 쪽으로만 장려하고 웨이트 쪽은 홀대받고 있다고 생각합니다. 추가로 런닝머신이 10대씩이나 새로 들어오는데... 한쪽에 10kg 원판만 올려놓아도 뒤집어지는, 다 낡아빠진 벤치프레스나 대체할수 없는 기구가 없는 디클라인 벤치 같은 웨이트 시설의 교환 또는 추가도 있어야 하는것 아닌가요? 현재 기존의 웨이트 기구가 이동 되면서 사용이 불편하여 건의합니다. 몇개되지도 않는 수십kg씩 하는 원판을 여기저기로 옮겨다닐려니 힘드네요. 중량원판을 사용하는 기구들은 한곳에 모아주셨으면 합니다.</t>
+  </si>
+  <si>
     <t>잃어 버린 자동차 열쇠 찾았습니다 정말 감사합니다. 어렴풋한 기억으로 청주에서 이천으로 이동하는 셔틀속에서 자동차 열쇠가 주머니에서 스르르 빠진것 같다는 느낌이 들었습니다. 집안을 다 찾아 보고 사무실과 GATE쪽에도 찾아 봤지만...마지막 희망사항이었죠. 정말 친절하시고 전달 전달하지 않고 직접 연락하셔서 찾아 주시는지... 너무 감사합니다. 감사의 표현을 글로 남깁니다.. 수고하세요...</t>
   </si>
   <si>
-    <t>버스정류장 신설 감사 드려요^^ 안녕하세요^^ 신경 많이 써주신 관계자님과 기사님들! 요즘 출근시간때면 넘 기분이 좋습니다. 정류장 신설로 아침시간 30분정도 여유가 생겨서요.. 공지보니깐 담주 월부터 퇴근때도... 생각만해도 넘 행복해요 도평리근무자들 대표로 제가 인사 올림니다 관계자님들과 기사님 감사 합니다 덕분에 추운겨울을 따습게 보낼것 같아요 감사(꾸~~벅) 감사 드려요~~~~~~~~*^^*</t>
-  </si>
-  <si>
-    <t>버스 대절문의 회사 야유회로 인하여 버스 대절 문의 드립니다. 10/27 당일 이구요 왕복입니다. 하이닉스 에서 출발은 08:30~ 16:00 용인 한택 식물원 -&gt; 용인 블루마린 경유 했다가 목적지 용인 한국 민속촌입니다. 다시 하이닉스 도착 부대비용 포함한 가격좀 알려주세요</t>
-  </si>
-  <si>
-    <t>11월 13일 결혼식 버스 대절 문의 안녕하세요. HYNIX 전성민 입니다. 11월 13일 14시 00분 부산-자갈치 오아제 웨딩홀에서 결혼식합니다. 이에 버스 대절 문의 드립니다.. 45인승 1대 (1) 서울 강남역 5번 출구 출발 @ 08:00 &gt;&gt; 하이닉스(이천) @ 09:00 &gt;&gt; 부산-자갈치 오아제 웨딩홀 @ 13:00 &gt;&gt; 결혼식 ( 14:00~15:00 ) &gt;&gt; 부산 출발 @ 15:00 &gt;&gt; 하이닉스(이천) @ 19:00 &gt;&gt; 서울 강남역 도착 @ 20:00 가능 여부와 가격회신 주시면 감사하겠습니다.</t>
-  </si>
-  <si>
-    <t>삼포우리만두 분식점 관련 안녕하세요? 혹시 제가 몰라서 그러는데요. 삼포우리만우 담당이 하이스텍이라면. 삼포우리만두가서 떡복이 2000원짜리 한번 시켜서 드셔보세요. 동네 개도 아니고,앞접시에 떡 4개 오개 2개 들어가 있습니다. 너무하지 않나요? 아미공단 직원들이 무슨 봉인가요? 하이스텍에서 관리한다면 가격 압박이랑 서비스 개선이 절실하게 이루어져야 합니다. 수고하세요.</t>
+    <t>중앙 체육관 수영장 샤워실 선풍기 청소 요청 수영장 샤워실 벽에 부착된 선풍기 날개에 붙은 먼지 청소 요청합니다. 이 선풍기는 머리를 말리는 용도로 주로 사용되는데, 주기적인 관리 바랍니다.</t>
+  </si>
+  <si>
+    <t>통근버스 기사님들 수고가 많으십니다만... 하루종일 운전하느라 수고가 많으십니다만... 아침저녁 출퇴근을 위해 버스를 타는 직원으로서는 아쉬운점과 불만이 있습니다. 우선..좀더 서비스 마인드를 가졌으면 합니다. 분당에 있는 모 회사의 경우 전용 통근차량을 운영해서 그런지 모르겠지만 기사분들이 깔끔하게 정장을 갖춰입고 차량 출발전에 출입문 앞에서 직원들을 웃는 얼굴로 맞이하고 목적지에 도착해서도 마찬가지로 기사님이 먼저 내린 후 출입문 앞에서 수고했다는 말을 건네는 모습을 봤습니다. 우리의 경우 전용차량이 아닌 관계로 이렇게까지는 힘들겠지만..이런저런 면에서 지금보다 더 나아졌으면 합니다. 그리고..가장 중요한것.. 안전운행입니다. 요즘 아침마다 졸음운전 하시는 기사님 때문에 불안해서 맘 졸이며 출근하고 있습니다. 정 피곤하시면 차라리 조금 쉬었다 가는게 나을텐데 그렇게 하지도 않고 졸음운전을 하는걸 뒤에서 보고 있자면 정말 불안합니다. 빨리 도착하길 원하지 않습니다. 안전하게 도착하길 바랍니다. 내일부터는 불안감에 떨며 출퇴근 하지 않게 되길 희망합니다.</t>
+  </si>
+  <si>
+    <t>하이닉스 출퇴근,식단 어플 하이닉스 어플이 있다는걸 알고 있습니다. 그 어플 제목이 뭔지 알고 싶어요 ㅠ 좀 알려 주세요~</t>
+  </si>
+  <si>
+    <t>이천 사내 체육관 수영장이요ㅠㅠ 물좀 더 따듯하게 해주실 수 없나요??? 추워요ㅠㅠㅠㅠㅠ 때 안 나올 정도로만 덜 차갑게 해주세요ㅠㅠㅠㅠㅠ 입술 맨날 파래져서 어푸어푸 하고 있어요.. 강사님도 추우시데요ㅠㅠㅠㅠ</t>
   </si>
   <si>
     <t>하이스텍 간호사 분들의 행태? 아무리 생각 해도 이건 아니다 싶어 이렇게 글을 올리게 됩니다. 저희는 돈을 지불하고 사내병원에서 혜택을 받고있습니다. 그런데 간호사들이 행태가 정말 못봐줄만합니다. sheet에 이름적고,감기라고 하면,다짜고짜 말도안하고 귀에 온도기같다데고. 자기네들이 하고 싶은말 다하고,우리가 고객이지 간호조무사인가요? 담당하는분이 있다면 환자로 가정해서 한번 가보세요. 정말 해도해도 너무한 서비스입니다. 대기업사내병원에서 이런대우를 받고 진료를 받아야 되는건지. 간호사를 정말 너무하네요.교체해주세요.</t>
   </si>
   <si>
-    <t>이번 명절은 귀향버스운행을 하지않나요? 다름이 아니고 저번 설과 같이 귀향버스를 운행하면 타고 내려가려는데 추석이 얼마남지않은 지금 아직 신청글이 안보여서 문의드립니다.</t>
+    <t>사내 수영장 운영시간 좀 알려주세요 사내 수영장 운영시간 좀 알려주세요</t>
+  </si>
+  <si>
+    <t>여주부발버스.. 여주부발버스기사님 운전 안전하게 잘하십니다 만족하는데 .. 다만 히타를 틀시기가아닌거같습니다. 가뜩이나 사람도 만땅타는데 숨이막힐정도입니다ㅠㅠ 고객들이 추울까바 그러시는건 감사하지만. 한겨울 히타식은 자제좀부탁드려여 ^^ 안틀어도 사람들 온기로 전혀안춥답니다^^</t>
+  </si>
+  <si>
+    <t>정문에서 금연을 했으면 합니다. 출,퇴근시 지하도와 정문 사이 쓰레기통 앞에서 흡연하는 것을 많이 봅니다. 출,퇴근할때 담배 냄새 때문에 불쾌해 지는데 어떻게 회사 정문 앞에서 흡연하는걸 그대로 방치하는지 이해가 되지 않습니다. 정문은 회사의 얼굴이라 할 수 있습니다. 정문에서 흡연하는 모습을 보지 않았으면 좋겠습니다.</t>
+  </si>
+  <si>
+    <t>보안운영팀 의 서주옥 과장님을 칭찬합니다 안녕하세요 하이닉스 연구소에 근무하는 임정택 입니다 다름이 아니오라 하이스텍 보안운영팀에 근무하는 서주옥 과장님을 칭찬하고자 글을 올립니다 얼마전 연구소 사무실을 대상으로 네트워크 작업이 시행되었습니다 기존에는 고정IP 를 사용하였으나 금번에 자동IP 로 바뀌었습니다 현업업무에 꼭 필요한 SMS Service Program 을 계속 사용해왔었는데 자동IP 로 변경된후에는 지원서비스를 받을수가 없어 무척 난감해하고 업무를 처리하는데 여러가지 번거로움이 많이 생겨 걱정이였는데 그러한 부분에 대해 신속한 조치를 취해주어서 정말 고맙다는 말을 전하고 싶습니다 아울러 그동안 통신과 관련된 현업업무에도 적극 지원해주심을 잘알고 있습니다 고객만족이란 말의 의미를 다시한번 알게된 계기가 된것 같습니다 덧붙혀 보안운영팀 통신실 관계자분들께도 감사함을 드립니다 행복하세요!</t>
+  </si>
+  <si>
+    <t>여주선 기사님에게 감동^^ 평소 여주선 통근버스를 이용하는 직원입니다. 2000관광 버스운전기사님 이였습니다.좀 연세가 있으신 아저씨인데요.. 평소 운전도 차분하게 잘하시고,잠든 분들을 위해서 내릴때는 방송으로 도착지를 말씀해주십니다 이번에 내릴곳은 어디어디입니다~ 이런식으로요. 그래서 업무에 지치신분들도 편하게 잠들고 내릴때 도착지를 지나치는법이없지요 ㅎㅎ 한번은 기사님 주변에 항상 커피와 냉온수기가 비치되어 있는데, 커피드실분들은 타마셔도 된다고 하시며, 옥수수와 과자등을 뒤로돌려 나눠주시기도 합니다. 연세가 있으셔서 어떨땐 푸근한 아버지가 생각나기도 합니다 ㅎㅎ 출근버스 내릴때는 또 방송을 하지요 오늘하루도 기분좋은 하루되세요~!! 하시면서요 ^^ 전 이버스기사님을 적극 추천합니다. 여러번 감동먹었는데 이제야 글남깁니다</t>
   </si>
   <si>
     <t>기사님들 감사합니다. 안녕하세요 저는 하이닉스 다니고 있는 김민아 입니다. 저는 셔틀을 자주 타지는 않지만 가끔 이용할때면 항상 웃음으로 친절하게 맞이해주시는 기사님들 덕분에 저까지 기분이 좋아지네요 안전 운전 하세요^^</t>
   </si>
   <si>
+    <t>9시 구리 노원선 분리 운행관련해서... 감사드립니다^^ 안녕하세요~ 어제부터 9시 구리 노원선이 구리 / 태릉입구로 분리 시행되었습니다. 하이닉스 데이임에도 불구하고 9시 태릉입구선은 많은 분들이 타셨더라구요,, 시행 첫날... 평소보다 집에 도착시간이 10분이상 당겨졌습니다.^^ 임직원의 의견을 적극 반영해 주셔서 감사합니다. 좋은 하루 보내세요~</t>
+  </si>
+  <si>
     <t>동남고속 구자일 기사님 칭찬합니다 저는 하이닉스 협력업체 다니는 안영주입니다 광주에서 출퇴근하는데 매일 아침 기사님께서 항상 미리와 계셔서 출근길 불안하지가 않아 마음 편하게 다닐수 있어 정말 좋습니다 항상 안내방송(안전벨트,하차시 소지품챙기라구등등,,)도 잘해주셔서요 제가 대기업 하이닉스 협력체인 이지만 자부심이 느껴지는 부분이기도 합니다 친절하신 동남고속 구자일 기사님 칭찬하구 싶습니다</t>
   </si>
   <si>
-    <t>혹시.. 추석 연휴때 지방으로 운행하시는지 궁금합니다. 추석 연휴 때.. 부산으로 가는 버스 운행항다는 소릴 들었는데.... 올해도 운행하는지 궁금합니다. 운행한다면 일정 및 시간이 어떻게 구성되는지 궁금합니다.</t>
-  </si>
-  <si>
-    <t>중앙식당 화장실 중앙식당 남자 화장실 청소 좀 해주세요. 거울은 아예 보이지도 않습니다. 그리고 문 안쪽에는 뭐가 뭍은 채로 두 달 넘게 방치되고 있네요. 식당 화장실이 너무 더럽습니다. 정기적으로 청소해 주시기 바랍니다.</t>
+    <t>사내병원 물리치료실에 대한 제안해봅니다^^ 안녕하세요 사내병원 물리치료실을 자주 애용하는 사람입니다 다름아니라 사내물리치료실에 대해 제안하나 해보려구요 물리치료실을 이용하는 사람들 중에 디스크에 걸린 사람들이 많은 걸로 알고 있습니다 저 또한 그렇구요 외부 병원에선 디스크환자들은 기존 물리치료들 외에 '견인치료'라고 하여 따로 병행해주는 기구가 있습니다 간단히 말해 좁아진 척추뼈 사이를 서로 잡아당겨주어 넓혀주는 물리치료 인데요 현재 사내물리치료실을 자주 이용하는사람으로서 '견인치료'가 없다는 것에 상당한 아쉬움을 느낍니다 그리하여 사내물리치료실에서 '견인치료'를 받을수 있도록 해주십사 하고 제안해봅니다 그럼 수고하세요^^</t>
+  </si>
+  <si>
+    <t>체육관 예약관련 문의 체육관 예약에 관해 문의드립니다. 현재 하이닉스는 EGSS를 통해 타사는 이메일/전화를 통해 예약을 받는 것으로 알고 있습니다. 그런데 실제 체육관 이용시 예약이 중복되는 경우가 발생하곤 합니다. 웹을 통해서 혹은 유선상으로 예약이 되었음을 확인하고도 그런 경우가 발생하는건 왜일까요.. 여기에 통근버스, 식단 모두 정보가 공개되어 있는데 체육관 실시간 예약현황도 확인할 수 있도록 해주셨으면 합니다. 그리고, 체육관 예약시 실시간으로 예약이 되지 않고 신청 후 예약이 되기를 기다려야 하는데..이것 또한 왜 그런건가요? 회사간 혹은 부서간 예약에 따라 무슨 제약이 있거나 우선시 되는게 있는것인지 답변 부탁합니다.</t>
+  </si>
+  <si>
+    <t>스마트폰 하이웰서비스에서 출퇴근버스/이천/셔틀/단지내 시간표 제대로 표시 바랍니다. 제목과 같은 내용에 대하여 - 방문객 주차장과 영농장 출발을 분리하여 표시하여 주시고 - 각 정류소 별로 시간표도 올려주시기 바랍니다. 현재 서비스 되고 있는 시간표는 판독이 불가능 합니다.</t>
+  </si>
+  <si>
+    <t>3교대 잠실 요새 방송 안하시고 말로 안내 방송 하시는데 뒷 좌석까지 안들립니다...</t>
+  </si>
+  <si>
+    <t>PKG1층 협력업체 여자 락카는 찜질방입니까?? 협력업체에 근무한지 오래 되었습니다 작년에 협력업체끼리 락카를 사용하게 되어 이동했고 에어컨이 나오게 공사를 한다고 하더니.. 이건 출퇴근할때마다 찜통속에서 옷을 갈아입고 있습니다 협력업체는 사람도 아닙니까?? 협력업체는 더워도 참고 있으라는건지요?? 옷갈아입다 땀이 뻘뻘나네요 공조가 안되는건지 제발 출퇴근 시간이라도 상쾌했음 하는 바램입니다 환기도 안되서 냄새도 나고 쥐가 돌아다니는것도 목격했습니다 어떻게 관리를 하는지는 모르겠지만 반도체 회사에 건물내에 왠 쥐랍니까?? 혹시 정직원중에 락카에 오셔서 확인좀 해주세요 얼마나 습하고 더운지... A,B,C조때 말입니다</t>
   </si>
   <si>
     <t>옥계 휴양지 강추합니다. 지난주 옥계 휴양지에 다녀왔는데 정말 잊지못한 추억이였습니다. 버스에 내리면서 부터 무거운 물건을 직접 운반도 해주시고, 텐트 하나하나 배정하는것부터 완벽했습니다. 말끔한 행사 진행...스케일 큰 행사 하나하나가 감동이였습니다. 특히 토요일 저녁에 해변가요제를 비롯하여 소원성취 풍등이벤트, 불꽃축제는 정말 잊지 못할것 같아요.. 하이스텍 스텝여러분들 정말 고맙습니다.</t>
@@ -901,7 +1921,19 @@
     <t>(하계휴양소) 관련해서 몇자 적어봅니다. 안녕하세요. 하이닉스 품질관리3팀의 문병삼 책임입니다. 지난주(7/30~31) 옥계 하계휴양소를 다녀왔습니다. 애들 방학이 8월초라서 많은 차량이 몰릴 줄 알고 출발했지만 오전부터 비가 많이 와서 갈까 말까 많이 망설였습니다. 근데 다행이도 옥계해수욕장은 시원하고 날씨 때문에 불편은 없었습니다. 서두가 길었습니다. 하하하... 옥계휴양서에 계신 모든 분들을 칭찬해 드리고자 합니다. 본부에 계신분들은 항상 찾아가면 무엇을 도와드릴까요?라는 말을 시작으로 직원들의 불편함이 있는지 항상 지원하고자 하는 마음을 느겼습니다. 거기에 계시면 피곤하고 짜증이 나는 일이 많을텐데... 직원분들의 휴식을 위해서 희생을 하고자 단단히 마음을 먹고 일을 하시는 것 같더라구요. 참 많은 수고를 하십니다. 특히 오도영사원님(이름이 맞는지 모르겠음) 열심히 하시는 모습이 보기가 좋았습니다. 매일같이 통근버스 관리하시는 분도 거기서 일을 하시더라구요... 다음주 월요일 출근길에도 어김없이 나와계시는 것을 보면서 남을 웃게 만드는 것이 얼마나 힘든지를 어럼풋이 알것 같습니다. 하이스텍 여러분 덕분에 편안히 쉬고, 애들에게도 좋은 아빠 노릇을 한 듯 부득 합니다. 감사합니다. 아직 남은 휴양소에서 수고하시는 여러분들 화이팅!!!</t>
   </si>
   <si>
-    <t>아 제발좀! 제발좀 브로콜리랑 버섯으로 탕수 뭐시기 만들지 말아주세요 좀</t>
+    <t>우대좌석 운영을 위해 힘써주셔서 감사합니다. 아래와 같이 7/29 우대좌석 관련해서 말씀드렸는데요 빠른 실행에 너무 감사드립니다. 어제 8/1일에 버스에 타는데 자리가 많이 남아있는데도 우대좌석에 남자직원이 떡하니 앉아 있어 눈살을 찌푸렸습니다. 잠시후 담당자 분이 올라오셔서 말씀하시니 다른자리로 가서 앉으시더군요... 담당자 분이 조금만 더 수고 하시면 직원들의 인식이 바뀌어 잘 운영될거 같습니다. 감사합니다. ******************************************************************* 안녕하십니까? 통근버스 담당자입니다. 임산부/여성 임직원분들의 많은 관심과 사랑속에 우대좌석을 운영하고 있습니다. 하지만 일부 임직원들의 의식부족으로 아직까지 활성화 되지 못하고 있어 담당자로서 안타깝게 생각하고 있습니다. &gt;&gt; 이에 조속한 우대좌석 정착을 위한 일환으로 1) 퇴근버스 운행시 통근버스 담당자가 차량마다 일일이 탑승하여 임직원분들에게 안내드리고 있으며 2) 우대좌석 카드를 제작하여 차량 비치 3) 통근버스 기본질서지키기 스티커 제작 및 좌석 부착예정 4) 우대좌석 희망자(임산부/거동불편자) 신청접수를 받아 개별관리를 하고 있사오니 아래 연락처로 문의하시면 바로바로 해결해 드리도록 하겠습니다. ※ 신청접수 : 031)630-2218 / 문자접수 1661-3525 &gt;요즘 버스 앞쪽에 우대좌석(임산부 및 몸이 불편하신 분들을 위한)을 운영을 하고 있는데요 정말 좋은거 같습니다. &gt; &gt;그런데 버스에 사람이 다 타기도 전에 그자리를 차지하시는 분들이 있어 &gt;정작 그 자리를 필요로 하는 분들은 다른 자리에 앉게 되는거 같습니다. &gt; &gt;인식의 전환이 가장 필요한 문제이겠지만 &gt; &gt;우대좌석의 경우 버스에 좌석이 남아 있지 않을경우 제일 마지막에 앉아야 하고 &gt;그리고 앉아 있다가도 그 좌석을 필요로 하는사람이 탑승했을경우 자리를 비켜야 한다고 생각합니다. &gt; &gt;우대 좌석운영에 참조하시어 정착화 되었으면 하는 마음에 &gt;이렇게 한말씀드립니다. &gt; &gt;</t>
+  </si>
+  <si>
+    <t>항상 고생이 많으셔요~ 감사드려요~ 몇일전 수요일인가요? 비가 많이 오던 날 다들 물난리 교통사고에 정신이 없었는데... 그래도 다행히 저희 버스는 안전하게 회사까지 왔습니다. 조금 늦기는 했지만 ㅋㅋ 회사에 도착해 보니, 통근버스 담당자분들같은데... 너무 고생많으신것 같아 짧지만 소박한 마음으로 감사드린다고 전하고 싶어 남깁니다. 통근버스 이용자로서 평소 감사한 마음을 전혀 잊고 살았던것 같습니다. 이자리를 빌어 통근버스 관계자, 운전기사 분들께 감사드리며, 힘내세요^^</t>
+  </si>
+  <si>
+    <t>우대좌석 관련 요즘 버스 앞쪽에 우대좌석(임산부 및 몸이 불편하신 분들을 위한)을 운영을 하고 있는데요 정말 좋은거 같습니다. 그런데 버스에 사람이 다 타기도 전에 그자리를 차지하시는 분들이 있어 정작 그 자리를 필요로 하는 분들은 다른 자리에 앉게 되는거 같습니다. 인식의 전환이 가장 필요한 문제이겠지만 우대좌석의 경우 버스에 좌석이 남아 있지 않을경우 제일 마지막에 앉아야 하고 그리고 앉아 있다가도 그 좌석을 필요로 하는사람이 탑승했을경우 자리를 비켜야 한다고 생각합니다. 우대 좌석운영에 참조하시어 정착화 되었으면 하는 마음에 이렇게 한말씀드립니다.</t>
+  </si>
+  <si>
+    <t>구리/노원선 분리건. 안녕하세요. 많은분들이 구리노원선을 구분해달라는 요청은 그만큼 많은 불편함이 있다고 생각합니다. 통근버스에서 장시간있을때의 불편함은 정말 하루의 피곤함이 최고조에 이르게 됩니다. 저도 이용하면서 많이 느꼈던 사항인데..역시나 다른분들도 느끼고 있었나봅니다. 제가 태능입구전까지 내리고 남은 인원들을 봤을때는 거의 항상 20명내외였습니다. 그러면 한대에도 충분히 가능하다고 보는데요..물론 더욱 정확한 조사를 하시겠지만..좀더 긍정적으로 바라봐주셨으면 좋겠네요~~ 많은 분들이 바라고 있는 사항 ~~ 꼭 이뤄지면 좋겟씁니다~!!</t>
+  </si>
+  <si>
+    <t>구리/노원 노선분리에 관하여.. 여러분들이 글을 올리셨듯이, 구리 /노원 노선을 구리~태릉/태릉~노원 이런식으로 분리해주신다면 정말정말 감사할것같아요 어제 구리에서 태릉까지 1시간이 걸렸습니다.( 10시 구리하차, 11시 태릉하차 ) (어제는 특별히, 비도 많이오고 교통상황도 안좋았기 때문에 충분히 이해는 합니다만..) 노원까지 가신분들은 더 힘드셨을것같아요.. 이미 검토중이라고 하셨으니, 빨리 적용되기만을 고대하겠습니다..^^</t>
   </si>
   <si>
     <t>텐트 어디서 빌리나요? 다음주주말에 친척들이랑 여럿이 모여서 텐트좀 2개만 빌리고싶은데 어디서 빌려야되나요&gt;??</t>
@@ -910,19 +1942,67 @@
     <t>우대좌석 사용 접수 안내 P {margin-top:0px; margin-bottom:0px; color:#333; font-family:돋움,dotum,sans-serif;font-size:12px;font-weight:normal;}안녕하십니까? (주) 하이스텍 통근버스 담당자입니다.   우대좌석이 필요한 임직원(임산부/거동불편자/여성)을 위하여 우대좌석 안전사용 접수를 받고 있사오니 아래 연락처로 문의해 주시기 바랍니다.    ▶ 운영방안 : 우대좌석 신청임직원 탑승차량 특별관리    ▶ 신청접수 : 031)630-2218 / 1661-3525(문자접수)</t>
   </si>
   <si>
+    <t>잠실 출근버스 아래 목록보니 잠실 출근버스 관련하여 몇분이 이미 글을 올리셨네요... 저도 첨언하고자 합니다. 1. 동남관광은 결행이 빈번합니다. 2. 대차로 다른 버스가 자주 오는데, 상태가 좋지 않습니다. - 어제 (7/20) / 오늘 (7/21) 승산관광버스가 왔는데요, 의자의 앞뒤 간격이 좁아서 키가 작은편인 저도 무릎이 앞좌석에 닿을 정도로 불편합니다. 키큰 사람들의 어려움은 더하겠지요.. - 지난주에 웅진관광버스는 운전석 반대편 창가 좌석이 앞에서부터 뒤까지 모든 좌석에서 에어컨에서 물이 한꺼번에 많이 쏟아져서 차를 중간에 세우고 다른 버스로 옮겨 탔습니다. 조금씩 떨어지는 수준이 아니고 한꺼번에 쏟아졌습니다. 그리고 추위를 많이 타시는 분들은 에어컨을 막아 놓아도 실내등 주변에서 강한 바람이 나와서 추위에 떨면서 가야합니다. (실내등 틈새로 에어컨 바람 나옵니다.) 여러모로 애를 많이 써주신 덕택에 출퇴근 버스 환경이 많이 개선되었습니다만, 업체 관리를 통해서 조금 더 개선될 수 있도록 부탁드립니다. 수고하세요.</t>
+  </si>
+  <si>
+    <t>아이스박스와 얼음 대여해주는 곳 안녕하세요 사내에서 아이스박스와 얼음을 무료로 대여 해 준느곳이 있다 들었는데 정확한 위치와 담당자분을 모르겠어요 도움 요청드립니다.^^</t>
+  </si>
+  <si>
+    <t>임산부 / 노약자석....의미.... 단지 내 출퇴근 버스에서 임산부 노약자석 운영 한지도 오래 된것같네요.... 처음에 이게 뭔가? 왜? 여직원들만 이런 혜택을? 하면서 생각 했는데... 지금 보면 그렇지도 않네요... 버스 올라 타서 제일 처음 보이는 좌석에 건장하신 남자분들 앉아 계십니다... 뒤에 좌석 많은데... 앞에서 다리 벌리시고 DMB 보시면서.... 뭐 그런분들 보면서 아 어디가 안좋으신가 보다 라고 생각 하는데... 가끔 임산부께서 힘든 몸 이끌고 올라 오셔서 비좁은 틈으로 뒤로뒤로 가시는걸 보면 참 맘이 그렇더군요... 저도 와이프가 임신하면 저렇게 다닐텐데 하니깐 맘이 더 그렇네요.. 이왕 앞 좌석 임산부 / 노약자석 지정 했으면 좀 더 강하게 임직원분들이 지키 실 수 있도록 했으면 좋겠네요.</t>
+  </si>
+  <si>
+    <t>흡연실 현재 청운기숙사 3관 살고있는 남 사원입니다 3관앞 흡연장소를 지금 폐쇄시키는것... 많은 사람들이 불편을느낌니다.. 개선바랍니다</t>
+  </si>
+  <si>
+    <t>통근버스관련 문자접수 건의가 안됩니다. 아침에 출근해서 통근버스 관련 건의 내용을 문자로 보내는 제도가 있어서 2번 시도했는데 메세지 전송이 안됩니다. 방법공지가 맞는지요? 1661-3525 로 보내니 010-1661-3525 번호로 입력하신 수신번호가 정확하지 않다고 옵니다. 확인부탁드립니다. 참고로 저는 kt 010 사용자입니다.</t>
+  </si>
+  <si>
+    <t>모든 버스에 임산부 좌석 표시해주세요~ ㅜ0ㅜ 임산부 좌석 표시가 되어 있지 않는 버스들이 있습니다. 아직 기사님 뒷자리가 임산부 좌석이라는걸 모르는 분이 있는지 다른 자리가 있음에도 꼭 앉아 계시는 분들이 있네요 맨 앞자리가 좌석이 좀 더 넓고 진동이 덜해 임산부 좌석으로 배려해 주신것으로 알고 있습니다. 이미 앉아 계신분께 일어나라고 말하기도 뻘쭘하고;; 써붙여 있으면 덜 뻘쭘할거 같네요;; 다른 자리 많은데 꼭 그 자리 앉아서는 옆자리까지 맡아놓고 제가 앉으려니까 자리 있다고 말씀하시는 분이 있더군요;; -_-;; 오늘은 출근버스에서 내릴때 기사님께 자리에 표시 좀 해달라고 부탁드리긴 했는데 아침에 그런 대화 오가는거 보셨는지 흔쾌히 그래야겠다고~ 아니면 본인이 말씀해주시겠다고 해주셔서 맘은 좀 풀렸는데요;; 암튼 꼭 좀 챙겨주세요.. 참고로 출퇴근 사당선 탑니다~;;;</t>
+  </si>
+  <si>
     <t>휴양지 안내는 없나요?? 회사랑 연계된 휴양지 안내 문서가 있었던 걸로 기억하는데요.. 웹사이트 자체에 이젠 없어졌나 보네요... 다시 게시좀 부탁 드립니다.. 아니면 메일로 전송 좀 부탁 드려도 될런지요?? 우중충한 날씨에 수고하세요!</t>
   </si>
   <si>
-    <t>사내셔틀에 언제부터 물품 못 실어 보내게 바꼈습니까 사내셔틀에 언제부터 물품 못 실어 보내게 바꼈습니까? 방금 영동사옥 가는 셔틀에 물품 실어보내려 했는데 기사님께 거부를 당했습니다. 언제 부터 바뀐건지 알고 싶습니다. 지금 상당히 불쾌하네요. 버린 시간이 아깝네요!!! 이천에서 영동사무소 가는 2623 버스 기사분.. 아무런 설명도 없이 문서수발로 보내라는 말씀만 하셨습니다. 하이닉스 버스 기사님이 불친절한 당연한 건지요?</t>
-  </si>
-  <si>
-    <t>아래 마스크 착용관련 글을 보고 아래 마스크 착용관련 글을 보고... 조식, 중식, 석식, 야식 모두 봤는데요, 몇몇 분들은 아직 안쓰던데요 ? 특히, 야식때는 더 많아요. 안쓰는분들. 배식을 안한다고 안쓰는게 아니라, 식당에서 근무하는 직원 전원은 써야하는거 아닌가요 ??? 말뿐인 서비스... 정말. 그리고 중앙식당, 복지식당, 청운식당 모두 써야하는거 아닌가요 ??? 배식담당이던 아니던 무조건 써야하는거 아닌가요 ??? 그리고, 머리카락 먹고 싶지 않으니 두건이나 헤어캡도 써야하는거 아닌가요 ????? 배식담당이 아니라 '전원'입니다. 고 '전원' ... 날씨가 하루가 다르게 여름으로 달려가고 있는 계절입니다. 안녕하세요^^ 고객님! 중앙식당에 많은 관심을 보여 주셔서 감사합니다. 마스크 착용에 관한 의견을 주신 즉시 업체를 방문하여 위생관련 주요 내용과 고객님의 따끔한 의견을 전달하였습니다. 또한 중식 배식전 배식 및 조리를 담당하는 전 인원에게 마스크 착용을 다시 한번 전달하였으며, 배식시간 중 실시간으로 직접 마스크 착용을 확인하였습니다. 앞으로도 배식시 전 인원이 마스크를 착용하도록 지속적인 교육 및 착용여부를 확인하도록 하겠습니다. 감사합니다. ============================================================================================ &gt;중앙식당 근무자는 마스크 안써도 되나요 ? &gt; &gt; &gt; &gt;식당에서 일하시는분 '전원' 마스크 써야하는걸로 알고 있는데... &gt; &gt; &gt;'전원' 마스크 착용지시 바랍니다. &gt; &gt; &gt;그리고, 착용하지 않았을 경우 페널티 조치 취하세요.</t>
-  </si>
-  <si>
-    <t>중앙식당 근무자는 마스크 안써도 되나요 ? 중앙식당 근무자는 마스크 안써도 되나요 ? 식당에서 일하시는분 '전원' 마스크 써야하는걸로 알고 있는데... '전원' 마스크 착용지시 바랍니다. 그리고, 착용하지 않았을 경우 페널티 조치 취하세요.</t>
-  </si>
-  <si>
-    <t>흙탕물 사고에 대한 사후 대책에 대해서 수긍 하도록 하겠습니다. 흙탕물 뒤집어 쓰고 출근 할때는 화가 많이 났는데 사후 대책에 대해서 수긍 하도록 하겠습니다 앞으로도 계속 안전 운전이 되도록 수고 하여주시기 바랍니다 빠른 답변 및 대처에 감사 드립니다.</t>
+    <t>칩팩 건물 흡연공간 개선관련 스태츠칩팩 근무자입니다. 정확히 하이스텍에서 관할하는 부분인지 잘 모르겠지만 일단 글을 올려봅니다. 아시다시피 저희 회사 부현관에 흡연실이 붙어있습니다. 부현관 문앞에 흡연실이 있다보니 신발장까지 냄새가 들어옵니다. 드나들때마다 연기를 마시게 됩니다. 이에 대해서 사원들의 불만이 끊이지 않았지만 회사측에서는 아래와 같이 하이닉스의 규제로 흡연실 개선이 어렵다고합니다. --------------------------------------------------------------------- 건물외각 지역은 Hynix에서 관리하는 지역으로 우리회사에서 임으로 공사를 할 수 있는 권한이 없으며 추가 흡연실 설치도 반대해오고 있는 실정입니다. --------------------------------------------------------------------- 이점에 대해서 검토해주시기를 요청합니다. 하이닉스만을 위한 서비스를 하시는지, 입주사 직원들의 복지도 신경쓰고 계시는지 제가 확실히 알 수 없습니다만... 칩팩 근무자들 중 비흡연자 및 임산부들의 피해가 계속되고 있는데, 이 점을 알고도 저희 회사 흡연실 개선을 막고있는지 궁금합니다. 그리고 이 흡연실에 하이닉스 및 타 입주사 직원들이 몰려와서 흡연해대는 바람에 담배냄새가 더 심해졌습니다. 그 연기는 고스란히 출퇴근 하는 직원들이 마시고있습니다. 공용 흡연실을 근처에 설치해주시던지, 저희회사 흡연실 공사를 허가해 주시던지 조치를 요청드립니다.</t>
+  </si>
+  <si>
+    <t>통근 버스 의자 등받이 고정 건의 통근버스를 이용하다보면 앞좌석에 앉은 승객이 등받이를 뒤로 과도하게 젓혀 불편한 때가 많습니다. 더욱이 뒷좌석의 승객에게 양해도 구하지 않고 의자를 뒤로 젓혀서 무릎에 충격이 가는 경우도 있습니다. 그리고 책을 보거나 많은 짐을 안고 타야 하는 경우에도 앞좌석의 등받이가 뒤로 젓혀지면 매우 불편합니다. 등받이를 뒤로 젓히면 본인은 편하겠지만 뒷사람에게 불편을 야기합니다. 통근버스와 같이 수십명의 사람들이 함께 이용하는 공간에서는 지양되어야할 행위입니다. 굳이 등받이를 뒤로 젓히지 않아도 수면을 취하거나 휴식을 취하는데 아무런 지장이 없습니다. 좁은 공간에서 편해야 얼마나 편하겠습니까. 남을 배려하는 성숙한 시민의식이 자리잡기에는 아직 요원한 것으로 생각됩니다. 그래서 아예 등받이를 뒤로 젓히지 못하게 고정할 것을 건의드립니다.</t>
+  </si>
+  <si>
+    <t>세탁비 물어줍니까? 어제, 오늘 출근하다가 통근 버스에서 튀긴 물로 옷을 버렸는데 정말 기분 나쁘네요 어제는 허리 밑으로 오늘은 허리위로 일부 운전자들은 천천히 조심해서 다니는데 일부 운전자들이 무자비하게 달리네요...그것도 회사 단지안에서...참고로 저는 출입구 옆에있는 엘리베이터 근무합니다. 차가 들어오는 입구에서 주차장 사이에 있는 인도인데....... 조치 좀 취해주세요.. 우산을 쓰고있어 사진은 찍기가 그렇고, 달랑 두번이라 차량번호는 안보았습니다...</t>
+  </si>
+  <si>
+    <t>2011년 콘도리스트 안내 부탁 드립니다. 안녕하세요.. 7월말경에서 제주도 여행가려고 하는데 2011년 콘도 리스트랑 렌트카 안내 부탁 드립니다.</t>
+  </si>
+  <si>
+    <t>셔틀버스 맨앞 우대석 몇달 전부터 통근 셔틀버스에 고맙게도 맨앞 자리 2자리에 우대석을 마련해주셨습니다. 그러나 적극적인 홍보가 되지 않아 의자에 주황색 커버가 씌워져있음에도 일부 매너없는 건장한 남자분들이 뒷자석에 버스 좌석이 많음에도 우대석에 앉는 경우가 많습니다. 얼마전에 임신하여 우대석에 앉길 간절히 희망하는 1인 입니다. 출근할 때, 퇴근할 때 속이 매스꺼울 때 앞좌석에 앉으면 한결 도움이 됩니다. 실시를 하려면 제대로된 적극적인 홍보가 필요할 것 같습니다. (기사님 뒷 2자리 외 그 옆 맨앞자리 2자리도 우대석으로 하면 더 좋을꺼 같습니다.)</t>
+  </si>
+  <si>
+    <t>분당 경부선 기사님 변경 및 매너 안녕하세요. 분당 경부선에 대해 말씀드립니다. 경부선은 유난히 다른 노선에 비해 기사님이 자주 바뀌시는것 같은데.. 죽전을 그냥 지나칠때도 있고, 분당 들어서서 정거장을 모르시는 분이 대부분이고,, 더더구나 운전중 잦은 전화 통화, 욕설, 신호 무시 등등.. 요즘 임신을 해서 맨앞자리에 많이 앉아 가는데,, 더 불안해서 앞자리에 못않겠네요.. 어제 6시 퇴근 버스 기사님은 폭우가 오는 커브길에서도 욕설이 난무하는 전화 통화를 하셔서 너무 불안해서 내릴때까지 정말 좌불안석이었습니다. (전화를 20통은 넘게 하시는거 같던데..) 물론 정말 부드러운 운전과 좋은 매너로 쾌적하게 해주시는 분들도 많습니다만, 어제 같은 분들을 볼때면 너무 불안하고 무섭네요.. 많은 사람을 수용해 가는 버스인 만큼 정해진 기사님과 기사님들의 운전 매너,, 다시 한번 부탁 드립니다. 수고하세요.</t>
+  </si>
+  <si>
+    <t>5월 24일 B조 성남출근셔틀이요~!!! 셔틀버스 원래 사내 도는걸로 알고있는데 어제는 주차장에서 내려주시더라구요 ㅡㅡ 사전에 아무런 공지도 없이 내려주니깐 기사아저씨한테 왜 사내 안돌고 주차장에서 내려주시냐고 물어봤더니 사내 안한다고 한마디 하시던데 그 기사아저씨가 사내 운행을 안한다는건지 왜 우리가 피해를 봐야 됩니까? 주차장 앞에서 다른 성남셔틀 기사분을 만났는데 왜 사내안돌았냐고 여기서 내렸냐고 물어보시더라구요 어제 다른 출근셔틀들은 다 사내돌던데 안그래도 더운날씨였는데 걸어가느라 짜증이 이만저만이 아니였습니다ㅡㅡ;; 주차장에서 내려주면 그에 타당한 이유가 있거나 사전에 미리 말이라도 해주면 저희가 이해할텐데 아무말도 없이 떡하니 주차장에 내려주시고 앞으로는 이런일 없게 조치좀 해주세요~!!</t>
+  </si>
+  <si>
+    <t>임산부 좌석을 만들어주세요. 안녕하세요.. 항상 출퇴근 하면서 통근버스를 이용하는 사람입니다 ~~ 시내에서 매일 출근 퇴근을 반복 하지만, 요즘 들어서 제일 앞자리에 임산부 노약석 및 거동불편자 이렇게 앉으라고 되어 있는 줄 알고 있는데, 신체 건장한 젊은 남자 여자, 아주머니 아저씨 다 앉아계십니다. 저는 그래서 매일 뒤 쪽으로 앉게 되네요... 자리 확보 좀 부탁드려요... 불편합니다..... 처음에는 잘 진행이 되는 가 싶더니 아닌 것 같습니다. 다시 한번 공지 부탁드립니다... 감사합니다..</t>
+  </si>
+  <si>
+    <t>시정 조치에 대한 일정을 공지.. 어제 죽전 통근버스관련 불편사항을 등록하였습니다만, 시정 조치 요청에 대한 답변에, 조치 내용은 있는데, 일정이 없습니다. 언제까지 조치하겠다는 일정이 있으면 좋겠습니다.</t>
+  </si>
+  <si>
+    <t>아이스박스 대여 가능한가요? 작년 여름인가요? 회사 식당에서 아이스박스 대여해준다는 공지 사항을 보았던것 같은데요. 이번 5월달에 회사 그룹 춘계 행사때 빌리려고 하는데 빌릴수 있는지요? 어느 담당자분께 여쭤 봐야 하는지..궁금합니다.</t>
+  </si>
+  <si>
+    <t>통근버스 기사님들 주의좀 부탁합니다. 항상 수고에 감사 드립니다.금일 잠실 출근버스를 타고오면서 느낀점 입니다.(2대중 2번째 출발하신 기사님) 예전 동남관광일때는 먼저 와서 기다리곤 햇는데..요 며칠 차량이 그때그때 변경되면서 앞에 하이닉스라고 써 있지도 않고..거의 1~2분 남겨 두고 오고...좀 불편한것 같읍니다. 또한 제가 쓰려고 한것은 오늘 버스기사님 잠실서 회사까지 오는내내 통화를 하더군요..거의 도착 해서는 기사들끼리 무전기로 농담 따먹기 하고...자다가 몇번 깬것 같아요..그리고 네비케이션 소리도 왜 그리 크게 하는지...승객의 안전을 위해 기사님 통화는 좀 자제 하셨으면 하고..네비도 소리좀 줄였으면..합니다... 다른 노선도 그럴수 있으니..관리자님께서 한번 전체적인 공지를 하심이 어떨런지요? 수고하세요..</t>
+  </si>
+  <si>
+    <t>약자우대좌석 우대좌석 (임산부, 거동불편자)이라고 하여 취지는 너무너무 감사합니다. 하지만 실행되지 않는 제도는 아무의미가 없다고 볼수 있지요... 저는 다음주면 출산하는 39주 임산부인데요. 제가 출퇴근하면서 그자리에 앉아본적 딱 두번밖에 없습니다. 항상 다른분들이 버젖이 앉아 계시더군요. 그리고 그분들 앞에서 서서 간적도 있습니다. 물론 그자리에 앉아 계셨던 분들의 의식수준을 먼저 탓해야하지만 기사분들에게 좀더 적극적으로 홍보해주심도 감사할것 같습니다.</t>
+  </si>
+  <si>
+    <t>고객의 소리 일부 답변 관련 더 노력해주세요. 안녕하세요. 고객의 소리 일부 답변 관련 더 노력해주세요. 답변다시는 분도 사람인지라 모두 만족하는 올바른 답을 내기도 어렵고 감정을 조절하여 답변달기도 쉽지않을것으로 생각됩니다만, 일부 답변 중에는 성의가 없어 보이는, 또는 감정이 엿보이는 글도 가끔 보입니다.(통근버스 관련) 서비스업이오니 조금만 더 노력해주시기 바랍니다.</t>
+  </si>
+  <si>
+    <t>체육관 예약에 대해서 건의 사항 있습니다. 분사업체는 메일로 받는다고 답변을 들었습니다. 그렇다면 관리자 분께서 예약시 어디서 예약하여 사용할 예정인지 예약사항에 나올수 있도록 하여 주셨으면 합니다.</t>
   </si>
   <si>
     <t>아이폰주인찾습니다 핸드폰주인찾아줄라고햇는데 전화를안하셧어 이글보시면전화주세요 01054689806 하이닉스 직원분같은ㄷㅔ 전화주세요 아이폰이구</t>
@@ -931,61 +2011,163 @@
     <t>농구장 예약에 관한 문의 안녕하세요, 하이닉스 F설계 3팀의 최재원이라고 합니다. 농구장 예약과 관련하여 선정에 관해서 문의사항이 있어서 연락드립니다. 4월 한달간 매주 화요일이 권오영사원님 이름으로 올코드가 승인되어 있던데 팀 행사인 농구모임이 모두 반려 되었는데 특별한 사유가 있는지 궁금하여 글을 남김니다. 예약신청 목록을 보면 확인이 불가능하여 글을 남깁니다.</t>
   </si>
   <si>
+    <t>체육관 웨이트 봉 문제 밑의 글쓰신 분 의견에 동의하는 사람입니다. 봉이 날마다 더 휘고 있는것 같습니다. 저번에는 봉에 걸린 추를 가벼운것으로 바꾸려고 한쪽의 20kg 추를 빼는 순간 봉이 반대편쪽으로 땅바닥에 내동댕이 쳐지는 아찔한 상황도 겪었습니다. 만약 그 반대편에 혹시 다른사람이 운동이라도 하고 있었다면 저는 분명 고의가 아니었지만 상대방은 발등이 20kg 추에 찍히는 사고가 났을겁니다. 안전에 관련한 문제인데 왜 조치가 안이루어지는건지 모르겠습니다.</t>
+  </si>
+  <si>
+    <t>중앙 체육관 웨이트 기구 교체 요청 3번째 글 올립니다. 왜 답변 없습니까? 사용에 위험하다고 하다는데, 왜 나몰라라 하는 겁니까? 예전 윗몸일으키기 경우와 같이 누가 한명이 사고나서 병원신세를 지고나서야 조치 할겁니까? 중앙체육관의 벤치프레스 봉이 휘고 있습니다. 조금 휘었기 때문에 일반적인 분들은 사용에 지장이 덜할수 있지만, 고중량을 이용하시는 분들은 위험할수 있습니다. (운동 중 원판이 바깥으로 밀리는 현상으로, 고중량으로 갈수록 상당히 위험합니다.) 봉 교체시 220mm 20kg 규격으로 교체바랍니다. 현재는 180mm 15kg 입니다. 봉의 빠른 교체 바라며, 웨이트 시설 확충 좀 해주세요.</t>
+  </si>
+  <si>
+    <t>중앙 체육관 웨이트 기구 교체 요청 중앙체육관의 벤치프레스 봉이 휘고 있습니다. 조금 휘었기 때문에 일반적인 분들은 사용에 지장이 덜하지만, 고중량을 이용하시는 분들은 위험할수 있습니다. (운동 중 원판이 바깥으로 밀리는 현상으로, 고중량으로 갈수록 상당히 위험합니다.) 봉 교체시 220mm 20kg 규격으로 교체바랍니다. 현재는 180mm 15kg 입니다. 탄력봉의 빠른 교체 바라며, 웨이트 시설 확충 좀 해주세요.</t>
+  </si>
+  <si>
     <t>우산을 분실했습니다. 우산을 분실했는데요. 3/27일 월요일 아침 7시 영통선차량을 탑승하였습니다. 탑승 위치는 신나무실 현대아파트 입니다. 첫번째 차가 한빛 / 두번째 차가 백두산 같은데요. 첫번째 차를 놓치고 뒤에 온 차를 탔으니깐 백두산을 탑승한 것 같습니다. 우산의 특징은 반으로 접히는 우산이고요. 오래된 우산이고 색상은 노란색/파란색 체크하고 해야 하나 어쨋던 단색은 아니고 색상이 섞여 있습니다. 제가 분실하고 나서 1661-3525 로 문자를 보냈는데 제 실수인지 문제가 뭔지는 모르겠지만 문자가 전달이 안되었는지 아직 연락을 못받아서 다시 글로 남겨 봅니다. 혹시라도 비슷한 색상의 우산이 습득된 것이 있으면 연락 주시기 바랍니다. 감사합니다. 꾸벅~</t>
   </si>
   <si>
     <t>임대아파트 천장에 살고 있는 유해동물 문제입니다. 안녕하세요.. 임대아파트에 거주하고 있는 사원입니다. 화장실 천장위에서 고양이인지 쥐인지는 모르겠지만, 동물같은 것이 얼마전 부터 (약 2달 정도 되었음) 살고 있는 거 같습니다. 움직이는 소리가 심하게 나고, 배설물로 인한 지린내 같은 악취가 심하게 납니다. 지금 와이프랑 애기가 있는데, 동물의 배설물이 병을 옮기기 않을까 너무 불안합니다. 와이프가 관리사무에 여러번 얘기를 했지만, 거의 무시하는 투로 잘 들어 주지 않고(나보고 어쩌라는 투로 얘기를 한다고 합니다.) 방문한다고 해놓고 감감 무소식 이네요. 이것뿐만 아니라 불편사항이 생길때마다 관리사무에 여러번 문의하지만 바쁘다 면서 잘 들어 주지 않습니다. 방문한다고 하고 그냥 지나가는게 여러번입니다. 항상 민원을 제기하거나 관리사무소를 방문할때마다 느끼는 거지만 관리사무소의 직원들이 너무 불친절 하고 자세가 너무 고압적인 거 같습니다. 아무리 제가 회사아파트에 그냥 들어와 살고 있는 거지만 매달 관리비를 내고 있습니다. 관리사무소의 고객은 임대아파에 살고 있는 저희들 아닙니까. 이런 일이 생길때 마다 정말 너무 화가 납니다. 마지막으로 와이프와 애기의 건강이 너무 염려가 되어서 화장실 천장에 살고 있는 동물 문제를 해결할 수 있는 방안을 조속히 마련해 주셨으면 고맙겠습니다. 방법이 없으면 용역업체라도 소개 시켜주세요. 그럼 수고하세요.</t>
   </si>
   <si>
-    <t>하!! 손님한테 쌍욕을 바가지로 해주시는 친절한 청운4관 세탁소 주인장!! 몇일전 셔츠 3벌 세탁 맞겼습니다. 한두번도 아니고 정장이랑 셔츠는 꼭 세탁을 맡기기에 한두번 가던곳도 아니죠. 늘 친절한 아주머니가 계셨습니다. 맡길땐 금액이 얼마인지 물어보고 갔고 찾으러 갈때는 그 금액에 맞춰 가져갔습니다. 주로 운동하러 왔다갈때 들리다 보니 잔돈을 없애기 위해 그렇게 버릇이 되있었죠. 아주머니는 14000원이라 해놓고 덜받은적은 있어도 더받은적도 없었습니다. 단지 5000원이라 그래서 운동하러갈때 5000원 챙겨 나간거고 5000원 이라 들었기에 5000원 계산하려 한겁니다. 오늘 처음 뵈었던 나이 지긋한 아저씨!! 기름값이 올라서 2000원받던걸 1800원을 받느니 어쩌구 저쩌고 세탁소에 정찰제 한적도 없고 기름값이 올라서 가격이 어떻게 됐다는 문구하나 본적도 없었습니다. 정찰제도 안하는곳의 가격 사정은 제가 그리 잘알고 있을 사정도 아니겠죠. 딱잘라서 결론만 말하겠습니다. 꼴랑 400원 땜에 싸우다보니 서로 언쟁도 높아진건 사실이고 양쪽다 많이 화가난 상태지만 거진 나이 70은 되보이는 세탁소 주인장... 염병할놈? 싸가지없는새끼? 쳐죽여버려? 돈만아니여도 너같은건 존나패? 내가 너만한아들이 있어 이새끼야? 까불지마임마? 좀만한 새끼? 이것말고 욕을 더 하셨겠죠 욕을 하도 잘하셔서 다 기억도 안납니다. 좋습니다 좋아요..단지내에 앉아서 장사하는 곳이고 배짱으로 장사해도 장사하는데 아무런 지장 없어서 저같이 '좀만한 새끼'한테 욕하고 내쫒아도 장사는 여전히 잘 하시겠죠. 아무리 그래도 말입니다! 아저씨가 주인이면 아주머니도 주인이시고 전 그 두 주인중 한분에게 가격을 들은겁니다. 다짜고짜 처음부터 '아주머니가 가격을 잘못 말해드렸네요'도 아니고 '기름값이 어쩌구 그래서 그쪽이 잘못 들은겁니다' 라뇨 웃으면서 '그럼 5천원 먼저 드리고 이따 400원 드릴께요' 라니깐 단칼에 안된다고 고작 400원때문에 이따 나가는길에 드려도 되는것을 5400원 다내고 이따 가져가라던 주인장 나으리!! 사람을 늘 다니던 가게에서 가격하나 기억못하는 찐따 취급부터 해버리면 기분좋을 손님이 있을까요? 그딴식으로 장사하지 마십쇼.. 아..혹시 세탁소에서 반박을 해댈지 모르겠네요. 제가 쓴글은 이야기가 길어질까 뺀 부분도 있고 서로 어떤 언쟁이 오갔는지 자세히 서술하지 않았으니깐요. 단 하나 확실히 말하겠습니다. 그쪽 노인장은 5천원을 두고 400원을 가져오겠다는 제게 염병할 새끼부터 시작해서 다짜고짜 욕을 시작하셨고 전 단한마디의 욕을 안했다는걸요. 이부분에 대해서는 청운식당 지배인님과 500원 두고왔을때 계신 하이닉스 직원분도 보신거니 확실한 거겠죠. 맘같으면 퇴출운동이라도 하고싶지만 계란으로 바위친다고 뭐가 되겠습니까? 전 단지 세탁소 주인나으리가 이렇게 높으신 분이라는것을 알리고 싶을 뿐입니다.</t>
-  </si>
-  <si>
-    <t>2월 4일 야간 통근버스건. 안녕하세요. 통근버스 관련해서 문의드립니다. 제가 2월 4일(금) 야간근무라 대방역에서 18시 45분에 출발하는 통근버스를 타고 출근하려 하였습니다. (설 연휴 공휴일 운행노선) 하지만 18시 30분부터 기다렸는데 버스가 오지 않았습니다. 설 연휴라 교통체증 때문에 버스가 못왔던 것 같고, 설 연휴라 야간에 출근하는 사람도 없어 버스를 기다리는 사람도 없어보였습니다. 일단 출근을 해야해서 급하게 택시를 타고 출근을 했습니다. 택시비로 사용한 금액을 교통비 지급 신청하려고 합니다. 현재 야간근무 중이라 주간에는 사무실에 없으니 글 보시면 010-9903-0763 으로 연락 부탁드립니다. 구대원 과장님께서 부재 중이시라 같이 일하시는 동료분께 메모 남겨두었습니다. 빠른 처리 부탁드립니다.</t>
+    <t>임산부 좌석에 대한 건.. 안녕하세요. 저도 현재 임신 6개월째 되는 임산부입니다. 매일 시내에서 출 퇴근 하고 있는데 매일 5시 50분 퇴근 버스에 앉으면, 아주머니나 아저씨들께서 제일 앞좌석에 자리를 차지하고 계십니다.(매일..) 노약자 &amp; 임산부 전용자리로 알고 있는데, 전혀 실행되고 있지 않습니다. 분명 앞에 그렇게 쓰여져있는데 무시하고 앉아 계시는 것 같아 저도 매일 중간 자리나 뒷자석에 앉습니다. 어쩔땐 서서 가는 경우도 있습니다. 임산부 &amp; 노약자 석에는 이 두가지에 관련된 분들만 앉았으면 합니다. ((건강하신 아저씨 , 아주머니는 뒷자리 앉아도 될 것 같습니다..) 이 점 적극적으로 될 수 있도록 부탁드립니다....</t>
+  </si>
+  <si>
+    <t>출근버스에서 임산부에 대한 배려 제 아내가 임신중인데요. 출근버스에 탈 때면 미처 자리에 안기도 전에 차가 출발해서 넘어지거나 의자팔걸이에 배가 부딪힐 뻔 하는 등 위험한 상황에 처하는 날이 거의 매일입니다. (임산부석이 비어있으면 타자마자 앉을 수 있겠지만 출근할 때 임산부석이 비어있는날을 한번도 못봤습니다.) 임산부가 있든 없든 간에 안전을 위해서 승객들이 모두 착석한 후에 차량이 출발할 수 있도록 부탁드립니다.</t>
+  </si>
+  <si>
+    <t>불친절한 퇴근 버스 기사 신고합니다. 3월 17일 20시 퇴근버스 잠실선(동남 9540번)을 탔습니다. 맨 앞자리에 앉았는데 히터를 너무 세게 가동한 탓인지 발밑이 뜨거워서 히터를 줄여달라고 했더니, 뒷자리가 덜 더우니까 뒷자리로 가라고 하더군요. 그리고 승객을 대하는 태도가 무척 거칠고 불손했습니다. 발밑이 뜨거운것도 불편한데 운전기사의 불친절한 응대까지 참아야 해서 매우 불쾌했습니다. 처음이라 실명은 공개하지 않습니다만, 한번 더 그런 불친절한 응대를 할 경우 실명 공개하겠습니다.</t>
+  </si>
+  <si>
+    <t>3월 7일 공지 관련 건 3월 7일 통근버스 일정 관련 하기 공지 내용은 잘 보았습니다. 저 같은 경우 3월 1일 부터 휴가를 사용하였기 때문에 사내 공지는 볼 수 없는 상태에서 외부에서 접속 가능한 곳은 이곳 뿐인데 공지가 따로 없더군요. 아침부터 출근길이 좀 고생 길 이었습니다. 혹시 예외의 경우를 생각하여 외부에서 확인 할 수 있게 올려 주셔야 하는게 아닐까 싶었습니다. 추후 고려 부탁드립니다.</t>
+  </si>
+  <si>
+    <t>버스예절 교육 부탁 좀 드립니다.(송정선 6시출발행) 안녕하세요.. 저는 매일 6시 송정선 퇴근버스를 이용하는 직원입니다. 불만 사항이 있어 개선을 해야 하지 않을까 라는 생각에 이렇게 글을 올립니다. 근무는 어디서 하시는 분인지는 모르겠지만 거진 매일 앞좌석에 앉다시피 하시는 여사님이 계십니다. 그 여사님.. 입에 모터기를 달았는지 그리고 목소리가 기차 화통을 삶아드셨는지 집안식구흉, 직장동료흉, 뭐 들어서 그다지 좋은 얘기도 아닌데 뒷좌석까지 다 들립니다.(매일 떠듭니다.....매일!. 스트레스 많이 받아요..) 남 얘기 잘 하셔서 잘 되시는 분 못봤지만, 그래도 정도가 지나칩니다. 정말 한마디 하고 싶지만, 제가 거기서 나서서 말 하는 것 보단 이 글을 올리는 것이 훨 효과적일 것 같아 글을 올립니다. 어느 버스에서든 예절이라는 게 있습니다. 그 예절.. 남을 위한 배려 좀 해 주었으면 하는 바램으로 글을 씁니다.. 오늘 하루도 좋은 하루 보내세요~~ 고맙습니다..</t>
+  </si>
+  <si>
+    <t>보안 차량에 대해 말씀 드립니다. 안녕하세요. 저는 하이닉스 직원 중 한명입니다. 오늘 15:14분경에 보안 차량 한대가 M10A 앞에 서있다가 복지관 사거리로 빠르게 올라가는 모습을 보았습니다. 현재 저희 회사내 도로 모든 운전 차량의 시속은 최대 30km의 속도로 운행하는걸로 알고 있습니다. 하지만 그 보안 차량은 예외더군요. 아무리 보안 차량이더라도 그렇게 빠른 속도로 운전을 하는건 아니라고 봅니다. 회사내 운전 시속 제한에서 보안 차량은 예외인걸 제가 잘못알고 있는지 자세히 알고 싶어 글을 남깁니다.</t>
+  </si>
+  <si>
+    <t>아이폰 접속시, '통근버스' 사이트 접속 불가 아이폰으로 '통근버스' 사이트 접속시 해당 파일에 접근 할수 없습니다. 확인해서, 해당 사이트 파일에 접근 가능하도록 조치 바랍니다.</t>
+  </si>
+  <si>
+    <t>통근 버스 의자 뒤로 젖히지 않기 운동 제안합니다 통근버스 예절 지키기 캠페인에 의자 뒤로 젖히지 않기 운동 제안합니다. 의자를 뒤로 젖히게 되면 뒷자리에 앉은 승객의 자리가 좁아져 불편해 집니다. 책을 읽거나 할때도 불편합니다. 그리고 갑자기 의자를 뒤로 젖힐 경우 무릎을 치게 되어 불쾌한 경우가 발생합니다. 통근 버스 의자를 뒤로 젖히는 것은 남을 배려하지 않는 매너없는 습관입니다. 의자 뒤로 젖히지 않기 운동을 강력히 주장합니다.</t>
+  </si>
+  <si>
+    <t>현우문 보안 불친절!!!!!!!!!!!!!!!!!!!!!!!! 현우문 보안!! 완전 어이없을정도로 불친절합니다. 젊은사람들이 어른공경이란건 아예없는건지..!! 어린사람들이 반말찍찍하면서 너무 불쾌합니다. 교육 똑바로 시켜주십시오!!!!</t>
   </si>
   <si>
     <t>귀향버스 설명절에도 고생이 많으신 버스기사님들께 감사드립니다 길이 많이 막히는데도 덕분에 고향에 잘 도착하였습니다 그분들도고향이 있는 분들일텐데... 모든 분들이 명절처럼 넉넉한 마음으로 불평불만으로 가득차지 않는 설연휴 보내세요~ 귀경길도 잘 부탁드립니다</t>
   </si>
   <si>
-    <t>지갑분실하였습니다. 수고많으십니다. 2011년 1월 23일 b조 퇴근 이천관내방향으로 가는 버스를 탑승했는데요. 터미널에서 내리고 편의점으로 가는도중에 지갑을 분실하는것을 인지했습니다. 그날 탔던 버스 회사가 어딘지는 모르겠으나.. 지갑은 황토색 체크무늬 러브켓제품의 지갑입니다. 겉에 장식이 하트모양큐빅으로 되있습니다. 중지갑이구요. 제발 찾으시면 연락주세요.ㅠㅠ; 010 9766 4907 부탁드립니다..</t>
+    <t>우대좌석 시행이 잘 되었으면 좋겠습니다. 제가 몇번을 참고참다 글을 올리게되었습니다. 현재 우대좌석이 운영되고 있지만 실질적으로 우대좌석이 시행되고 있는건지 의문입니다. 현재 전 만삭의 임산부입니다. 그렇지만 우대좌석에 앉아본일이 거의 몇회 되지 않습니다.(출근시, 퇴근시 모두) 빈좌석들이 있지만 버스를 타면 우대좌석에 버젓이 멀쩡한 분들이 앉아계십니다. 그리고, 어느날은 출근시 버스를 탑승했는데 맨뒤에 1좌석이 남아있었습니다. 하지만 전 임산부이기에 그 좌석에 앉아서 가기는 너무 힘들어서 기사님께 말씀을 드렸습니다.(버스가 만원이면 가다가 다른버스에 탑승하기 때문에) 임산부인걸 아시고 우대좌석에 앉아계신분 중 한분이 양보를 해달라고 부탁드렸는데, 들은척도 안하셔서 결국 가다가 다른버스를 탑승했습니다. 다른날음 앉아계셔도 사실 말 못하고 다른자리 가서 앉았는데 이번엔 말씀까지 드렸는데도 양보하지 않는 모습을 보면서 너무 화가나서 이렇게 글을 올립니다. 자녀들도 있으신 분들이 임산부에게 배려하지 않는 모습과 우대좌석으로 지정된 자리에 앉으면 안된다는 에티켓도 모르시는 분들.....반성하셨으면 좋겠습니다. 그리고, 우대좌석을 시행하는 관리자분들도 우대좌석은 지정된 사람만 앉도록 좀더 확실한 표시가 필요할 것으로 사료됩니다. 저외에도 피해를 보고 계신분들이 많으실것으로 생각합니다. 적극적인 반영 부탁드립니다.</t>
+  </si>
+  <si>
+    <t>1/20 동수원행 20:00 버스 기사님 오늘 퇴근 버스 중 20:00 동수원행 기사님!! 에게 한 마디합니다. 저 아시죠? 기사님이 운전 중에 저한테 그랬죠. '아저씨! 오락 하는데 음악 소리 크게 나니까 소리 줄어요!!' 첨엔 누구한테 그러나 했죠. 근데 또 그런 말을 하시더군요. 저한테... 당시 저는 핸드폰으로 이어폰을 꽂은 채로 토익 리스닝을 들으면서 게임을 하고 있었죠. 게임 음악은 완전히 소거하고 토익 리스닝만 하고 있었습니다. 저는 소리가 나지 않으니 시끄럽지 않다고 했죠. 하지만, 이젠 저한테 더욱 화를 내시더군요. 제가 그랬죠. 이걸 들어보시라고. 이어폰을 꽂아 놨는데 무슨 음악 소리가 들리냐고. 듣지도 않는 음악인데 어디서 소리가 냐나고.. 기사님은 그래도 계속 음악 소리가 난다고 했죠. 오히려 저 보고 그 음악 소리가 들리지 않느냐고 더욱 화를 내면서.. 제가 소리 안 난다고 하니 그제야 이 한마디 하셨죠. '됐어요!' 기사님... 뭐가 됐나요? 뭐가 되었는지 궁금하네요. 저는 하나도 안 됐거든요. 퇴근 길에 기사님 덕분에 하루의 피곤에 짜증까지 더해서 지금 기분이 너무 좋지 않네요. 저는 손님이 아닌가요? 초면에 왜 저더러 아저씨라 하시는지요? 제가 기사님한테 대뜸 아저씨라 부르면서 하지도 않았던 일들에 대해 추긍하면 기분 좋으실런지요? '됐어요!' 가 아니라 '제가 잘 못 알았습니다. 죄송합니다.' 이게 맞는 거 아닌가요? 기사님... 오늘 운행 중에 술 냄새가 앞에서 심하게 나던데요... 저는 오늘 회사에서 곧 바로 퇴근해서 술은 입에도 대지 않았는데요... 혹시 음주 운전 하신 건가요? 지금 저로선 그렇게 밖에 이해가 안 되네요. 앞으로도 이 차를 몇 번 더 타겠지만. 참 기분나쁜 기억 심어줘서 기분 좋으네요.. 칭찬 드립니다. 곧 있음 구정인데... 복 많이 받으세요.</t>
+  </si>
+  <si>
+    <t>중앙 체육관 웨이트 시설 확충 해주세요. 좀더 전문적으로 운동을 할수 있는 기구의 확충을 요청합니다. 주위에 있는 웨이트 이용자의 의견을 수렴하여 적습니다. 수용되어 좀더 좋은 시설로 거듭나기를 기원합니다. 1) 디클라인 벤치프레스 기구의 구입을 요청합니다.본 기구는 대체해서 할수 있는 기구가 현 시설에는 없습니다. 2) 스쿼트 및 데드 리프시 이용할수 있는 파워랙의 설치를 요청 합니다. 현재 스쿼드 이용시 디핑바를 이용하고 있어, 추락의 위험 및 불편함이 많습니다. 3) 동계시에 체육관 내부 기온의 저하가 심합니다. 입구에 이중문의 설치 등으로 내부 기온 저하를 막아주셨으면 합니다.</t>
   </si>
   <si>
     <t>아시아고속 4054 기사님 마북노선에 출근버스 기사님. 마북출근노선 아시아고속(4054)호 기사님의 밝은 아침인사에 감동입니다. 마북노선에 언 일주일정도 오신것으로 기억되는데요. 매일매일 방송멘트가 하루를 기분좋게 한답니다. 승차시 인사에 유쾌하고 통근길 안전운행과 불편한 사항이 있나고 불어봐 주시고요. 열심히하는 모습이 너무 좋아보였답니다. 요즈음날씨도 추운데 따스한마음이라 생각합니다. 차량담당이신 구대원과장님 아시아고속 관계자분에게 고맙다는말 인사드리고 싶습니다. 이글을 대신해서 감사드림니다.</t>
   </si>
   <si>
+    <t>식당 카드체크 문의입니다. 식당 카드체크 문의입니다. [복지/중앙/청운] 식사시 카드체크를 할때 두번 체크를 하면 첫번째는 직원가(ex:700원) 두번째는 외부인가(ex:4000원) 계산된다는 말을 들었습니다. 식당 아주머니는 두번체크해봤자 계산 안된다고도 하시고.. 말이 많아서 궁금해서 문의해봅니다. 검색을 해봤더니 같은 제목의 글이 있지만, 비밀글이더군요. 비밀글로 처리해야 할 사안이면 이것도 비밀글로 처리를 하셔도 좋지만 사유는 알려주시기 바랍니다. 요약드리면 1. 중복체크(2회이상시) 결제가 되는지? 된다면 얼마로 결제가 되는지? 2. 복지관련 중요한 정보일수 있는데 왜 비밀글로 처리가 되었는지?</t>
+  </si>
+  <si>
     <t>수영장 헤어 드라이기관련 청운수영장 탈의실에 헤어 드라이기가 1개 있었는데 어느날 관리자분이 '헤어드라이기 이따위로 쓰면 안갖다 놓지' 이러시면서 가져가신뒤로 1달넘게 헤어드라이기가 없네요. 지금 초절정 추위에 머리안말리면 얼마나 추운지 아십니까? 제가 봐도 일부 공공시설 막쓰는 사람도 있지만 그건 소수 인원이구요.. 그사람들 때매 헤어드라이기를 아예 안갖다 놓는다는건 말이 안되네요. 그렇게 수영장 유지보수 할돈이 부족한지.. 이런 기본적인 지원이 힘드나요? 사람많을때는 헤어드라이기 2개도 부족할 지경입니다. 개선바랍니다.</t>
   </si>
   <si>
+    <t>저도 밑에분말에~~ 동감 매일 보리차나 둥글레차.. 뭐 그런거 주었음좋겠어요~~ 매실도.. 나오면.. 뜨듯한거고,.,..ㅠㅠ 차가욵거 조아하는사람도 마는댕..ㅋㅋ 암튼 보리차는 매일나왓음하네요~~</t>
+  </si>
+  <si>
+    <t>하이닉스인들의 불평불만..ㅡ,,ㅡ 저는 하이닉스 직원으로서 한마디 하고 싶습니다. 가끔 들르는 하이스텍 고객의 소리 게시판을 읽어보면.. 정말 창피합니다... 개개인의 의견차이도 있고 다들 불편하신거 알겠지만~ 서로 조금만 양보 하시고 참고 기다리시면 천천히 해결해 주리가 믿습니다. 너무 불평불만의 글들만 올라온거 보니까 솔직히 하이스텍에서 열심히 서비스하고 있는분들이 불쌍해 보이네요... 불평불만의 글보다는 칭찬의 글을 더 많이 올려주었으면 하는 바램입니다. 2010년 그래도 2009년보다 개선된 점이 더 많았고, 2011년에는 더욱더 열심히 향상 되리라 믿습니다.. 너무 꾸지람 보다는 칭찬을 해 주세요~ ^^ 그럼 추운날씨에 건강 하세요~</t>
+  </si>
+  <si>
     <t>아시아고속(4070) 지영근 기사님 칭찬합니다. 청덕동 출발 통근버스 아시아고속(4070) 지영근 기사님의 밝은 아침 인사로 하루를 기분좋게 시작합니다. 항상 친절하시고 유쾌하시고.. 무엇보다 안전운전하셔서 통근길이 편안합니다. 난방이 적절했는지.. 불편한 점이 없었는지 항상 물어보시면서 최선을 다하시는 모습도 보기 좋구요.. 이 글을 대신해서 감사말씀 드립니다.</t>
   </si>
   <si>
+    <t>버스정류장 이동로 관련 件 안녕하세요 불편사항이 있어서 건의합니다. 하이스텍건물 쪽 주차장으로 들어가면 이천방향버스 두대 뒤쪽으로 이동하도록 이동로가 바뀌었습니다. 무조건 버스 두대에서 나오는 매연을 바로 코 앞에서 마시면서 이동해야되는 엄청난 일이 발생하고 있는데요.. 그 쪽을 이용하는 모든 직원, 여직원, 임산부들도 마찬가지구요.. 어떻게 그런 발상을 할수가 있는지.. 참으로 개탄스럽군요. 빠른 조치 부탁드립니다.</t>
+  </si>
+  <si>
+    <t>곤지암 롯데낙천대 아파트앞 정말 안만들어 주실껀가요 너무 불편하네요 간간히 글들 있는데 그런글따위는 항상같은말로 무시하시고 쫌 만들어 주세요 버스정류장도 있는데.. 뭐가.. 걱정이십니까</t>
+  </si>
+  <si>
+    <t>12월 15일 수요일 18:20 동탄직통 퇴근노선 기사에 대한 개선 요청 안녕하세요? 우선 최근 동탄 사시는 분들의 숙원(^^;)인 동탄직통 노선이 신설되어 퇴근하는 길이 한결 수월해졌으며, 임직원 분들의 요청에 신속하게 대응해주셔서 감사드립니다. 다름이 아니라 어제 12월 15일 수요일 18:20 백두산 관광 동탄직통 노선을 이용하다 기사분이 현재 운영 중인 제도에 대하여 잘못 알고 계시고 승객응대에 문제가 있는 같아 개선 요청 드리려 글을 올립니다. 현재 10월 22일부터 우대좌석이 각 버스에 2자리씩 운영되고 있는 걸로 알고 있으며 각 버스에도 우대좌석 (거동불편자/임산부) 표시가 되어 있습니다. 그런데 어제 버스에 빈자리가 맨 뒷자리와 우대석만 비어있고 제가 다리를 접질려서 우대석에 앉게 되었습니다. 그런데 출발시간 쯤에 기사분이 운전석에 앉으셔서 저를 계속 쳐다보시더니 다짜고짜 아저씨, 거기 앉으면 안되요, 빨리 다른 자리로 옮겨요, 그 자리는 여자만 앉 는 자리에요. 라고 큰소리로 퉁명스럽게 말씀하시더군요. 저는 갑작스런 일이라 당황스럽기도 하고 제가 잘못알고 있나해서 순간 멈칫하다가 짐 정리해서 다른 자리로 옮기려고 하는데 더 큰소리로 빨리 딴데로 가라니까~하고 언성을 높이시더군요. 기사분께 문의해보려다가 얼굴이 화끈거려서 맨 뒷자리로 자리를 옮겼습니다. 기사님 덕분에 뒷자리로 옮기는 동안 다리가 아픈거 깜박 잊고 있었고, 집에 가는 길뿐만 아니라 즐거운 수요일 저녁시간 통째로 기분 망쳤습니다. 그래서 출근하자마자 공지사항에서 관련 제도를 확인해보니 우대좌석은 거동불편자(남자/여자)/임산부가 이용할 수 있다고 분명하게 나와있으며 심지어 자리가 없는 경우는 일반승객도 사용할 수 있다고 공지되어 있는 것을 확인하였으며, 그 어디에도 여자 임직원이면 누구나 우대석을 이용할 수 있다는 내용은 없습니다. 이에 통근버스 담당자께 어제 12월 15일 수요일 동탄직통 노선 버스 기사에게 우대좌석 제도에 대해서 정확 히 인폼 및 교육(승객응대) 부탁드립니다. 아울러 제가 알기로는 주기적으로 통근버스 운전기사분들께 승객응대에 대한 교육을 진행하는 것으로 알고 있으며 게시판의 문의글에도 비슷한 내용을 답변 주시고 더욱 강화하겠다는 말씀을 많이 보왔습니다만,정작 운전기사분들은 친절하신 분들만 항상 친절하고 문제가 있는 기사분들은 별반 달라진게 없습니다. 대부분의 승객분들이 그냥 말씀안하시고 넘어가서 개선이 안되는 것일 수도 있지만, 계속해서 개선 요청이 들어오는 버스회사와 운전기사는 삼진아웃제도와 같은 강력한 제도 도입이 필요하다고 봅니다. 물론 기사분들이 항상 웃으면서 통근버스를 이용하는 임직원분들에게 친절하게 대하는 건 기대하지도 않습니 다. 다만 최소한의 예의는 지켜야 하는 것 아닌가요? 우리가 공짜로 버스를 이용하는 것도 아니고 회사에서 정당한 대가를 지불하고 버스를 이용하는 건데 승객한테 다짜고짜 이유도 물어보지 않고 막말을 하는 것은 분명 문제가 있다고 봅니다. 뭐 대범하게 넘어갈 수도 있고, 한귀로 흘릴 수도 있는 일이지만 어제 그 기사의 경우는 다른 노선에서도 종종 승객분들에게 퉁명스럽게 얘기하고 언성을 높이는 경우가 있어 주의가 꼭 필요 하다고 생각합니다. 대부분의 기사님들은 승객분들에게 친절하시고 배려해주시고 계시다는 것 알고 있습니다. 하지만 이번과 같 이 몇몇 기사들의 부적절한 승객대응으로 다른 기사님들의 호의나 노력이 호도되지 않도록 조치 부탁드립니다. 그럼 수고하세요.</t>
+  </si>
+  <si>
+    <t>사원주차장 운영 어제 날씨가 무척 추웠습니다. 야간 근무마치고 제 2주차장에서 출차 문이 열리지 않아 많은분들이 불편을격었습니다. 계속 한대씩 출차하면서 경비실에 연락하고....저도 그중한사람 입니다. 그후에도 많은분들이 불편을 겪었을텐데 경비실에선 뭐하고 계셨는지... 한두명도 아니고 상당히 많은분들이 인터폰으로 연락을했다면 빨리 대처해줬어야 하는게 아닌지요. 그때 그때마다 한대씩 출차.....이건 좀 아니라고 생각합니다. 일정시간동안 이라도 Open해 두셨다든지 아니면 담당자 한분이라도 와서 정리를 해주셨어야한다고 생각합니다. 날씨가 많이 추웠다는건 이해하지만 안일한 대처였다고 생각합니다.</t>
+  </si>
+  <si>
+    <t>[통근버스] 어제 태평리행 10:30분 버스 기사 문제입니다. 안녕하세요? 격무에 노고가 많으십니다. 저는 하이닉스 근무하는 직원이구요. 개념없는 통근 버스 기사에 대해서 건의사항 올립니다. -언제 : 12/9(목) 저녁 10시10분경 -어디서 : 통근버스주차장 화장실 바로 옆 주차된 태평리행(10시30분차) 한빛관광 버스 출입문앞 -무엇을 : 10시10분_기사는 열심히 TV를 보고있는 상황... ① 나의 행동_출입문앞에서 문 열어주십사 1차 노크! ② 기사의 행동_TV를 보다가 내가 노크하는소리에 똥씹은 표정으로 힐끗 천정에 붙어있는 시계를 보고 다시 TV시청 ③ 나의 행동_급격한 아드레날린 분비.. 억지로 참으며... 잠시 기다리다 다시 2차 노크! ④ 기사의 행동_이번에는 나를 힐끗 쳐다보고 다시 TV로 시선을 옮기며 입으로 뭐라고 중얼거리면서 문을 열어줌 (그 중얼거리는 입모양을 봤을때 분명히 욕이었음. 씨x 벌써부터xx 로 짐작됨.) ⑤ 문을 열어준것도 내 뒤에 두 세사람이 막 도착하지 않았다면 안열어줄 태세였음. 여기까지 어제 겪었던 황당하고 어처구니 없는 일이었구요! 도저히 아드레날린 분비량이 감소되지않아 이렇게 글 올립니다. 그 기사 강력히 퇴출 요청합니다. TV를 보고 싶으면 집에가서 편히 보면되는거 아닌가요? 도무지 이해할 수 없는 양반이더군요 번호판은 못봤고 거의 매일 태평리 출퇴근선은 그 기사가 운전했었습니다.(작고 왜소한 체구에 젊어보이는듯) 상식적으로.. 객관적으로 생각해도 터무니없는 건의는 아니라 생각됩니다. -춥고더운 계절은 물론 연휴도 쉬지 못하시고 밤낮없이 고생하시는데(하이스텍 버스담당 하시는분)께 평소 고마움을 느끼구요 이런 일로 귀찮게 해서 죄송하네요 하도 화가나서 글 올렸습니다. 이해해 주시구요.</t>
+  </si>
+  <si>
+    <t>서울 신답-&gt;하이닉스 아침 출근 버스, 내부 형광등 좀 꺼주시면 안될까요? ^^; 안녕하세요, 아래에 이어 바로 글을 쓰게 되는데요, 서울 신답-&gt;하이닉스 아침 출근 버스, 내부 전등 좀 꺼주시면 안될까요? ^^; 아침 통근 시간에 활기차게 신문을 보시면서 준비하시는 분들도 계시겠지만, 저를 비롯하여^^; 많은 분들이 주무시더라구요,, 그런데, 버스 내부 형광등은 너무 강렬합니다;; 충분하지 않으실지도 모르지만, 버스 백열등과 아침 햇살로 글 읽으시는데 큰 불편함은 없지 않으실까 생각됩니다. 불편 접수가 들어오기 전, 이렇게 부탁드립니다~!</t>
+  </si>
+  <si>
     <t>아이폰에서 하이스텍 '오늘의식단' 연결시 글자가 깨지네요?! 안녕하세요.. 하이스텍에서 제공하시는 복지 잘 누리고 있는 하이닉스 임직원입니다. 특히나 식사메뉴를 확인하고자 아이폰으로 자주 하이스텍에 접속하곤 했었는데, 며칠전부턴가 아이폰에서 하이스텍에 접속하게 되면 오늘의 식단 코너 부분은 전부다 아랍글자(?)로 보이게 되네요... (첨부 그림 참조) 유용하게 잘 사용하고 있었는데.. 확인 부탁드릴께요^^</t>
   </si>
   <si>
-    <t>11/15 22시 이천--&gt;천호/군자 선 버스 운전 기사님께 감사의 말씀 드립니다. 월요일 10시 퇴근 버스인 천호 군자를 탑승을 했는데 술을 마신것도 아닌데 그날따라 좀 피곤했는지 눈을 떠보니 버스 기사님만 앞에 계시더라구요. 아차 싶어 시계를 보내 23시 40분을 넘고 있었고, 이미 차고지인 광주의 어딘가로 back을 했던 겁니다. 너무나 당황스러운 그때 기사님께서 직접 버스 탈수 있는 곳까지 태워다 주시겠다는 겁니다. 덕분에 근처 버스 정거장이라도 갈수 있겠구나 해서 다행스럽게 생각을 했었는데 기사님이 계속 서울쪽으로 가시는 겁니다. 시간을 보니 버스도 끊길 시간이기에 서울 군자역까지 태워 주신겁니다. 댁도 용인이라고 하셨는데 12시 반이 다 되어서까지 원래 정거장까지 태워주신 기사님께 존함도 못 여쭙고 고맙다는 인사만 드려서 다시한번 감사의 마음을 전하고자 이렇게 글을 남깁니다.</t>
+    <t>동백 출근버스 [아시아관광-4070] 기사님을 칭찬합니다.. 이름이 잘 기억이 나지 않지만 [지영근기사님]인가? 그런거 같습니다.. 출,퇴근길 지옥길임에도 불구하고 목적지까지 안전하게 직원들을 챙겨주시는 아시아관광 버스 기사님을 칭찬합니다.. 출근 할 때와 퇴근 할때 마주치면 항상 친절하게 인사해 주시고, 여름이면 에어컨 바람의 적정 온도유지와 겨울은 난방온도까지 세심하게 챙겨 주십니다.. 지난번은 출근길 고속도로에서 차량의 브레이크 문제로 인해, 차량을 바꾸어 타야 하는 상황에서도 직원들의 안전을 먼저 챙겨주시고 침착하게 대응하는 모습을 보았습니다.. 이러한 친절한 기사분들이 많았으면 지옥길 같은 출,퇴근길이 조금 밝은 마음으로 다닐 수 있을 것 같습니다.. 구과장님 이분 정말 칭찬할 만 합니다.. 수고하세요`~~</t>
   </si>
   <si>
     <t>office에 임직원정보의 사진 어떻게 바꾸나요? office에 임직원정보의 사진 어떻게 바꾸나요?</t>
   </si>
   <si>
+    <t>중앙식당글 읽어 주세요!. 또 삭제 하시지 마세요 !!!!!!.. 안녕하십니까? 하이스텍 복지운영팀 김주섭 과장(전화 번호:630-3962)입니다 고객님의 식당 의견에 대하여 지면을 통해서는 설명에 한계가 있는바 고객님의 편안한 시간에 유선으로 연락주시면 방문 설명드리겠읍니다 감사합니다 &lt;--- 위의 글을 보시면 의문이 있습니다. 고객님의 편안한 시간에 유선으로 연락주시면 방문 설명드리겠습니다?.. 이럴 시간이 있으면, 고객들에게 좀 더 불편함 없이 중앙식당을 이용 할 수 있는 생각부터 좀 해 주셨으면 합니다. 금일도 그렇습니다. 요즘 말도 많고 탈도 많은 중앙식당이지만, 오늘은 정말 심했습니다. 줄은 20명 넘게 서 있는데 반찬이 떨어졌는지 뭐가 떨어졌는지 계속 서 있더군요. 저희 멤버 또한 줄을 서서 기다리고 있었습니다. 4분이 지났나요.? 영양사와 아주머니들도 있었는데, 아무 말도 없이 그냥 멀뚱하니 서 있기만 하고, 그래서 여쭸습니다. 지금 무슨 반찬이 없냐고!. 저만 화를 낸 것이 아니라 다른 분들도 화를 내 더군요. 그제서야 닭도리탕인가요? 그게 없다고 하더군요. 아니 !. 없으면 없다고 떨어졌다고, 말을 하든가. !. 이건 직접 우리가 가서 확인을 해야 하는 가요?. 저는 밥을 먹으면서 이렇게 불만이 가득한 날은 처음입니다. 늦게 서야 가져다 주셔서 영양사님께서 죄송하다고 말씀하셨습니다. 뭐 그럴 수 있다고 치죠. 하지만, 밥을 먹고 있는데 아줌마가 그릇 나르는 핸드카를 꼭 고객이 그 옆에서 밥을 먹고 있는데 쾅 쾅 핸드카를 벽쪽에다 소리를 내면서 밀어야 겠습니까? 아주머니들도 짜증이 많이 나신 걸 알지만, 고객이 우선이지 중앙식당직원이 우선은 아니죠... 개선의 사항은 안 보이고, 계속 불만만 쌓이는 식당인 것 같습니다. 지면을 통해 말씀드리기 어려우시다구요? 그래서 편안한 시간대에 찾아 오신다구요? 누가 회사에서 편안하게 일 하는 사람 보셨습니까?. 그럴 시간 있으면, 직원 교육 및, 반찬에 좀 더 신경을 써 주시기 바랍니다.</t>
+  </si>
+  <si>
+    <t>크락션을 울리는것도 모자라 출근하는 사람보고 내리라구요? 오늘 야간출근 전 있었던 일입니다. 고담주차장에서 9시 34분 셔틀을 타고 아미기숙사 앞에서 내려(당연 뒤에 셔틀이 오는걸 알고) 빠른걸음으로 인도쪽으로 향하고 있는데 빵!!!!!!!!!!!!!!!!!!!! 하는 소리가 들렸습니다. 뭔가 싶어서 뒤를 돌아 봤는데 제가 방금 내린 셔틀이 제 바로뒤에서 크락션을 울리고 있었습니다. 너무 당황하고 놀래서 기사아저씨를 쳐다봤는데 아저씨는 저를 향해 뭐라고 하는지는 안들렸지만 역정을 내시고 계셨던것 같았습니다. 어이가 없어서 씩씩대며 셔틀에 타고있던 일행한테 전화하려 하는데 그 일행이 도착지점에 내리지 않고 엉뚱한곳에 내려 걸어오고있었습니다. 왜 다른곳에서 내렸냐고 물어보자 그 일행은 크락션 소리를 듣고 기사아저씨께 '출근시간이라 사람도 많이 지나다니고 하는데 사람들이 먼저 지나가야지 차가 먼저지나가야겠냐고' 말씀드렸더니 기사아저씨께서 제 일행께 그럼 여기서 내리세요라고 하셨다더군요... 제가 알고있는 걸로는 회사 내에서 크락션을 울리지 않은걸로 알고있는데..... 또 기사아저씨께서 제 일행이 출근하는 사람인지 아닌지는 모르셨겠지만 제 일행은 출근길이였고..... 그런 사람보고 이 추운날씨에 내리라고 하는건 상식적으로 이해가 되지 않네요 정말 너무 억울해서 여기에 글을 올립니다 저와 제 일행은 도대체 뭘 잘못한걸까요? 저 같은 다른 희생자가 안나오길 바라며.... 제발 개선 좀 되었으면 좋겠습니다!!!</t>
+  </si>
+  <si>
     <t>한빛관광 78-8430 기사님을 칭찬해드리고 싶어요 통근버스 담당자 여러분 안녕하세요? 연일 계속되는 출되튼 바쁜 일정속에 얼마나 수고가 많은지요 이렇게 글을 쓰게된 동기는 한빛관광 78-8430 기사님을 칭찬해드리고 싶어서 입니다 항상 웃으시며 인사를 하시는데 무심히 지나치는 분들에게도 개의치 않으시고 개개인에게 고개숙이며 인사하시는 모습이 너무나 인상적이였습니다. 그런 모습을 보며 승차 했는데 출퇴근 길이 너무도 즐거웠습니다⊙▼⊙ 출발,정지시에도 안전운행은 기본이고 승차하면 차가깨끗해 기분까지 상쾌했습니다 올여름도 그분차 덕분에 시원한 여름을 보냈습니다 편안함을 가득 전해 주시는 기사님 덕분에 힘이 많이 나요 다가오는 겨울에도 따뜻하게 출퇴근 해주실 거죠&gt;_</t>
   </si>
   <si>
-    <t>통근버스 교통정리하시는분들 뭐하시는겁니까?? 통근버스 담당자님 안녕하세요~ 출퇴근시간에 고생이 많으신거 같아요. 하지만 요즘 근래 들어서 교통정리 하신분들이 직원분들한데 너무 큰소리로 듣기 불편한 말들을 하는거 같아요! 퇴근시간에 임직원분들이 몰려서 정류장에 들어서는건 맞는거 같은데 버스들이 퇴근시간전에 미리 도착해야 하지 않을까요?? 그러면 사고도 나지 않을거 같구요. 직원들 안전을 위한 것도 중요하지만 친절또한 중요하다 생각합니다. 하루종일 업무에 시달리다 퇴근하는사람 한데 삿대질하고 큰소리로 막말하시면 기분좋습니까??? 교통정리 하시는 분들 인성교육이 필요한거 같습니다.</t>
-  </si>
-  <si>
-    <t>통근버스 교통정리 하시는분들~ 통근버스 교통정리 하시는분들 고생하시는줄은 알지만 퇴근시간만 되면 왜케 난폭하게 행동하고 말씀하십니까?? 사람들이 짐승도 아닌데 큰소리로 호루라기 불어가면 뭐라고 막말 하시는데 너무 불쾌합니다!! 사내임직원들이 교통 정리하시는 분들 부하직원이라도 되나요??? 힘드시더라두 친절하게 대해주셨으면 좋겠습니다.</t>
-  </si>
-  <si>
     <t>통근버스 교통?정리 직원분 얼마전 사고로 인하여 관리하시는 분들 안전사고문제로 힘드시겠지만 얼마전에는 Xx를 섞어가며 남자 사원분과 싸우시더니 오늘은 한분은 여직원분과 또 한분은 연세 지긋하신 남자 사원분과 쌍ㅅ을 유창하게 구사하며 싸우시더군요!버스를 워한 통제인지 사원을 위한 과잉 통제인지. 꼭 빨간봉이 권력인 마냥 호각불며 봉흔들고 사원들과 마찰시 막말! 지나가며 보면 상당이 불쾌합니다 연세좀 드신분들 같은데 교육좀 시키세요!!</t>
   </si>
   <si>
+    <t>통근버스 서비스의 표준화가 되었으면 좋겠습니다. 통근버스의 경우 버스업체가 바뀌거나 운전사가 수시로 바뀌는 경우가 많은데, 업체마다, 아니면 운전기사마다 제각각 취향이 달라서 어떨땐 마음에 들고, 어떨땐 전혀 그렇지 않고 그때 마다 이렇게 저렇게 해달라고 하기도 그렇고.. 좀 표준화가 되었으면 좋겠다는 생각이 자주 들었습니다. 예를들면, 1)출근시 - 실내등은 소등한다. 단,필요한 사람을 위하여 개인좌석등은 사용할 수 있게 한다 - 실내 온도를 일정하게 유지한다. 차내에 온도계를 설치하여 쾌적한 온도범위 (ex. 20~25도)를 설정하여 그 상태를 유지할 수 있도록 냉난방을 하도록 한다. - 라디오등 소음을 발생시키는 것은 절대 금물 (한때 서비스인양 비디오를 틀어주는 경우도 있었음) 2)퇴근시 - 개인좌석등은 사용할 수 있게 한다.(현재 제각각임) - 실내 온도 일정하게 유지 상기 사항 정도만 일정하게 운영이 되도 큰 문제는 없을것 같습니다. 충분히 가능할 것 같은데, 한번 가이드를 만들어서 준수토록 유도해 보심이 좋을듯 합니다.</t>
+  </si>
+  <si>
     <t>운동장 예약신청하는곳 어디있나요? 운동장이나 풋살경기장 예약신청하는곳 어디있나요? 못찾겠습니다~</t>
   </si>
   <si>
+    <t>통근버스 친절교육 부탁드립니다. 10월 6일 신하리에서 백두산 관광버스 (차량번호 : 7239) 그날따라 사람이 평소의 3배정도는 될정도로 정류장에 사람이 많았습니다. 버스 2대가 왔지만 원래부터 서있던 사람들이 타고있던 버스라 2대로 나누어 탔지만 버스문앞까지 사람이 서서 타게되었습니다. 사람이 많으면 사이드미러 안보이는건 압니다. 그런데 이사람이 어이없이 쳐다보면서 그냥 있더군요 이때 기분이 좀 나빳는데 갑자기 거기서면 내가 어떻게 출발합니까? 안으로 들어가요! 빨리!!! 라며 계속 버럭하시더군요... 어떻게 보면 말투가 원래 그럴수도있으나 부드럽게 부탁을 했으면 기분이 안상했겠지만 명령조는 영 기분이 상하더군요...... 친절 교육 부탁드리며 야간조이니 확인전화는 안해주셔도 됩니다. 구대원 과장님의 잘못도 아닌데 과장님께 화내는것같아 죄송하지만 친절교육은 꼭 부탁드립니다.</t>
+  </si>
+  <si>
+    <t>신하리 통근버스 친절교육 바랍니다. 10월 6일 신하리에서 백두산 관광버스 (차량번호 : 7239) 그날따라 사람이 평소의 3배정도는 될정도로 정류장에 사람이 많았습니다. 버스 2대가 왔지만 원래부터 서있던 사람들이 타고있던 버스라 2대로 나누어 탔지만 버스문앞까지 사람이 서서 타게되었습니다. 사람이 많으면 사이드미러 안보이는건 압니다. 그런데 이사람이 어이없이 쳐다보면서 그냥 있더군요 이때 기분이 좀 나빳는데 갑자기 거기서면 내가 어떻게 출발합니까? 안으로 들어가요! 빨리!!! 라며 계속 버럭하시더군요... 어떻게 보면 말투가 원래 그럴수도있으나 부드럽게 부탁을 했으면 기분이 안상했겠지만 명령조는 영 기분이 상하더군요...... 친절 교육 부탁드리며 야간조이니 확인전화는 안해주셔도 됩니다. 구대원 과장님의 잘못도 아닌데 과장님께 화내는것같아 죄송하지만 친절교육은 꼭 부탁드립니다.</t>
+  </si>
+  <si>
+    <t>홈페이지 제대로 작동하는건가요??? 서울시내 통근버스 시간표 확인 어떻게 하나요? 분실물 찾기 버튼을 눌러고 자료없는 통근버스로 들어가네요</t>
+  </si>
+  <si>
+    <t>아래 버스주차장 관련 아래 주차장에서 담당자 있는것 알고 있습니다. 그 담당자가 버스 주차할때 옆에 없었다는것이 문제겠죠?</t>
+  </si>
+  <si>
+    <t>어제 셔틀 주차장에서 어제 8시차 타고 퇴근할때 셔틀주차장에서 버스에 치일뻔했습니다. 후진으로 주차해서 앞을못봤는지 버스앞 우측부분이 제 앞으로 버스가 휙 지나갔습다. 주차하실때 안전요원좀 두세요. 통상퇴근할때는 안전요원 있더만요</t>
+  </si>
+  <si>
     <t>고생하십니다 이번 연휴에도 나와서 근무하시는 분들께 감사드립니다 청소, 차량, 식당 휴일을 모두 반납하시고 저희 하이닉스를 위해 고생하시는 모든분들께 감사말씀드리고 관리하는 하이스텍도 고생많으십니다 휴일에 근무하는 당신이 최고입니다</t>
   </si>
   <si>
-    <t>칭찬합니다--- 금요일(9월10일) 18;20 은행동선 기사님 ( 31 호인가) 지난 금요일 성남 은행동선 18시 20분 발 버스를 타고 퇴근 했다가 성남 모란에 내린 순간 비가 굉장히 많이와서 비때문에 집에를 못가고 서성이는걸 보신 기사님께서 친절하게도 버스에서 내려 버스의 화물칸 문을 열고 우산을 건게 주셨습니다 그냥 모른체 하고 기사님이 갈수도 있는 상황이었으나 비를 맞으면서 우산을 찾아 친절을 배풀어 주셔서 다행히 비를 맞지안호 퇴근을 할수 있었습니다. 차량 번호가 31호라고 했던것 같습니다. 감사 다다는 말씀 전해 주십시요..</t>
+    <t>막차타고 집에갈때.... 퇴근버스 술 취하신분들 못타게 하면 안되나요? 술냄새 나는것도 짜증나는데 옆에 기대면서 코까지 고는것은 .. 우리 하이닉스인이 이런건 그렇잖아요? 술먹고 셔틀버스 못타게 해주실순 없나요? 오늘은 또 얼마나 술냄새를 맡으며 집에 갈까요?</t>
+  </si>
+  <si>
+    <t>서비스 정신?? 고객 서비스 헌장의 내용을 보면 고객을 최우선으로 생각한다고 나와 있는데 이용하는 사람의 입장에서는 왜 불편한 마음을 가지고 이용해야 하는지 모르겠습니다. 차량이나 식당의 경우 물론 친절하신 분이 대부분입니다. 1~2사람의 불친절이나 들리게 하는 불친절한 말등 불쾌한 경우가 가끔 있습니다.. 즐거운 마음으로 이용할수 있게 해주세요.</t>
+  </si>
+  <si>
+    <t>사내 운동장 예약 관련 사내 운동장 예약과 관련하여 개선되었으면 하는 의견을 드립니다. EGSS(임직원 종합 안내 시스템)에 운동장 예약 안내사항을 보면 승인이 예약 신청 후 사용일 기준 7일전에 완료된다고 나와있는데 주기적인 행사를 준비하는 입장에서 보면 보통 2주 또는 그 훨씬 전부터 미리 제반사항에 대해 확정이 되어 있어야 하는데 승인이 늦게 나서 예약이 안될경우 그제서야 부랴부랴 준비하려면 어려운 점이 많습니다. 어차피 우선예약 순으로 승인이 나는 거라면 최소한 2주 전에는 승인을 해주셔야 별도로 준비를 할 수 있는 시간이 생길 것 같습니다. 이에 승인 시점을 좀 당겨서 하도록 조정을 좀 해주셨으면 합니다. 이상입니다. 수고하세요.</t>
+  </si>
+  <si>
+    <t>hynix 외부주차장에 관해서 건의드립니다 차를 가지고 있는 사람으로써 하이닉스 단지 주위에 주차공간을 찾기가 너무 힘듭니다 . 그런데 hynix 외부주차장을 보면 항상 1/3 정도만 주차가 되어있는걸 보게됩니다 . hynix 단지에 입주해있는 회사사람들도 주차장을 이용할수 있게 된다면 .. 주차장을 좀더 실용적으로 사용할수 있을꺼란 생각이 듭니다만 .. 차를 가지고 출퇴근하는 사람은 다 이해할것입니다 . 고담주차장을 이용할시 정문에 가까운 회사에 다니고 있는 사람이 너무 힘들지 않습니까 ? 이 무더운 날씨에 걸어다니기도 .. 셔틀시간에 맞춰서 행동하기도 힘들것같은데요 . 한번 고려해주십사하고 건의드립니다 . 수고하세요</t>
+  </si>
+  <si>
+    <t>통근버스 의자 수리해주세요 (동남고속 1307) 오늘 8.16 출근 버스를 탔는데요 의자가 덜렁덜렁 하네요 수리해 주시기 바랍니다. 동남고속 잠실 출근차량 1307호 좌석은 10번? 내측 입니다.</t>
+  </si>
+  <si>
+    <t>안녕하세요. 속상했던 부분 및 건의 사항이 있어서 3134번 글을 통해 말씀 드렸는데요. 답변이 없으셔서요.^^;; 다른 사이트나 부서에 글을 올려서 말씀을 드려야 하는 내용이면 어느 곳인 지 알려 주시면 감사하겠습니다. 즐거운 하루 되세요.</t>
+  </si>
+  <si>
+    <t>교대 B조퇴근버스에 술취하신 분들 .. B조 퇴근하고 퇴근버스타면 술 취하신 분들이 너무 많아 짜증까지 납니다 . 한날은 한분이 2자리 차지하고 앞사람 머리까지 치더니 결국엔 오바이트까지 하시더군요 ㅡㅡ;; 그리고 어떤분은 DMB를 이어폰도 꽂지 않고 보시질않나 .. 옆사람 툭툭치면서 건들고 ㅡㅡ;; 기사님이나 교대버스 관리하시는분들께서 이런거는 관리해주셔야한다고 생각합니다 진짜 B조만 되면 퇴근버스 타기 싫어질 정도입니다 .. 오늘은 또 얼마나 술냄새를 맡으며 집에 갈까하고 ㅠㅠ</t>
+  </si>
+  <si>
+    <t>통근버스 서비스는 상향조정되어야 합니다. 용인,신갈 통근버스에 대해 한마디 하겠습니다. 1~2주전 어떤 이유에서든 백두산관광에서 한빛관광으로 통근버스 회사가 변경되었습니다. 보통 조정이 될때, 더나은 서비스나 차량시설등으로 상향조정하는게 일반전인 원칙입니다. 허나, 한빛관광으로 바뀌고나서, 차량시설, 서비스, 일정한 차량이 아닌 여러차량이 돌려가면서 오고.... 드디어, 오늘은 이 습하고 더운날씨에 에어콘이 고장나서 바람만 쐬며 출근했습니다. 하루를 시작하는 아침부터 통근버스에 탄 임.직원 모두 불쾌한 하루를 시작하게 되는군요. 하이닉스 -&gt; 하이스텍 -&gt; 관광회사 -&gt; 지입차 로 연계되는 하도급으로 인한 원가구조로 인해 피해를 보는 사람은 고스란히.. 임,직원임을 명심해 주시기 바랍니다. 감사합니다.</t>
   </si>
   <si>
     <t>헬스장에 샤워시설좀 부탁드립니다. 고담기숙사 헬스장에 샤워시설이 있었으면 좋겠습니다. 운동을 하고 숙소에 들어가야만 샤워를 할 수 있어 조금은 불편함을 느낍니다. 샤워시설이 있었으면 좋겠습니다.</t>
@@ -997,6 +2179,12 @@
     <t>부속의원관련 부속의원을 종종 이용하고 있습니다. 항상 감사드립니다. 안과관련 진료도 볼 수는 없을까요??</t>
   </si>
   <si>
+    <t>수영장 물 온도 문제 요즘들어 수영장 물온도가 너무 차가운느낌이 듭니다. 정말 온도계로 재면 20도밑일거 같은데요. 7월중 몇몇날만은 약간 괜찮았던거 같은데 무슨기준으로 관리하시나요? 주말에야 이용객이 적으니까 그렇다쳐도 평일 오후6시경에 사람들이 무지 많은데도 물이 차갑다는건 문제가 있지 않나요? 일반수영장에 비해 물이 이렇게 차가운건 운영비 절감때문인가요? 그런데 물이 차갑다보니 다리에 쥐도많이나고 혈액순환에도 안좋아서 사원들의 건강증진목적에 오히려 반대가되고 있네요. 관리자분이 수영장 물채우고 한번 들어가보시라고 말씀드리고 싶어요 좀 수영할만하게 해주세요.</t>
+  </si>
+  <si>
+    <t>퇴근 버스 분실물 문의 안녕하세요. 어제 6시 20분 영통 (동탄선)에서 소지품을 떨어뜨렸는데요. 찾지 못하고 내리게 되어 문의 드립니다. 분실물은 분홍색 유리병 (하얀뚜껑에 필름통 크기정도)이고, 자리 위치는 오른쪽 뒤편이었는데 한번 찾아봐주세요~ 갑사합니다.</t>
+  </si>
+  <si>
     <t>동남고속 친절한 기사님. 며칠 전 오전 출근 길에 삼전동-잠실 동남고속에 우산을 놓고 내린적이 있는데, 다른 노선의 동남고속 기사님께 여쭤보니 친절하게 해당기사님 전화번호와 식사하러 간 위치를 알려주더군요. 그래서 쉽게 찾을 수 있었어요. 또 그 다음 날도 우산을 놓고 왔는데 이번엔 분실물 센터에 보관해 주시더군요. 이틀 간 놓고 왔는데, 다 잘 찾을 수 있었어요. 기사님들이 친절하셔서 기분이 며칠 간 기분이 좋았네요.</t>
   </si>
   <si>
@@ -1009,28 +2197,49 @@
     <t>퇴근셔틀에서 지갑을 잃어버렸어요,,, 토요일날 2시퇴근하고 셔틀을 타고 내리면서 지갑을 흘린것 같아요, 이천홈타운가는 차였구요, 매트로시티 검은색 장지갑이구요, 저에겐 소중한 지갑이니 주우신분 돌려주세요 ㅠㅠ 사례는 충분히 할테니 주우신분 연락 주세요 ㅠ 부탁드려요 ㅠㅠ 010-4759-3521 제 번호니 꼭 연락주세요~</t>
   </si>
   <si>
+    <t>통근버스 에어컨 필터 청소요청 안녕하세요. 통근버스를 5년째 이용해오고 있는데 여름만 되면 느끼는것이 통근버스 에어컨 필터 청소를 하는가 안하는가 입니다. 그저께 불만제로를 보는데 일반 버스들이 에어컨 필터 청소를 몇년째 안하고 그냥 운행해서 시꺼먼 가루가 뚝뚝 떨어지고 하는걸 봤습니다. 그리고 식중독 바이러스도 검출이 됐더라구요. 그리고 식중독 바이러스도 검출이 됐구요. 그걸보면서 우리 통근버스도 에어컨 틀떄 곰팡이 냄새가 나는걸 생각했습니다. 가뜩이나 창문도 없어서 환기도 잘 안되는 버스에서 에어컨까지 병균이 뚝뚝떨어진다고 생각하니 소름이 돋아서요. 통근버스 에어컨 필터 청소를 하는지 안하는지 감독하고 정기적인 청소를 하는것을 모니터링 하셨으면 좋겠습니다. 운전사에게 청소하세요 말로만 전달이 아닌, 실제 주기적으로 검사하고 모니터링 해서 통근버스 이용자들이 쾌적한 환경에서 출퇴근을 했으면 좋겠습니다.</t>
+  </si>
+  <si>
     <t>퇴근 셔틀에서 책 분실했습니다. 6/25 금요일 퇴근 셔틀에서 책을 분실했습니다. 첨부의 CEO처럼 기획하라 라는 책인대요 분실물 접수 신청을 했는데 왜 feedback이 전혀 없는지요? 예전에도 우산을 놓고내려 분실물 접수 신청하였는데 그냥 Feedback이 없어 그러려니 했는데. 책이 있다거나 없다거나 접수를 했으면 해당 내용 답변이 있어야 하는게 정상이 아닌가요? e-mail, 전화번호 모두 남겼는대요... 답변 부탁드립니다.</t>
   </si>
   <si>
     <t>6/30일 퇴근버스에서 우산분실했습니다. 잠실 퇴근버스에서 검은색 우산을 놓고 내렸는데 혹시 분실물 찾게 되면 연락부탁드립니다. 수고하세요 사내:7021번</t>
   </si>
   <si>
+    <t>고담수영장 개방관련 언제쯤 가능한가여? 회사가 계속 영업이익을 내고 있어서여?</t>
+  </si>
+  <si>
     <t>[감사] 6월 18일 청주 인재개발원 1층 식당에서 6월 18일 청주 인재개발원 1층 식당에서 배식하셨던 분께 감사를 드리고 싶습니다. (소속, 직책, 직위를 몰라서 '고마우신 아주머님'으로 표현하겠습니다.) 18일 조식시간을 10분정도 넘겨서 빵을 먹으러 갔었는데, 제가 허둥지둥대고 있으니까 식사마감후 청소+정리 시간임에도 불구하고 한식은 이러한 것이 있고, 빵은 저러한 것이 있다고 친절하게 설명해 주시더군요. (직접 각각의 배식대 앞까지 저를 이끌고 설명해 주셨습니다) 그리고 빵을 배식하는 테이블에 수저가 소진되었는데, 한식 배식대에서 직접 가져다 주시더군요. 그리고 더 필요한것은 없는지도 여쭤보는 배려가 돋보였습니다. '고마우신 아주머님'의 성함은 기억이 안납니다만, 모든 배식 담당자분들이 친절하겠지만, 그분은 평소에 친절한 자세와 고객대응 정신이 몸에 배어있지 않았다면 그러한 행동이 즉시 나오지 못했을 겁니다. (상황을 말로 표현하기가 좀 힘든데, 정말 감동했습니다) 그분이 이 글을 볼 수 있으실지 모르겠지만, 정말 감사했습니다. 정말 감사했습니다...</t>
   </si>
   <si>
-    <t>이천 야간조 퇴근버스 아저씨 감사합니다 ㅎ 오늘새벽에 퇴근 버스를 탔지요... 피곤해서 잠들었는데 눈떠보니 현대홈타운... 종점이더군요;; 아저씨가 깨워주셔서 일어났고 터미널까지 걸어가야 하는 상황이었죠.. 기사님한테 말씀 잘 드렸더니 피곤해서 주무신거 같다고 하시면서 터미널까지 태워주시더군요... 번거로우실텐데 터미널까지 태워주신 한빛 8430 기사님!! 번호판만 봤네요ㅋ 오늘 정말 감사했습니다 ㅋㅋ 그리고 다른 기사님들 항상 감사합니다 ㅎ</t>
-  </si>
-  <si>
     <t>25일오전 신길선 우산을 놓고내렸습니다. 금일오전(25일) 신길선을 타고 출근을 했는데요. 제일 앞자리 정수기 옆에 선반위 에 우산을 놔두고 그냥 내렸습니다(검은색 작은 우산입니다). 분실물을 찾고싶은데 분실물이 보관이 되어있는지, 되어있으면, 어디서 찾으면 되는지,답변 부탁드리겠습니다. 감사합니다.</t>
   </si>
   <si>
     <t>통근버스 타는곳에 분신물 센터운영해주세요.. 통근버스에서 습득한 분신물은 다어디로 가는지궁금하네요? 엊그제 시계잃어버렸는데ㅜㅜ 연락하기도 쉽지않고 분신물센터를 만들면 좋을것 같다는 생각이 듭니다. 부탁드립니다.</t>
   </si>
   <si>
-    <t>하이치과 카드결제기 아직도 고장나있나요? 몇개월 전에 갔다가 현금으로 결제하고, 최근에 또 충치가 도져서 가봤더니 아직도 현금결제만 요구하시네요. 카드결제기 언제 고치실건가요?</t>
-  </si>
-  <si>
-    <t>열차 승차권 발권 문의 귀사는 기차 승차권 위탁발매소(창구번호 21882)를 운영하고 있는 것으로 알고 있습니다. 이와 관련하여 문의드리고자 합니다. 1.하이닉스와 전혀 관계 없는 외부인도 귀사의 위탁발매소를 이용하여 승차권을 구입할 수 있습니까? 2.(1.이 '가능'일 경우)위탁발매소의 운영시간 및 정기 휴일은 어떻게 됩니까? 3.(1.이 '가능'일 경우)위탁발매소의 구체적인 위치가 어떻게 되나요?</t>
+    <t>통근버스 기본예의를 지킵시다 요즘 퇴근버스에 기본예의를 지키지 않는 하이닉스 직원이 많습니다 대부분 퇴근버스에서 잠을 청하는데 휴대폰 벨소리, 친구들과 잡담, 전화통화로 잠을 자기가 어려울때가 많습니다 물론 버스가 잠을 자라고 있는 수단은 아니지만 대부분의 사람들은 잠을 청하니까요.. 그중 가장 심한것은 전화통화입니다 본인의 일상생활을 공개하고 싶은건지, 상대방의 소리도 다들리게 해놓고 본인도 크게 얘기를 합니다...이건뭔지.. 하이스텍에서 기본예절을 지키자고 캠페인한번 해주세요 예의도 없는 하이닉스인이 사라질때까지요</t>
+  </si>
+  <si>
+    <t>고담주차장 출발 버스 관련 정말 아스텍은 누구를 위한 기업인가여? HYNIX 아닌가여? 도비 아주머니와 사원서비스 직원을 위한 회사인가여? 왜...경영지원실,구매실이 있는 정거장을 놓아두고 도로상황 안된다는 이유로 사원서비스 앞에 정차하나여?이해가 정말 안가네여.탑승객중 VENOR,아주머니가 50%입니다. 사실 그쪽으로 가는게 더 더 불편합니다. 시정해 주세요. 시정 안할시 총무과에 건의하여 아스텍에 건의 예정입니다. HYNIX VENDOR 편의 생각하지 말고,직원좀 생각해 주세요.</t>
+  </si>
+  <si>
+    <t>안녕하세요? 고담에서 출발하는 통근버스. 안녕하세요? 고담에서 출발하는 통근버스. &gt; &gt;정문좀 둘러주세요~~~~~~~~~~~~~~~~~~~~~ &gt; &gt;정문쪽 큰길로해서 사원서비스센터로 가면 &gt; &gt;모두가 편할텐대 &gt; &gt;왜 자꾸 공사하고 버스서있고 사람들걸어다니는 그 비좁은 골목으로 자꾸 &gt;들어가나요??? &gt; &gt;기존처럼 정문둘러서 좀 가주세요 &gt; &gt; &gt;정문근처에서 일하는 사람들도 생각좀 해주세여~</t>
+  </si>
+  <si>
+    <t>고담통근버스 안녕하세요? 고담에서 출발하는 통근버스. 정문좀 둘러주세요~~~~~~~~~~~~~~~~~~~~~ 정문쪽 큰길로해서 사원서비스센터로 가면 모두가 편할텐대 왜 자꾸 공사하고 버스서있고 사람들걸어다니는 그 비좁은 골목으로 자꾸 들어가나요??? 기존처럼 정문둘러서 좀 가주세요 정문근처에서 일하는 사람들도 생각좀 해주세여~</t>
+  </si>
+  <si>
+    <t>하이치과는 왜 카드결재가 안되나요? 하이치과에서 치료를 받았는데 카드결재가 안된다는 말에 속은 기분이 드네요 처음에 치료하기 전부터 그런말을 해주던가 그런말 전혀없이 치료부터하고나서 몇십만원하는 금액을 카드로 결재 안되니 현금으로 입금하라는게 말이 되나요? 대체 왜 카드결재가 안되나요? 수납직원 말로는 불법으로 사고친게 있어서 카드 결재가 안된다 어쩐다 했던거 같은데 확실한 해명 부탁드립니다. 미리 알았으면 한꺼번에 모든 이빨을 치료하지는 않았을겁니다. 저 뿐만이 아니고 치료차 방문했던 사람들 대부분이 당황하고 어이없어 했습니다. 사내치과간다고 했을때 주위에서 다들 말렸었는데 다른데로 갈걸 그랬습니다. 처음가봤는데 무조건 비싼걸로만 하고 완전 하이닉스단지안의 직원들이 봉인가요?</t>
+  </si>
+  <si>
+    <t>서울랜드 이용관련 서울랜드 이용하려 하는데.. 가려는 날부터 몇일 전까지 예약하여야 하며 또 누구에게 예약신청하는지? 평일과 주말 가격은 같은지?, 몇명까지 이용가능한지? 가져갈 준비물은(예를 들어 사원증이라든가. 신분증..) 뭐가 있는지? 궁금합니다.. 빨리 공지 부탁드립니다. PS.위 내용을 확인하려 아무리 뒤져 보아도 찿을 수 없는 이유는????? 도대체 뭡니까??? 내가 못 찿은 거라면 지송이고,,, 정말 없다면 쫌 허섭한 느낌이........................................................</t>
+  </si>
+  <si>
+    <t>분실물 문의사항 입니다. 분실물은 어디에서 찾나요? 예전엔 분실물 사진이랑 있었던 사이트가 있었던것 같은데...</t>
+  </si>
+  <si>
+    <t>중국으로 출장간 하이닉스 사원 주소가 궁금합니다. 중국으로 출장간 하이닉스 사원 호텔주소가 궁금합니다. 항저우 프라자 호텔로 알고 있는데 주고검색이 불가능하더군요 출장간 사원들의 연락처 및 호텔주소에 답변이 되면 가족 및 친구들의 걱정거리도 조금이나마 줄어들것 같네요 주소지 및 연락처 부탁드립니다.</t>
   </si>
   <si>
     <t>화요일에도 병원 진료 하시나요? 아스텍병원 화요일에도 진료 하나요? 그리고 진료시간은 몇시~ 몇시까지인지 알수 있을까요? 아 서비스센터도 근무하는지 궁금하네요</t>
@@ -1039,10 +2248,7 @@
     <t>[통근버스에서 물품분실] 혹시 있나요? 2010 - 10 -29 금요일 (잠실행) 차량은 기억이 가물가물하구요 잃어버린 물품은 검정색 가죽 장갑인데요 찾을수 있을지 잘 모르겠네요 혹시 분실물품중에 있나 문의 드리네요 통근버스 잘이용하고 있습니다. 그럼 수고하세요 사내번호는) 4991 입니다.</t>
   </si>
   <si>
-    <t>명절 귀향버스 이번 설날 명절 귀향버스 승차권 언제 배포 하시나요? 그리고 대구로 가는 귀향 버스는 있나요? 아! 명절때 귀향 갈때요 그날 버스 몇시부터 있나요?</t>
-  </si>
-  <si>
-    <t>생월자 이벤트 1월은 거의 안하는군요. 1월이 바쁘다 보니 식당 생월자 이벤트가 항상 1월은 그냥 지나가는 것 같습니다. 1월 생일자도 좀 챙겨 주십시오. 괜히 1월에 태어났어~! 2월에 태어날걸~! -,.-;;</t>
+    <t>질문 답변이요 관리자가 실시간으로 확인하여 답변해준다더니... 2619번 글 답변아직도 안올라와있는데... 확인해주세요!</t>
   </si>
   <si>
     <t>구정관련 안녕하세요. 바쁘신와중에 구정관련 운행정보를 조금 일찍 알아볼 수 있을까요??</t>
@@ -1051,31 +2257,73 @@
     <t>천호선 기사님 안전운전에 감사드립니다 요즘같이 변덕스런 날씨에 고생이 많으십니다. 다름아니라 천호선 아시아나 고속 기사님 칭찬을 하려합니다. 눈이 많이 내릴때는 안전벨트를 매달라고 말씀도 해주시고 차량 바닥이 미끄러울때는 바닥이 미끄러우니 손잡이 꼭 잡아달라고 말씀을 해주십니다. 그리고 안개가 꼈을때는 정말 안전운전 해 주시고요... 근 2년을 타고 다니지만 경적을 울리는 경우는 한번 봤네요. 이렇게 운전하시는 분들이 많이 계시지만 이곳은 칭찬이 인색한것 같아 제가 용기내어 띄워봅니다. 복지를 위하여 고생하시는 모든분들과 기사님들께 감사드립니다.</t>
   </si>
   <si>
-    <t>10월 24일 결혼식 버스 대절 문의 안녕하세요. HYNIX 서경원 입니다. 10월 24일 11시 30분 용산 웨딩코리아에서 결혼식합니다. 이에 버스 대절 문의 드립니다.. 45인승 1대 (1) 하이닉스(이천) --&gt; 서울 용산 웨딩코리아 예식장 --&gt; 하이닉스(이천) 입니다. (2) 하이닉스(청주) --&gt; 하이닉스 (이천) --&gt; 서울 용산 웨딩코리아 예식장 --&gt; 하이닉스(이천) --&gt; 하이닉스 (청주) 2가지 경우에 대해 가능 여부와 각각 가격회신 주시면 감사하겠습니다.</t>
-  </si>
-  <si>
-    <t>귀사버스 대전행 운전자 아저씨 핸폰버노염 10월 5일자 회사로 향하는 대전행 귀사버스 운전자 핸폰버노염.... 혹시 몰라서 연락처를 알고이쓸까 합니다... 정확한 연락처 부탁드립니다</t>
-  </si>
-  <si>
-    <t>추석 연휴 귀향 귀사 버스 시간표 부탁드립니다 추석 연휴 귀향 귀사 버스 시간표 부탁드립니다. 감사합니다.</t>
+    <t>통근버스좌석 안녕하십니까. 통근버스를 늘 감사히 타고 다니는 사람입니다. 그런데 언제부터라고 하기엔 그렇지만 버스의자 등받이 조절이 안되는 고장난 의자가 있더라구요. 한번 전체적으로 좌석 점검 후 수리되었으면 합니다.</t>
+  </si>
+  <si>
+    <t>비공개 문의에 대한 답변 Q&amp;A에서 재미있는것을 볼수가 있었습니다 질의자가 비공개로 질의하고 답변을 하게 되는데 답변은 공개로 되고.... 답변의 하단에 질문의 내용이 그대로 표시됩니다 기본 문제가 있지 않나요. 시스템 수정 부탁 드립니다</t>
+  </si>
+  <si>
+    <t>핑크존 추천!! 저번에도 고객지원쪽에 문의를 드렸었는데요 ... 여성전용 자리 마련해 달라고여~ 이소식지 보고 직장 동료 들과 너무 좋아했어요. ^^ 너무너무 좋은 아이디어 같아요~ 우선 시범운영을 하실계획이라 하셨는데..;ㅠ 저희 노선은 아직..해당이 없다 하시네요~ 물론, 불만을 가지고 계시는 분들도 많으시겠지만 자리가 없으시다거나. 그런경우는 지원을 더 해주시더라도 이번 핑크존..ㅠ 제발 되었으면 좋겠습니다.! 많은 좌석을 원하는 것도 아니고 저같은 경우도 출근할때는 저혼자 아니면 2명정도 여성이 계십니다. 남자분들 앉으실때 많은 자리를 차지하시잖아여..;; 부딪치는 것도 기분 불쾌할때 많거든여.. 길면 한시간도 넘게 걸리는 그런 거리를 잠도 못자고 한쪽으로 몸을 움크리고 출, 퇴근한다는것이 너무너무 싫어요~ㅠ 늦게 퇴근하다 보면 회식이다 뭐다 술취하신분들도 자주 계시고여.. 너무 좋은 아이디어 같아요~ ^^ 전노선에 꼭! 해주셨으면 좋겠네여~ 여자를 대표로!! 이렇게 올려요.. ^^</t>
+  </si>
+  <si>
+    <t>사내치과에 대하여 작년에 사내치과에서 임플런트 치료를 했습니다.... 회사를 다니면서 치료를 하였기에..... 외부에서 치료를 할수가 없었거든요.... 내년쯤 결혼을 하게되면 회사 퇴사를 생각하고 있는데요... 임플런트 치료에 문제가 생기면 다니던 치과치료를 해야하거든요.... 퇴사후 사내 치과 출입이 불가능 한걸로 알고있습니다.... 제 여동생이 치과에 다니고 있는데요.... 임플런트는....다니던 치과에서 계속 a/s를 받아야한다고 하더군요.... 퇴사후 치아에 문제가 생기면..... 회사 사내부속 치과를 와야하는데요.... 퇴사후 어떻게 해야하는거죠? 저는 임플런트 치료시 당연히 출입이 될꺼라 생각했거든요.....</t>
+  </si>
+  <si>
+    <t>사내 치과 문의 안녕하세요.... 단지내 직원입니다.. 치과에 대한 문의를 하려고 이렇게 글을 올립니다... 업무상 외부로 나가기가 곤란하여 사내치과에 가려고 합니다... 근무 시간에 대하여 여쭙니다.. 그리고 추가로... 치료를 받던 중 퇴사를 하게 되면 단지내에 출입하여 치료는 불가능한지요?? 상기 답변 부탁드립니다....</t>
+  </si>
+  <si>
+    <t>하이스텍 News 과거 게시물 확인 안됨. 하이스텍 News 과거 게시물 확인하려고 하면.. 자꾸 Q/A 게시판으로 이동합니다. 아래에도 같은 내용을 문의 했는데.. 답변이 없네요. 조치가 필요할 것 같습니다.</t>
+  </si>
+  <si>
+    <t>website encoding 오류 website가 internet explorer에서만 제대로 작동하네요. 오늘의 식단 페이지 첫 header에 encoding을 euc-kr로 지정해 주세요. header에 encoding이 없어서 항상 iso로 인식을 하네요.</t>
   </si>
   <si>
     <t>부속의원에 갔더니 안전 대기실이라고 써 있던데... 부속의원에 갔더니 안전 대기실이라고 써 있던데... 무서워요 혹시 신종플루 환자라도 ...</t>
   </si>
   <si>
+    <t>용인 구성지구 답글들을 보니까 시행계획은 있으나 아직 미시행이네요 입주한지가 언제인데 아직도 계획만 세우고 계시나요? 먼저 입주하신분들이 적극적으로 건의를 안하신건지 아님 하이스텍의 업무태만인지... 하루 속히 시행해주시기 바랍니다.</t>
+  </si>
+  <si>
+    <t>콘도리스트 부탁합니다. 안녕하세요? 11월 중 제주도에 있는 호텔 및 콘도를 이용하려고 합니다. 할인 가능한 호텔 &amp; 콘도 리스트 자료 좀 부탁합니다. 수고하세요.</t>
+  </si>
+  <si>
+    <t>성수기 예약가능한 콘도리스트 &amp; 레져시설 문의 휴가를 가고싶은데, 성수기 기준 요금과 가능 장소 부탁드립니다. 수고하십시오</t>
+  </si>
+  <si>
+    <t>퇴근시 버스정류장 다시 흡연구역이 되었나요!! 안녕하세요. 날씨도 더운데 매번 볼때마다 느끼지만..나오셔서 버스 차량관리에 고생이 많으시네요. 제가 글을 이렇게 올린건 한가지 건의를 드리기 위해서 입니다. 제가 알고 있기는 기존에 버스정류장에서 흡연으로 인해 비흡연 직원의 간접흡연과 건강, 주변환경 개선을 위해서 버스정류장을 흡연금지구역 으로 지정하고 별도로 입구 양쪽끝으로 흡연공간을 마련한것으로 알고 있습니다..실제로 이 효과로 불편을 느낀 흡연자의 금연 효과도 나타났던게 사실입니다. 그런데..어느 시점부터 금연구역이 지켜지고 있지 않습니다. 운동장쪽 버스 뒤쪽으로 가서 흡연을 하는가 하면...(바람이 항상 서풍으로 불기때문에 지나도 보다..냄새가 심하게 나는건 마찬가지 입니다. 물론 중앙 통로 보다야 조금 덜하지만요..) 심지어는 그냥..중앙 통로에서 흡연을 하는 직원들도 가끔 눈에 보이곤 합니다. (길바닥에 흡연자들 침을 함부로 뱉는것도...보기에 좋지 않구요...통근버스 시간이 8시, 9시로 넘어갈수록 더욱 느슨해지고요..) 또한 다시 흡연이 활성화 되다보니...흡연후...버스 탑승한 직원으로 인해...불쾌하기 그지 없습니다..다시 한번 부탁드립니다.. 정확한 금연구역에 대한 홍보지 배포와...관리지도, 금연 캠페인등.....임직원들의 건강과 편익 개선에 힘써 주시기를 부탁드립니다... 항상 노고에 감사드립니다.</t>
+  </si>
+  <si>
+    <t>18:20분 구리/태능선 관련 사항 안녕하세요.. 남양주에 거주하는 직원입니다. 건의할 사항은 18:20분의 경우 항상 구리/태능선이 만차되어 못타는 분들이 많이 있기 때문입니다. 구리/태능선을 증차해 주실 수 없는지요? 불가능 하다면, 아래 방안은 어떤지요? 구리/태능선에서 우연히 옆 버스를 보니(상계선?) 대부분 2좌석에 한분씩 앉아 계시더군요.. 상계선이나 미아선의 경우 구리TG를 지나가기 때문에, 그 버스를 구리 경유하게 해 주셨으면 좋겠습니다. GS백화점까지 못가더라도, 남양주IC에서만이라도 새워주신다면 좋을것 같네요. 검토부탁드립니다. 수고하세요!</t>
+  </si>
+  <si>
     <t>사원증 목 홀더관련해서 불만 안녕하세요. R3연구소에서 근무하는 연구원입니다. 그저께 퇴근하다가 사원증 목줄 연결하는 홀더가 끊어졌습니다. 다음날(6/3) 출근해서 당연히 R3 로비 안내데스크 보안요원에게 홀더를 달라고 했습니다. 근데 그분은 재고가 없다는 말을 하시더군요. 그래서 내가 언제 재고가 들어오느냐고 여쭤보니까 모른다고 하더군요. 근데 여기서 불만사항인 것은 방금전 다른분이 똑같이 물어본 것을 봤는데 그분한테는 오늘 들어온다고 했고요. 사람 차별하는 것으로 밖에 보이지 않아 불만입니다. 또 한가지. 제 생각에 안내데스크에 사원증 홀더 재고가 없으면 사원 서비스 센터에서 보안요원이 홀더를 가지고 와서 재고를 채워야하는 것 아닙니까? 원래 원칙이 안내데스크에서 홀더를 받는 것이라면 재고는 항상채워져있어야하는 것일텐데요. 그게 원칙이라면 홀더달라는 사람보고 언제 들어올지 모르니 사원서비스센터에서 받아라라고 얘기하는 것은 근무태만으로 밖에 보이지 않네요. 답변 및 시정 부탁드립니다. 오늘안에 해결 안되면 그분께 가서 직접 따지려고합니다.</t>
   </si>
   <si>
+    <t>사내 순환 셔틀 버스 수리 요청 안녕하십니까? 하이닉스에 다니고 있는 남직장인입니다. 오늘 8시 5분 고담주차장에서 출발하는 백두산 셔틀버스를 이용하엿습니다 그런데, 제일 뒷자리 부근에서 삐꺽 삐꺽 소리가 계속 나서 아침부터 오바이트를 할 뻔 하였습니다 마치 칠판을 손톱으로 내는 소리나 스치로폼 소리 같아서 듣기가 매우 싫었습니다. 확인하여 수리 부탁드립니다. 감사합니다.</t>
+  </si>
+  <si>
     <t>저도 분실물 문의 좀..ㅡㅡ 안녕하세요. 지난 주 토요일(5/23) 18:00 수원역 행 퇴근버스에서 짖은 갈색 가방을 머리 위 짐선반 위에 두고 내렸습니다. 어제 운행 회사 및 버스 기사님과 통화한 결과 찾지 못했다는 이야기는 들었는데.. 혹시나 해서 글이라도 남겨봅니다. 나중에라도 찾게 되면 Tel.5770(H.P.010-5100-1005) 연락 좀 부탁드립니다. 감사합니다.</t>
   </si>
   <si>
-    <t>분실물 관련 문의 드립니다. 《 이천 사업장 --&gt; 청주 사업장 》 5월 15일 1시 30분 사업장간 이동 버스를 타고 청주에서 내렸는데요 버스에 책을 한권 두고 내렸습니다. 책이름은 알고리즘이 보이는 그림책입니다. 혹시 버스기사분께서 맡아두고 계신지 궁금해서 글을 남깁니다.. 혹시 갖고 계신다면 제 이메일이나 연락처로 연락해 주시면 감사하겠습니다. (_ _) TEL : 010-8858-9215 수고하세요</t>
+    <t>중앙 체육관 웨이트 시설 관련 추가 요청 1. 1~3kg 아령이 제자리로 돌아왔네요. 감사합니다. 2. 추가 아령 구입시 20kg 이상의 아령을 구입 했으면 합니다.(23kg,25kg 추천) 현재 20kg의 아령을 가볍게 느끼시는 분들이 많은 것 같습니다. 3. 각도조절 벤치와 벤치 프레스의 용도는 분명히 틀립니다. 각도 조절 벤치에 봉을 거치할 수 없습니다. 다른 운동기구의 확충은 여건 상 어렵더라도 벤치프레스는 1대 더 설치 되었으면 합니다. 이용자가 몰릴 경우 사용에 불편함이 너무 많습니다.(한번 잡으면 20~30분씩 하시는 분들이 계십니다. 그런 분이 잡으시면 뒤에 몇분이 진짜로 줄서서 기다립니다.) 웨이트를 하시는 분들의 공통된 의견입니다. 재고 바랍니다. 4. 체육관 면적상의 이유로 운동기구의 추가 설치가 어렵다고 하신 부분 공감 합니다. 의견으로 이용자가 가장 많이 몰리는 시간대에도 극히 이용률이 떨어지는 사이클링 머신을 치운다던지, 기구의 재배치 등으로 어느 정도의 공간 확보는 가능해 보입니다. 5. 마지막으로 현재 20kg 원판이 망가진 상태로 꽤 오랜 시간 방치되어 있습니다. 수리나 교환을 요청 합니다. 수고하십시요.</t>
+  </si>
+  <si>
+    <t>5월 21일 잠실↔이천 B조 셔틀 버스.. 아래 글의 요지는 이용하는데 불편함을 느낀것이 아니라.. 기사님의 말한마디 때문에 하루종일 기분이 어짢았다는 것입니다.. 얼마든지 같은 말이라도 듣는이를 배려 한다면 충분히 좋은쪽으로 얘기 할 수 있다고 봅니다.. 서서가는 15분 남짓의 시간이었지만.. 서서가는 사람들 때문이라는 기사님에 말에 15분이 15분 같지 않았다는 거죠..</t>
+  </si>
+  <si>
+    <t>중앙 체육관 웨이트 시설 확충 및 수리 해주세요 체육관 신규 오픈 후부터 쭉 이용해는 공단 직원입니다. 이번 런닝 머신의 벨트 교체 및 LCD TV 설치를 보면서, 웨이트 쪽으로는 전혀 투자가 이루지지 않아 섭섭함을 많이 느낍니다. 이용자 중에는 런닝 머신 만을 사용하는 것은 아닙니다. 웨이트 트레이닝을 하시는 분들도 많습니다. 오픈 때의 기구 종류에서 전혀 늘지는 않고, 망가진 기구에 오히려 없어지는 기구들도 있는 상태입니다. 웨이트 쪽으로 투자도 했으면 하는 바램으로, 주위에 있는 웨이트 이용자의 의견을 수렴하여 적습니다. 수용되어 좀더 좋은 체육관으로 거듭나기를 기원합니다. 1) 1~3kg짜리 아령이 최근에 모두 사라져 버렸습니다. 관리하시는 분께서 많이 사용하지 않는다고 생각해서 치워버리신 것인지 모르지만, 여성들이나 남성들이 운동전 스트레칭 시에 사용했던 겁니다. 버리지 않으셨다면 원위치 했으면 합니다. 2) 아령의 무게 종류를 추가 했으면 합니다. 현재 5,7,8,10,13,14,15,18,20kg가 있는데, 중간에 빠진 무게의 아령 추가 및 더 높은 중량의 아령을 추가 했으면 합니다. 3) 웨이트 기구 중 사용빈도가 가장 높은 벤치프레스를 추가 설치 했으면 합니다. 이용자만 많이 몰리면 기구를 사용하기 위해 줄을 서야하는 경우가 자주 발생하고 있습니다. 다른 운동시에도 많히 사용 되므로 봉은 1개 정도 더 있으면 합니다. 4) 스쿼트 및 데드 리프시 이용할수 있는 파워랙의 설치를 요청 합니다. 현재 스쿼드 이용시 디핑바를 이용하고 있어 불편함이 많습니다.</t>
+  </si>
+  <si>
+    <t>검색대에 대해 여쩌볼게 있는데요~ 다름이 아니오고.. 4월 21일 오전 8시 20분경 연구소 R2검색대 에서 검색요원이 남자는 가방을 소지하고 출입을 할수 없다면서 출입을 제재하더군요. 근데 제가 여기서 궁금한점과 불만스러운점은.. 그럼 여성분들은 왜 가방소지가 가능하고..왜 남성들은 안되는지 궁금하거든요. 상당히 불쾌하고 불만스럽거든요!</t>
   </si>
   <si>
     <t>4월14일 열쇠꾸러미 분실에 대한 문의 제목 그대로입니다. 4월 14일 구리방향 18시20분 퇴근버스에서 열쇠꾸러미를 분실한 것 같습니다. 분실신고를 했긴 했는데 진행사항을 알수가 없어서 Q&amp;A에 쓰게 되었습니다. 혹시 접수된 물건이 없는지 궁금합니다. 수고하세요..ㅠㅠ</t>
   </si>
   <si>
-    <t>명절 귀사 버스 이용시.... 안녕하세요.. 매년 명절때 귀사 버스를 이용하고 있습니다. (이번에도 이용할 계획입니다) 항상 편안하게 명절을 다녀올수 있어 감사하게 생각합니다.. 단지 여러번 겪다 보니 노파심에서 .. - 귀향버스 운전하시는분들이 다시 귀사버스를 운전하시는것 같은데.. 귀향시 이용자들에서 귀사 승차 지점을바꾸는 경우가 종종 발생하더군요. 귀사만 이용하는 사람은 공지된 지도 위치에서 기다리다. 버스를 못탄 경우도 잇고. 기다리다 지쳐 전화하면 왜 거기서 기다리냐는 말을 듣습니다. (귀향시 이용자들에서 승차 지점을 변경해서 알려줫다는거죠..) 물론 장기간 정차가 어려운 위치여서 옮길수도 있긴 하지만...번번이 귀사때마다 이런 경우를 당하니..이번에도 우려가 됩니다.)</t>
+    <t>분실물에 대하여 문의 합니다. (사내셔틀) 《 사내셔틀 영농장 → 농협 》 어제 17일 24시 막차를 고담문(영농장)에서 타서 아미 기숙사 정문에서 내렸는데요 선물로 받은 스킨로션 (브랜드 = 보닌) 을 두고 내렸습니다. 혹시 버스기사분께서 맡아두고 계신지 궁금해서 글을 남깁니다.. 24시 막차였고 다음운행을 안하기 때문에 막차 운행끝나시고 혹시 버스 청소나 정리 하시면서 스킨 로션이든 종이 가방을 발견하시고 갖고 계시다면 제 이메일이나 연락처로 연락해 주시면 감사하겠습니다. (_ _) TEL : 010-4576-4348</t>
+  </si>
+  <si>
+    <t>출.퇴근 셔틀버스 안녕하세요. 출퇴근 셔틀버스를 매일 타는 직원입니다. 요즘 시내버스나 다른회사 셔틀버스 같은경우 여자전용자리가 따로 지정되어 있습니다. 저도 여자인지라.. 출근할때나 퇴근할때... 셔틀타면 90%정도가 남자분들입니다. 많은 좌석을 여성전용자리로 지정되어도 문제가 되겠지만. 우연히 친구회사 셔틀버스를 봤는데. 3번째 자리정도에 2~4개만 의자 덮개 색을 다르게 하여 여자 전용자리로 지정석을 만들어 두었더라고여.. 그거 보면서 정말 좋겠다란..생각을 했어요 .. 여자가 혼자 셔틀에 탈경우도 있고 여럿이 탈경우도 있지만 2~4좌석 정도 지정석을 따로 정해서 만들어 주셨으면 좋겠습니다. 남자분들옆에 앉을경우 다리를 벌리고 타시는분이 100명중에 100명이잖아요.. 어깨도 부딪치고, 다리도 부딪치고 짧지않은 장거리내내 불편해서 어깨도 제대로 의자에 기대지 못한채 출근합니다... 셔틀에 자리가 없어도 여자전용자리에 앉는건 반드시 안된다고 주의사항에 써주셨으면 좋겠습니다 ..ㅠㅠ</t>
   </si>
   <si>
     <t>부속의원 부속의원에 관해서 건의 합니다. 아무리 부속의원이라고 하지만 사외에 있는 병원이랑 다르다고 하지만.. 청진기로 진찰 한번 해보고 .. 그냥 약 지어주고. 감기에 모든 사람들 약이 다 똑같나요? 얼마전에 감기로 내원 했었는데 제 앞에 계신 분이랑 감기약이 똒같더군요.. 제대로 보시지도 않고.. 조금 심하면 입에 대고 있는 그 치료?? 머죠? 그거 하고 약 받고 가고 .. 제대로 보시는 건지 모르겠네요. 그리고 사외 병원의 경우 입안을 보거나 하는데 왜 꼭 옷을 들춰서 청진기를 대봐야 하는지.. 남성분들은 그렇다 치고 .. 여자인 저로서는 굉장히 불쾌 합니다. 옷을 어디까지 올리라는건지 굉장히 수치심도 느끼구요. 그리고 어떻게 진찰이 청진기 한번 대보고 아무 말없이 나가세요 ~ 이러나요? 제대로 보는 건지 의사가 맞는지도 정말 의문이군요. 시정 바랄께요 !!!!</t>
@@ -1090,34 +2338,112 @@
     <t>하이스텍 임직원용 존경하는 하이스텍 임직원특별금리 SC제일은행 여신영업부 FE임소라입니다. 하이스텍임직원여러분의 신용등급관리 및 자금대출을 도와드리고있습니다. 위기는 바로기회입니다. 현금보유가 중요한 시점에, 임직원여러분의 투자계획 및 사업확장 자금마련의 금융Manager로써 도움을 드리겠습니다. 도움이 필요하신 임직원분께서는 문의바랍니다. SC제일은행 FE임소라 연락처 017-291-7795 [휴대폰저장바랍니다] TIP !!! * 이런분들이 사용하십니다. 1) 낮은 지수를 유지하고있는 시점에 투자에 관심있는 고객님 2) 높은 금리의 제2금융권 상품을 사용하시는 고객님 3) 사업확장 자금을 구하시는 고객님 4) 카드 연체나 급한 부채상환의 도움이 필요하신 고객님 5) 현금보유가 급하신 고객님</t>
   </si>
   <si>
+    <t>사내대학관련 문의 안녕하세요! (주)현대제이콤 관리팀 교육담당자 입니다. 2009년도 사내대학입학관련 모집일정등 관련 자료를 메일로 받아보고 싶습니다.</t>
+  </si>
+  <si>
+    <t>차량문의 단지 내에 자가 차량은 진입불가능한가요? 일을 목적으로하는 화물등의 차량은 제외하고 일반 승용차가 주차되어 있던데 무슨차량인지 궁금합니다. 진입 가능하다면 어떤 절차가 필요한지요?</t>
+  </si>
+  <si>
+    <t>사내 부속의원 진료 시간 중에 식사시간이 사내 부속의원 진료 시간 중에 식사시간이 어떻게 되는지 궁금합니다. 그시간을 피해서 진료를 받아야 하는데 정확히 몇시 부터 몇시까지 인가요?</t>
+  </si>
+  <si>
+    <t>시정 바랍니다. 요 근래 단지내 보안단속이 강화된것을 피부로 느끼고 있습니다. 보안이라는게 여러번 강조해도 부족한 것이기에 강화됐다는 것에 불만이 있는 것은 아니지만... 몇몇 분들은 무슨 벼슬이라도 얻은 듯 아무렇게나 고압적인 언행을 보이곤 하는데 우리가 무슨 예비범죄자입니까? 보안도 서비스입니다. 식당종사자분들 서비스센타분들처럼 고객을 아끼는 분들로 거듭나길 바랍니다. 시정해주세요.</t>
+  </si>
+  <si>
     <t>부속의원이 너무 추워요. 부속의원에 물리치료 받으러 갔습니다. 그런데 너무 추워서 몸을 웅크렸더니 이젠 다리랑 허벅지가 아픕니다 ㅠ 감기도 훌쩍 ㅠ 오히려 병을 얻어 왔네요. 저희 회사는 진작에 히터가 나오는데... 침대에 전기장판이 있는 것도 아니고... 진짜 너무너무 춥습니다. 그렇게 추운곳에서 하루종일 고생하는 간호사 언니들이 참 ㅠㅠ 얼른 히터 틀어주세요 ㅠ 앞으로 계속 예약식으로 물리치료 받을건데 ㅠ 정말 너무추워요 ㅠ 코시리고 ㅠㅜ 화장실의 비데가 너무 따뜻해서 나오기 싫을 정도에요 ㅠ 손시리고 발시리고 ㅠ 여자는 추우면 안되요 ㅠ</t>
   </si>
   <si>
+    <t>콘도 리스트 송부 부탁드립니다. SCK 에 근무하는 직원 입니다. 제휴나, 할인받아서 갈수 있는 콘도 리스트좀 메일로 송부 부탁드립니다. ^^</t>
+  </si>
+  <si>
+    <t>물 소화기 관련 정보 올립니다. 안녕하십니까. 소방 훈련에 관한 소식을 알려드리고자 이렇게 실례를 무릅쓰고 글을 올립니다. 화재는 매번 우리의 인명과 재산에 막대한 피해를 끼치는 큰 재앙이지만, 대비책은 미비하기 짝이 없 는 것이 현 실태입니다. 초기 화재 진압으로 충분히 피해를 막을 수 있음에도 불구, 소방 훈련 관련 지식에 관한 무지로 인해 피해를 본 사례가 부지기수라는 것입니다. 이와 같은 사태를 막고자 공공기관에서는 소방기구 훈련을 실시함으로써 시민들에게 갑작스런 화재에 대한 대처 방법이나 소방기구 사용 방법을 숙지시킴으로써 경각심을 일깨우기 위한 노력을 기울이고 있습니다. 하지만 화재대비 소방기구 훈련에 실제 소화기를 사용하게 되면 비용적 부담이나 소화기 분말로 인한 환경오염 등의 문제로 인해 제대로 된 훈련이 이루어지기 어려운 것이 사실입니다. 저희 제이디산업은 창사 이래 최고의 기술 그 이상의 안전을 모토로 특수 소방기구를 주력생산해온 업체입니다. 본사에선 소방훈련의 실태와 소방교육용 소화기에 대한 장 단점을 수차례 검토, 토의, 분석한 결과 소방기구에 관한 전문적인 지식과 함께 실제 상황과 같은 환경 속에서 소방 훈련을 할 수 있는 교육용 물소화기를 개발했습니다. 우선 모든 사용법에 있어서 실제 소화기와 사용 방법이 유사하며, 내용물이 소화약제가 아니고 물이 기 때문에 친환경적입니다. 또한 여러번 물을 충전해서 사용하실 수 있어 비용적 측면에서도 저렴합니다. 소중한 인적, 물적 피해의 최소화를 위해 노력하는 저희 제이디산업이 자신있게 소개해 드립니다. 자세한 사항은 전화로 문의주시면 성심성의껏 답변해 드리겠습니다. 좋은 하루 되십시오. 회사 홈페이지 http://www.firetec.co.kr/ 전화번호 : 031 - 449 – 7713</t>
+  </si>
+  <si>
+    <t>통근버스 운전기사님께 교육을 부탁드립니다. 안녕하십니까. 통근버스 관련하여 부탁을 드리고자 합니다. 여름이 지나 가을로 접어 들면서 버스 에어콘을 가동하지 않는 계절입니다. 문제는 버스 기사님들께서 실내 공기에 대해 잘모른다는 사실입니다. 실내 공기가 덥고 탁해도 환기를 할 줄을 모른다는 사실입니다. 기사님께 부탁을 드려도 어떤 분을 잘 환기를 시키지만 어떤 분들은 버스의 dashbosd에 있는 여러 switch에 대한 기능을 제대로 이해를 못하는 분들도 계신 것같습니다. 아무튼 쾌적한 출/퇴근이 되기 위해서는 기사님들께서 출발전 확인 사항이 실내 공기가 제대로 조정이 되고 있는 지 반드시 확인을 하고 출발하도록 교육을 부탁드립니다. 감기에 걸리면 버스 실내 공기가 나빠 약을 아무리 먹어도 잘낫지를 않는 경우가 많다고 합니다. 감사합니다.</t>
+  </si>
+  <si>
+    <t>1573번 답변이 없으시네요.. 답변 부탁드립니다.</t>
+  </si>
+  <si>
+    <t>식당자리요~ 식당자리요~ 혼자먹는 사람들을 위한 자리 마련 준비중이라고 쓰셨는데~ 어떻게 만들어준다는거에요? 양옆에 칸막이를 쳐서 조용히 먹을수있도록 해주세요~ 다른사람피해안받구요~</t>
+  </si>
+  <si>
+    <t>이 사이트 여기 사이트 회원가입을 하는곳이 도대체 어디죠????// 로그인 하는곳도 모르겠네요.ㅠㅠㅠ 입사지원을 하고 싶은데 도대체가... 로그인 하는곳이.ㅠㅠㅠㅠㅠㅠㅠㅠㅠ</t>
+  </si>
+  <si>
     <t>정문 경비의 지나친 제재 행위 건 금일 현대오토넷이 아미공단에서 이사를 가면서 불미스러운 일이 있어 글을 올립니다. 비록 저는 아미공단을 떠나지만 남아 있는 여러 회사의 많은 직원 들이 이런 일을 겪지 않기 바라는 마음에서 아래와 같이 정리합니다. - 일시: 10/17일 15:40분경 - 위치: 정문 - 내용: 1. 현대오토넷 이사로 노트북이나 개인 물품은 반출증 없이 나갈 수 있다는 정보를 동료 직원으로 부터 전달 받음 (다른 동료들도 반출증 없이 기숙사쪽 후문이나 사원아파트쪽 서문을 제재없이 통과함 --&gt; 회사쪽에서 이사후 별도 자산 실사 하겠다고 했고, 노트북은 이사중 파손 우려가 있으니 개인이 소지해서 가라는 지침이 있었기 때문에 반출입증 발행하는 것이 의미가 없는 상황있었고, 사전에 아스텍과 협의된 사항인 줄 알았음) 2. 정문에서 노트북 제재를 하기에 상황을 얘기했더니 통보 받은바 없다고 정문 담당이 얘기하면서 계속 제재함. 그래서 마음대로 하라고 얘기함. 3. 정문 담당이 제 팔과 노트북을 낙아채면서 정문 결비실 안쪽으로 밀침 4. 지금 뭐하는 거냐고 따지자 경비실 안쪽에 소파 쪽으로 세게 밀침. 그 바람에 노트북과 개인물품을 끌어안고 소파로 넘어졌고, 넘어지는 충격에 양복 바지가 4cm 가량 찢어짐 5. 너무 화가 나서 상호 험한 말을 주고 받음 6. 정문 다른 직원의 제재로 상황 중단하고, 전산으로 반출증 뽑아 제출함 7. 문제 직원에게 바지 배상을 요구하자 꿰매는 비용만 주겠다고 하여, 말이 안된다고 하니, 본인의 입장만 강력하게 주장. 연락처 받고 집에 돌아옴. - 의견: 정문쪽만 강하게 제재를 한다는 생각에 그럼 마음대로 하세요라는 말투는 적절치 않은 표현이었음을 인정합니다. 그렇다고 해서 본연의 업무에 충실한 정도를 넘어서서 입주 직원에게 힘을 과시하는 행위는 적절치 않았다고 봅니다. 바지만 찢어졌기에 망정이지 잘못 넘어졌으면 허리나 머리를 다칠 수 있는 심각한 상황임을 감안하면 이런 일이 다시 재발되서는 안되며, 정문 경비 담당에 대한 많은 교육이 필요하다고 생각됩니다. 아울러 정문/후문/서문 등 모든 곳에서 동일한 원칙이 적용되었어야 했습니다. 개인적으로 정문 해당 담당자를 징계해 달라고 이 글을 쓰는게 아니라 문제 상황을 유연하고 이성적으로 대처할 수 있는 능력을 키울 수 있도록 철저한 관리를 당부드립니다. 아미단지에 8년을 근무하면서 처음이자 마지막으로 하이스텍 관리 담당분께 글을 남겨 봅니다. 앞으로 하이스텍이 외적인 성장뿐만 아니라 내적인 성장을 함께 추구하는 멋진 회사가 되길 기원합니다.</t>
   </si>
   <si>
-    <t>명절 승차권(귀사) 취소 件 안녕하세요? 명절승차권관련 문의 드립니다. 제가 귀사승차권을 예약했는데... 사정상 버스를 못탈거 같아서 취소하려고하는데 취소가 가능한가요?</t>
+    <t>산업보안관련 안녕하세요. 산업보안관련 때문에 짜증이 극도로 치밀이 오르는 사람입니다. 보안규정상 좀 딱딱하게 구는건 참을 수 있지만 그 사람에 행동에 참을 수 없어서 올립니다. 무슨 껀수를 채우려고 하는것인지 생각하지 못한 부분까지 요목조목 다 따지고 들면 (가끔 그러던데 이때 정말 무슨 껀수 채우는것 같다는 느낌이 상당히 커서 불쾌합니다.) 털어서 먼지 안나는 사람이 어딨습니다. 소속 이름 사번을 적는데 저한테 이러더군요 이름 똑바로 적으세요? 황당해서 네?이랬더니 왜 본인 이름 안적고 다른 사람이름 적냐고 그러더군요. 제 사원증을 보여줬더니 뭐라고 했는지 기억은 안나지만 뭐 걍 얼버무리는듯 했습니다. (보안위반하면 이렇게 무시당하는 기분들어도 괜찮은거죠?) 애초에 출입시 보안관련에 위반되는 부분이 있는지 확인하고 출입을 시키던가 들어갈적에는 아무말도 안하고 나올적에 검문하고 (뭐 검문도 어쩔땐 하고 어쩔댄 안하고) 자리비우기는 다반사에 야간에는 사람이 지나다녀도 잘 주무시더군요..... (사진첨부할까요?) 보안규정을 잘 지키지 못한 제 자신도 잘못이지만 그 규정을 지킬 수 있도록 도와주는것도 보안요원에 몫 아닌가요? 그 사람 이름이 뭔지는 잘 모르겠지만 정말 화가나서 내일 출근하면 이름 알아다 여기 공개할껍니다.</t>
+  </si>
+  <si>
+    <t>하이치과 치료건. 안녕하세요. 오늘 하이치과에서 치료를 받고 온 환자 입니다. 우선 바쁜업무에 필요한 복지형태로 병원 치료에 대해서는 감사히 생각하고 있습니다. 그러나 의문사항이 있어 글을 남김니다. 환자가 많고 병원 진료가 바쁜것은 충분히 이해를 하지만. 치료도중 간호사가 마취를 하는 것은 잘못된 의료 행위가 아닌가 싶습니다. 제가 치료 도중 분명히 의사 선생님이 마취를 해야 하는것이 아닌지 여쭈어 봤지만 간단한 마취는 괜찮다고 하셔서 그냥 넘어갔습니다. 하지만 알아보니 마취간호사도 의사의 지시 없이는 마취를 하면 안된다고 하던데요. 치과는 예외인가요? 만약 그럴일을 없겠지만 마취 후 문제가 생기면 큰일이 아닐까요?</t>
+  </si>
+  <si>
+    <t>통근버스 고장 건의 입니다. 구리노선 버스 입니다. 현대관광(서울74바 3071)구요..차량 번호를 제대로 봤는지 모르겠네요.. 창측 23번 좌석 등받이가 고장 입니다.(좌석표가 의자위치에 정확하게 안붙어 있고 조금 shift되어 있습니다.) 기대 있으면 그냥 뒤로 넘어가 버립니다.(의자 목받이 쪽에 힘주면 넘어가는게 아니고 등받이의 허리 부분에힘을 주면 넘어 갑니다. 등받이를 세웠을때는 덜한데 뒤로 약간 눕히면 더 잘 넘어갑니다.) 생각에는 그 의자 말고 다른 좌석도 그런게 있을거라고 생각됩니다.(앞좌석에 기대서 주무시는 분도 한분 봤습니다.) 확인하시고 수리의뢰 해주세요. 감사합니다.</t>
+  </si>
+  <si>
+    <t>하이치과 채용문의 궁금해서 질문올리는데요.... 하이스텍 안에 있는 하이치과에서 치위생사 채용시 공개채용으로 모집하나요??? 아니면 따로 모집을 하나요??? 그리고 따로 모집을 한다면 언제하나요??</t>
   </si>
   <si>
     <t>테르메덴 미란다 할인 관련 안녕하세요 하이닉스 재직중인 박종현입니다. 테르메덴이나 미란다 할인 어떻게 되죠? 할인권을 서비스센타에서 받아 가야 하나요? 아니면 사원증만으로도 되나요? 된다면 가족 몇명까지?</t>
   </si>
   <si>
+    <t>추석귀향버스~ 추석귀향버스인터넷접수사이트에 들어가서 사번을 쳤는데요~ 비번은 뭘로 해야하나요?</t>
+  </si>
+  <si>
     <t>추석 귀향 버스 어디서 인터넷 접수하죠? http://ticket.asti.com 여길루 접속했는데 안들어가지네요 제가 잘못알고 있는 것인지.... 언제부터 언제까지 신청가능한것이고 저 사이트 주소가 맞는지 좀 가르쳐 주세요 좋은 하루 되세요 ^^</t>
   </si>
   <si>
+    <t>해외로밍서비스 관련 얼마전 해외로밍서비스관련 내용을 공지사항에 본것 같은데, 지금 찾아보니 없더군요. 해외로밍서비스관련해서 안내 자료 보내 주시면 감사하겠습니다. 담당자도요...</t>
+  </si>
+  <si>
     <t>일일사원증 분실시 일일 사원증 분실 시 일정의 금액을 지불 해야하나요?? 그럼 얼마나 되는지요?</t>
   </si>
   <si>
+    <t>콘도 이용 콘도 리스트 좀 구하고 싶은데요. 메일로 보내주기 힘드시면 게시판에 하나 올려 주세요. 저 처럼 구하시는 분들 계신것 같은데요.</t>
+  </si>
+  <si>
+    <t>콘도 리스트 송부 부탁드립니다. 더운 날씨에 수고가 많으십니다.. 이번 여름 휴가기간에 콘도를 이용하고자 하는데... 어느콘도 혹은 제휴 펜션 ...등 과 가격이 얼마나 하는지 궁금하여 list가 있으시면 송부 부탁드립니다. 감사합니다.</t>
+  </si>
+  <si>
+    <t>콘도 리스트 부탁드립니다 sck에 근무하는 직원입니다. 이용가능한 콘도리스트 부탁합니다.</t>
+  </si>
+  <si>
     <t>휴대폰분실 방문객 주차장 안내실에서 휴대폰을 분실했는데 찾을수 있을까요? 전화를 걸어봐도 받지를 않네요...</t>
   </si>
   <si>
     <t>분실문 관련 문의 어제 9시 신길선에서 우산을 놓고 내렸습니다. 크기는 작은 크기이고 우산 색깔은 어두운 빨간색입니다. 동남 고속관광 차였던걸로 기억합니다. 분실물에 대한 답변 부탁드립니다. 수고하세요~~</t>
   </si>
   <si>
+    <t>퇴근길 주차장은 흡연구역인가요!!!! 안녕하세요... 퇴근길 불편사항 개선을 건의합니다. 항상 퇴근길에 느끼는 것이지만... 흡연자로 인해...거의 주차장 퇴근길은 담배연기 냄새에 매일 시달리게 됩니다. 한두명 피는것도 아니고..거의 흡연자들 대부분이 주차장에서 흡연을 하는데.... 이때문에 받게될 비흡연자들의 피해를 개선해 주셨으면 합니다.. (흡연후 차량탑승으로 인해 옷에 밴 연기냄새도 주변 동료들에게 직/간접적으로 상당한 피해를 주고 있다고 생각합니다.) 간접흡연의 피해도 심각하다고 하는데... 우리 공단에는 2만여명의 직원들이 생활하고 있다고 들었습니다. 그중에 여직원의 경우는 임산부들도 상당할거구요. 저같은 일반 성인도 힘들때가 있는데... 이러한 분들의 고통과 피해도 생각해보아야 한다고 생각이드는데...이부분 어떻게 생각하시는지요? 개선사항과 홍보활동을 관심있게 지켜보겠습니다... *이외에, 항상 쾌적한 근무환경개선에 노력해 주신점은 감사드립니다.*</t>
+  </si>
+  <si>
     <t>구 대원 대리님께 구 대리님께 언제나 항시 그자리에서 모든직원을 불편함이없이 불철주야 고생이 많으십니다.저야 아침에 차에타면 잠자기가 바쁜데 차에 오르면서 회사에도착해서 내리는데... 변함없이 친절하게 대하여주는분이 있는데.. 그 분이 다름아닌 승무원이신분이랍니다...그 분이 인덕원코스를 자주오시는데 인사도 잘해주시고 항시 웃는모습이 참으로 좋아보인답니다..아시아 고속관광 4011호 분인데.. 너무도 고맙게인사를 받어서 아침에 출근하는 저로써는 하루가 웃는모습으로 회사에 출근을하지요.. 구대리님 이런기사님이 우리출퇴근에도 많이있다면좋겠어요.. 미약한 글귀지만 작은것에서 행복을 느낀다고 좋아보이기에.. 이렇게 보낸답니다..앞으로 장마철이고 더위도 곳 찾아온다는데. 구데리님 힘내시고요,건강조심하세요.. 과천에서 안@@</t>
   </si>
   <si>
+    <t>식단표?? 얼마전부터 식단표가 제공되지 않고 있는거 같은데요~~ 서버 오류인가요? 아님 아예 제공하지 않는건가요? 사내 공지사항에서 확인하는것이 불편하여 여기 사이트에서 매번 확인했었거든여...ㅋㅋ 사소한거지만 불편하네요.</t>
+  </si>
+  <si>
+    <t>콘도 리스트 부탁드립니다. 연세대학교 수학 파견 중인 하이닉스 직원입니다. 콘도 리스트 좀 부탁드립니다.</t>
+  </si>
+  <si>
+    <t>치과 진료 시간이 어떻게 돼요? 사내 치과 영업일과 영업 시간이 궁금하거든요. 알려주세요.</t>
+  </si>
+  <si>
     <t>여긴 통근버스 전담 홈페이지 입니까?? 부속의원에 대한 건의 사항을 수차례 올렸것만.. 답변을 단한개도 볼 수 가 없군요?? 하이스텍 홈페이지에 들어오면.. 첫 공지에 `부.속.의.원` 도 담당하나고 공지에 뜨는데.. 왜 답변이 없으십니까?? 하이스텍으로 전화해 보았더니.. 부속의원에 대한 건의사항은.. 직접 부속의원으로 전화를 하라고 하시던데.. 당췌..아스텍에서 분사한 어디 곳에서 부속의원을 담당하는거죠?? 답변좀 부탁드립니다.</t>
+  </si>
+  <si>
+    <t>어제..10시차를 타면서... 어제..늦게 까지 일을하고..10시차(성남선)를 탔습니다..차에 탑승할때만해도 티비가 크게 켜져있었습니다. 출발하면 끄시겠지.. 하고 잠을 청하려 했는데..출발하고..도착할때까지 큰 화면과 맨 뒷좌석까지 울리는 쩌렁쩌렁한 소리..ㅠ 그리고 꺼지지 않는 불빛..애써 잠을 청하려 이어폰을 꽂았는데도..여전히 생생하게 들리는 티비소리..ㅠ 저를 비롯해 그곳에 탄 사람들은 적지않은 불편을 느꼈습니다. 유독 이시간 때 버스만이 아니고 각각의 셔틀버스에도 이런 사례가 종종있는것을 동료들을 통해 알 수 있습니다..개선부탁드립니다. 수고하세요~</t>
+  </si>
+  <si>
+    <t>[1314]글 답변은 정말 안해주시나요?? 한달정도 더 기다려 볼까요?? 버스관련 답변만 있습니다... 제발 답글좀 달아주시길 바랍니다. 밑에 글쓰신분도..제 문의에 답변 바란다고 하신 글이 올라왔는데... 단 한분도 신경을 안쓰시고 계신건가요?? 답변 바랍니다.</t>
+  </si>
+  <si>
+    <t>홈피만 만들어져있고..답변이 없으시네요;; '아스텍'에서 하이스텍으로 명칭만 변경되었을뿐.. 변화된 서비스가 없는것 같은 안타까움이 있네요.. 그래도.. 홈피를 새로만드신 초기에는 조금더 신경을 써주셔야하는게 아닐까요??? `사이버 고객센터`에 대한 답변을 거의 찾아 볼 수 가 없군요.. 많이 바쁘시겠지만... 답변좀 부탁드리겠습니다.</t>
+  </si>
+  <si>
+    <t>토요일오전에 물리치료를 받을 수 있도록 해주세요. 타 병원들은 직장인들을 위하여 주 6일제(토요일오전)근무를 하고 있는 실정입니다.. 이에...하이닉스 부속이원도 변화가 필요있다 생각됩니다. 하이닉스 반도체의 업무 특성상 4조3교대 근무자가 상당수 이며.. 또한 통상근무자 역시..5시30분 퇴근을 보장 받지 못하고 있습니다.. 하이닉스 반도체의 `사내부속 의원`으로써 토요일오전이 아니면..이용조차 생각도 못하는 사람이 너무나도 많습니다. 진료가 안된다면... `물리치료`라도 토요일오전에 꼬옥!!! 받을 수 있도록 확.실.한!!추진 부탁드립니다.</t>
   </si>
   <si>
     <t>병원 진료시간 평일 병원 진료시간이 언제인가여?</t>
@@ -1478,7 +2804,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B373"/>
+  <dimension ref="A1:B822"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1539,7 +2865,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
@@ -1547,7 +2873,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
@@ -1555,7 +2881,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
@@ -1563,7 +2889,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
@@ -1571,7 +2897,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
@@ -1579,7 +2905,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="B13" t="s">
         <v>10</v>
@@ -1587,7 +2913,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
@@ -1595,7 +2921,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="B15" t="s">
         <v>12</v>
@@ -1603,7 +2929,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="B16" t="s">
         <v>13</v>
@@ -1611,7 +2937,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="B17" t="s">
         <v>14</v>
@@ -1619,7 +2945,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="B18" t="s">
         <v>15</v>
@@ -1627,7 +2953,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="B19" t="s">
         <v>16</v>
@@ -1635,7 +2961,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B20" t="s">
         <v>17</v>
@@ -1643,7 +2969,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B21" t="s">
         <v>18</v>
@@ -1651,7 +2977,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1">
-        <v>268</v>
+        <v>140</v>
       </c>
       <c r="B22" t="s">
         <v>19</v>
@@ -1659,7 +2985,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1">
-        <v>272</v>
+        <v>147</v>
       </c>
       <c r="B23" t="s">
         <v>20</v>
@@ -1667,7 +2993,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1">
-        <v>273</v>
+        <v>159</v>
       </c>
       <c r="B24" t="s">
         <v>21</v>
@@ -1675,7 +3001,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1">
-        <v>281</v>
+        <v>165</v>
       </c>
       <c r="B25" t="s">
         <v>22</v>
@@ -1683,7 +3009,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1">
-        <v>282</v>
+        <v>166</v>
       </c>
       <c r="B26" t="s">
         <v>23</v>
@@ -1691,7 +3017,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1">
-        <v>287</v>
+        <v>167</v>
       </c>
       <c r="B27" t="s">
         <v>24</v>
@@ -1699,7 +3025,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1">
-        <v>293</v>
+        <v>179</v>
       </c>
       <c r="B28" t="s">
         <v>25</v>
@@ -1707,7 +3033,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1">
-        <v>320</v>
+        <v>182</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -1715,7 +3041,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1">
-        <v>324</v>
+        <v>184</v>
       </c>
       <c r="B30" t="s">
         <v>27</v>
@@ -1723,7 +3049,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1">
-        <v>325</v>
+        <v>187</v>
       </c>
       <c r="B31" t="s">
         <v>28</v>
@@ -1731,7 +3057,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1">
-        <v>326</v>
+        <v>188</v>
       </c>
       <c r="B32" t="s">
         <v>29</v>
@@ -1739,7 +3065,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1">
-        <v>340</v>
+        <v>196</v>
       </c>
       <c r="B33" t="s">
         <v>30</v>
@@ -1747,7 +3073,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1">
-        <v>362</v>
+        <v>209</v>
       </c>
       <c r="B34" t="s">
         <v>31</v>
@@ -1755,7 +3081,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1">
-        <v>381</v>
+        <v>215</v>
       </c>
       <c r="B35" t="s">
         <v>32</v>
@@ -1763,7 +3089,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1">
-        <v>392</v>
+        <v>216</v>
       </c>
       <c r="B36" t="s">
         <v>33</v>
@@ -1771,7 +3097,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1">
-        <v>407</v>
+        <v>220</v>
       </c>
       <c r="B37" t="s">
         <v>34</v>
@@ -1779,7 +3105,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1">
-        <v>411</v>
+        <v>221</v>
       </c>
       <c r="B38" t="s">
         <v>35</v>
@@ -1787,7 +3113,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1">
-        <v>425</v>
+        <v>224</v>
       </c>
       <c r="B39" t="s">
         <v>36</v>
@@ -1795,239 +3121,239 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1">
-        <v>426</v>
+        <v>228</v>
       </c>
       <c r="B40" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1">
-        <v>431</v>
+        <v>230</v>
       </c>
       <c r="B41" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1">
-        <v>432</v>
+        <v>233</v>
       </c>
       <c r="B42" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1">
-        <v>442</v>
+        <v>261</v>
       </c>
       <c r="B43" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1">
-        <v>471</v>
+        <v>267</v>
       </c>
       <c r="B44" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1">
-        <v>479</v>
+        <v>268</v>
       </c>
       <c r="B45" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1">
-        <v>482</v>
+        <v>272</v>
       </c>
       <c r="B46" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1">
-        <v>510</v>
+        <v>273</v>
       </c>
       <c r="B47" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1">
-        <v>525</v>
+        <v>278</v>
       </c>
       <c r="B48" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1">
-        <v>534</v>
+        <v>281</v>
       </c>
       <c r="B49" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1">
-        <v>545</v>
+        <v>282</v>
       </c>
       <c r="B50" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1">
-        <v>548</v>
+        <v>287</v>
       </c>
       <c r="B51" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1">
-        <v>550</v>
+        <v>295</v>
       </c>
       <c r="B52" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1">
-        <v>551</v>
+        <v>296</v>
       </c>
       <c r="B53" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1">
-        <v>556</v>
+        <v>298</v>
       </c>
       <c r="B54" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1">
-        <v>563</v>
+        <v>300</v>
       </c>
       <c r="B55" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1">
-        <v>586</v>
+        <v>307</v>
       </c>
       <c r="B56" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1">
-        <v>587</v>
+        <v>322</v>
       </c>
       <c r="B57" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1">
-        <v>612</v>
+        <v>323</v>
       </c>
       <c r="B58" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1">
-        <v>615</v>
+        <v>324</v>
       </c>
       <c r="B59" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1">
-        <v>637</v>
+        <v>325</v>
       </c>
       <c r="B60" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1">
-        <v>638</v>
+        <v>326</v>
       </c>
       <c r="B61" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="1">
-        <v>755</v>
+        <v>330</v>
       </c>
       <c r="B62" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="1">
-        <v>817</v>
+        <v>335</v>
       </c>
       <c r="B63" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="1">
-        <v>825</v>
+        <v>336</v>
       </c>
       <c r="B64" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="1">
-        <v>843</v>
+        <v>340</v>
       </c>
       <c r="B65" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="1">
-        <v>854</v>
+        <v>346</v>
       </c>
       <c r="B66" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="1">
-        <v>871</v>
+        <v>362</v>
       </c>
       <c r="B67" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="1">
-        <v>896</v>
+        <v>372</v>
       </c>
       <c r="B68" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="1">
-        <v>911</v>
+        <v>373</v>
       </c>
       <c r="B69" t="s">
         <v>64</v>
@@ -2035,2434 +3361,6026 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="1">
-        <v>912</v>
+        <v>374</v>
       </c>
       <c r="B70" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="1">
-        <v>919</v>
+        <v>375</v>
       </c>
       <c r="B71" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="1">
-        <v>921</v>
+        <v>376</v>
       </c>
       <c r="B72" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="1">
-        <v>943</v>
+        <v>377</v>
       </c>
       <c r="B73" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="1">
-        <v>950</v>
+        <v>381</v>
       </c>
       <c r="B74" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="1">
-        <v>961</v>
+        <v>383</v>
       </c>
       <c r="B75" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="1">
-        <v>1032</v>
+        <v>384</v>
       </c>
       <c r="B76" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="1">
-        <v>1048</v>
+        <v>386</v>
       </c>
       <c r="B77" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="1">
-        <v>1066</v>
+        <v>388</v>
       </c>
       <c r="B78" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="1">
-        <v>1081</v>
+        <v>392</v>
       </c>
       <c r="B79" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="1">
-        <v>1096</v>
+        <v>407</v>
       </c>
       <c r="B80" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="1">
-        <v>1102</v>
+        <v>409</v>
       </c>
       <c r="B81" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="1">
-        <v>1133</v>
+        <v>425</v>
       </c>
       <c r="B82" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="1">
-        <v>1220</v>
+        <v>426</v>
       </c>
       <c r="B83" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="1">
-        <v>1233</v>
+        <v>428</v>
       </c>
       <c r="B84" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="1">
-        <v>1271</v>
+        <v>431</v>
       </c>
       <c r="B85" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="1">
-        <v>1302</v>
+        <v>432</v>
       </c>
       <c r="B86" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="1">
-        <v>1379</v>
+        <v>454</v>
       </c>
       <c r="B87" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="1">
-        <v>1389</v>
+        <v>456</v>
       </c>
       <c r="B88" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="1">
-        <v>1501</v>
+        <v>469</v>
       </c>
       <c r="B89" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="1">
-        <v>1510</v>
+        <v>470</v>
       </c>
       <c r="B90" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="1">
-        <v>1516</v>
+        <v>471</v>
       </c>
       <c r="B91" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="1">
-        <v>1527</v>
+        <v>472</v>
       </c>
       <c r="B92" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="1">
-        <v>1532</v>
+        <v>473</v>
       </c>
       <c r="B93" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="1">
-        <v>1551</v>
+        <v>481</v>
       </c>
       <c r="B94" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="1">
-        <v>1559</v>
+        <v>483</v>
       </c>
       <c r="B95" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="1">
-        <v>1612</v>
+        <v>493</v>
       </c>
       <c r="B96" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="1">
-        <v>1626</v>
+        <v>502</v>
       </c>
       <c r="B97" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="1">
-        <v>1637</v>
+        <v>510</v>
       </c>
       <c r="B98" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="1">
-        <v>1647</v>
+        <v>512</v>
       </c>
       <c r="B99" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="1">
-        <v>1649</v>
+        <v>519</v>
       </c>
       <c r="B100" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="1">
-        <v>1650</v>
+        <v>532</v>
       </c>
       <c r="B101" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="1">
-        <v>1701</v>
+        <v>537</v>
       </c>
       <c r="B102" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="1">
-        <v>1720</v>
+        <v>545</v>
       </c>
       <c r="B103" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="1">
-        <v>1773</v>
+        <v>547</v>
       </c>
       <c r="B104" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="1">
-        <v>1869</v>
+        <v>548</v>
       </c>
       <c r="B105" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="1">
-        <v>1883</v>
+        <v>549</v>
       </c>
       <c r="B106" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="1">
-        <v>1985</v>
+        <v>550</v>
       </c>
       <c r="B107" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="1">
-        <v>2097</v>
+        <v>551</v>
       </c>
       <c r="B108" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="1">
-        <v>2099</v>
+        <v>557</v>
       </c>
       <c r="B109" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="1">
-        <v>2139</v>
+        <v>559</v>
       </c>
       <c r="B110" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="1">
-        <v>2152</v>
+        <v>575</v>
       </c>
       <c r="B111" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="1">
-        <v>2169</v>
+        <v>578</v>
       </c>
       <c r="B112" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="1">
-        <v>2206</v>
+        <v>585</v>
       </c>
       <c r="B113" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="1">
-        <v>2208</v>
+        <v>586</v>
       </c>
       <c r="B114" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="1">
-        <v>2216</v>
+        <v>587</v>
       </c>
       <c r="B115" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="1">
-        <v>2217</v>
+        <v>588</v>
       </c>
       <c r="B116" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="1">
-        <v>2222</v>
+        <v>601</v>
       </c>
       <c r="B117" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="1">
-        <v>2225</v>
+        <v>603</v>
       </c>
       <c r="B118" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="1">
-        <v>2227</v>
+        <v>604</v>
       </c>
       <c r="B119" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="1">
-        <v>2228</v>
+        <v>605</v>
       </c>
       <c r="B120" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="1">
-        <v>2235</v>
+        <v>607</v>
       </c>
       <c r="B121" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="1">
-        <v>2236</v>
+        <v>612</v>
       </c>
       <c r="B122" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="1">
-        <v>2237</v>
+        <v>615</v>
       </c>
       <c r="B123" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="1">
-        <v>2239</v>
+        <v>631</v>
       </c>
       <c r="B124" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="1">
-        <v>2246</v>
+        <v>632</v>
       </c>
       <c r="B125" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="1">
-        <v>2262</v>
+        <v>637</v>
       </c>
       <c r="B126" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="1">
-        <v>2274</v>
+        <v>638</v>
       </c>
       <c r="B127" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="1">
-        <v>2349</v>
+        <v>641</v>
       </c>
       <c r="B128" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="1">
-        <v>2359</v>
+        <v>671</v>
       </c>
       <c r="B129" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="1">
-        <v>2363</v>
+        <v>677</v>
       </c>
       <c r="B130" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="1">
-        <v>2387</v>
+        <v>683</v>
       </c>
       <c r="B131" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="1">
-        <v>2406</v>
+        <v>699</v>
       </c>
       <c r="B132" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="1">
-        <v>2449</v>
+        <v>725</v>
       </c>
       <c r="B133" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="1">
-        <v>2548</v>
+        <v>755</v>
       </c>
       <c r="B134" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="1">
-        <v>2567</v>
+        <v>779</v>
       </c>
       <c r="B135" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="1">
-        <v>2591</v>
+        <v>781</v>
       </c>
       <c r="B136" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="1">
-        <v>2600</v>
+        <v>812</v>
       </c>
       <c r="B137" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="1">
-        <v>2607</v>
+        <v>817</v>
       </c>
       <c r="B138" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="1">
-        <v>2630</v>
+        <v>825</v>
       </c>
       <c r="B139" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="1">
-        <v>2632</v>
+        <v>829</v>
       </c>
       <c r="B140" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="1">
-        <v>2704</v>
+        <v>842</v>
       </c>
       <c r="B141" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="1">
-        <v>2706</v>
+        <v>854</v>
       </c>
       <c r="B142" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="1">
-        <v>2723</v>
+        <v>857</v>
       </c>
       <c r="B143" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="1">
-        <v>2740</v>
+        <v>868</v>
       </c>
       <c r="B144" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="1">
-        <v>2742</v>
+        <v>871</v>
       </c>
       <c r="B145" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="1">
-        <v>2746</v>
+        <v>876</v>
       </c>
       <c r="B146" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="1">
-        <v>2750</v>
+        <v>901</v>
       </c>
       <c r="B147" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="1">
-        <v>2751</v>
+        <v>905</v>
       </c>
       <c r="B148" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="1">
-        <v>2752</v>
+        <v>911</v>
       </c>
       <c r="B149" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="1">
-        <v>2753</v>
+        <v>919</v>
       </c>
       <c r="B150" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="1">
-        <v>2763</v>
+        <v>921</v>
       </c>
       <c r="B151" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="1">
-        <v>2764</v>
+        <v>926</v>
       </c>
       <c r="B152" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="1">
-        <v>2768</v>
+        <v>943</v>
       </c>
       <c r="B153" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="1">
-        <v>2769</v>
+        <v>948</v>
       </c>
       <c r="B154" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="1">
-        <v>2770</v>
+        <v>950</v>
       </c>
       <c r="B155" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="1">
-        <v>2772</v>
+        <v>958</v>
       </c>
       <c r="B156" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="1">
-        <v>2776</v>
+        <v>959</v>
       </c>
       <c r="B157" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="1">
-        <v>2780</v>
+        <v>963</v>
       </c>
       <c r="B158" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="1">
-        <v>2782</v>
+        <v>977</v>
       </c>
       <c r="B159" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" s="1">
-        <v>2785</v>
+        <v>987</v>
       </c>
       <c r="B160" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" s="1">
-        <v>2793</v>
+        <v>991</v>
       </c>
       <c r="B161" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="1">
-        <v>2794</v>
+        <v>998</v>
       </c>
       <c r="B162" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="1">
-        <v>2795</v>
+        <v>1002</v>
       </c>
       <c r="B163" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" s="1">
-        <v>2798</v>
+        <v>1021</v>
       </c>
       <c r="B164" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" s="1">
-        <v>2822</v>
+        <v>1032</v>
       </c>
       <c r="B165" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="1">
-        <v>2831</v>
+        <v>1033</v>
       </c>
       <c r="B166" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" s="1">
-        <v>2836</v>
+        <v>1036</v>
       </c>
       <c r="B167" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168" s="1">
-        <v>2837</v>
+        <v>1038</v>
       </c>
       <c r="B168" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" s="1">
-        <v>2874</v>
+        <v>1060</v>
       </c>
       <c r="B169" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170" s="1">
-        <v>2881</v>
+        <v>1066</v>
       </c>
       <c r="B170" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" s="1">
-        <v>2912</v>
+        <v>1068</v>
       </c>
       <c r="B171" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" s="1">
-        <v>2954</v>
+        <v>1081</v>
       </c>
       <c r="B172" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" s="1">
-        <v>2955</v>
+        <v>1090</v>
       </c>
       <c r="B173" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="1">
-        <v>2987</v>
+        <v>1096</v>
       </c>
       <c r="B174" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="1">
-        <v>3025</v>
+        <v>1098</v>
       </c>
       <c r="B175" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="1">
-        <v>3068</v>
+        <v>1099</v>
       </c>
       <c r="B176" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="1">
-        <v>3093</v>
+        <v>1102</v>
       </c>
       <c r="B177" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="1">
-        <v>3101</v>
+        <v>1118</v>
       </c>
       <c r="B178" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="1">
-        <v>3119</v>
+        <v>1122</v>
       </c>
       <c r="B179" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="1">
-        <v>3227</v>
+        <v>1125</v>
       </c>
       <c r="B180" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="1">
-        <v>3242</v>
+        <v>1130</v>
       </c>
       <c r="B181" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="1">
-        <v>3276</v>
+        <v>1139</v>
       </c>
       <c r="B182" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="1">
-        <v>3343</v>
+        <v>1155</v>
       </c>
       <c r="B183" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" s="1">
-        <v>3358</v>
+        <v>1156</v>
       </c>
       <c r="B184" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="1">
-        <v>3373</v>
+        <v>1157</v>
       </c>
       <c r="B185" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="1">
-        <v>3374</v>
+        <v>1167</v>
       </c>
       <c r="B186" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" s="1">
-        <v>3472</v>
+        <v>1168</v>
       </c>
       <c r="B187" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="1">
-        <v>3550</v>
+        <v>1173</v>
       </c>
       <c r="B188" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="1">
-        <v>3573</v>
+        <v>1182</v>
       </c>
       <c r="B189" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="1">
-        <v>3650</v>
+        <v>1233</v>
       </c>
       <c r="B190" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" s="1">
-        <v>3671</v>
+        <v>1249</v>
       </c>
       <c r="B191" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" s="1">
-        <v>3721</v>
+        <v>1264</v>
       </c>
       <c r="B192" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="1">
-        <v>3763</v>
+        <v>1271</v>
       </c>
       <c r="B193" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194" s="1">
-        <v>3771</v>
+        <v>1291</v>
       </c>
       <c r="B194" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" s="1">
-        <v>3785</v>
+        <v>1293</v>
       </c>
       <c r="B195" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" s="1">
-        <v>3800</v>
+        <v>1306</v>
       </c>
       <c r="B196" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" s="1">
-        <v>3803</v>
+        <v>1351</v>
       </c>
       <c r="B197" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" s="1">
-        <v>3899</v>
+        <v>1376</v>
       </c>
       <c r="B198" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" s="1">
-        <v>4004</v>
+        <v>1432</v>
       </c>
       <c r="B199" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200" s="1">
-        <v>4006</v>
+        <v>1457</v>
       </c>
       <c r="B200" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201" s="1">
-        <v>4153</v>
+        <v>1473</v>
       </c>
       <c r="B201" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" s="1">
-        <v>4155</v>
+        <v>1495</v>
       </c>
       <c r="B202" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203" s="1">
-        <v>4245</v>
+        <v>1515</v>
       </c>
       <c r="B203" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="A204" s="1">
-        <v>4360</v>
+        <v>1516</v>
       </c>
       <c r="B204" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" s="1">
-        <v>4387</v>
+        <v>1532</v>
       </c>
       <c r="B205" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="206" spans="1:2">
       <c r="A206" s="1">
-        <v>4417</v>
+        <v>1551</v>
       </c>
       <c r="B206" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207" s="1">
-        <v>4428</v>
+        <v>1566</v>
       </c>
       <c r="B207" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="208" spans="1:2">
       <c r="A208" s="1">
-        <v>4433</v>
+        <v>1612</v>
       </c>
       <c r="B208" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209" s="1">
-        <v>4508</v>
+        <v>1626</v>
       </c>
       <c r="B209" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" s="1">
-        <v>4530</v>
+        <v>1637</v>
       </c>
       <c r="B210" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="1">
-        <v>4531</v>
+        <v>1644</v>
       </c>
       <c r="B211" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212" s="1">
-        <v>4559</v>
+        <v>1647</v>
       </c>
       <c r="B212" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213" s="1">
-        <v>4599</v>
+        <v>1649</v>
       </c>
       <c r="B213" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" s="1">
-        <v>4648</v>
+        <v>1650</v>
       </c>
       <c r="B214" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="1">
-        <v>4662</v>
+        <v>1683</v>
       </c>
       <c r="B215" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216" s="1">
-        <v>4689</v>
+        <v>1701</v>
       </c>
       <c r="B216" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217" s="1">
-        <v>4694</v>
+        <v>1720</v>
       </c>
       <c r="B217" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="1">
-        <v>4728</v>
+        <v>1773</v>
       </c>
       <c r="B218" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="219" spans="1:2">
       <c r="A219" s="1">
-        <v>4751</v>
+        <v>1777</v>
       </c>
       <c r="B219" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="A220" s="1">
-        <v>4854</v>
+        <v>1779</v>
       </c>
       <c r="B220" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221" s="1">
-        <v>4873</v>
+        <v>1787</v>
       </c>
       <c r="B221" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="1">
-        <v>4874</v>
+        <v>1790</v>
       </c>
       <c r="B222" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="1">
-        <v>4910</v>
+        <v>1795</v>
       </c>
       <c r="B223" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="1">
-        <v>4957</v>
+        <v>1806</v>
       </c>
       <c r="B224" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" s="1">
-        <v>4972</v>
+        <v>1832</v>
       </c>
       <c r="B225" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="1">
-        <v>4986</v>
+        <v>1836</v>
       </c>
       <c r="B226" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="1">
-        <v>4989</v>
+        <v>1842</v>
       </c>
       <c r="B227" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228" s="1">
-        <v>5017</v>
+        <v>1849</v>
       </c>
       <c r="B228" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="229" spans="1:2">
       <c r="A229" s="1">
-        <v>5071</v>
+        <v>1864</v>
       </c>
       <c r="B229" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="230" spans="1:2">
       <c r="A230" s="1">
-        <v>5078</v>
+        <v>1869</v>
       </c>
       <c r="B230" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="1">
-        <v>5085</v>
+        <v>1873</v>
       </c>
       <c r="B231" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="1">
-        <v>5130</v>
+        <v>1887</v>
       </c>
       <c r="B232" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="1">
-        <v>5148</v>
+        <v>1909</v>
       </c>
       <c r="B233" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="1">
-        <v>5156</v>
+        <v>1911</v>
       </c>
       <c r="B234" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="1">
-        <v>5174</v>
+        <v>1937</v>
       </c>
       <c r="B235" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="1">
-        <v>5243</v>
+        <v>1983</v>
       </c>
       <c r="B236" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="1">
-        <v>5244</v>
+        <v>1985</v>
       </c>
       <c r="B237" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" s="1">
-        <v>5262</v>
+        <v>1991</v>
       </c>
       <c r="B238" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" s="1">
-        <v>5344</v>
+        <v>2038</v>
       </c>
       <c r="B239" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="1">
-        <v>5356</v>
+        <v>2040</v>
       </c>
       <c r="B240" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241" s="1">
-        <v>5415</v>
+        <v>2056</v>
       </c>
       <c r="B241" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242" s="1">
-        <v>5441</v>
+        <v>2078</v>
       </c>
       <c r="B242" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="243" spans="1:2">
       <c r="A243" s="1">
-        <v>5446</v>
+        <v>2088</v>
       </c>
       <c r="B243" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="1">
-        <v>5465</v>
+        <v>2097</v>
       </c>
       <c r="B244" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="1">
-        <v>5486</v>
+        <v>2099</v>
       </c>
       <c r="B245" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="1">
-        <v>5515</v>
+        <v>2119</v>
       </c>
       <c r="B246" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247" s="1">
-        <v>5686</v>
+        <v>2120</v>
       </c>
       <c r="B247" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" s="1">
-        <v>5712</v>
+        <v>2128</v>
       </c>
       <c r="B248" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="1">
-        <v>5718</v>
+        <v>2139</v>
       </c>
       <c r="B249" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="1">
-        <v>5722</v>
+        <v>2140</v>
       </c>
       <c r="B250" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="1">
-        <v>5768</v>
+        <v>2152</v>
       </c>
       <c r="B251" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="1">
-        <v>5783</v>
+        <v>2154</v>
       </c>
       <c r="B252" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" s="1">
-        <v>5785</v>
+        <v>2171</v>
       </c>
       <c r="B253" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" s="1">
-        <v>5794</v>
+        <v>2192</v>
       </c>
       <c r="B254" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="1">
-        <v>5795</v>
+        <v>2193</v>
       </c>
       <c r="B255" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" s="1">
-        <v>5848</v>
+        <v>2206</v>
       </c>
       <c r="B256" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" s="1">
-        <v>5859</v>
+        <v>2208</v>
       </c>
       <c r="B257" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="258" spans="1:2">
       <c r="A258" s="1">
-        <v>5904</v>
+        <v>2216</v>
       </c>
       <c r="B258" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" s="1">
-        <v>5944</v>
+        <v>2217</v>
       </c>
       <c r="B259" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="260" spans="1:2">
       <c r="A260" s="1">
-        <v>5953</v>
+        <v>2222</v>
       </c>
       <c r="B260" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="261" spans="1:2">
       <c r="A261" s="1">
-        <v>5969</v>
+        <v>2225</v>
       </c>
       <c r="B261" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="262" spans="1:2">
       <c r="A262" s="1">
-        <v>5977</v>
+        <v>2227</v>
       </c>
       <c r="B262" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="263" spans="1:2">
       <c r="A263" s="1">
-        <v>5984</v>
+        <v>2228</v>
       </c>
       <c r="B263" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" s="1">
-        <v>5989</v>
+        <v>2235</v>
       </c>
       <c r="B264" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="265" spans="1:2">
       <c r="A265" s="1">
-        <v>6018</v>
+        <v>2236</v>
       </c>
       <c r="B265" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="1">
-        <v>6029</v>
+        <v>2237</v>
       </c>
       <c r="B266" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="A267" s="1">
-        <v>6111</v>
+        <v>2239</v>
       </c>
       <c r="B267" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268" s="1">
-        <v>6133</v>
+        <v>2246</v>
       </c>
       <c r="B268" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269" s="1">
-        <v>6135</v>
+        <v>2262</v>
       </c>
       <c r="B269" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" s="1">
-        <v>6152</v>
+        <v>2274</v>
       </c>
       <c r="B270" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" s="1">
-        <v>6195</v>
+        <v>2349</v>
       </c>
       <c r="B271" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272" s="1">
-        <v>6236</v>
+        <v>2359</v>
       </c>
       <c r="B272" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273" s="1">
-        <v>6266</v>
+        <v>2363</v>
       </c>
       <c r="B273" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="274" spans="1:2">
       <c r="A274" s="1">
-        <v>6340</v>
+        <v>2387</v>
       </c>
       <c r="B274" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275" s="1">
-        <v>6359</v>
+        <v>2449</v>
       </c>
       <c r="B275" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276" s="1">
-        <v>6414</v>
+        <v>2548</v>
       </c>
       <c r="B276" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="1">
-        <v>6449</v>
+        <v>2578</v>
       </c>
       <c r="B277" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="1">
-        <v>6469</v>
+        <v>2591</v>
       </c>
       <c r="B278" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="279" spans="1:2">
       <c r="A279" s="1">
-        <v>6513</v>
+        <v>2607</v>
       </c>
       <c r="B279" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="1">
-        <v>6528</v>
+        <v>2629</v>
       </c>
       <c r="B280" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" s="1">
-        <v>6551</v>
+        <v>2630</v>
       </c>
       <c r="B281" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="A282" s="1">
-        <v>6679</v>
+        <v>2632</v>
       </c>
       <c r="B282" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="283" spans="1:2">
       <c r="A283" s="1">
-        <v>6688</v>
+        <v>2695</v>
       </c>
       <c r="B283" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="284" spans="1:2">
       <c r="A284" s="1">
-        <v>6727</v>
+        <v>2704</v>
       </c>
       <c r="B284" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" s="1">
-        <v>6757</v>
+        <v>2712</v>
       </c>
       <c r="B285" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" s="1">
-        <v>6762</v>
+        <v>2723</v>
       </c>
       <c r="B286" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" s="1">
-        <v>6816</v>
+        <v>2740</v>
       </c>
       <c r="B287" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" s="1">
-        <v>6820</v>
+        <v>2742</v>
       </c>
       <c r="B288" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289" s="1">
-        <v>6830</v>
+        <v>2744</v>
       </c>
       <c r="B289" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="1">
-        <v>6840</v>
+        <v>2746</v>
       </c>
       <c r="B290" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="291" spans="1:2">
       <c r="A291" s="1">
-        <v>6940</v>
+        <v>2750</v>
       </c>
       <c r="B291" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="1">
-        <v>6966</v>
+        <v>2751</v>
       </c>
       <c r="B292" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="1">
-        <v>6983</v>
+        <v>2752</v>
       </c>
       <c r="B293" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="294" spans="1:2">
       <c r="A294" s="1">
-        <v>7033</v>
+        <v>2753</v>
       </c>
       <c r="B294" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="295" spans="1:2">
       <c r="A295" s="1">
-        <v>7054</v>
+        <v>2763</v>
       </c>
       <c r="B295" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="296" spans="1:2">
       <c r="A296" s="1">
-        <v>7055</v>
+        <v>2764</v>
       </c>
       <c r="B296" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="297" spans="1:2">
       <c r="A297" s="1">
-        <v>7062</v>
+        <v>2768</v>
       </c>
       <c r="B297" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="298" spans="1:2">
       <c r="A298" s="1">
-        <v>7067</v>
+        <v>2769</v>
       </c>
       <c r="B298" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="1">
-        <v>7081</v>
+        <v>2770</v>
       </c>
       <c r="B299" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="300" spans="1:2">
       <c r="A300" s="1">
-        <v>7099</v>
+        <v>2772</v>
       </c>
       <c r="B300" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="301" spans="1:2">
       <c r="A301" s="1">
-        <v>7142</v>
+        <v>2776</v>
       </c>
       <c r="B301" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="302" spans="1:2">
       <c r="A302" s="1">
-        <v>7147</v>
+        <v>2780</v>
       </c>
       <c r="B302" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="303" spans="1:2">
       <c r="A303" s="1">
-        <v>7188</v>
+        <v>2782</v>
       </c>
       <c r="B303" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="304" spans="1:2">
       <c r="A304" s="1">
-        <v>7292</v>
+        <v>2785</v>
       </c>
       <c r="B304" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="A305" s="1">
-        <v>7306</v>
+        <v>2793</v>
       </c>
       <c r="B305" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="1">
-        <v>7335</v>
+        <v>2794</v>
       </c>
       <c r="B306" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="A307" s="1">
-        <v>7423</v>
+        <v>2795</v>
       </c>
       <c r="B307" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="308" spans="1:2">
       <c r="A308" s="1">
-        <v>7492</v>
+        <v>2798</v>
       </c>
       <c r="B308" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309" s="1">
-        <v>7499</v>
+        <v>2810</v>
       </c>
       <c r="B309" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310" s="1">
-        <v>7529</v>
+        <v>2822</v>
       </c>
       <c r="B310" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="311" spans="1:2">
       <c r="A311" s="1">
-        <v>7547</v>
+        <v>2826</v>
       </c>
       <c r="B311" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="A312" s="1">
-        <v>7626</v>
+        <v>2831</v>
       </c>
       <c r="B312" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313" s="1">
-        <v>7697</v>
+        <v>2837</v>
       </c>
       <c r="B313" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="314" spans="1:2">
       <c r="A314" s="1">
-        <v>7706</v>
+        <v>2872</v>
       </c>
       <c r="B314" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="315" spans="1:2">
       <c r="A315" s="1">
-        <v>7749</v>
+        <v>2880</v>
       </c>
       <c r="B315" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="316" spans="1:2">
       <c r="A316" s="1">
-        <v>7769</v>
+        <v>2881</v>
       </c>
       <c r="B316" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317" s="1">
-        <v>7805</v>
+        <v>2911</v>
       </c>
       <c r="B317" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318" s="1">
-        <v>7825</v>
+        <v>2924</v>
       </c>
       <c r="B318" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" s="1">
-        <v>7932</v>
+        <v>2929</v>
       </c>
       <c r="B319" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="1">
-        <v>7967</v>
+        <v>2941</v>
       </c>
       <c r="B320" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="1">
-        <v>8005</v>
+        <v>2954</v>
       </c>
       <c r="B321" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="1">
-        <v>8029</v>
+        <v>2987</v>
       </c>
       <c r="B322" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="323" spans="1:2">
       <c r="A323" s="1">
-        <v>8036</v>
+        <v>2996</v>
       </c>
       <c r="B323" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" s="1">
-        <v>8037</v>
+        <v>2997</v>
       </c>
       <c r="B324" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" s="1">
-        <v>8038</v>
+        <v>3000</v>
       </c>
       <c r="B325" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" s="1">
-        <v>8058</v>
+        <v>3012</v>
       </c>
       <c r="B326" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327" s="1">
-        <v>8120</v>
+        <v>3013</v>
       </c>
       <c r="B327" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="1">
-        <v>8158</v>
+        <v>3018</v>
       </c>
       <c r="B328" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="1">
-        <v>8244</v>
+        <v>3025</v>
       </c>
       <c r="B329" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330" s="1">
-        <v>8246</v>
+        <v>3033</v>
       </c>
       <c r="B330" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" s="1">
-        <v>8247</v>
+        <v>3076</v>
       </c>
       <c r="B331" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332" s="1">
-        <v>8264</v>
+        <v>3093</v>
       </c>
       <c r="B332" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="1">
-        <v>8267</v>
+        <v>3101</v>
       </c>
       <c r="B333" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334" s="1">
-        <v>8302</v>
+        <v>3119</v>
       </c>
       <c r="B334" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335" s="1">
-        <v>8319</v>
+        <v>3167</v>
       </c>
       <c r="B335" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="336" spans="1:2">
       <c r="A336" s="1">
-        <v>8324</v>
+        <v>3214</v>
       </c>
       <c r="B336" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="337" spans="1:2">
       <c r="A337" s="1">
-        <v>8327</v>
+        <v>3217</v>
       </c>
       <c r="B337" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338" s="1">
-        <v>8348</v>
+        <v>3227</v>
       </c>
       <c r="B338" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="339" spans="1:2">
       <c r="A339" s="1">
-        <v>8368</v>
+        <v>3250</v>
       </c>
       <c r="B339" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="340" spans="1:2">
       <c r="A340" s="1">
-        <v>8395</v>
+        <v>3260</v>
       </c>
       <c r="B340" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="A341" s="1">
-        <v>8443</v>
+        <v>3308</v>
       </c>
       <c r="B341" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="342" spans="1:2">
       <c r="A342" s="1">
-        <v>8524</v>
+        <v>3343</v>
       </c>
       <c r="B342" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="343" spans="1:2">
       <c r="A343" s="1">
-        <v>8542</v>
+        <v>3350</v>
       </c>
       <c r="B343" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344" s="1">
-        <v>8604</v>
+        <v>3358</v>
       </c>
       <c r="B344" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="345" spans="1:2">
       <c r="A345" s="1">
-        <v>8624</v>
+        <v>3362</v>
       </c>
       <c r="B345" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="346" spans="1:2">
       <c r="A346" s="1">
-        <v>8653</v>
+        <v>3373</v>
       </c>
       <c r="B346" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347" s="1">
-        <v>8662</v>
+        <v>3374</v>
       </c>
       <c r="B347" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="348" spans="1:2">
       <c r="A348" s="1">
-        <v>8706</v>
+        <v>3386</v>
       </c>
       <c r="B348" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="349" spans="1:2">
       <c r="A349" s="1">
-        <v>8709</v>
+        <v>3390</v>
       </c>
       <c r="B349" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="350" spans="1:2">
       <c r="A350" s="1">
-        <v>8813</v>
+        <v>3392</v>
       </c>
       <c r="B350" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="351" spans="1:2">
       <c r="A351" s="1">
-        <v>8815</v>
+        <v>3409</v>
       </c>
       <c r="B351" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="1">
-        <v>8843</v>
+        <v>3415</v>
       </c>
       <c r="B352" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353" s="1">
-        <v>8845</v>
+        <v>3418</v>
       </c>
       <c r="B353" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="354" spans="1:2">
       <c r="A354" s="1">
-        <v>8912</v>
+        <v>3420</v>
       </c>
       <c r="B354" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="355" spans="1:2">
       <c r="A355" s="1">
-        <v>8917</v>
+        <v>3426</v>
       </c>
       <c r="B355" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="356" spans="1:2">
       <c r="A356" s="1">
-        <v>8918</v>
+        <v>3451</v>
       </c>
       <c r="B356" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="357" spans="1:2">
       <c r="A357" s="1">
-        <v>8946</v>
+        <v>3472</v>
       </c>
       <c r="B357" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="358" spans="1:2">
       <c r="A358" s="1">
-        <v>8987</v>
+        <v>3505</v>
       </c>
       <c r="B358" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="359" spans="1:2">
       <c r="A359" s="1">
-        <v>8996</v>
+        <v>3516</v>
       </c>
       <c r="B359" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="360" spans="1:2">
       <c r="A360" s="1">
-        <v>8999</v>
+        <v>3536</v>
       </c>
       <c r="B360" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="361" spans="1:2">
       <c r="A361" s="1">
-        <v>9003</v>
+        <v>3550</v>
       </c>
       <c r="B361" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="362" spans="1:2">
       <c r="A362" s="1">
-        <v>9011</v>
+        <v>3573</v>
       </c>
       <c r="B362" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="363" spans="1:2">
       <c r="A363" s="1">
-        <v>9041</v>
+        <v>3629</v>
       </c>
       <c r="B363" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="364" spans="1:2">
       <c r="A364" s="1">
-        <v>9068</v>
+        <v>3630</v>
       </c>
       <c r="B364" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="365" spans="1:2">
       <c r="A365" s="1">
-        <v>9105</v>
+        <v>3650</v>
       </c>
       <c r="B365" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="366" spans="1:2">
       <c r="A366" s="1">
-        <v>9107</v>
+        <v>3671</v>
       </c>
       <c r="B366" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="367" spans="1:2">
       <c r="A367" s="1">
-        <v>9117</v>
+        <v>3698</v>
       </c>
       <c r="B367" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368" s="1">
-        <v>9139</v>
+        <v>3702</v>
       </c>
       <c r="B368" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="369" spans="1:2">
       <c r="A369" s="1">
-        <v>9147</v>
+        <v>3756</v>
       </c>
       <c r="B369" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="370" spans="1:2">
       <c r="A370" s="1">
-        <v>9151</v>
+        <v>3763</v>
       </c>
       <c r="B370" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="371" spans="1:2">
       <c r="A371" s="1">
-        <v>9162</v>
+        <v>3768</v>
       </c>
       <c r="B371" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="372" spans="1:2">
       <c r="A372" s="1">
-        <v>9210</v>
+        <v>3771</v>
       </c>
       <c r="B372" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="373" spans="1:2">
       <c r="A373" s="1">
+        <v>3785</v>
+      </c>
+      <c r="B373" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2">
+      <c r="A374" s="1">
+        <v>3786</v>
+      </c>
+      <c r="B374" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2">
+      <c r="A375" s="1">
+        <v>3789</v>
+      </c>
+      <c r="B375" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2">
+      <c r="A376" s="1">
+        <v>3798</v>
+      </c>
+      <c r="B376" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2">
+      <c r="A377" s="1">
+        <v>3800</v>
+      </c>
+      <c r="B377" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2">
+      <c r="A378" s="1">
+        <v>3801</v>
+      </c>
+      <c r="B378" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2">
+      <c r="A379" s="1">
+        <v>3838</v>
+      </c>
+      <c r="B379" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2">
+      <c r="A380" s="1">
+        <v>3851</v>
+      </c>
+      <c r="B380" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2">
+      <c r="A381" s="1">
+        <v>3873</v>
+      </c>
+      <c r="B381" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2">
+      <c r="A382" s="1">
+        <v>3876</v>
+      </c>
+      <c r="B382" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2">
+      <c r="A383" s="1">
+        <v>3881</v>
+      </c>
+      <c r="B383" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2">
+      <c r="A384" s="1">
+        <v>3889</v>
+      </c>
+      <c r="B384" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2">
+      <c r="A385" s="1">
+        <v>3897</v>
+      </c>
+      <c r="B385" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2">
+      <c r="A386" s="1">
+        <v>3899</v>
+      </c>
+      <c r="B386" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2">
+      <c r="A387" s="1">
+        <v>3917</v>
+      </c>
+      <c r="B387" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2">
+      <c r="A388" s="1">
+        <v>3952</v>
+      </c>
+      <c r="B388" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2">
+      <c r="A389" s="1">
+        <v>3955</v>
+      </c>
+      <c r="B389" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2">
+      <c r="A390" s="1">
+        <v>3978</v>
+      </c>
+      <c r="B390" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2">
+      <c r="A391" s="1">
+        <v>3982</v>
+      </c>
+      <c r="B391" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2">
+      <c r="A392" s="1">
+        <v>3984</v>
+      </c>
+      <c r="B392" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2">
+      <c r="A393" s="1">
+        <v>3994</v>
+      </c>
+      <c r="B393" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2">
+      <c r="A394" s="1">
+        <v>3999</v>
+      </c>
+      <c r="B394" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2">
+      <c r="A395" s="1">
+        <v>4004</v>
+      </c>
+      <c r="B395" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2">
+      <c r="A396" s="1">
+        <v>4006</v>
+      </c>
+      <c r="B396" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2">
+      <c r="A397" s="1">
+        <v>4011</v>
+      </c>
+      <c r="B397" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2">
+      <c r="A398" s="1">
+        <v>4019</v>
+      </c>
+      <c r="B398" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2">
+      <c r="A399" s="1">
+        <v>4024</v>
+      </c>
+      <c r="B399" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2">
+      <c r="A400" s="1">
+        <v>4084</v>
+      </c>
+      <c r="B400" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2">
+      <c r="A401" s="1">
+        <v>4113</v>
+      </c>
+      <c r="B401" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2">
+      <c r="A402" s="1">
+        <v>4122</v>
+      </c>
+      <c r="B402" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2">
+      <c r="A403" s="1">
+        <v>4144</v>
+      </c>
+      <c r="B403" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2">
+      <c r="A404" s="1">
+        <v>4146</v>
+      </c>
+      <c r="B404" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2">
+      <c r="A405" s="1">
+        <v>4155</v>
+      </c>
+      <c r="B405" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2">
+      <c r="A406" s="1">
+        <v>4176</v>
+      </c>
+      <c r="B406" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2">
+      <c r="A407" s="1">
+        <v>4211</v>
+      </c>
+      <c r="B407" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2">
+      <c r="A408" s="1">
+        <v>4220</v>
+      </c>
+      <c r="B408" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2">
+      <c r="A409" s="1">
+        <v>4226</v>
+      </c>
+      <c r="B409" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2">
+      <c r="A410" s="1">
+        <v>4228</v>
+      </c>
+      <c r="B410" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2">
+      <c r="A411" s="1">
+        <v>4230</v>
+      </c>
+      <c r="B411" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2">
+      <c r="A412" s="1">
+        <v>4237</v>
+      </c>
+      <c r="B412" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2">
+      <c r="A413" s="1">
+        <v>4244</v>
+      </c>
+      <c r="B413" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2">
+      <c r="A414" s="1">
+        <v>4245</v>
+      </c>
+      <c r="B414" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2">
+      <c r="A415" s="1">
+        <v>4251</v>
+      </c>
+      <c r="B415" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2">
+      <c r="A416" s="1">
+        <v>4281</v>
+      </c>
+      <c r="B416" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2">
+      <c r="A417" s="1">
+        <v>4307</v>
+      </c>
+      <c r="B417" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2">
+      <c r="A418" s="1">
+        <v>4312</v>
+      </c>
+      <c r="B418" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2">
+      <c r="A419" s="1">
+        <v>4316</v>
+      </c>
+      <c r="B419" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2">
+      <c r="A420" s="1">
+        <v>4318</v>
+      </c>
+      <c r="B420" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2">
+      <c r="A421" s="1">
+        <v>4328</v>
+      </c>
+      <c r="B421" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2">
+      <c r="A422" s="1">
+        <v>4329</v>
+      </c>
+      <c r="B422" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2">
+      <c r="A423" s="1">
+        <v>4360</v>
+      </c>
+      <c r="B423" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2">
+      <c r="A424" s="1">
+        <v>4368</v>
+      </c>
+      <c r="B424" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2">
+      <c r="A425" s="1">
+        <v>4373</v>
+      </c>
+      <c r="B425" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2">
+      <c r="A426" s="1">
+        <v>4376</v>
+      </c>
+      <c r="B426" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2">
+      <c r="A427" s="1">
+        <v>4387</v>
+      </c>
+      <c r="B427" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2">
+      <c r="A428" s="1">
+        <v>4417</v>
+      </c>
+      <c r="B428" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2">
+      <c r="A429" s="1">
+        <v>4428</v>
+      </c>
+      <c r="B429" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2">
+      <c r="A430" s="1">
+        <v>4433</v>
+      </c>
+      <c r="B430" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2">
+      <c r="A431" s="1">
+        <v>4444</v>
+      </c>
+      <c r="B431" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2">
+      <c r="A432" s="1">
+        <v>4449</v>
+      </c>
+      <c r="B432" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2">
+      <c r="A433" s="1">
+        <v>4457</v>
+      </c>
+      <c r="B433" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2">
+      <c r="A434" s="1">
+        <v>4474</v>
+      </c>
+      <c r="B434" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2">
+      <c r="A435" s="1">
+        <v>4507</v>
+      </c>
+      <c r="B435" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2">
+      <c r="A436" s="1">
+        <v>4508</v>
+      </c>
+      <c r="B436" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2">
+      <c r="A437" s="1">
+        <v>4516</v>
+      </c>
+      <c r="B437" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2">
+      <c r="A438" s="1">
+        <v>4530</v>
+      </c>
+      <c r="B438" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2">
+      <c r="A439" s="1">
+        <v>4531</v>
+      </c>
+      <c r="B439" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2">
+      <c r="A440" s="1">
+        <v>4546</v>
+      </c>
+      <c r="B440" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2">
+      <c r="A441" s="1">
+        <v>4559</v>
+      </c>
+      <c r="B441" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2">
+      <c r="A442" s="1">
+        <v>4599</v>
+      </c>
+      <c r="B442" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2">
+      <c r="A443" s="1">
+        <v>4615</v>
+      </c>
+      <c r="B443" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2">
+      <c r="A444" s="1">
+        <v>4616</v>
+      </c>
+      <c r="B444" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2">
+      <c r="A445" s="1">
+        <v>4618</v>
+      </c>
+      <c r="B445" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2">
+      <c r="A446" s="1">
+        <v>4623</v>
+      </c>
+      <c r="B446" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2">
+      <c r="A447" s="1">
+        <v>4648</v>
+      </c>
+      <c r="B447" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2">
+      <c r="A448" s="1">
+        <v>4659</v>
+      </c>
+      <c r="B448" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2">
+      <c r="A449" s="1">
+        <v>4662</v>
+      </c>
+      <c r="B449" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2">
+      <c r="A450" s="1">
+        <v>4666</v>
+      </c>
+      <c r="B450" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2">
+      <c r="A451" s="1">
+        <v>4685</v>
+      </c>
+      <c r="B451" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2">
+      <c r="A452" s="1">
+        <v>4686</v>
+      </c>
+      <c r="B452" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2">
+      <c r="A453" s="1">
+        <v>4689</v>
+      </c>
+      <c r="B453" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2">
+      <c r="A454" s="1">
+        <v>4690</v>
+      </c>
+      <c r="B454" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2">
+      <c r="A455" s="1">
+        <v>4693</v>
+      </c>
+      <c r="B455" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2">
+      <c r="A456" s="1">
+        <v>4694</v>
+      </c>
+      <c r="B456" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2">
+      <c r="A457" s="1">
+        <v>4703</v>
+      </c>
+      <c r="B457" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2">
+      <c r="A458" s="1">
+        <v>4728</v>
+      </c>
+      <c r="B458" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2">
+      <c r="A459" s="1">
+        <v>4732</v>
+      </c>
+      <c r="B459" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2">
+      <c r="A460" s="1">
+        <v>4734</v>
+      </c>
+      <c r="B460" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2">
+      <c r="A461" s="1">
+        <v>4751</v>
+      </c>
+      <c r="B461" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2">
+      <c r="A462" s="1">
+        <v>4782</v>
+      </c>
+      <c r="B462" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2">
+      <c r="A463" s="1">
+        <v>4796</v>
+      </c>
+      <c r="B463" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2">
+      <c r="A464" s="1">
+        <v>4809</v>
+      </c>
+      <c r="B464" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2">
+      <c r="A465" s="1">
+        <v>4810</v>
+      </c>
+      <c r="B465" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2">
+      <c r="A466" s="1">
+        <v>4827</v>
+      </c>
+      <c r="B466" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2">
+      <c r="A467" s="1">
+        <v>4837</v>
+      </c>
+      <c r="B467" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2">
+      <c r="A468" s="1">
+        <v>4841</v>
+      </c>
+      <c r="B468" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2">
+      <c r="A469" s="1">
+        <v>4854</v>
+      </c>
+      <c r="B469" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2">
+      <c r="A470" s="1">
+        <v>4874</v>
+      </c>
+      <c r="B470" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2">
+      <c r="A471" s="1">
+        <v>4876</v>
+      </c>
+      <c r="B471" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2">
+      <c r="A472" s="1">
+        <v>4889</v>
+      </c>
+      <c r="B472" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2">
+      <c r="A473" s="1">
+        <v>4900</v>
+      </c>
+      <c r="B473" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2">
+      <c r="A474" s="1">
+        <v>4904</v>
+      </c>
+      <c r="B474" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2">
+      <c r="A475" s="1">
+        <v>4909</v>
+      </c>
+      <c r="B475" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2">
+      <c r="A476" s="1">
+        <v>4910</v>
+      </c>
+      <c r="B476" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2">
+      <c r="A477" s="1">
+        <v>4917</v>
+      </c>
+      <c r="B477" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2">
+      <c r="A478" s="1">
+        <v>4926</v>
+      </c>
+      <c r="B478" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2">
+      <c r="A479" s="1">
+        <v>4931</v>
+      </c>
+      <c r="B479" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2">
+      <c r="A480" s="1">
+        <v>4952</v>
+      </c>
+      <c r="B480" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2">
+      <c r="A481" s="1">
+        <v>4956</v>
+      </c>
+      <c r="B481" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2">
+      <c r="A482" s="1">
+        <v>4957</v>
+      </c>
+      <c r="B482" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2">
+      <c r="A483" s="1">
+        <v>4963</v>
+      </c>
+      <c r="B483" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2">
+      <c r="A484" s="1">
+        <v>4980</v>
+      </c>
+      <c r="B484" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2">
+      <c r="A485" s="1">
+        <v>4986</v>
+      </c>
+      <c r="B485" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2">
+      <c r="A486" s="1">
+        <v>4989</v>
+      </c>
+      <c r="B486" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2">
+      <c r="A487" s="1">
+        <v>5003</v>
+      </c>
+      <c r="B487" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2">
+      <c r="A488" s="1">
+        <v>5017</v>
+      </c>
+      <c r="B488" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2">
+      <c r="A489" s="1">
+        <v>5021</v>
+      </c>
+      <c r="B489" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2">
+      <c r="A490" s="1">
+        <v>5037</v>
+      </c>
+      <c r="B490" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2">
+      <c r="A491" s="1">
+        <v>5074</v>
+      </c>
+      <c r="B491" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2">
+      <c r="A492" s="1">
+        <v>5078</v>
+      </c>
+      <c r="B492" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2">
+      <c r="A493" s="1">
+        <v>5085</v>
+      </c>
+      <c r="B493" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2">
+      <c r="A494" s="1">
+        <v>5086</v>
+      </c>
+      <c r="B494" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2">
+      <c r="A495" s="1">
+        <v>5121</v>
+      </c>
+      <c r="B495" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2">
+      <c r="A496" s="1">
+        <v>5130</v>
+      </c>
+      <c r="B496" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2">
+      <c r="A497" s="1">
+        <v>5148</v>
+      </c>
+      <c r="B497" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2">
+      <c r="A498" s="1">
+        <v>5149</v>
+      </c>
+      <c r="B498" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2">
+      <c r="A499" s="1">
+        <v>5153</v>
+      </c>
+      <c r="B499" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2">
+      <c r="A500" s="1">
+        <v>5156</v>
+      </c>
+      <c r="B500" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2">
+      <c r="A501" s="1">
+        <v>5159</v>
+      </c>
+      <c r="B501" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2">
+      <c r="A502" s="1">
+        <v>5174</v>
+      </c>
+      <c r="B502" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2">
+      <c r="A503" s="1">
+        <v>5185</v>
+      </c>
+      <c r="B503" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2">
+      <c r="A504" s="1">
+        <v>5190</v>
+      </c>
+      <c r="B504" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2">
+      <c r="A505" s="1">
+        <v>5192</v>
+      </c>
+      <c r="B505" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2">
+      <c r="A506" s="1">
+        <v>5227</v>
+      </c>
+      <c r="B506" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2">
+      <c r="A507" s="1">
+        <v>5243</v>
+      </c>
+      <c r="B507" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2">
+      <c r="A508" s="1">
+        <v>5244</v>
+      </c>
+      <c r="B508" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2">
+      <c r="A509" s="1">
+        <v>5249</v>
+      </c>
+      <c r="B509" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2">
+      <c r="A510" s="1">
+        <v>5262</v>
+      </c>
+      <c r="B510" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2">
+      <c r="A511" s="1">
+        <v>5266</v>
+      </c>
+      <c r="B511" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2">
+      <c r="A512" s="1">
+        <v>5304</v>
+      </c>
+      <c r="B512" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2">
+      <c r="A513" s="1">
+        <v>5308</v>
+      </c>
+      <c r="B513" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2">
+      <c r="A514" s="1">
+        <v>5325</v>
+      </c>
+      <c r="B514" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2">
+      <c r="A515" s="1">
+        <v>5341</v>
+      </c>
+      <c r="B515" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2">
+      <c r="A516" s="1">
+        <v>5344</v>
+      </c>
+      <c r="B516" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2">
+      <c r="A517" s="1">
+        <v>5345</v>
+      </c>
+      <c r="B517" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2">
+      <c r="A518" s="1">
+        <v>5353</v>
+      </c>
+      <c r="B518" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2">
+      <c r="A519" s="1">
+        <v>5356</v>
+      </c>
+      <c r="B519" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2">
+      <c r="A520" s="1">
+        <v>5358</v>
+      </c>
+      <c r="B520" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2">
+      <c r="A521" s="1">
+        <v>5386</v>
+      </c>
+      <c r="B521" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2">
+      <c r="A522" s="1">
+        <v>5415</v>
+      </c>
+      <c r="B522" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2">
+      <c r="A523" s="1">
+        <v>5441</v>
+      </c>
+      <c r="B523" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2">
+      <c r="A524" s="1">
+        <v>5446</v>
+      </c>
+      <c r="B524" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2">
+      <c r="A525" s="1">
+        <v>5447</v>
+      </c>
+      <c r="B525" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2">
+      <c r="A526" s="1">
+        <v>5456</v>
+      </c>
+      <c r="B526" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2">
+      <c r="A527" s="1">
+        <v>5465</v>
+      </c>
+      <c r="B527" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2">
+      <c r="A528" s="1">
+        <v>5467</v>
+      </c>
+      <c r="B528" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2">
+      <c r="A529" s="1">
+        <v>5486</v>
+      </c>
+      <c r="B529" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2">
+      <c r="A530" s="1">
+        <v>5490</v>
+      </c>
+      <c r="B530" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2">
+      <c r="A531" s="1">
+        <v>5495</v>
+      </c>
+      <c r="B531" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2">
+      <c r="A532" s="1">
+        <v>5503</v>
+      </c>
+      <c r="B532" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2">
+      <c r="A533" s="1">
+        <v>5515</v>
+      </c>
+      <c r="B533" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2">
+      <c r="A534" s="1">
+        <v>5549</v>
+      </c>
+      <c r="B534" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2">
+      <c r="A535" s="1">
+        <v>5572</v>
+      </c>
+      <c r="B535" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2">
+      <c r="A536" s="1">
+        <v>5581</v>
+      </c>
+      <c r="B536" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2">
+      <c r="A537" s="1">
+        <v>5583</v>
+      </c>
+      <c r="B537" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2">
+      <c r="A538" s="1">
+        <v>5595</v>
+      </c>
+      <c r="B538" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2">
+      <c r="A539" s="1">
+        <v>5596</v>
+      </c>
+      <c r="B539" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2">
+      <c r="A540" s="1">
+        <v>5614</v>
+      </c>
+      <c r="B540" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2">
+      <c r="A541" s="1">
+        <v>5625</v>
+      </c>
+      <c r="B541" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2">
+      <c r="A542" s="1">
+        <v>5626</v>
+      </c>
+      <c r="B542" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2">
+      <c r="A543" s="1">
+        <v>5627</v>
+      </c>
+      <c r="B543" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2">
+      <c r="A544" s="1">
+        <v>5632</v>
+      </c>
+      <c r="B544" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2">
+      <c r="A545" s="1">
+        <v>5634</v>
+      </c>
+      <c r="B545" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2">
+      <c r="A546" s="1">
+        <v>5643</v>
+      </c>
+      <c r="B546" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2">
+      <c r="A547" s="1">
+        <v>5679</v>
+      </c>
+      <c r="B547" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2">
+      <c r="A548" s="1">
+        <v>5680</v>
+      </c>
+      <c r="B548" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2">
+      <c r="A549" s="1">
+        <v>5686</v>
+      </c>
+      <c r="B549" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2">
+      <c r="A550" s="1">
+        <v>5695</v>
+      </c>
+      <c r="B550" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2">
+      <c r="A551" s="1">
+        <v>5712</v>
+      </c>
+      <c r="B551" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2">
+      <c r="A552" s="1">
+        <v>5714</v>
+      </c>
+      <c r="B552" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2">
+      <c r="A553" s="1">
+        <v>5715</v>
+      </c>
+      <c r="B553" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2">
+      <c r="A554" s="1">
+        <v>5718</v>
+      </c>
+      <c r="B554" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2">
+      <c r="A555" s="1">
+        <v>5722</v>
+      </c>
+      <c r="B555" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2">
+      <c r="A556" s="1">
+        <v>5725</v>
+      </c>
+      <c r="B556" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2">
+      <c r="A557" s="1">
+        <v>5739</v>
+      </c>
+      <c r="B557" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2">
+      <c r="A558" s="1">
+        <v>5768</v>
+      </c>
+      <c r="B558" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2">
+      <c r="A559" s="1">
+        <v>5773</v>
+      </c>
+      <c r="B559" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2">
+      <c r="A560" s="1">
+        <v>5783</v>
+      </c>
+      <c r="B560" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2">
+      <c r="A561" s="1">
+        <v>5784</v>
+      </c>
+      <c r="B561" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2">
+      <c r="A562" s="1">
+        <v>5785</v>
+      </c>
+      <c r="B562" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2">
+      <c r="A563" s="1">
+        <v>5794</v>
+      </c>
+      <c r="B563" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2">
+      <c r="A564" s="1">
+        <v>5795</v>
+      </c>
+      <c r="B564" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2">
+      <c r="A565" s="1">
+        <v>5796</v>
+      </c>
+      <c r="B565" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2">
+      <c r="A566" s="1">
+        <v>5833</v>
+      </c>
+      <c r="B566" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2">
+      <c r="A567" s="1">
+        <v>5848</v>
+      </c>
+      <c r="B567" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2">
+      <c r="A568" s="1">
+        <v>5859</v>
+      </c>
+      <c r="B568" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2">
+      <c r="A569" s="1">
+        <v>5881</v>
+      </c>
+      <c r="B569" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2">
+      <c r="A570" s="1">
+        <v>5887</v>
+      </c>
+      <c r="B570" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2">
+      <c r="A571" s="1">
+        <v>5904</v>
+      </c>
+      <c r="B571" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2">
+      <c r="A572" s="1">
+        <v>5944</v>
+      </c>
+      <c r="B572" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2">
+      <c r="A573" s="1">
+        <v>5953</v>
+      </c>
+      <c r="B573" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2">
+      <c r="A574" s="1">
+        <v>5969</v>
+      </c>
+      <c r="B574" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2">
+      <c r="A575" s="1">
+        <v>5977</v>
+      </c>
+      <c r="B575" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2">
+      <c r="A576" s="1">
+        <v>5984</v>
+      </c>
+      <c r="B576" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2">
+      <c r="A577" s="1">
+        <v>5989</v>
+      </c>
+      <c r="B577" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2">
+      <c r="A578" s="1">
+        <v>6018</v>
+      </c>
+      <c r="B578" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2">
+      <c r="A579" s="1">
+        <v>6025</v>
+      </c>
+      <c r="B579" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2">
+      <c r="A580" s="1">
+        <v>6035</v>
+      </c>
+      <c r="B580" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2">
+      <c r="A581" s="1">
+        <v>6038</v>
+      </c>
+      <c r="B581" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2">
+      <c r="A582" s="1">
+        <v>6050</v>
+      </c>
+      <c r="B582" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2">
+      <c r="A583" s="1">
+        <v>6111</v>
+      </c>
+      <c r="B583" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2">
+      <c r="A584" s="1">
+        <v>6133</v>
+      </c>
+      <c r="B584" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2">
+      <c r="A585" s="1">
+        <v>6135</v>
+      </c>
+      <c r="B585" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2">
+      <c r="A586" s="1">
+        <v>6141</v>
+      </c>
+      <c r="B586" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2">
+      <c r="A587" s="1">
+        <v>6157</v>
+      </c>
+      <c r="B587" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2">
+      <c r="A588" s="1">
+        <v>6168</v>
+      </c>
+      <c r="B588" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2">
+      <c r="A589" s="1">
+        <v>6181</v>
+      </c>
+      <c r="B589" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2">
+      <c r="A590" s="1">
+        <v>6195</v>
+      </c>
+      <c r="B590" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2">
+      <c r="A591" s="1">
+        <v>6231</v>
+      </c>
+      <c r="B591" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2">
+      <c r="A592" s="1">
+        <v>6236</v>
+      </c>
+      <c r="B592" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2">
+      <c r="A593" s="1">
+        <v>6258</v>
+      </c>
+      <c r="B593" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2">
+      <c r="A594" s="1">
+        <v>6266</v>
+      </c>
+      <c r="B594" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2">
+      <c r="A595" s="1">
+        <v>6281</v>
+      </c>
+      <c r="B595" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2">
+      <c r="A596" s="1">
+        <v>6305</v>
+      </c>
+      <c r="B596" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2">
+      <c r="A597" s="1">
+        <v>6332</v>
+      </c>
+      <c r="B597" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2">
+      <c r="A598" s="1">
+        <v>6340</v>
+      </c>
+      <c r="B598" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2">
+      <c r="A599" s="1">
+        <v>6347</v>
+      </c>
+      <c r="B599" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2">
+      <c r="A600" s="1">
+        <v>6359</v>
+      </c>
+      <c r="B600" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2">
+      <c r="A601" s="1">
+        <v>6367</v>
+      </c>
+      <c r="B601" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2">
+      <c r="A602" s="1">
+        <v>6372</v>
+      </c>
+      <c r="B602" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="603" spans="1:2">
+      <c r="A603" s="1">
+        <v>6414</v>
+      </c>
+      <c r="B603" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="604" spans="1:2">
+      <c r="A604" s="1">
+        <v>6449</v>
+      </c>
+      <c r="B604" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="605" spans="1:2">
+      <c r="A605" s="1">
+        <v>6469</v>
+      </c>
+      <c r="B605" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="606" spans="1:2">
+      <c r="A606" s="1">
+        <v>6512</v>
+      </c>
+      <c r="B606" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="607" spans="1:2">
+      <c r="A607" s="1">
+        <v>6528</v>
+      </c>
+      <c r="B607" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="608" spans="1:2">
+      <c r="A608" s="1">
+        <v>6551</v>
+      </c>
+      <c r="B608" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="609" spans="1:2">
+      <c r="A609" s="1">
+        <v>6586</v>
+      </c>
+      <c r="B609" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2">
+      <c r="A610" s="1">
+        <v>6592</v>
+      </c>
+      <c r="B610" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="611" spans="1:2">
+      <c r="A611" s="1">
+        <v>6610</v>
+      </c>
+      <c r="B611" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="612" spans="1:2">
+      <c r="A612" s="1">
+        <v>6616</v>
+      </c>
+      <c r="B612" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2">
+      <c r="A613" s="1">
+        <v>6617</v>
+      </c>
+      <c r="B613" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="614" spans="1:2">
+      <c r="A614" s="1">
+        <v>6620</v>
+      </c>
+      <c r="B614" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="615" spans="1:2">
+      <c r="A615" s="1">
+        <v>6688</v>
+      </c>
+      <c r="B615" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="616" spans="1:2">
+      <c r="A616" s="1">
+        <v>6709</v>
+      </c>
+      <c r="B616" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="617" spans="1:2">
+      <c r="A617" s="1">
+        <v>6713</v>
+      </c>
+      <c r="B617" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="618" spans="1:2">
+      <c r="A618" s="1">
+        <v>6727</v>
+      </c>
+      <c r="B618" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="619" spans="1:2">
+      <c r="A619" s="1">
+        <v>6735</v>
+      </c>
+      <c r="B619" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="620" spans="1:2">
+      <c r="A620" s="1">
+        <v>6742</v>
+      </c>
+      <c r="B620" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="621" spans="1:2">
+      <c r="A621" s="1">
+        <v>6754</v>
+      </c>
+      <c r="B621" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="622" spans="1:2">
+      <c r="A622" s="1">
+        <v>6757</v>
+      </c>
+      <c r="B622" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="623" spans="1:2">
+      <c r="A623" s="1">
+        <v>6817</v>
+      </c>
+      <c r="B623" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="624" spans="1:2">
+      <c r="A624" s="1">
+        <v>6824</v>
+      </c>
+      <c r="B624" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="625" spans="1:2">
+      <c r="A625" s="1">
+        <v>6835</v>
+      </c>
+      <c r="B625" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="626" spans="1:2">
+      <c r="A626" s="1">
+        <v>6839</v>
+      </c>
+      <c r="B626" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="627" spans="1:2">
+      <c r="A627" s="1">
+        <v>6840</v>
+      </c>
+      <c r="B627" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="628" spans="1:2">
+      <c r="A628" s="1">
+        <v>6859</v>
+      </c>
+      <c r="B628" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="629" spans="1:2">
+      <c r="A629" s="1">
+        <v>6861</v>
+      </c>
+      <c r="B629" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="630" spans="1:2">
+      <c r="A630" s="1">
+        <v>6876</v>
+      </c>
+      <c r="B630" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="631" spans="1:2">
+      <c r="A631" s="1">
+        <v>6924</v>
+      </c>
+      <c r="B631" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="632" spans="1:2">
+      <c r="A632" s="1">
+        <v>6956</v>
+      </c>
+      <c r="B632" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="633" spans="1:2">
+      <c r="A633" s="1">
+        <v>6966</v>
+      </c>
+      <c r="B633" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="634" spans="1:2">
+      <c r="A634" s="1">
+        <v>6971</v>
+      </c>
+      <c r="B634" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="635" spans="1:2">
+      <c r="A635" s="1">
+        <v>6983</v>
+      </c>
+      <c r="B635" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="636" spans="1:2">
+      <c r="A636" s="1">
+        <v>6984</v>
+      </c>
+      <c r="B636" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="637" spans="1:2">
+      <c r="A637" s="1">
+        <v>6999</v>
+      </c>
+      <c r="B637" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="638" spans="1:2">
+      <c r="A638" s="1">
+        <v>7000</v>
+      </c>
+      <c r="B638" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="639" spans="1:2">
+      <c r="A639" s="1">
+        <v>7013</v>
+      </c>
+      <c r="B639" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="640" spans="1:2">
+      <c r="A640" s="1">
+        <v>7020</v>
+      </c>
+      <c r="B640" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="641" spans="1:2">
+      <c r="A641" s="1">
+        <v>7055</v>
+      </c>
+      <c r="B641" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="642" spans="1:2">
+      <c r="A642" s="1">
+        <v>7062</v>
+      </c>
+      <c r="B642" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="643" spans="1:2">
+      <c r="A643" s="1">
+        <v>7067</v>
+      </c>
+      <c r="B643" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="644" spans="1:2">
+      <c r="A644" s="1">
+        <v>7081</v>
+      </c>
+      <c r="B644" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="645" spans="1:2">
+      <c r="A645" s="1">
+        <v>7086</v>
+      </c>
+      <c r="B645" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="646" spans="1:2">
+      <c r="A646" s="1">
+        <v>7107</v>
+      </c>
+      <c r="B646" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="647" spans="1:2">
+      <c r="A647" s="1">
+        <v>7112</v>
+      </c>
+      <c r="B647" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="648" spans="1:2">
+      <c r="A648" s="1">
+        <v>7120</v>
+      </c>
+      <c r="B648" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="649" spans="1:2">
+      <c r="A649" s="1">
+        <v>7122</v>
+      </c>
+      <c r="B649" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="650" spans="1:2">
+      <c r="A650" s="1">
+        <v>7142</v>
+      </c>
+      <c r="B650" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="651" spans="1:2">
+      <c r="A651" s="1">
+        <v>7147</v>
+      </c>
+      <c r="B651" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="652" spans="1:2">
+      <c r="A652" s="1">
+        <v>7148</v>
+      </c>
+      <c r="B652" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="653" spans="1:2">
+      <c r="A653" s="1">
+        <v>7150</v>
+      </c>
+      <c r="B653" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="654" spans="1:2">
+      <c r="A654" s="1">
+        <v>7151</v>
+      </c>
+      <c r="B654" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="655" spans="1:2">
+      <c r="A655" s="1">
+        <v>7162</v>
+      </c>
+      <c r="B655" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="656" spans="1:2">
+      <c r="A656" s="1">
+        <v>7168</v>
+      </c>
+      <c r="B656" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="657" spans="1:2">
+      <c r="A657" s="1">
+        <v>7187</v>
+      </c>
+      <c r="B657" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="658" spans="1:2">
+      <c r="A658" s="1">
+        <v>7188</v>
+      </c>
+      <c r="B658" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="659" spans="1:2">
+      <c r="A659" s="1">
+        <v>7225</v>
+      </c>
+      <c r="B659" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="660" spans="1:2">
+      <c r="A660" s="1">
+        <v>7233</v>
+      </c>
+      <c r="B660" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="661" spans="1:2">
+      <c r="A661" s="1">
+        <v>7246</v>
+      </c>
+      <c r="B661" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="662" spans="1:2">
+      <c r="A662" s="1">
+        <v>7265</v>
+      </c>
+      <c r="B662" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="663" spans="1:2">
+      <c r="A663" s="1">
+        <v>7287</v>
+      </c>
+      <c r="B663" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="664" spans="1:2">
+      <c r="A664" s="1">
+        <v>7288</v>
+      </c>
+      <c r="B664" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="665" spans="1:2">
+      <c r="A665" s="1">
+        <v>7331</v>
+      </c>
+      <c r="B665" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="666" spans="1:2">
+      <c r="A666" s="1">
+        <v>7349</v>
+      </c>
+      <c r="B666" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="667" spans="1:2">
+      <c r="A667" s="1">
+        <v>7354</v>
+      </c>
+      <c r="B667" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="668" spans="1:2">
+      <c r="A668" s="1">
+        <v>7414</v>
+      </c>
+      <c r="B668" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="669" spans="1:2">
+      <c r="A669" s="1">
+        <v>7443</v>
+      </c>
+      <c r="B669" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="670" spans="1:2">
+      <c r="A670" s="1">
+        <v>7448</v>
+      </c>
+      <c r="B670" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="671" spans="1:2">
+      <c r="A671" s="1">
+        <v>7454</v>
+      </c>
+      <c r="B671" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="672" spans="1:2">
+      <c r="A672" s="1">
+        <v>7466</v>
+      </c>
+      <c r="B672" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="673" spans="1:2">
+      <c r="A673" s="1">
+        <v>7492</v>
+      </c>
+      <c r="B673" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="674" spans="1:2">
+      <c r="A674" s="1">
+        <v>7499</v>
+      </c>
+      <c r="B674" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="675" spans="1:2">
+      <c r="A675" s="1">
+        <v>7500</v>
+      </c>
+      <c r="B675" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="676" spans="1:2">
+      <c r="A676" s="1">
+        <v>7501</v>
+      </c>
+      <c r="B676" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="677" spans="1:2">
+      <c r="A677" s="1">
+        <v>7523</v>
+      </c>
+      <c r="B677" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="678" spans="1:2">
+      <c r="A678" s="1">
+        <v>7529</v>
+      </c>
+      <c r="B678" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="679" spans="1:2">
+      <c r="A679" s="1">
+        <v>7547</v>
+      </c>
+      <c r="B679" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="680" spans="1:2">
+      <c r="A680" s="1">
+        <v>7588</v>
+      </c>
+      <c r="B680" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="681" spans="1:2">
+      <c r="A681" s="1">
+        <v>7589</v>
+      </c>
+      <c r="B681" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="682" spans="1:2">
+      <c r="A682" s="1">
+        <v>7592</v>
+      </c>
+      <c r="B682" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="683" spans="1:2">
+      <c r="A683" s="1">
+        <v>7600</v>
+      </c>
+      <c r="B683" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="684" spans="1:2">
+      <c r="A684" s="1">
+        <v>7636</v>
+      </c>
+      <c r="B684" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="685" spans="1:2">
+      <c r="A685" s="1">
+        <v>7648</v>
+      </c>
+      <c r="B685" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="686" spans="1:2">
+      <c r="A686" s="1">
+        <v>7688</v>
+      </c>
+      <c r="B686" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="687" spans="1:2">
+      <c r="A687" s="1">
+        <v>7692</v>
+      </c>
+      <c r="B687" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="688" spans="1:2">
+      <c r="A688" s="1">
+        <v>7694</v>
+      </c>
+      <c r="B688" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="689" spans="1:2">
+      <c r="A689" s="1">
+        <v>7699</v>
+      </c>
+      <c r="B689" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="690" spans="1:2">
+      <c r="A690" s="1">
+        <v>7706</v>
+      </c>
+      <c r="B690" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="691" spans="1:2">
+      <c r="A691" s="1">
+        <v>7728</v>
+      </c>
+      <c r="B691" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="692" spans="1:2">
+      <c r="A692" s="1">
+        <v>7757</v>
+      </c>
+      <c r="B692" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="693" spans="1:2">
+      <c r="A693" s="1">
+        <v>7758</v>
+      </c>
+      <c r="B693" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="694" spans="1:2">
+      <c r="A694" s="1">
+        <v>7769</v>
+      </c>
+      <c r="B694" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="695" spans="1:2">
+      <c r="A695" s="1">
+        <v>7789</v>
+      </c>
+      <c r="B695" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="696" spans="1:2">
+      <c r="A696" s="1">
+        <v>7805</v>
+      </c>
+      <c r="B696" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="697" spans="1:2">
+      <c r="A697" s="1">
+        <v>7812</v>
+      </c>
+      <c r="B697" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="698" spans="1:2">
+      <c r="A698" s="1">
+        <v>7821</v>
+      </c>
+      <c r="B698" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="699" spans="1:2">
+      <c r="A699" s="1">
+        <v>7825</v>
+      </c>
+      <c r="B699" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="700" spans="1:2">
+      <c r="A700" s="1">
+        <v>7857</v>
+      </c>
+      <c r="B700" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="701" spans="1:2">
+      <c r="A701" s="1">
+        <v>7876</v>
+      </c>
+      <c r="B701" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="702" spans="1:2">
+      <c r="A702" s="1">
+        <v>7880</v>
+      </c>
+      <c r="B702" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="703" spans="1:2">
+      <c r="A703" s="1">
+        <v>7883</v>
+      </c>
+      <c r="B703" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="704" spans="1:2">
+      <c r="A704" s="1">
+        <v>7907</v>
+      </c>
+      <c r="B704" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="705" spans="1:2">
+      <c r="A705" s="1">
+        <v>7917</v>
+      </c>
+      <c r="B705" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="706" spans="1:2">
+      <c r="A706" s="1">
+        <v>7932</v>
+      </c>
+      <c r="B706" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="707" spans="1:2">
+      <c r="A707" s="1">
+        <v>7954</v>
+      </c>
+      <c r="B707" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="708" spans="1:2">
+      <c r="A708" s="1">
+        <v>8005</v>
+      </c>
+      <c r="B708" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="709" spans="1:2">
+      <c r="A709" s="1">
+        <v>8018</v>
+      </c>
+      <c r="B709" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="710" spans="1:2">
+      <c r="A710" s="1">
+        <v>8022</v>
+      </c>
+      <c r="B710" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="711" spans="1:2">
+      <c r="A711" s="1">
+        <v>8029</v>
+      </c>
+      <c r="B711" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="712" spans="1:2">
+      <c r="A712" s="1">
+        <v>8038</v>
+      </c>
+      <c r="B712" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="713" spans="1:2">
+      <c r="A713" s="1">
+        <v>8040</v>
+      </c>
+      <c r="B713" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="714" spans="1:2">
+      <c r="A714" s="1">
+        <v>8058</v>
+      </c>
+      <c r="B714" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="715" spans="1:2">
+      <c r="A715" s="1">
+        <v>8066</v>
+      </c>
+      <c r="B715" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="716" spans="1:2">
+      <c r="A716" s="1">
+        <v>8067</v>
+      </c>
+      <c r="B716" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="717" spans="1:2">
+      <c r="A717" s="1">
+        <v>8081</v>
+      </c>
+      <c r="B717" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="718" spans="1:2">
+      <c r="A718" s="1">
+        <v>8096</v>
+      </c>
+      <c r="B718" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="719" spans="1:2">
+      <c r="A719" s="1">
+        <v>8102</v>
+      </c>
+      <c r="B719" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="720" spans="1:2">
+      <c r="A720" s="1">
+        <v>8120</v>
+      </c>
+      <c r="B720" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="721" spans="1:2">
+      <c r="A721" s="1">
+        <v>8133</v>
+      </c>
+      <c r="B721" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="722" spans="1:2">
+      <c r="A722" s="1">
+        <v>8135</v>
+      </c>
+      <c r="B722" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="723" spans="1:2">
+      <c r="A723" s="1">
+        <v>8187</v>
+      </c>
+      <c r="B723" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="724" spans="1:2">
+      <c r="A724" s="1">
+        <v>8201</v>
+      </c>
+      <c r="B724" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="725" spans="1:2">
+      <c r="A725" s="1">
+        <v>8213</v>
+      </c>
+      <c r="B725" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="726" spans="1:2">
+      <c r="A726" s="1">
+        <v>8220</v>
+      </c>
+      <c r="B726" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="727" spans="1:2">
+      <c r="A727" s="1">
+        <v>8231</v>
+      </c>
+      <c r="B727" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="728" spans="1:2">
+      <c r="A728" s="1">
+        <v>8238</v>
+      </c>
+      <c r="B728" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="729" spans="1:2">
+      <c r="A729" s="1">
+        <v>8244</v>
+      </c>
+      <c r="B729" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="730" spans="1:2">
+      <c r="A730" s="1">
+        <v>8246</v>
+      </c>
+      <c r="B730" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="731" spans="1:2">
+      <c r="A731" s="1">
+        <v>8247</v>
+      </c>
+      <c r="B731" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="732" spans="1:2">
+      <c r="A732" s="1">
+        <v>8258</v>
+      </c>
+      <c r="B732" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="733" spans="1:2">
+      <c r="A733" s="1">
+        <v>8259</v>
+      </c>
+      <c r="B733" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="734" spans="1:2">
+      <c r="A734" s="1">
+        <v>8264</v>
+      </c>
+      <c r="B734" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="735" spans="1:2">
+      <c r="A735" s="1">
+        <v>8267</v>
+      </c>
+      <c r="B735" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="736" spans="1:2">
+      <c r="A736" s="1">
+        <v>8302</v>
+      </c>
+      <c r="B736" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="737" spans="1:2">
+      <c r="A737" s="1">
+        <v>8319</v>
+      </c>
+      <c r="B737" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="738" spans="1:2">
+      <c r="A738" s="1">
+        <v>8322</v>
+      </c>
+      <c r="B738" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="739" spans="1:2">
+      <c r="A739" s="1">
+        <v>8324</v>
+      </c>
+      <c r="B739" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="740" spans="1:2">
+      <c r="A740" s="1">
+        <v>8327</v>
+      </c>
+      <c r="B740" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="741" spans="1:2">
+      <c r="A741" s="1">
+        <v>8334</v>
+      </c>
+      <c r="B741" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="742" spans="1:2">
+      <c r="A742" s="1">
+        <v>8348</v>
+      </c>
+      <c r="B742" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="743" spans="1:2">
+      <c r="A743" s="1">
+        <v>8395</v>
+      </c>
+      <c r="B743" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="744" spans="1:2">
+      <c r="A744" s="1">
+        <v>8443</v>
+      </c>
+      <c r="B744" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="745" spans="1:2">
+      <c r="A745" s="1">
+        <v>8455</v>
+      </c>
+      <c r="B745" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="746" spans="1:2">
+      <c r="A746" s="1">
+        <v>8483</v>
+      </c>
+      <c r="B746" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="747" spans="1:2">
+      <c r="A747" s="1">
+        <v>8487</v>
+      </c>
+      <c r="B747" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="748" spans="1:2">
+      <c r="A748" s="1">
+        <v>8492</v>
+      </c>
+      <c r="B748" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="749" spans="1:2">
+      <c r="A749" s="1">
+        <v>8497</v>
+      </c>
+      <c r="B749" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="750" spans="1:2">
+      <c r="A750" s="1">
+        <v>8523</v>
+      </c>
+      <c r="B750" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="751" spans="1:2">
+      <c r="A751" s="1">
+        <v>8548</v>
+      </c>
+      <c r="B751" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="752" spans="1:2">
+      <c r="A752" s="1">
+        <v>8558</v>
+      </c>
+      <c r="B752" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="753" spans="1:2">
+      <c r="A753" s="1">
+        <v>8604</v>
+      </c>
+      <c r="B753" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="754" spans="1:2">
+      <c r="A754" s="1">
+        <v>8624</v>
+      </c>
+      <c r="B754" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="755" spans="1:2">
+      <c r="A755" s="1">
+        <v>8687</v>
+      </c>
+      <c r="B755" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="756" spans="1:2">
+      <c r="A756" s="1">
+        <v>8706</v>
+      </c>
+      <c r="B756" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="757" spans="1:2">
+      <c r="A757" s="1">
+        <v>8709</v>
+      </c>
+      <c r="B757" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="758" spans="1:2">
+      <c r="A758" s="1">
+        <v>8710</v>
+      </c>
+      <c r="B758" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="759" spans="1:2">
+      <c r="A759" s="1">
+        <v>8717</v>
+      </c>
+      <c r="B759" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="760" spans="1:2">
+      <c r="A760" s="1">
+        <v>8750</v>
+      </c>
+      <c r="B760" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="761" spans="1:2">
+      <c r="A761" s="1">
+        <v>8795</v>
+      </c>
+      <c r="B761" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="762" spans="1:2">
+      <c r="A762" s="1">
+        <v>8802</v>
+      </c>
+      <c r="B762" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="763" spans="1:2">
+      <c r="A763" s="1">
+        <v>8825</v>
+      </c>
+      <c r="B763" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="764" spans="1:2">
+      <c r="A764" s="1">
+        <v>8841</v>
+      </c>
+      <c r="B764" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="765" spans="1:2">
+      <c r="A765" s="1">
+        <v>8845</v>
+      </c>
+      <c r="B765" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="766" spans="1:2">
+      <c r="A766" s="1">
+        <v>8849</v>
+      </c>
+      <c r="B766" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="767" spans="1:2">
+      <c r="A767" s="1">
+        <v>8881</v>
+      </c>
+      <c r="B767" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="768" spans="1:2">
+      <c r="A768" s="1">
+        <v>8882</v>
+      </c>
+      <c r="B768" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="769" spans="1:2">
+      <c r="A769" s="1">
+        <v>8897</v>
+      </c>
+      <c r="B769" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="770" spans="1:2">
+      <c r="A770" s="1">
+        <v>8910</v>
+      </c>
+      <c r="B770" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="771" spans="1:2">
+      <c r="A771" s="1">
+        <v>8912</v>
+      </c>
+      <c r="B771" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="772" spans="1:2">
+      <c r="A772" s="1">
+        <v>8915</v>
+      </c>
+      <c r="B772" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="773" spans="1:2">
+      <c r="A773" s="1">
+        <v>8917</v>
+      </c>
+      <c r="B773" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="774" spans="1:2">
+      <c r="A774" s="1">
+        <v>8919</v>
+      </c>
+      <c r="B774" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="775" spans="1:2">
+      <c r="A775" s="1">
+        <v>8921</v>
+      </c>
+      <c r="B775" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="776" spans="1:2">
+      <c r="A776" s="1">
+        <v>8926</v>
+      </c>
+      <c r="B776" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="777" spans="1:2">
+      <c r="A777" s="1">
+        <v>8945</v>
+      </c>
+      <c r="B777" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="778" spans="1:2">
+      <c r="A778" s="1">
+        <v>8946</v>
+      </c>
+      <c r="B778" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="779" spans="1:2">
+      <c r="A779" s="1">
+        <v>8970</v>
+      </c>
+      <c r="B779" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="780" spans="1:2">
+      <c r="A780" s="1">
+        <v>8982</v>
+      </c>
+      <c r="B780" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="781" spans="1:2">
+      <c r="A781" s="1">
+        <v>8996</v>
+      </c>
+      <c r="B781" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="782" spans="1:2">
+      <c r="A782" s="1">
+        <v>8999</v>
+      </c>
+      <c r="B782" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="783" spans="1:2">
+      <c r="A783" s="1">
+        <v>9003</v>
+      </c>
+      <c r="B783" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="784" spans="1:2">
+      <c r="A784" s="1">
+        <v>9011</v>
+      </c>
+      <c r="B784" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="785" spans="1:2">
+      <c r="A785" s="1">
+        <v>9024</v>
+      </c>
+      <c r="B785" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="786" spans="1:2">
+      <c r="A786" s="1">
+        <v>9035</v>
+      </c>
+      <c r="B786" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="787" spans="1:2">
+      <c r="A787" s="1">
+        <v>9038</v>
+      </c>
+      <c r="B787" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="788" spans="1:2">
+      <c r="A788" s="1">
+        <v>9040</v>
+      </c>
+      <c r="B788" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="789" spans="1:2">
+      <c r="A789" s="1">
+        <v>9041</v>
+      </c>
+      <c r="B789" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="790" spans="1:2">
+      <c r="A790" s="1">
+        <v>9043</v>
+      </c>
+      <c r="B790" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="791" spans="1:2">
+      <c r="A791" s="1">
+        <v>9058</v>
+      </c>
+      <c r="B791" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="792" spans="1:2">
+      <c r="A792" s="1">
+        <v>9060</v>
+      </c>
+      <c r="B792" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="793" spans="1:2">
+      <c r="A793" s="1">
+        <v>9063</v>
+      </c>
+      <c r="B793" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="794" spans="1:2">
+      <c r="A794" s="1">
+        <v>9065</v>
+      </c>
+      <c r="B794" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="795" spans="1:2">
+      <c r="A795" s="1">
+        <v>9066</v>
+      </c>
+      <c r="B795" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="796" spans="1:2">
+      <c r="A796" s="1">
+        <v>9068</v>
+      </c>
+      <c r="B796" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="797" spans="1:2">
+      <c r="A797" s="1">
+        <v>9087</v>
+      </c>
+      <c r="B797" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="798" spans="1:2">
+      <c r="A798" s="1">
+        <v>9088</v>
+      </c>
+      <c r="B798" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="799" spans="1:2">
+      <c r="A799" s="1">
+        <v>9091</v>
+      </c>
+      <c r="B799" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="800" spans="1:2">
+      <c r="A800" s="1">
+        <v>9100</v>
+      </c>
+      <c r="B800" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="801" spans="1:2">
+      <c r="A801" s="1">
+        <v>9102</v>
+      </c>
+      <c r="B801" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="802" spans="1:2">
+      <c r="A802" s="1">
+        <v>9107</v>
+      </c>
+      <c r="B802" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="803" spans="1:2">
+      <c r="A803" s="1">
+        <v>9116</v>
+      </c>
+      <c r="B803" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="804" spans="1:2">
+      <c r="A804" s="1">
+        <v>9117</v>
+      </c>
+      <c r="B804" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="805" spans="1:2">
+      <c r="A805" s="1">
+        <v>9128</v>
+      </c>
+      <c r="B805" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="806" spans="1:2">
+      <c r="A806" s="1">
+        <v>9139</v>
+      </c>
+      <c r="B806" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="807" spans="1:2">
+      <c r="A807" s="1">
+        <v>9142</v>
+      </c>
+      <c r="B807" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="808" spans="1:2">
+      <c r="A808" s="1">
+        <v>9143</v>
+      </c>
+      <c r="B808" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="809" spans="1:2">
+      <c r="A809" s="1">
+        <v>9146</v>
+      </c>
+      <c r="B809" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="810" spans="1:2">
+      <c r="A810" s="1">
+        <v>9147</v>
+      </c>
+      <c r="B810" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="811" spans="1:2">
+      <c r="A811" s="1">
+        <v>9151</v>
+      </c>
+      <c r="B811" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="812" spans="1:2">
+      <c r="A812" s="1">
+        <v>9152</v>
+      </c>
+      <c r="B812" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="813" spans="1:2">
+      <c r="A813" s="1">
+        <v>9162</v>
+      </c>
+      <c r="B813" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="814" spans="1:2">
+      <c r="A814" s="1">
+        <v>9166</v>
+      </c>
+      <c r="B814" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="815" spans="1:2">
+      <c r="A815" s="1">
+        <v>9200</v>
+      </c>
+      <c r="B815" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="816" spans="1:2">
+      <c r="A816" s="1">
+        <v>9201</v>
+      </c>
+      <c r="B816" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="817" spans="1:2">
+      <c r="A817" s="1">
+        <v>9210</v>
+      </c>
+      <c r="B817" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="818" spans="1:2">
+      <c r="A818" s="1">
+        <v>9216</v>
+      </c>
+      <c r="B818" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="819" spans="1:2">
+      <c r="A819" s="1">
+        <v>9221</v>
+      </c>
+      <c r="B819" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="820" spans="1:2">
+      <c r="A820" s="1">
+        <v>9232</v>
+      </c>
+      <c r="B820" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="821" spans="1:2">
+      <c r="A821" s="1">
+        <v>9236</v>
+      </c>
+      <c r="B821" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="822" spans="1:2">
+      <c r="A822" s="1">
         <v>9239</v>
       </c>
-      <c r="B373" t="s">
-        <v>368</v>
+      <c r="B822" t="s">
+        <v>810</v>
       </c>
     </row>
   </sheetData>
